--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F496181-062B-4705-95D1-0CE39943D684}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0AE72-4E82-41A7-B6BF-7B18BDBA9411}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4962" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4964" uniqueCount="1713">
   <si>
     <t>10.1.1.0</t>
   </si>
@@ -4647,9 +4647,6 @@
     <t>172.19.90.255</t>
   </si>
   <si>
-    <t>Edge-R27</t>
-  </si>
-  <si>
     <t>AGGRSWDC1(Gi0/0)</t>
   </si>
   <si>
@@ -5177,6 +5174,15 @@
   </si>
   <si>
     <t>LIMAS_ISP2-TO-TRIADA</t>
+  </si>
+  <si>
+    <t>Edge-R27(Gi0/1.10)</t>
+  </si>
+  <si>
+    <t>Edge-R27(Gi0/1.20)</t>
+  </si>
+  <si>
+    <t>VLAN 20</t>
   </si>
 </sst>
 </file>
@@ -5669,6 +5675,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5678,7 +5730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5697,51 +5748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6120,7 +6126,7 @@
   <dimension ref="A1:U625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A594" sqref="A594:XFD599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
@@ -6140,43 +6146,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="121">
+      <c r="L1" s="125">
         <v>20210515</v>
       </c>
-      <c r="M1" s="121"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="13"/>
       <c r="L2" s="35" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="114"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="35" t="s">
         <v>1382</v>
       </c>
@@ -6360,37 +6366,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="119" t="s">
         <v>1388</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="119" t="s">
         <v>520</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -8614,7 +8620,7 @@
         <v>43</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K102" s="5"/>
       <c r="L102" s="35"/>
@@ -9571,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K143" s="5"/>
       <c r="L143" s="35"/>
@@ -9729,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K150" s="5"/>
       <c r="L150" s="35"/>
@@ -9862,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K156" s="5"/>
       <c r="L156" s="35"/>
@@ -9887,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="35"/>
@@ -10045,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K164" s="5"/>
       <c r="L164" s="35"/>
@@ -10487,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="K183" s="5"/>
       <c r="L183" s="35"/>
@@ -10512,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="K184" s="5"/>
       <c r="L184" s="35"/>
@@ -10537,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="K185" s="5"/>
       <c r="L185" s="35"/>
@@ -10645,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K190" s="5"/>
       <c r="L190" s="35"/>
@@ -10676,14 +10682,14 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K191" s="5"/>
       <c r="L191" s="35"/>
     </row>
     <row r="192" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>172</v>
@@ -10707,14 +10713,14 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K192" s="5"/>
       <c r="L192" s="35"/>
     </row>
     <row r="193" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>172</v>
@@ -10739,7 +10745,7 @@
     </row>
     <row r="194" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>172</v>
@@ -10764,7 +10770,7 @@
     </row>
     <row r="195" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>172</v>
@@ -10907,19 +10913,19 @@
       <c r="L200" s="35"/>
     </row>
     <row r="201" spans="1:21" s="11" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="126" t="s">
+      <c r="A201" s="119" t="s">
         <v>791</v>
       </c>
-      <c r="B201" s="126"/>
-      <c r="C201" s="126"/>
-      <c r="D201" s="126"/>
-      <c r="E201" s="126"/>
-      <c r="F201" s="126"/>
-      <c r="G201" s="126"/>
-      <c r="H201" s="126"/>
-      <c r="I201" s="126"/>
-      <c r="J201" s="126"/>
-      <c r="K201" s="126"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="119"/>
+      <c r="D201" s="119"/>
+      <c r="E201" s="119"/>
+      <c r="F201" s="119"/>
+      <c r="G201" s="119"/>
+      <c r="H201" s="119"/>
+      <c r="I201" s="119"/>
+      <c r="J201" s="119"/>
+      <c r="K201" s="119"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -10996,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J203"/>
       <c r="K203" s="5"/>
@@ -11032,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="J204"/>
       <c r="K204" s="5"/>
@@ -11259,7 +11265,7 @@
     </row>
     <row r="212" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B212" s="27" t="s">
         <v>172</v>
@@ -11320,19 +11326,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="126" t="s">
+      <c r="A214" s="119" t="s">
         <v>792</v>
       </c>
-      <c r="B214" s="126"/>
-      <c r="C214" s="126"/>
-      <c r="D214" s="126"/>
-      <c r="E214" s="126"/>
-      <c r="F214" s="126"/>
-      <c r="G214" s="126"/>
-      <c r="H214" s="126"/>
-      <c r="I214" s="126"/>
-      <c r="J214" s="126"/>
-      <c r="K214" s="126"/>
+      <c r="B214" s="119"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="119"/>
+      <c r="E214" s="119"/>
+      <c r="F214" s="119"/>
+      <c r="G214" s="119"/>
+      <c r="H214" s="119"/>
+      <c r="I214" s="119"/>
+      <c r="J214" s="119"/>
+      <c r="K214" s="119"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -11436,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J217"/>
       <c r="K217" s="5"/>
@@ -11466,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J218"/>
       <c r="K218" s="5"/>
@@ -11654,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J224"/>
       <c r="K224" s="5"/>
@@ -11684,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J225"/>
       <c r="K225" s="5"/>
@@ -11872,7 +11878,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J231"/>
       <c r="K231" s="5"/>
@@ -11902,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J232"/>
       <c r="K232" s="5"/>
@@ -12090,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J238"/>
       <c r="K238" s="5"/>
@@ -12120,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J239"/>
       <c r="K239" s="5"/>
@@ -12313,7 +12319,7 @@
     </row>
     <row r="246" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A246" s="27" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B246" s="27" t="s">
         <v>172</v>
@@ -12376,19 +12382,19 @@
       <c r="U247" s="14"/>
     </row>
     <row r="248" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="126" t="s">
+      <c r="A248" s="119" t="s">
         <v>793</v>
       </c>
-      <c r="B248" s="126"/>
-      <c r="C248" s="126"/>
-      <c r="D248" s="126"/>
-      <c r="E248" s="126"/>
-      <c r="F248" s="126"/>
-      <c r="G248" s="126"/>
-      <c r="H248" s="126"/>
-      <c r="I248" s="126"/>
-      <c r="J248" s="126"/>
-      <c r="K248" s="126"/>
+      <c r="B248" s="119"/>
+      <c r="C248" s="119"/>
+      <c r="D248" s="119"/>
+      <c r="E248" s="119"/>
+      <c r="F248" s="119"/>
+      <c r="G248" s="119"/>
+      <c r="H248" s="119"/>
+      <c r="I248" s="119"/>
+      <c r="J248" s="119"/>
+      <c r="K248" s="119"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -12492,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J251"/>
       <c r="K251" s="5"/>
@@ -12522,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J252"/>
       <c r="K252" s="5"/>
@@ -12710,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J258"/>
       <c r="K258" s="5"/>
@@ -12740,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J259"/>
       <c r="K259" s="5"/>
@@ -12928,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="J265"/>
       <c r="K265" s="5"/>
@@ -12958,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J266"/>
       <c r="K266" s="5"/>
@@ -13146,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J272"/>
       <c r="K272" s="5"/>
@@ -13176,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="J273"/>
       <c r="K273" s="5"/>
@@ -13367,7 +13373,7 @@
     </row>
     <row r="280" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A280" s="27" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B280" s="27" t="s">
         <v>172</v>
@@ -13430,19 +13436,19 @@
       <c r="U281" s="44"/>
     </row>
     <row r="282" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="127" t="s">
+      <c r="A282" s="122" t="s">
         <v>514</v>
       </c>
-      <c r="B282" s="127"/>
-      <c r="C282" s="127"/>
-      <c r="D282" s="127"/>
-      <c r="E282" s="127"/>
-      <c r="F282" s="127"/>
-      <c r="G282" s="127"/>
-      <c r="H282" s="127"/>
-      <c r="I282" s="127"/>
-      <c r="J282" s="127"/>
-      <c r="K282" s="127"/>
+      <c r="B282" s="122"/>
+      <c r="C282" s="122"/>
+      <c r="D282" s="122"/>
+      <c r="E282" s="122"/>
+      <c r="F282" s="122"/>
+      <c r="G282" s="122"/>
+      <c r="H282" s="122"/>
+      <c r="I282" s="122"/>
+      <c r="J282" s="122"/>
+      <c r="K282" s="122"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -13485,7 +13491,7 @@
     </row>
     <row r="284" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>31</v>
@@ -13494,13 +13500,13 @@
         <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E284" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F284" t="s">
         <v>1596</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1597</v>
       </c>
       <c r="G284">
         <v>254</v>
@@ -13510,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J284"/>
       <c r="K284" s="5"/>
@@ -13526,7 +13532,7 @@
     </row>
     <row r="285" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>31</v>
@@ -13544,7 +13550,7 @@
       <c r="G285"/>
       <c r="H285" s="4"/>
       <c r="I285" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J285">
         <v>16</v>
@@ -13556,7 +13562,7 @@
     </row>
     <row r="286" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>31</v>
@@ -13588,7 +13594,7 @@
     </row>
     <row r="287" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>31</v>
@@ -13614,7 +13620,7 @@
     </row>
     <row r="288" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>31</v>
@@ -13673,7 +13679,7 @@
     </row>
     <row r="290" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>31</v>
@@ -13703,7 +13709,7 @@
     </row>
     <row r="291" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>31</v>
@@ -13712,13 +13718,13 @@
         <v>5</v>
       </c>
       <c r="D291" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E291" t="s">
         <v>1600</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>1601</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1602</v>
       </c>
       <c r="G291">
         <v>254</v>
@@ -13728,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J291"/>
       <c r="K291" s="5"/>
@@ -13744,7 +13750,7 @@
     </row>
     <row r="292" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>31</v>
@@ -13762,7 +13768,7 @@
       <c r="G292"/>
       <c r="H292" s="4"/>
       <c r="I292" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="J292">
         <v>17</v>
@@ -13774,7 +13780,7 @@
     </row>
     <row r="293" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>31</v>
@@ -13806,7 +13812,7 @@
     </row>
     <row r="294" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>31</v>
@@ -13832,7 +13838,7 @@
     </row>
     <row r="295" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>31</v>
@@ -13891,7 +13897,7 @@
     </row>
     <row r="297" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>31</v>
@@ -13921,7 +13927,7 @@
     </row>
     <row r="298" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A298" s="27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B298" s="27" t="s">
         <v>31</v>
@@ -13930,13 +13936,13 @@
         <v>5</v>
       </c>
       <c r="D298" s="27" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E298" s="27" t="s">
         <v>1612</v>
       </c>
-      <c r="E298" s="27" t="s">
+      <c r="F298" s="27" t="s">
         <v>1613</v>
-      </c>
-      <c r="F298" s="27" t="s">
-        <v>1614</v>
       </c>
       <c r="G298" s="27">
         <v>254</v>
@@ -13983,7 +13989,7 @@
     </row>
     <row r="300" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A300" s="27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B300" s="27" t="s">
         <v>31</v>
@@ -13992,13 +13998,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="27" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E300" s="27" t="s">
         <v>1604</v>
       </c>
-      <c r="E300" s="27" t="s">
+      <c r="F300" s="27" t="s">
         <v>1605</v>
-      </c>
-      <c r="F300" s="27" t="s">
-        <v>1606</v>
       </c>
       <c r="G300" s="27">
         <v>254</v>
@@ -14051,19 +14057,19 @@
       <c r="L302" s="35"/>
     </row>
     <row r="303" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="124" t="s">
+      <c r="A303" s="118" t="s">
         <v>515</v>
       </c>
-      <c r="B303" s="124"/>
-      <c r="C303" s="124"/>
-      <c r="D303" s="124"/>
-      <c r="E303" s="124"/>
-      <c r="F303" s="124"/>
-      <c r="G303" s="124"/>
-      <c r="H303" s="124"/>
-      <c r="I303" s="124"/>
-      <c r="J303" s="124"/>
-      <c r="K303" s="124"/>
+      <c r="B303" s="118"/>
+      <c r="C303" s="118"/>
+      <c r="D303" s="118"/>
+      <c r="E303" s="118"/>
+      <c r="F303" s="118"/>
+      <c r="G303" s="118"/>
+      <c r="H303" s="118"/>
+      <c r="I303" s="118"/>
+      <c r="J303" s="118"/>
+      <c r="K303" s="118"/>
       <c r="L303" s="35"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14107,19 +14113,19 @@
       <c r="L306" s="35"/>
     </row>
     <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="124" t="s">
+      <c r="A307" s="118" t="s">
         <v>895</v>
       </c>
-      <c r="B307" s="124"/>
-      <c r="C307" s="124"/>
-      <c r="D307" s="124"/>
-      <c r="E307" s="124"/>
-      <c r="F307" s="124"/>
-      <c r="G307" s="124"/>
-      <c r="H307" s="124"/>
-      <c r="I307" s="124"/>
-      <c r="J307" s="124"/>
-      <c r="K307" s="124"/>
+      <c r="B307" s="118"/>
+      <c r="C307" s="118"/>
+      <c r="D307" s="118"/>
+      <c r="E307" s="118"/>
+      <c r="F307" s="118"/>
+      <c r="G307" s="118"/>
+      <c r="H307" s="118"/>
+      <c r="I307" s="118"/>
+      <c r="J307" s="118"/>
+      <c r="K307" s="118"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14366,20 +14372,20 @@
       <c r="T313" s="14"/>
       <c r="U313" s="14"/>
     </row>
-    <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A314" s="125" t="s">
+    <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="123" t="s">
         <v>896</v>
       </c>
-      <c r="B314" s="124"/>
-      <c r="C314" s="124"/>
-      <c r="D314" s="124"/>
-      <c r="E314" s="124"/>
-      <c r="F314" s="124"/>
-      <c r="G314" s="124"/>
-      <c r="H314" s="124"/>
-      <c r="I314" s="124"/>
-      <c r="J314" s="124"/>
-      <c r="K314" s="124"/>
+      <c r="B314" s="118"/>
+      <c r="C314" s="118"/>
+      <c r="D314" s="118"/>
+      <c r="E314" s="118"/>
+      <c r="F314" s="118"/>
+      <c r="G314" s="118"/>
+      <c r="H314" s="118"/>
+      <c r="I314" s="118"/>
+      <c r="J314" s="118"/>
+      <c r="K314" s="118"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14740,20 +14746,20 @@
       <c r="T323" s="14"/>
       <c r="U323" s="14"/>
     </row>
-    <row r="324" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A324" s="124" t="s">
+    <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="118" t="s">
         <v>960</v>
       </c>
-      <c r="B324" s="124"/>
-      <c r="C324" s="124"/>
-      <c r="D324" s="124"/>
-      <c r="E324" s="124"/>
-      <c r="F324" s="124"/>
-      <c r="G324" s="124"/>
-      <c r="H324" s="124"/>
-      <c r="I324" s="124"/>
-      <c r="J324" s="124"/>
-      <c r="K324" s="124"/>
+      <c r="B324" s="118"/>
+      <c r="C324" s="118"/>
+      <c r="D324" s="118"/>
+      <c r="E324" s="118"/>
+      <c r="F324" s="118"/>
+      <c r="G324" s="118"/>
+      <c r="H324" s="118"/>
+      <c r="I324" s="118"/>
+      <c r="J324" s="118"/>
+      <c r="K324" s="118"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15177,19 +15183,19 @@
       <c r="U334" s="14"/>
     </row>
     <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="124" t="s">
+      <c r="A335" s="118" t="s">
         <v>1013</v>
       </c>
-      <c r="B335" s="124"/>
-      <c r="C335" s="124"/>
-      <c r="D335" s="124"/>
-      <c r="E335" s="124"/>
-      <c r="F335" s="124"/>
-      <c r="G335" s="124"/>
-      <c r="H335" s="124"/>
-      <c r="I335" s="124"/>
-      <c r="J335" s="124"/>
-      <c r="K335" s="124"/>
+      <c r="B335" s="118"/>
+      <c r="C335" s="118"/>
+      <c r="D335" s="118"/>
+      <c r="E335" s="118"/>
+      <c r="F335" s="118"/>
+      <c r="G335" s="118"/>
+      <c r="H335" s="118"/>
+      <c r="I335" s="118"/>
+      <c r="J335" s="118"/>
+      <c r="K335" s="118"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15657,19 +15663,19 @@
       <c r="U347" s="44"/>
     </row>
     <row r="348" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="123" t="s">
+      <c r="A348" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="B348" s="123"/>
-      <c r="C348" s="123"/>
-      <c r="D348" s="123"/>
-      <c r="E348" s="123"/>
-      <c r="F348" s="123"/>
-      <c r="G348" s="123"/>
-      <c r="H348" s="123"/>
-      <c r="I348" s="123"/>
-      <c r="J348" s="123"/>
-      <c r="K348" s="114"/>
+      <c r="B348" s="120"/>
+      <c r="C348" s="120"/>
+      <c r="D348" s="120"/>
+      <c r="E348" s="120"/>
+      <c r="F348" s="120"/>
+      <c r="G348" s="120"/>
+      <c r="H348" s="120"/>
+      <c r="I348" s="120"/>
+      <c r="J348" s="120"/>
+      <c r="K348" s="121"/>
       <c r="L348" s="35" t="s">
         <v>1383</v>
       </c>
@@ -15841,35 +15847,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="126" t="s">
+      <c r="A357" s="119" t="s">
         <v>516</v>
       </c>
-      <c r="B357" s="126"/>
-      <c r="C357" s="126"/>
-      <c r="D357" s="126"/>
-      <c r="E357" s="126"/>
-      <c r="F357" s="126"/>
-      <c r="G357" s="126"/>
-      <c r="H357" s="126"/>
-      <c r="I357" s="126"/>
-      <c r="J357" s="126"/>
-      <c r="K357" s="126"/>
+      <c r="B357" s="119"/>
+      <c r="C357" s="119"/>
+      <c r="D357" s="119"/>
+      <c r="E357" s="119"/>
+      <c r="F357" s="119"/>
+      <c r="G357" s="119"/>
+      <c r="H357" s="119"/>
+      <c r="I357" s="119"/>
+      <c r="J357" s="119"/>
+      <c r="K357" s="119"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="126" t="s">
+      <c r="A358" s="119" t="s">
         <v>1214</v>
       </c>
-      <c r="B358" s="126"/>
-      <c r="C358" s="126"/>
-      <c r="D358" s="126"/>
-      <c r="E358" s="126"/>
-      <c r="F358" s="126"/>
-      <c r="G358" s="126"/>
-      <c r="H358" s="126"/>
-      <c r="I358" s="126"/>
-      <c r="J358" s="126"/>
-      <c r="K358" s="126"/>
+      <c r="B358" s="119"/>
+      <c r="C358" s="119"/>
+      <c r="D358" s="119"/>
+      <c r="E358" s="119"/>
+      <c r="F358" s="119"/>
+      <c r="G358" s="119"/>
+      <c r="H358" s="119"/>
+      <c r="I358" s="119"/>
+      <c r="J358" s="119"/>
+      <c r="K358" s="119"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15961,7 +15967,7 @@
       <c r="G361"/>
       <c r="H361" s="4"/>
       <c r="I361" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J361"/>
       <c r="K361" s="5"/>
@@ -16306,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="J374"/>
       <c r="K374"/>
@@ -16329,7 +16335,7 @@
         <v>43</v>
       </c>
       <c r="I375" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="L375" s="35"/>
       <c r="U375" s="35"/>
@@ -16351,7 +16357,7 @@
         <v>43</v>
       </c>
       <c r="I376" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="L376" s="35"/>
       <c r="M376" s="35"/>
@@ -16475,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="L381" s="35"/>
       <c r="O381" s="35"/>
@@ -16504,7 +16510,7 @@
       </c>
       <c r="H382"/>
       <c r="I382" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="L382" s="35"/>
     </row>
@@ -16526,7 +16532,7 @@
       </c>
       <c r="H383"/>
       <c r="I383" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="L383" s="35"/>
     </row>
@@ -17168,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K409" s="5"/>
       <c r="L409" s="35"/>
@@ -17191,7 +17197,7 @@
         <v>43</v>
       </c>
       <c r="I410" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K410" s="5"/>
       <c r="L410" s="35"/>
@@ -17213,7 +17219,7 @@
         <v>43</v>
       </c>
       <c r="I411" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K411" s="5"/>
       <c r="L411" s="35"/>
@@ -17321,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K416" s="5"/>
       <c r="L416" s="35"/>
@@ -17343,7 +17349,7 @@
         <v>43</v>
       </c>
       <c r="I417" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K417" s="5"/>
       <c r="L417" s="35"/>
@@ -17365,7 +17371,7 @@
         <v>43</v>
       </c>
       <c r="I418" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K418" s="5"/>
       <c r="L418" s="35"/>
@@ -17495,7 +17501,7 @@
         <v>43</v>
       </c>
       <c r="I424" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K424" s="5"/>
       <c r="L424" s="35"/>
@@ -17517,7 +17523,7 @@
         <v>43</v>
       </c>
       <c r="I425" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="K425" s="5"/>
       <c r="L425" s="35"/>
@@ -17647,7 +17653,7 @@
         <v>43</v>
       </c>
       <c r="I431" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K431" s="5"/>
       <c r="L431" s="35"/>
@@ -17669,7 +17675,7 @@
         <v>43</v>
       </c>
       <c r="I432" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K432" s="5"/>
       <c r="L432" s="35"/>
@@ -17861,19 +17867,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="126" t="s">
+      <c r="A441" s="119" t="s">
         <v>1311</v>
       </c>
-      <c r="B441" s="126"/>
-      <c r="C441" s="126"/>
-      <c r="D441" s="126"/>
-      <c r="E441" s="126"/>
-      <c r="F441" s="126"/>
-      <c r="G441" s="126"/>
-      <c r="H441" s="126"/>
-      <c r="I441" s="126"/>
-      <c r="J441" s="126"/>
-      <c r="K441" s="126"/>
+      <c r="B441" s="119"/>
+      <c r="C441" s="119"/>
+      <c r="D441" s="119"/>
+      <c r="E441" s="119"/>
+      <c r="F441" s="119"/>
+      <c r="G441" s="119"/>
+      <c r="H441" s="119"/>
+      <c r="I441" s="119"/>
+      <c r="J441" s="119"/>
+      <c r="K441" s="119"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -17912,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="J442"/>
       <c r="K442" s="5"/>
@@ -17946,7 +17952,7 @@
       <c r="G443"/>
       <c r="H443" s="4"/>
       <c r="I443" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J443"/>
       <c r="K443" s="5"/>
@@ -18138,19 +18144,19 @@
       <c r="U449" s="14"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="126" t="s">
+      <c r="A450" s="119" t="s">
         <v>1321</v>
       </c>
-      <c r="B450" s="126"/>
-      <c r="C450" s="126"/>
-      <c r="D450" s="126"/>
-      <c r="E450" s="126"/>
-      <c r="F450" s="126"/>
-      <c r="G450" s="126"/>
-      <c r="H450" s="126"/>
-      <c r="I450" s="126"/>
-      <c r="J450" s="126"/>
-      <c r="K450" s="126"/>
+      <c r="B450" s="119"/>
+      <c r="C450" s="119"/>
+      <c r="D450" s="119"/>
+      <c r="E450" s="119"/>
+      <c r="F450" s="119"/>
+      <c r="G450" s="119"/>
+      <c r="H450" s="119"/>
+      <c r="I450" s="119"/>
+      <c r="J450" s="119"/>
+      <c r="K450" s="119"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18168,51 +18174,51 @@
       <c r="L451" s="35"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="128" t="s">
+      <c r="A452" s="124" t="s">
         <v>517</v>
       </c>
-      <c r="B452" s="128"/>
-      <c r="C452" s="128"/>
-      <c r="D452" s="128"/>
-      <c r="E452" s="128"/>
-      <c r="F452" s="128"/>
-      <c r="G452" s="128"/>
-      <c r="H452" s="128"/>
-      <c r="I452" s="128"/>
-      <c r="J452" s="128"/>
-      <c r="K452" s="128"/>
+      <c r="B452" s="124"/>
+      <c r="C452" s="124"/>
+      <c r="D452" s="124"/>
+      <c r="E452" s="124"/>
+      <c r="F452" s="124"/>
+      <c r="G452" s="124"/>
+      <c r="H452" s="124"/>
+      <c r="I452" s="124"/>
+      <c r="J452" s="124"/>
+      <c r="K452" s="124"/>
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="127" t="s">
+      <c r="A453" s="122" t="s">
         <v>518</v>
       </c>
-      <c r="B453" s="127"/>
-      <c r="C453" s="127"/>
-      <c r="D453" s="127"/>
-      <c r="E453" s="127"/>
-      <c r="F453" s="127"/>
-      <c r="G453" s="127"/>
-      <c r="H453" s="127"/>
-      <c r="I453" s="127"/>
-      <c r="J453" s="127"/>
-      <c r="K453" s="127"/>
+      <c r="B453" s="122"/>
+      <c r="C453" s="122"/>
+      <c r="D453" s="122"/>
+      <c r="E453" s="122"/>
+      <c r="F453" s="122"/>
+      <c r="G453" s="122"/>
+      <c r="H453" s="122"/>
+      <c r="I453" s="122"/>
+      <c r="J453" s="122"/>
+      <c r="K453" s="122"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="124" t="s">
+      <c r="A454" s="118" t="s">
         <v>519</v>
       </c>
-      <c r="B454" s="124"/>
-      <c r="C454" s="124"/>
-      <c r="D454" s="124"/>
-      <c r="E454" s="124"/>
-      <c r="F454" s="124"/>
-      <c r="G454" s="124"/>
-      <c r="H454" s="124"/>
-      <c r="I454" s="124"/>
-      <c r="J454" s="124"/>
-      <c r="K454" s="124"/>
+      <c r="B454" s="118"/>
+      <c r="C454" s="118"/>
+      <c r="D454" s="118"/>
+      <c r="E454" s="118"/>
+      <c r="F454" s="118"/>
+      <c r="G454" s="118"/>
+      <c r="H454" s="118"/>
+      <c r="I454" s="118"/>
+      <c r="J454" s="118"/>
+      <c r="K454" s="118"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18272,19 +18278,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="124" t="s">
+      <c r="A462" s="118" t="s">
         <v>1073</v>
       </c>
-      <c r="B462" s="124"/>
-      <c r="C462" s="124"/>
-      <c r="D462" s="124"/>
-      <c r="E462" s="124"/>
-      <c r="F462" s="124"/>
-      <c r="G462" s="124"/>
-      <c r="H462" s="124"/>
-      <c r="I462" s="124"/>
-      <c r="J462" s="124"/>
-      <c r="K462" s="124"/>
+      <c r="B462" s="118"/>
+      <c r="C462" s="118"/>
+      <c r="D462" s="118"/>
+      <c r="E462" s="118"/>
+      <c r="F462" s="118"/>
+      <c r="G462" s="118"/>
+      <c r="H462" s="118"/>
+      <c r="I462" s="118"/>
+      <c r="J462" s="118"/>
+      <c r="K462" s="118"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18540,19 +18546,19 @@
       <c r="U468" s="14"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="125" t="s">
+      <c r="A469" s="123" t="s">
         <v>1098</v>
       </c>
-      <c r="B469" s="124"/>
-      <c r="C469" s="124"/>
-      <c r="D469" s="124"/>
-      <c r="E469" s="124"/>
-      <c r="F469" s="124"/>
-      <c r="G469" s="124"/>
-      <c r="H469" s="124"/>
-      <c r="I469" s="124"/>
-      <c r="J469" s="124"/>
-      <c r="K469" s="124"/>
+      <c r="B469" s="118"/>
+      <c r="C469" s="118"/>
+      <c r="D469" s="118"/>
+      <c r="E469" s="118"/>
+      <c r="F469" s="118"/>
+      <c r="G469" s="118"/>
+      <c r="H469" s="118"/>
+      <c r="I469" s="118"/>
+      <c r="J469" s="118"/>
+      <c r="K469" s="118"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18892,19 +18898,19 @@
       <c r="U477" s="14"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="124" t="s">
+      <c r="A478" s="118" t="s">
         <v>1131</v>
       </c>
-      <c r="B478" s="124"/>
-      <c r="C478" s="124"/>
-      <c r="D478" s="124"/>
-      <c r="E478" s="124"/>
-      <c r="F478" s="124"/>
-      <c r="G478" s="124"/>
-      <c r="H478" s="124"/>
-      <c r="I478" s="124"/>
-      <c r="J478" s="124"/>
-      <c r="K478" s="124"/>
+      <c r="B478" s="118"/>
+      <c r="C478" s="118"/>
+      <c r="D478" s="118"/>
+      <c r="E478" s="118"/>
+      <c r="F478" s="118"/>
+      <c r="G478" s="118"/>
+      <c r="H478" s="118"/>
+      <c r="I478" s="118"/>
+      <c r="J478" s="118"/>
+      <c r="K478" s="118"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19328,19 +19334,19 @@
       <c r="U488" s="14"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="124" t="s">
+      <c r="A489" s="118" t="s">
         <v>1172</v>
       </c>
-      <c r="B489" s="124"/>
-      <c r="C489" s="124"/>
-      <c r="D489" s="124"/>
-      <c r="E489" s="124"/>
-      <c r="F489" s="124"/>
-      <c r="G489" s="124"/>
-      <c r="H489" s="124"/>
-      <c r="I489" s="124"/>
-      <c r="J489" s="124"/>
-      <c r="K489" s="124"/>
+      <c r="B489" s="118"/>
+      <c r="C489" s="118"/>
+      <c r="D489" s="118"/>
+      <c r="E489" s="118"/>
+      <c r="F489" s="118"/>
+      <c r="G489" s="118"/>
+      <c r="H489" s="118"/>
+      <c r="I489" s="118"/>
+      <c r="J489" s="118"/>
+      <c r="K489" s="118"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19808,19 +19814,19 @@
       <c r="U501" s="44"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="123" t="s">
+      <c r="A502" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="B502" s="123"/>
-      <c r="C502" s="123"/>
-      <c r="D502" s="123"/>
-      <c r="E502" s="123"/>
-      <c r="F502" s="123"/>
-      <c r="G502" s="123"/>
-      <c r="H502" s="123"/>
-      <c r="I502" s="123"/>
-      <c r="J502" s="123"/>
-      <c r="K502" s="114"/>
+      <c r="B502" s="120"/>
+      <c r="C502" s="120"/>
+      <c r="D502" s="120"/>
+      <c r="E502" s="120"/>
+      <c r="F502" s="120"/>
+      <c r="G502" s="120"/>
+      <c r="H502" s="120"/>
+      <c r="I502" s="120"/>
+      <c r="J502" s="120"/>
+      <c r="K502" s="121"/>
       <c r="L502" s="35" t="s">
         <v>1384</v>
       </c>
@@ -20028,19 +20034,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="126" t="s">
+      <c r="A512" s="119" t="s">
         <v>1352</v>
       </c>
-      <c r="B512" s="126"/>
-      <c r="C512" s="126"/>
-      <c r="D512" s="126"/>
-      <c r="E512" s="126"/>
-      <c r="F512" s="126"/>
-      <c r="G512" s="126"/>
-      <c r="H512" s="126"/>
-      <c r="I512" s="126"/>
-      <c r="J512" s="126"/>
-      <c r="K512" s="126"/>
+      <c r="B512" s="119"/>
+      <c r="C512" s="119"/>
+      <c r="D512" s="119"/>
+      <c r="E512" s="119"/>
+      <c r="F512" s="119"/>
+      <c r="G512" s="119"/>
+      <c r="H512" s="119"/>
+      <c r="I512" s="119"/>
+      <c r="J512" s="119"/>
+      <c r="K512" s="119"/>
       <c r="L512" s="35"/>
     </row>
     <row r="513" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20398,51 +20404,51 @@
       <c r="L523" s="35"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="128" t="s">
+      <c r="A524" s="124" t="s">
         <v>1391</v>
       </c>
-      <c r="B524" s="128"/>
-      <c r="C524" s="128"/>
-      <c r="D524" s="128"/>
-      <c r="E524" s="128"/>
-      <c r="F524" s="128"/>
-      <c r="G524" s="128"/>
-      <c r="H524" s="128"/>
-      <c r="I524" s="128"/>
-      <c r="J524" s="128"/>
-      <c r="K524" s="128"/>
+      <c r="B524" s="124"/>
+      <c r="C524" s="124"/>
+      <c r="D524" s="124"/>
+      <c r="E524" s="124"/>
+      <c r="F524" s="124"/>
+      <c r="G524" s="124"/>
+      <c r="H524" s="124"/>
+      <c r="I524" s="124"/>
+      <c r="J524" s="124"/>
+      <c r="K524" s="124"/>
       <c r="L524" s="35"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="127" t="s">
+      <c r="A525" s="122" t="s">
         <v>1392</v>
       </c>
-      <c r="B525" s="127"/>
-      <c r="C525" s="127"/>
-      <c r="D525" s="127"/>
-      <c r="E525" s="127"/>
-      <c r="F525" s="127"/>
-      <c r="G525" s="127"/>
-      <c r="H525" s="127"/>
-      <c r="I525" s="127"/>
-      <c r="J525" s="127"/>
-      <c r="K525" s="127"/>
+      <c r="B525" s="122"/>
+      <c r="C525" s="122"/>
+      <c r="D525" s="122"/>
+      <c r="E525" s="122"/>
+      <c r="F525" s="122"/>
+      <c r="G525" s="122"/>
+      <c r="H525" s="122"/>
+      <c r="I525" s="122"/>
+      <c r="J525" s="122"/>
+      <c r="K525" s="122"/>
       <c r="L525" s="35"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="124" t="s">
+      <c r="A526" s="118" t="s">
         <v>1393</v>
       </c>
-      <c r="B526" s="124"/>
-      <c r="C526" s="124"/>
-      <c r="D526" s="124"/>
-      <c r="E526" s="124"/>
-      <c r="F526" s="124"/>
-      <c r="G526" s="124"/>
-      <c r="H526" s="124"/>
-      <c r="I526" s="124"/>
-      <c r="J526" s="124"/>
-      <c r="K526" s="124"/>
+      <c r="B526" s="118"/>
+      <c r="C526" s="118"/>
+      <c r="D526" s="118"/>
+      <c r="E526" s="118"/>
+      <c r="F526" s="118"/>
+      <c r="G526" s="118"/>
+      <c r="H526" s="118"/>
+      <c r="I526" s="118"/>
+      <c r="J526" s="118"/>
+      <c r="K526" s="118"/>
       <c r="L526" s="35"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20502,19 +20508,19 @@
       <c r="L533" s="35"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="124" t="s">
+      <c r="A534" s="118" t="s">
         <v>1394</v>
       </c>
-      <c r="B534" s="124"/>
-      <c r="C534" s="124"/>
-      <c r="D534" s="124"/>
-      <c r="E534" s="124"/>
-      <c r="F534" s="124"/>
-      <c r="G534" s="124"/>
-      <c r="H534" s="124"/>
-      <c r="I534" s="124"/>
-      <c r="J534" s="124"/>
-      <c r="K534" s="124"/>
+      <c r="B534" s="118"/>
+      <c r="C534" s="118"/>
+      <c r="D534" s="118"/>
+      <c r="E534" s="118"/>
+      <c r="F534" s="118"/>
+      <c r="G534" s="118"/>
+      <c r="H534" s="118"/>
+      <c r="I534" s="118"/>
+      <c r="J534" s="118"/>
+      <c r="K534" s="118"/>
       <c r="L534" s="35"/>
     </row>
     <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -20770,19 +20776,19 @@
       <c r="U540" s="14"/>
     </row>
     <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="125" t="s">
+      <c r="A541" s="123" t="s">
         <v>1419</v>
       </c>
-      <c r="B541" s="124"/>
-      <c r="C541" s="124"/>
-      <c r="D541" s="124"/>
-      <c r="E541" s="124"/>
-      <c r="F541" s="124"/>
-      <c r="G541" s="124"/>
-      <c r="H541" s="124"/>
-      <c r="I541" s="124"/>
-      <c r="J541" s="124"/>
-      <c r="K541" s="124"/>
+      <c r="B541" s="118"/>
+      <c r="C541" s="118"/>
+      <c r="D541" s="118"/>
+      <c r="E541" s="118"/>
+      <c r="F541" s="118"/>
+      <c r="G541" s="118"/>
+      <c r="H541" s="118"/>
+      <c r="I541" s="118"/>
+      <c r="J541" s="118"/>
+      <c r="K541" s="118"/>
       <c r="L541" s="35"/>
     </row>
     <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21122,19 +21128,19 @@
       <c r="U549" s="14"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="124" t="s">
+      <c r="A550" s="118" t="s">
         <v>1452</v>
       </c>
-      <c r="B550" s="124"/>
-      <c r="C550" s="124"/>
-      <c r="D550" s="124"/>
-      <c r="E550" s="124"/>
-      <c r="F550" s="124"/>
-      <c r="G550" s="124"/>
-      <c r="H550" s="124"/>
-      <c r="I550" s="124"/>
-      <c r="J550" s="124"/>
-      <c r="K550" s="124"/>
+      <c r="B550" s="118"/>
+      <c r="C550" s="118"/>
+      <c r="D550" s="118"/>
+      <c r="E550" s="118"/>
+      <c r="F550" s="118"/>
+      <c r="G550" s="118"/>
+      <c r="H550" s="118"/>
+      <c r="I550" s="118"/>
+      <c r="J550" s="118"/>
+      <c r="K550" s="118"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21558,19 +21564,19 @@
       <c r="U560" s="14"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="124" t="s">
+      <c r="A561" s="118" t="s">
         <v>1493</v>
       </c>
-      <c r="B561" s="124"/>
-      <c r="C561" s="124"/>
-      <c r="D561" s="124"/>
-      <c r="E561" s="124"/>
-      <c r="F561" s="124"/>
-      <c r="G561" s="124"/>
-      <c r="H561" s="124"/>
-      <c r="I561" s="124"/>
-      <c r="J561" s="124"/>
-      <c r="K561" s="124"/>
+      <c r="B561" s="118"/>
+      <c r="C561" s="118"/>
+      <c r="D561" s="118"/>
+      <c r="E561" s="118"/>
+      <c r="F561" s="118"/>
+      <c r="G561" s="118"/>
+      <c r="H561" s="118"/>
+      <c r="I561" s="118"/>
+      <c r="J561" s="118"/>
+      <c r="K561" s="118"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -22038,24 +22044,24 @@
       <c r="U573" s="44"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="123" t="s">
+      <c r="A574" s="120" t="s">
         <v>513</v>
       </c>
-      <c r="B574" s="123"/>
-      <c r="C574" s="123"/>
-      <c r="D574" s="123"/>
-      <c r="E574" s="123"/>
-      <c r="F574" s="123"/>
-      <c r="G574" s="123"/>
-      <c r="H574" s="123"/>
-      <c r="I574" s="123"/>
-      <c r="J574" s="123"/>
-      <c r="K574" s="114"/>
+      <c r="B574" s="120"/>
+      <c r="C574" s="120"/>
+      <c r="D574" s="120"/>
+      <c r="E574" s="120"/>
+      <c r="F574" s="120"/>
+      <c r="G574" s="120"/>
+      <c r="H574" s="120"/>
+      <c r="I574" s="120"/>
+      <c r="J574" s="120"/>
+      <c r="K574" s="121"/>
       <c r="L574" s="35" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="575" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>67</v>
       </c>
@@ -22091,7 +22097,7 @@
       </c>
       <c r="L575" s="35"/>
     </row>
-    <row r="576" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="G576" s="5"/>
       <c r="I576" t="s">
         <v>51</v>
@@ -22118,7 +22124,7 @@
       <c r="S576" s="50"/>
       <c r="T576" s="45"/>
     </row>
-    <row r="577" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G577" s="5"/>
       <c r="I577" t="s">
         <v>55</v>
@@ -22143,7 +22149,7 @@
       <c r="S577" s="48"/>
       <c r="T577" s="51"/>
     </row>
-    <row r="578" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B578" s="6"/>
       <c r="G578" s="5"/>
       <c r="I578" t="s">
@@ -22169,7 +22175,7 @@
       <c r="S578" s="47"/>
       <c r="T578" s="52"/>
     </row>
-    <row r="579" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B579" s="6"/>
       <c r="G579" s="5"/>
       <c r="J579" s="7"/>
@@ -22190,7 +22196,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="580" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B580" s="6"/>
       <c r="G580" s="5"/>
       <c r="J580" s="7"/>
@@ -22209,7 +22215,7 @@
       <c r="S580" s="50"/>
       <c r="T580" s="45"/>
     </row>
-    <row r="581" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B581" s="6"/>
       <c r="G581" s="5"/>
       <c r="J581" s="7"/>
@@ -22224,7 +22230,7 @@
       <c r="S581" s="48"/>
       <c r="T581" s="51"/>
     </row>
-    <row r="582" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B582" s="6"/>
       <c r="G582" s="5"/>
       <c r="J582" s="7"/>
@@ -22239,7 +22245,7 @@
       <c r="S582" s="47"/>
       <c r="T582" s="52"/>
     </row>
-    <row r="583" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B583" s="6"/>
       <c r="G583" s="5"/>
       <c r="J583" s="7"/>
@@ -22258,23 +22264,23 @@
         <v>255</v>
       </c>
     </row>
-    <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="126" t="s">
+    <row r="584" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="119" t="s">
         <v>1353</v>
       </c>
-      <c r="B584" s="126"/>
-      <c r="C584" s="126"/>
-      <c r="D584" s="126"/>
-      <c r="E584" s="126"/>
-      <c r="F584" s="126"/>
-      <c r="G584" s="126"/>
-      <c r="H584" s="126"/>
-      <c r="I584" s="126"/>
-      <c r="J584" s="126"/>
-      <c r="K584" s="126"/>
+      <c r="B584" s="119"/>
+      <c r="C584" s="119"/>
+      <c r="D584" s="119"/>
+      <c r="E584" s="119"/>
+      <c r="F584" s="119"/>
+      <c r="G584" s="119"/>
+      <c r="H584" s="119"/>
+      <c r="I584" s="119"/>
+      <c r="J584" s="119"/>
+      <c r="K584" s="119"/>
       <c r="L584" s="35"/>
     </row>
-    <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:20" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>67</v>
       </c>
@@ -22310,7 +22316,7 @@
       </c>
       <c r="L585" s="35"/>
     </row>
-    <row r="586" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:20" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1354</v>
       </c>
@@ -22336,10 +22342,13 @@
         <f>SUM(H587:H592)</f>
         <v>0</v>
       </c>
+      <c r="I586" t="s">
+        <v>1336</v>
+      </c>
       <c r="K586" s="5"/>
       <c r="L586" s="35"/>
     </row>
-    <row r="587" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1355</v>
       </c>
@@ -22356,12 +22365,15 @@
         <v>43</v>
       </c>
       <c r="I587" t="s">
-        <v>1534</v>
+        <v>1710</v>
+      </c>
+      <c r="J587">
+        <v>10</v>
       </c>
       <c r="K587" s="5"/>
       <c r="L587" s="35"/>
     </row>
-    <row r="588" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1358</v>
       </c>
@@ -22380,10 +22392,13 @@
       <c r="I588" t="s">
         <v>1334</v>
       </c>
+      <c r="J588">
+        <v>10</v>
+      </c>
       <c r="K588" s="5"/>
       <c r="L588" s="35"/>
     </row>
-    <row r="589" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1359</v>
       </c>
@@ -22399,13 +22414,10 @@
       <c r="E589" t="s">
         <v>43</v>
       </c>
-      <c r="I589" t="s">
-        <v>1335</v>
-      </c>
       <c r="K589" s="5"/>
       <c r="L589" s="35"/>
     </row>
-    <row r="590" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1360</v>
       </c>
@@ -22424,7 +22436,7 @@
       <c r="K590" s="5"/>
       <c r="L590" s="35"/>
     </row>
-    <row r="591" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1361</v>
       </c>
@@ -22443,7 +22455,7 @@
       <c r="K591" s="5"/>
       <c r="L591" s="35"/>
     </row>
-    <row r="592" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1356</v>
       </c>
@@ -22462,183 +22474,191 @@
       <c r="K592" s="5"/>
       <c r="L592" s="35"/>
     </row>
-    <row r="593" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="27" t="s">
+    <row r="593" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A593" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="B593" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C593" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D593" s="27" t="s">
+      <c r="B593" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D593" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="E593" s="27" t="s">
+      <c r="E593" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="F593" s="27" t="s">
+      <c r="F593" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="G593" s="27">
+      <c r="G593" s="5">
         <v>6</v>
       </c>
-      <c r="H593" s="27">
+      <c r="H593" s="5">
         <v>0</v>
       </c>
-      <c r="I593" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J593" s="27"/>
-      <c r="K593" s="27"/>
+      <c r="I593" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J593" s="5"/>
+      <c r="K593" s="5"/>
       <c r="L593" s="35"/>
     </row>
-    <row r="594" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A594" s="27" t="s">
+    <row r="594" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A594" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="B594" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C594" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D594" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E594" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F594" s="27"/>
-      <c r="G594" s="27"/>
-      <c r="H594" s="27"/>
-      <c r="I594" s="27"/>
-      <c r="J594" s="27"/>
-      <c r="K594" s="27"/>
+      <c r="B594" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F594" s="5"/>
+      <c r="G594" s="5"/>
+      <c r="H594" s="5"/>
+      <c r="I594" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J594" s="5">
+        <v>20</v>
+      </c>
+      <c r="K594" s="5"/>
       <c r="L594" s="35"/>
     </row>
-    <row r="595" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A595" s="27" t="s">
+    <row r="595" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A595" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="B595" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C595" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D595" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E595" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F595" s="27"/>
-      <c r="G595" s="27"/>
-      <c r="H595" s="27"/>
-      <c r="I595" s="27"/>
-      <c r="J595" s="27"/>
-      <c r="K595" s="27"/>
+      <c r="B595" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F595" s="5"/>
+      <c r="G595" s="5"/>
+      <c r="H595" s="5"/>
+      <c r="I595" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J595" s="5">
+        <v>20</v>
+      </c>
+      <c r="K595" s="5"/>
       <c r="L595" s="35"/>
     </row>
-    <row r="596" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A596" s="27" t="s">
+    <row r="596" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A596" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="B596" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C596" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D596" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E596" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F596" s="27"/>
-      <c r="G596" s="27"/>
-      <c r="H596" s="27"/>
-      <c r="I596" s="27"/>
-      <c r="J596" s="27"/>
-      <c r="K596" s="27"/>
+      <c r="B596" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F596" s="5"/>
+      <c r="G596" s="5"/>
+      <c r="H596" s="5"/>
+      <c r="I596" s="5"/>
+      <c r="J596" s="5"/>
+      <c r="K596" s="5"/>
       <c r="L596" s="35"/>
     </row>
-    <row r="597" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A597" s="27" t="s">
+    <row r="597" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A597" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="B597" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C597" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D597" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E597" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F597" s="27"/>
-      <c r="G597" s="27"/>
-      <c r="H597" s="27"/>
-      <c r="I597" s="27"/>
-      <c r="J597" s="27"/>
-      <c r="K597" s="27"/>
+      <c r="B597" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E597" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F597" s="5"/>
+      <c r="G597" s="5"/>
+      <c r="H597" s="5"/>
+      <c r="I597" s="5"/>
+      <c r="J597" s="5"/>
+      <c r="K597" s="5"/>
       <c r="L597" s="35"/>
     </row>
-    <row r="598" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A598" s="27" t="s">
+    <row r="598" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A598" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="B598" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C598" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D598" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E598" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F598" s="27"/>
-      <c r="G598" s="27"/>
-      <c r="H598" s="27"/>
-      <c r="I598" s="27"/>
-      <c r="J598" s="27"/>
-      <c r="K598" s="27"/>
+      <c r="B598" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F598" s="5"/>
+      <c r="G598" s="5"/>
+      <c r="H598" s="5"/>
+      <c r="I598" s="5"/>
+      <c r="J598" s="5"/>
+      <c r="K598" s="5"/>
       <c r="L598" s="35"/>
     </row>
-    <row r="599" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A599" s="27" t="s">
+    <row r="599" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A599" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="B599" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C599" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D599" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E599" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F599" s="27"/>
-      <c r="G599" s="27"/>
-      <c r="H599" s="27"/>
-      <c r="I599" s="27"/>
-      <c r="J599" s="27"/>
-      <c r="K599" s="27"/>
+      <c r="B599" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F599" s="5"/>
+      <c r="G599" s="5"/>
+      <c r="H599" s="5"/>
+      <c r="I599" s="5"/>
+      <c r="J599" s="5"/>
+      <c r="K599" s="5"/>
       <c r="L599" s="35"/>
     </row>
-    <row r="600" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A600" s="27" t="s">
         <v>1370</v>
       </c>
@@ -22670,7 +22690,7 @@
       <c r="K600" s="27"/>
       <c r="L600" s="35"/>
     </row>
-    <row r="601" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A601" s="27" t="s">
         <v>1371</v>
       </c>
@@ -22694,7 +22714,7 @@
       <c r="K601" s="27"/>
       <c r="L601" s="35"/>
     </row>
-    <row r="602" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A602" s="27" t="s">
         <v>1374</v>
       </c>
@@ -22718,7 +22738,7 @@
       <c r="K602" s="27"/>
       <c r="L602" s="35"/>
     </row>
-    <row r="603" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A603" s="27" t="s">
         <v>1375</v>
       </c>
@@ -22742,7 +22762,7 @@
       <c r="K603" s="27"/>
       <c r="L603" s="35"/>
     </row>
-    <row r="604" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A604" s="27" t="s">
         <v>1376</v>
       </c>
@@ -22766,7 +22786,7 @@
       <c r="K604" s="27"/>
       <c r="L604" s="35"/>
     </row>
-    <row r="605" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A605" s="27" t="s">
         <v>1377</v>
       </c>
@@ -22790,7 +22810,7 @@
       <c r="K605" s="27"/>
       <c r="L605" s="35"/>
     </row>
-    <row r="606" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A606" s="27" t="s">
         <v>1372</v>
       </c>
@@ -22814,7 +22834,7 @@
       <c r="K606" s="27"/>
       <c r="L606" s="35"/>
     </row>
-    <row r="607" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A607" s="27" t="s">
         <v>43</v>
       </c>
@@ -22844,7 +22864,7 @@
       <c r="K607" s="27"/>
       <c r="L607" s="35"/>
     </row>
-    <row r="608" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A608" s="27" t="s">
         <v>1378</v>
       </c>
@@ -22876,27 +22896,27 @@
       <c r="K608" s="27"/>
       <c r="L608" s="35"/>
     </row>
-    <row r="609" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>43</v>
       </c>
       <c r="C609" s="104"/>
       <c r="D609" s="104"/>
     </row>
-    <row r="610" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="123" t="s">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A610" s="120" t="s">
         <v>1387</v>
       </c>
-      <c r="B610" s="123"/>
-      <c r="C610" s="123"/>
-      <c r="D610" s="123"/>
-      <c r="E610" s="123"/>
-      <c r="F610" s="123"/>
-      <c r="G610" s="123"/>
-      <c r="H610" s="123"/>
-      <c r="I610" s="123"/>
-      <c r="J610" s="123"/>
-      <c r="K610" s="114"/>
+      <c r="B610" s="120"/>
+      <c r="C610" s="120"/>
+      <c r="D610" s="120"/>
+      <c r="E610" s="120"/>
+      <c r="F610" s="120"/>
+      <c r="G610" s="120"/>
+      <c r="H610" s="120"/>
+      <c r="I610" s="120"/>
+      <c r="J610" s="120"/>
+      <c r="K610" s="121"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
@@ -23016,6 +23036,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A454:K454"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A469:K469"/>
+    <mergeCell ref="A478:K478"/>
+    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A441:K441"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A348:K348"/>
+    <mergeCell ref="A502:K502"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A324:K324"/>
+    <mergeCell ref="A335:K335"/>
+    <mergeCell ref="A358:K358"/>
     <mergeCell ref="A307:K307"/>
     <mergeCell ref="A450:K450"/>
     <mergeCell ref="A610:K610"/>
@@ -23032,28 +23074,6 @@
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A201:K201"/>
     <mergeCell ref="A214:K214"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A314:K314"/>
-    <mergeCell ref="A324:K324"/>
-    <mergeCell ref="A335:K335"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A441:K441"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A348:K348"/>
-    <mergeCell ref="A502:K502"/>
-    <mergeCell ref="A574:K574"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A454:K454"/>
-    <mergeCell ref="A462:K462"/>
-    <mergeCell ref="A469:K469"/>
-    <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A489:K489"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23082,40 +23102,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="129" t="s">
-        <v>1620</v>
-      </c>
-      <c r="M1" s="121"/>
+      <c r="L1" s="128" t="s">
+        <v>1619</v>
+      </c>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
@@ -23133,10 +23153,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="55"/>
-      <c r="O3" s="131">
+      <c r="O3" s="111">
         <v>32</v>
       </c>
-      <c r="P3" s="132"/>
+      <c r="P3" s="112"/>
       <c r="Q3" s="16">
         <v>128</v>
       </c>
@@ -23162,8 +23182,8 @@
       <c r="N4" s="57">
         <v>15</v>
       </c>
-      <c r="O4" s="133"/>
-      <c r="P4" s="134">
+      <c r="O4" s="113"/>
+      <c r="P4" s="114">
         <v>47</v>
       </c>
       <c r="Q4" s="19"/>
@@ -23187,10 +23207,10 @@
         <v>16</v>
       </c>
       <c r="N5" s="55"/>
-      <c r="O5" s="131">
+      <c r="O5" s="111">
         <v>48</v>
       </c>
-      <c r="P5" s="132"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="46"/>
       <c r="S5" s="47"/>
@@ -23210,12 +23230,12 @@
       <c r="J6"/>
       <c r="K6" s="5"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136">
+      <c r="M6" s="115"/>
+      <c r="N6" s="116">
         <v>31</v>
       </c>
-      <c r="O6" s="135"/>
-      <c r="P6" s="137">
+      <c r="O6" s="115"/>
+      <c r="P6" s="117">
         <v>63</v>
       </c>
       <c r="Q6" s="42"/>
@@ -23314,19 +23334,19 @@
       <c r="U10" s="110"/>
     </row>
     <row r="11" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
+      <c r="A11" s="119" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="35"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
@@ -23380,7 +23400,7 @@
         <v>137</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>151</v>
@@ -23393,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="J13" s="83"/>
       <c r="K13" s="83" t="s">
@@ -23416,7 +23436,7 @@
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
@@ -23437,14 +23457,14 @@
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
       <c r="I15" s="83" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
     </row>
     <row r="16" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B16" s="83" t="s">
         <v>32</v>
@@ -23555,7 +23575,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F21" s="83" t="s">
         <v>153</v>
@@ -23591,7 +23611,7 @@
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
       <c r="I22" s="83" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
@@ -23612,14 +23632,14 @@
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
       <c r="I23" s="83" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B24" s="83" t="s">
         <v>32</v>
@@ -23699,7 +23719,7 @@
     </row>
     <row r="28" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A28" s="83" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B28" s="83" t="s">
         <v>32</v>
@@ -23730,10 +23750,10 @@
         <v>149</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G29" s="83">
         <v>15</v>
@@ -23743,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J29" s="83"/>
       <c r="K29" s="83" t="s">
@@ -23766,7 +23786,7 @@
       <c r="G30" s="83"/>
       <c r="H30" s="83"/>
       <c r="I30" s="83" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83"/>
@@ -23787,14 +23807,14 @@
       <c r="G31" s="83"/>
       <c r="H31" s="83"/>
       <c r="I31" s="83" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J31" s="83"/>
       <c r="K31" s="83"/>
     </row>
     <row r="32" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A32" s="83" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B32" s="83" t="s">
         <v>32</v>
@@ -23874,7 +23894,7 @@
     </row>
     <row r="36" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A36" s="83" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B36" s="83" t="s">
         <v>32</v>
@@ -23893,7 +23913,7 @@
     </row>
     <row r="37" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B37" s="83" t="s">
         <v>32</v>
@@ -23902,13 +23922,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F37" s="83" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G37" s="83">
         <v>15</v>
@@ -23918,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="83" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="83" t="s">
@@ -23927,7 +23947,7 @@
     </row>
     <row r="38" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B38" s="83" t="s">
         <v>32</v>
@@ -23941,14 +23961,14 @@
       <c r="G38" s="83"/>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J38" s="83"/>
       <c r="K38" s="83"/>
     </row>
     <row r="39" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A39" s="83" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B39" s="83" t="s">
         <v>32</v>
@@ -23962,14 +23982,14 @@
       <c r="G39" s="83"/>
       <c r="H39" s="83"/>
       <c r="I39" s="83" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
     </row>
     <row r="40" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A40" s="83" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>32</v>
@@ -23988,7 +24008,7 @@
     </row>
     <row r="41" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B41" s="83" t="s">
         <v>32</v>
@@ -24007,7 +24027,7 @@
     </row>
     <row r="42" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B42" s="83" t="s">
         <v>32</v>
@@ -24026,7 +24046,7 @@
     </row>
     <row r="43" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A43" s="83" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B43" s="83" t="s">
         <v>43</v>
@@ -24049,7 +24069,7 @@
     </row>
     <row r="44" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A44" s="83" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>32</v>
@@ -24080,19 +24100,19 @@
       <c r="K45" s="83"/>
     </row>
     <row r="46" spans="1:14" s="110" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
+      <c r="A46" s="118" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
       <c r="L46" s="35"/>
       <c r="M46"/>
       <c r="N46" s="6"/>
@@ -24134,7 +24154,7 @@
     </row>
     <row r="48" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>123</v>
@@ -24143,13 +24163,13 @@
         <v>124</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>1670</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>1671</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G48" s="6">
         <v>2</v>
@@ -24159,16 +24179,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>123</v>
@@ -24182,14 +24202,14 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>123</v>
@@ -24203,14 +24223,14 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>123</v>
@@ -24219,13 +24239,13 @@
         <v>124</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>1674</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>1675</v>
       </c>
       <c r="G51" s="6">
         <v>2</v>
@@ -24235,16 +24255,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>123</v>
@@ -24258,14 +24278,14 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>123</v>
@@ -24279,14 +24299,14 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>123</v>
@@ -24295,13 +24315,13 @@
         <v>124</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G54" s="6">
         <v>2</v>
@@ -24311,16 +24331,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>123</v>
@@ -24334,14 +24354,14 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>123</v>
@@ -24355,14 +24375,14 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>123</v>
@@ -24371,13 +24391,13 @@
         <v>124</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G57" s="6">
         <v>2</v>
@@ -24387,16 +24407,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>123</v>
@@ -24410,14 +24430,14 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>123</v>
@@ -24431,14 +24451,14 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>123</v>
@@ -24447,13 +24467,13 @@
         <v>124</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G60" s="6">
         <v>2</v>
@@ -24463,15 +24483,15 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K60" s="35" t="s">
         <v>1664</v>
-      </c>
-      <c r="K60" s="35" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>123</v>
@@ -24485,7 +24505,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J61">
         <v>110</v>
@@ -24494,7 +24514,7 @@
     </row>
     <row r="62" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>123</v>
@@ -24508,7 +24528,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J62">
         <v>110</v>
@@ -24517,7 +24537,7 @@
     </row>
     <row r="63" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>123</v>
@@ -24526,13 +24546,13 @@
         <v>124</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G63" s="6">
         <v>2</v>
@@ -24542,15 +24562,15 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>123</v>
@@ -24564,7 +24584,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J64">
         <v>120</v>
@@ -24573,7 +24593,7 @@
     </row>
     <row r="65" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>123</v>
@@ -24587,7 +24607,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J65">
         <v>120</v>
@@ -24596,7 +24616,7 @@
     </row>
     <row r="66" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>123</v>
@@ -24605,13 +24625,13 @@
         <v>124</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G66" s="6">
         <v>2</v>
@@ -24621,16 +24641,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="67" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>123</v>
@@ -24644,14 +24664,14 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>123</v>
@@ -24665,14 +24685,14 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>123</v>
@@ -24681,13 +24701,13 @@
         <v>124</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G69" s="6">
         <v>2</v>
@@ -24702,7 +24722,7 @@
     </row>
     <row r="70" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>123</v>
@@ -24744,7 +24764,7 @@
     </row>
     <row r="72" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>123</v>
@@ -24769,34 +24789,34 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="130" t="s">
+      <c r="A74" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="130"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="127"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
       <c r="K74" s="9"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="122" t="s">
+      <c r="A75" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
       <c r="K75" s="10"/>
       <c r="L75"/>
     </row>
@@ -24837,7 +24857,7 @@
     </row>
     <row r="77" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>123</v>
@@ -24846,13 +24866,13 @@
         <v>124</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>1670</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>1671</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G77" s="6">
         <v>2</v>
@@ -24862,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="78" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>123</v>
@@ -24885,14 +24905,14 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>123</v>
@@ -24906,7 +24926,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -24918,34 +24938,34 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="130" t="s">
+      <c r="A81" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="130"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
       <c r="K81" s="9"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="122" t="s">
+      <c r="A82" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="122"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="126"/>
       <c r="K82" s="10"/>
       <c r="L82"/>
     </row>
@@ -24986,7 +25006,7 @@
     </row>
     <row r="84" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>123</v>
@@ -24995,13 +25015,13 @@
         <v>124</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E84" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>1674</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>1675</v>
       </c>
       <c r="G84" s="6">
         <v>2</v>
@@ -25011,16 +25031,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="85" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>123</v>
@@ -25034,14 +25054,14 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>123</v>
@@ -25055,7 +25075,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -25066,35 +25086,35 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="130" t="s">
+      <c r="A88" s="127" t="s">
         <v>1330</v>
       </c>
-      <c r="B88" s="130"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="130"/>
-      <c r="J88" s="130"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
       <c r="K88" s="9"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="122" t="s">
+      <c r="A89" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="122"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="122"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="122"/>
+      <c r="B89" s="126"/>
+      <c r="C89" s="126"/>
+      <c r="D89" s="126"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="126"/>
+      <c r="G89" s="126"/>
+      <c r="H89" s="126"/>
+      <c r="I89" s="126"/>
+      <c r="J89" s="126"/>
       <c r="K89" s="10"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -25205,35 +25225,35 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="130" t="s">
+      <c r="A94" s="127" t="s">
         <v>1331</v>
       </c>
-      <c r="B94" s="130"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="127"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
       <c r="K94" s="9"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
     <row r="95" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="122" t="s">
+      <c r="A95" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="122"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="126"/>
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="126"/>
+      <c r="H95" s="126"/>
+      <c r="I95" s="126"/>
+      <c r="J95" s="126"/>
       <c r="K95" s="10"/>
       <c r="L95"/>
       <c r="M95"/>
@@ -25275,7 +25295,7 @@
     </row>
     <row r="97" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>123</v>
@@ -25284,13 +25304,13 @@
         <v>124</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G97" s="6">
         <v>2</v>
@@ -25300,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="98" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>123</v>
@@ -25323,14 +25343,14 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>123</v>
@@ -25344,14 +25364,14 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>123</v>
@@ -25360,13 +25380,13 @@
         <v>124</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G100" s="6">
         <v>2</v>
@@ -25376,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="101" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>123</v>
@@ -25399,14 +25419,14 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>123</v>
@@ -25420,7 +25440,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -25439,35 +25459,35 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="130" t="s">
+      <c r="A104" s="127" t="s">
         <v>1332</v>
       </c>
-      <c r="B104" s="130"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="130"/>
-      <c r="F104" s="130"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="130"/>
-      <c r="J104" s="130"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="127"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="127"/>
       <c r="K104" s="9"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="122" t="s">
+      <c r="A105" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="122"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
-      <c r="F105" s="122"/>
-      <c r="G105" s="122"/>
-      <c r="H105" s="122"/>
-      <c r="I105" s="122"/>
-      <c r="J105" s="122"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="126"/>
+      <c r="G105" s="126"/>
+      <c r="H105" s="126"/>
+      <c r="I105" s="126"/>
+      <c r="J105" s="126"/>
       <c r="K105" s="10"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -25509,7 +25529,7 @@
     </row>
     <row r="107" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>123</v>
@@ -25518,13 +25538,13 @@
         <v>124</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G107" s="6">
         <v>2</v>
@@ -25534,15 +25554,15 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K107" s="35" t="s">
         <v>1664</v>
-      </c>
-      <c r="K107" s="35" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="108" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>123</v>
@@ -25556,7 +25576,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J108">
         <v>110</v>
@@ -25565,7 +25585,7 @@
     </row>
     <row r="109" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>123</v>
@@ -25579,7 +25599,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J109">
         <v>110</v>
@@ -25588,7 +25608,7 @@
     </row>
     <row r="110" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>123</v>
@@ -25597,13 +25617,13 @@
         <v>124</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G110" s="6">
         <v>2</v>
@@ -25613,15 +25633,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K110" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="111" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>123</v>
@@ -25635,7 +25655,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J111">
         <v>120</v>
@@ -25644,7 +25664,7 @@
     </row>
     <row r="112" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>123</v>
@@ -25658,7 +25678,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J112">
         <v>120</v>
@@ -25667,35 +25687,35 @@
     </row>
     <row r="113" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="130" t="s">
+      <c r="A114" s="127" t="s">
         <v>1333</v>
       </c>
-      <c r="B114" s="130"/>
-      <c r="C114" s="130"/>
-      <c r="D114" s="130"/>
-      <c r="E114" s="130"/>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
       <c r="K114" s="9"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
     <row r="115" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="122" t="s">
+      <c r="A115" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="B115" s="122"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="122"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
+      <c r="B115" s="126"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="126"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="126"/>
+      <c r="H115" s="126"/>
+      <c r="I115" s="126"/>
+      <c r="J115" s="126"/>
       <c r="K115" s="10"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -25737,7 +25757,7 @@
     </row>
     <row r="117" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>123</v>
@@ -25746,13 +25766,13 @@
         <v>124</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G117" s="6">
         <v>2</v>
@@ -25762,16 +25782,16 @@
         <v>0</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="118" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>123</v>
@@ -25785,14 +25805,14 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>123</v>
@@ -25806,7 +25826,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -25819,11 +25839,6 @@
     <row r="121" spans="1:13" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A81:J81"/>
@@ -25836,6 +25851,11 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -25888,40 +25908,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="129" t="s">
+      <c r="L1" s="128" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="121"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -25996,18 +26016,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="120" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="33"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -29123,18 +29143,18 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="123" t="s">
+      <c r="A112" s="120" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="123"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="123"/>
-      <c r="G112" s="123"/>
-      <c r="H112" s="123"/>
-      <c r="I112" s="123"/>
-      <c r="J112" s="123"/>
+      <c r="B112" s="120"/>
+      <c r="C112" s="120"/>
+      <c r="D112" s="120"/>
+      <c r="E112" s="120"/>
+      <c r="F112" s="120"/>
+      <c r="G112" s="120"/>
+      <c r="H112" s="120"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="120"/>
       <c r="K112" s="33"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -29493,18 +29513,18 @@
       <c r="N126" s="6"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="122" t="s">
+      <c r="A128" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="122"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="126"/>
+      <c r="E128" s="126"/>
+      <c r="F128" s="126"/>
+      <c r="G128" s="126"/>
+      <c r="H128" s="126"/>
+      <c r="I128" s="126"/>
+      <c r="J128" s="126"/>
       <c r="K128" s="10"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -30010,18 +30030,18 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="122" t="s">
+      <c r="A153" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="B153" s="122"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="122"/>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="122"/>
-      <c r="I153" s="122"/>
-      <c r="J153" s="122"/>
+      <c r="B153" s="126"/>
+      <c r="C153" s="126"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="126"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="126"/>
+      <c r="J153" s="126"/>
       <c r="K153" s="10"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -30285,18 +30305,18 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="122" t="s">
+      <c r="A168" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="B168" s="122"/>
-      <c r="C168" s="122"/>
-      <c r="D168" s="122"/>
-      <c r="E168" s="122"/>
-      <c r="F168" s="122"/>
-      <c r="G168" s="122"/>
-      <c r="H168" s="122"/>
-      <c r="I168" s="122"/>
-      <c r="J168" s="122"/>
+      <c r="B168" s="126"/>
+      <c r="C168" s="126"/>
+      <c r="D168" s="126"/>
+      <c r="E168" s="126"/>
+      <c r="F168" s="126"/>
+      <c r="G168" s="126"/>
+      <c r="H168" s="126"/>
+      <c r="I168" s="126"/>
+      <c r="J168" s="126"/>
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -30712,10 +30732,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="121" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="114"/>
+      <c r="B23" s="121"/>
       <c r="C23" t="s">
         <v>422</v>
       </c>
@@ -30798,7 +30818,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="129" t="s">
         <v>483</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -30811,8 +30831,8 @@
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
-      <c r="B31" s="115" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="132" t="s">
         <v>428</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -30826,8 +30846,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="19" t="s">
         <v>427</v>
       </c>
@@ -30839,8 +30859,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="112"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="42" t="s">
         <v>427</v>
       </c>
@@ -30852,7 +30872,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="112"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="21" t="s">
         <v>431</v>
       </c>
@@ -30863,7 +30883,7 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="21" t="s">
         <v>432</v>
       </c>
@@ -30874,7 +30894,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="135" t="s">
         <v>426</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -30889,7 +30909,7 @@
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="119"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="37" t="s">
         <v>503</v>
       </c>
@@ -30900,7 +30920,7 @@
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="119"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="37" t="s">
         <v>505</v>
       </c>
@@ -30911,7 +30931,7 @@
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="120"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="38" t="s">
         <v>506</v>
       </c>
@@ -30922,7 +30942,7 @@
       <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="129" t="s">
         <v>499</v>
       </c>
       <c r="B40" s="37" t="s">
@@ -30935,8 +30955,8 @@
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="112"/>
-      <c r="B41" s="115" t="s">
+      <c r="A41" s="130"/>
+      <c r="B41" s="132" t="s">
         <v>435</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -30950,8 +30970,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="112"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="19" t="s">
         <v>495</v>
       </c>
@@ -30963,8 +30983,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="112"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="42" t="s">
         <v>495</v>
       </c>
@@ -30976,7 +30996,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
+      <c r="A44" s="130"/>
       <c r="B44" s="37" t="s">
         <v>484</v>
       </c>
@@ -30987,7 +31007,7 @@
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="112"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="37" t="s">
         <v>43</v>
       </c>
@@ -31000,7 +31020,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="113"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="38" t="s">
         <v>485</v>
       </c>
@@ -31011,7 +31031,7 @@
       <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="129" t="s">
         <v>500</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -31024,8 +31044,8 @@
       <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="115" t="s">
+      <c r="A48" s="130"/>
+      <c r="B48" s="132" t="s">
         <v>437</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -31039,8 +31059,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="116"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="20" t="s">
         <v>501</v>
       </c>
@@ -31052,8 +31072,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="112"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="22" t="s">
         <v>501</v>
       </c>
@@ -31065,8 +31085,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
-      <c r="B51" s="111" t="s">
+      <c r="A51" s="130"/>
+      <c r="B51" s="129" t="s">
         <v>498</v>
       </c>
       <c r="C51" s="17"/>
@@ -31078,8 +31098,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
         <v>440</v>
@@ -31089,8 +31109,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20" t="s">
         <v>442</v>
@@ -31100,8 +31120,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
         <v>444</v>
@@ -31111,8 +31131,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
         <v>446</v>
@@ -31122,8 +31142,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
         <v>43</v>
@@ -31133,8 +31153,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="112"/>
-      <c r="B57" s="113"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22" t="s">
         <v>448</v>
@@ -31144,8 +31164,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="111" t="s">
+      <c r="A58" s="130"/>
+      <c r="B58" s="129" t="s">
         <v>486</v>
       </c>
       <c r="C58" s="17"/>
@@ -31157,8 +31177,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
         <v>453</v>
@@ -31168,8 +31188,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
         <v>454</v>
@@ -31179,8 +31199,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
         <v>455</v>
@@ -31190,8 +31210,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
         <v>456</v>
@@ -31201,8 +31221,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
         <v>460</v>
@@ -31210,8 +31230,8 @@
       <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="112"/>
-      <c r="B64" s="113"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="131"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22" t="s">
         <v>462</v>
@@ -31221,7 +31241,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
+      <c r="A65" s="130"/>
       <c r="B65" s="36" t="s">
         <v>463</v>
       </c>
@@ -31232,7 +31252,7 @@
       <c r="E65" s="18"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
+      <c r="A66" s="130"/>
       <c r="B66" s="37" t="s">
         <v>464</v>
       </c>
@@ -31243,7 +31263,7 @@
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
+      <c r="A67" s="130"/>
       <c r="B67" s="37" t="s">
         <v>465</v>
       </c>
@@ -31254,7 +31274,7 @@
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
+      <c r="A68" s="130"/>
       <c r="B68" s="37" t="s">
         <v>466</v>
       </c>
@@ -31265,7 +31285,7 @@
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="112"/>
+      <c r="A69" s="130"/>
       <c r="B69" s="38" t="s">
         <v>467</v>
       </c>
@@ -31276,7 +31296,7 @@
       <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
+      <c r="A70" s="130"/>
       <c r="B70" s="36" t="s">
         <v>468</v>
       </c>
@@ -31287,7 +31307,7 @@
       <c r="E70" s="18"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="112"/>
+      <c r="A71" s="130"/>
       <c r="B71" s="37" t="s">
         <v>479</v>
       </c>
@@ -31298,7 +31318,7 @@
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="112"/>
+      <c r="A72" s="130"/>
       <c r="B72" s="37" t="s">
         <v>480</v>
       </c>
@@ -31309,7 +31329,7 @@
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="112"/>
+      <c r="A73" s="130"/>
       <c r="B73" s="37" t="s">
         <v>481</v>
       </c>
@@ -31320,7 +31340,7 @@
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="113"/>
+      <c r="A74" s="131"/>
       <c r="B74" s="38" t="s">
         <v>482</v>
       </c>

--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0AE72-4E82-41A7-B6BF-7B18BDBA9411}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E83C22-DC8C-4ACC-89B0-455EDA608FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
@@ -4301,10 +4301,6 @@
     <t>172.19.69.255</t>
   </si>
   <si>
-    <t>ACCESS PRN 172.19.70.0 /24: 4x172.19.70.0/25
-ACCESS PRN 172.19.71.0 /24: 4x172.19.71.0/25</t>
-  </si>
-  <si>
     <t>172.19.70.0</t>
   </si>
   <si>
@@ -5176,13 +5172,17 @@
     <t>LIMAS_ISP2-TO-TRIADA</t>
   </si>
   <si>
-    <t>Edge-R27(Gi0/1.10)</t>
-  </si>
-  <si>
-    <t>Edge-R27(Gi0/1.20)</t>
-  </si>
-  <si>
     <t>VLAN 20</t>
+  </si>
+  <si>
+    <t>Edge-R27(Gi0/2)</t>
+  </si>
+  <si>
+    <t>Edge-R27(Gi0/1)</t>
+  </si>
+  <si>
+    <t>ACCESS PRN 172.19.70.0 /24: 4x172.19.70.0/26
+ACCESS PRN 172.19.71.0 /24: 4x172.19.71.0/26</t>
   </si>
 </sst>
 </file>
@@ -5690,21 +5690,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5715,11 +5715,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6125,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA282CF-049F-4372-95A9-9E82C74C253D}">
   <dimension ref="A1:U625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A594" sqref="A594:XFD599"/>
+    <sheetView tabSelected="1" topLeftCell="A529" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
@@ -6170,19 +6170,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="118" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
       <c r="L3" s="35" t="s">
         <v>1382</v>
       </c>
@@ -6366,37 +6366,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="122" t="s">
         <v>1388</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="122" t="s">
         <v>520</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -8620,7 +8620,7 @@
         <v>43</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K102" s="5"/>
       <c r="L102" s="35"/>
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K143" s="5"/>
       <c r="L143" s="35"/>
@@ -9735,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K150" s="5"/>
       <c r="L150" s="35"/>
@@ -9868,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="K156" s="5"/>
       <c r="L156" s="35"/>
@@ -9893,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="35"/>
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K164" s="5"/>
       <c r="L164" s="35"/>
@@ -10493,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="K183" s="5"/>
       <c r="L183" s="35"/>
@@ -10518,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="K184" s="5"/>
       <c r="L184" s="35"/>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K185" s="5"/>
       <c r="L185" s="35"/>
@@ -10651,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="K190" s="5"/>
       <c r="L190" s="35"/>
@@ -10682,14 +10682,14 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K191" s="5"/>
       <c r="L191" s="35"/>
     </row>
     <row r="192" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>172</v>
@@ -10713,14 +10713,14 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="K192" s="5"/>
       <c r="L192" s="35"/>
     </row>
     <row r="193" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>172</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="194" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>172</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="195" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>172</v>
@@ -10913,19 +10913,19 @@
       <c r="L200" s="35"/>
     </row>
     <row r="201" spans="1:21" s="11" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="119" t="s">
+      <c r="A201" s="122" t="s">
         <v>791</v>
       </c>
-      <c r="B201" s="119"/>
-      <c r="C201" s="119"/>
-      <c r="D201" s="119"/>
-      <c r="E201" s="119"/>
-      <c r="F201" s="119"/>
-      <c r="G201" s="119"/>
-      <c r="H201" s="119"/>
-      <c r="I201" s="119"/>
-      <c r="J201" s="119"/>
-      <c r="K201" s="119"/>
+      <c r="B201" s="122"/>
+      <c r="C201" s="122"/>
+      <c r="D201" s="122"/>
+      <c r="E201" s="122"/>
+      <c r="F201" s="122"/>
+      <c r="G201" s="122"/>
+      <c r="H201" s="122"/>
+      <c r="I201" s="122"/>
+      <c r="J201" s="122"/>
+      <c r="K201" s="122"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J203"/>
       <c r="K203" s="5"/>
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J204"/>
       <c r="K204" s="5"/>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="212" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B212" s="27" t="s">
         <v>172</v>
@@ -11326,19 +11326,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="119" t="s">
+      <c r="A214" s="122" t="s">
         <v>792</v>
       </c>
-      <c r="B214" s="119"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="119"/>
-      <c r="E214" s="119"/>
-      <c r="F214" s="119"/>
-      <c r="G214" s="119"/>
-      <c r="H214" s="119"/>
-      <c r="I214" s="119"/>
-      <c r="J214" s="119"/>
-      <c r="K214" s="119"/>
+      <c r="B214" s="122"/>
+      <c r="C214" s="122"/>
+      <c r="D214" s="122"/>
+      <c r="E214" s="122"/>
+      <c r="F214" s="122"/>
+      <c r="G214" s="122"/>
+      <c r="H214" s="122"/>
+      <c r="I214" s="122"/>
+      <c r="J214" s="122"/>
+      <c r="K214" s="122"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J217"/>
       <c r="K217" s="5"/>
@@ -11472,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J218"/>
       <c r="K218" s="5"/>
@@ -11660,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J224"/>
       <c r="K224" s="5"/>
@@ -11690,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J225"/>
       <c r="K225" s="5"/>
@@ -11878,7 +11878,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J231"/>
       <c r="K231" s="5"/>
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J232"/>
       <c r="K232" s="5"/>
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J238"/>
       <c r="K238" s="5"/>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J239"/>
       <c r="K239" s="5"/>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="246" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A246" s="27" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B246" s="27" t="s">
         <v>172</v>
@@ -12382,19 +12382,19 @@
       <c r="U247" s="14"/>
     </row>
     <row r="248" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="119" t="s">
+      <c r="A248" s="122" t="s">
         <v>793</v>
       </c>
-      <c r="B248" s="119"/>
-      <c r="C248" s="119"/>
-      <c r="D248" s="119"/>
-      <c r="E248" s="119"/>
-      <c r="F248" s="119"/>
-      <c r="G248" s="119"/>
-      <c r="H248" s="119"/>
-      <c r="I248" s="119"/>
-      <c r="J248" s="119"/>
-      <c r="K248" s="119"/>
+      <c r="B248" s="122"/>
+      <c r="C248" s="122"/>
+      <c r="D248" s="122"/>
+      <c r="E248" s="122"/>
+      <c r="F248" s="122"/>
+      <c r="G248" s="122"/>
+      <c r="H248" s="122"/>
+      <c r="I248" s="122"/>
+      <c r="J248" s="122"/>
+      <c r="K248" s="122"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J251"/>
       <c r="K251" s="5"/>
@@ -12528,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J252"/>
       <c r="K252" s="5"/>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J258"/>
       <c r="K258" s="5"/>
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J259"/>
       <c r="K259" s="5"/>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J265"/>
       <c r="K265" s="5"/>
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="J266"/>
       <c r="K266" s="5"/>
@@ -13152,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J272"/>
       <c r="K272" s="5"/>
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J273"/>
       <c r="K273" s="5"/>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="280" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A280" s="27" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B280" s="27" t="s">
         <v>172</v>
@@ -13436,19 +13436,19 @@
       <c r="U281" s="44"/>
     </row>
     <row r="282" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="122" t="s">
+      <c r="A282" s="123" t="s">
         <v>514</v>
       </c>
-      <c r="B282" s="122"/>
-      <c r="C282" s="122"/>
-      <c r="D282" s="122"/>
-      <c r="E282" s="122"/>
-      <c r="F282" s="122"/>
-      <c r="G282" s="122"/>
-      <c r="H282" s="122"/>
-      <c r="I282" s="122"/>
-      <c r="J282" s="122"/>
-      <c r="K282" s="122"/>
+      <c r="B282" s="123"/>
+      <c r="C282" s="123"/>
+      <c r="D282" s="123"/>
+      <c r="E282" s="123"/>
+      <c r="F282" s="123"/>
+      <c r="G282" s="123"/>
+      <c r="H282" s="123"/>
+      <c r="I282" s="123"/>
+      <c r="J282" s="123"/>
+      <c r="K282" s="123"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -13491,7 +13491,7 @@
     </row>
     <row r="284" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>31</v>
@@ -13500,13 +13500,13 @@
         <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E284" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F284" t="s">
         <v>1595</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1596</v>
       </c>
       <c r="G284">
         <v>254</v>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="J284"/>
       <c r="K284" s="5"/>
@@ -13532,7 +13532,7 @@
     </row>
     <row r="285" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>31</v>
@@ -13550,7 +13550,7 @@
       <c r="G285"/>
       <c r="H285" s="4"/>
       <c r="I285" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="J285">
         <v>16</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="286" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>31</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="287" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>31</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="288" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>31</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="290" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>31</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="291" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>31</v>
@@ -13718,13 +13718,13 @@
         <v>5</v>
       </c>
       <c r="D291" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E291" t="s">
         <v>1599</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>1600</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1601</v>
       </c>
       <c r="G291">
         <v>254</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="J291"/>
       <c r="K291" s="5"/>
@@ -13750,7 +13750,7 @@
     </row>
     <row r="292" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>31</v>
@@ -13768,7 +13768,7 @@
       <c r="G292"/>
       <c r="H292" s="4"/>
       <c r="I292" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J292">
         <v>17</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="293" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>31</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="294" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>31</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="295" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>31</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="297" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>31</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="298" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A298" s="27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B298" s="27" t="s">
         <v>31</v>
@@ -13936,13 +13936,13 @@
         <v>5</v>
       </c>
       <c r="D298" s="27" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E298" s="27" t="s">
         <v>1611</v>
       </c>
-      <c r="E298" s="27" t="s">
+      <c r="F298" s="27" t="s">
         <v>1612</v>
-      </c>
-      <c r="F298" s="27" t="s">
-        <v>1613</v>
       </c>
       <c r="G298" s="27">
         <v>254</v>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="300" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A300" s="27" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B300" s="27" t="s">
         <v>31</v>
@@ -13998,13 +13998,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="27" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E300" s="27" t="s">
         <v>1603</v>
       </c>
-      <c r="E300" s="27" t="s">
+      <c r="F300" s="27" t="s">
         <v>1604</v>
-      </c>
-      <c r="F300" s="27" t="s">
-        <v>1605</v>
       </c>
       <c r="G300" s="27">
         <v>254</v>
@@ -14057,19 +14057,19 @@
       <c r="L302" s="35"/>
     </row>
     <row r="303" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="118" t="s">
+      <c r="A303" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="B303" s="118"/>
-      <c r="C303" s="118"/>
-      <c r="D303" s="118"/>
-      <c r="E303" s="118"/>
-      <c r="F303" s="118"/>
-      <c r="G303" s="118"/>
-      <c r="H303" s="118"/>
-      <c r="I303" s="118"/>
-      <c r="J303" s="118"/>
-      <c r="K303" s="118"/>
+      <c r="B303" s="120"/>
+      <c r="C303" s="120"/>
+      <c r="D303" s="120"/>
+      <c r="E303" s="120"/>
+      <c r="F303" s="120"/>
+      <c r="G303" s="120"/>
+      <c r="H303" s="120"/>
+      <c r="I303" s="120"/>
+      <c r="J303" s="120"/>
+      <c r="K303" s="120"/>
       <c r="L303" s="35"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14113,19 +14113,19 @@
       <c r="L306" s="35"/>
     </row>
     <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="118" t="s">
+      <c r="A307" s="120" t="s">
         <v>895</v>
       </c>
-      <c r="B307" s="118"/>
-      <c r="C307" s="118"/>
-      <c r="D307" s="118"/>
-      <c r="E307" s="118"/>
-      <c r="F307" s="118"/>
-      <c r="G307" s="118"/>
-      <c r="H307" s="118"/>
-      <c r="I307" s="118"/>
-      <c r="J307" s="118"/>
-      <c r="K307" s="118"/>
+      <c r="B307" s="120"/>
+      <c r="C307" s="120"/>
+      <c r="D307" s="120"/>
+      <c r="E307" s="120"/>
+      <c r="F307" s="120"/>
+      <c r="G307" s="120"/>
+      <c r="H307" s="120"/>
+      <c r="I307" s="120"/>
+      <c r="J307" s="120"/>
+      <c r="K307" s="120"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14373,19 +14373,19 @@
       <c r="U313" s="14"/>
     </row>
     <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="123" t="s">
+      <c r="A314" s="121" t="s">
         <v>896</v>
       </c>
-      <c r="B314" s="118"/>
-      <c r="C314" s="118"/>
-      <c r="D314" s="118"/>
-      <c r="E314" s="118"/>
-      <c r="F314" s="118"/>
-      <c r="G314" s="118"/>
-      <c r="H314" s="118"/>
-      <c r="I314" s="118"/>
-      <c r="J314" s="118"/>
-      <c r="K314" s="118"/>
+      <c r="B314" s="120"/>
+      <c r="C314" s="120"/>
+      <c r="D314" s="120"/>
+      <c r="E314" s="120"/>
+      <c r="F314" s="120"/>
+      <c r="G314" s="120"/>
+      <c r="H314" s="120"/>
+      <c r="I314" s="120"/>
+      <c r="J314" s="120"/>
+      <c r="K314" s="120"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14747,19 +14747,19 @@
       <c r="U323" s="14"/>
     </row>
     <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="118" t="s">
+      <c r="A324" s="120" t="s">
         <v>960</v>
       </c>
-      <c r="B324" s="118"/>
-      <c r="C324" s="118"/>
-      <c r="D324" s="118"/>
-      <c r="E324" s="118"/>
-      <c r="F324" s="118"/>
-      <c r="G324" s="118"/>
-      <c r="H324" s="118"/>
-      <c r="I324" s="118"/>
-      <c r="J324" s="118"/>
-      <c r="K324" s="118"/>
+      <c r="B324" s="120"/>
+      <c r="C324" s="120"/>
+      <c r="D324" s="120"/>
+      <c r="E324" s="120"/>
+      <c r="F324" s="120"/>
+      <c r="G324" s="120"/>
+      <c r="H324" s="120"/>
+      <c r="I324" s="120"/>
+      <c r="J324" s="120"/>
+      <c r="K324" s="120"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15183,19 +15183,19 @@
       <c r="U334" s="14"/>
     </row>
     <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="118" t="s">
+      <c r="A335" s="120" t="s">
         <v>1013</v>
       </c>
-      <c r="B335" s="118"/>
-      <c r="C335" s="118"/>
-      <c r="D335" s="118"/>
-      <c r="E335" s="118"/>
-      <c r="F335" s="118"/>
-      <c r="G335" s="118"/>
-      <c r="H335" s="118"/>
-      <c r="I335" s="118"/>
-      <c r="J335" s="118"/>
-      <c r="K335" s="118"/>
+      <c r="B335" s="120"/>
+      <c r="C335" s="120"/>
+      <c r="D335" s="120"/>
+      <c r="E335" s="120"/>
+      <c r="F335" s="120"/>
+      <c r="G335" s="120"/>
+      <c r="H335" s="120"/>
+      <c r="I335" s="120"/>
+      <c r="J335" s="120"/>
+      <c r="K335" s="120"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15663,19 +15663,19 @@
       <c r="U347" s="44"/>
     </row>
     <row r="348" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="120" t="s">
+      <c r="A348" s="118" t="s">
         <v>511</v>
       </c>
-      <c r="B348" s="120"/>
-      <c r="C348" s="120"/>
-      <c r="D348" s="120"/>
-      <c r="E348" s="120"/>
-      <c r="F348" s="120"/>
-      <c r="G348" s="120"/>
-      <c r="H348" s="120"/>
-      <c r="I348" s="120"/>
-      <c r="J348" s="120"/>
-      <c r="K348" s="121"/>
+      <c r="B348" s="118"/>
+      <c r="C348" s="118"/>
+      <c r="D348" s="118"/>
+      <c r="E348" s="118"/>
+      <c r="F348" s="118"/>
+      <c r="G348" s="118"/>
+      <c r="H348" s="118"/>
+      <c r="I348" s="118"/>
+      <c r="J348" s="118"/>
+      <c r="K348" s="119"/>
       <c r="L348" s="35" t="s">
         <v>1383</v>
       </c>
@@ -15847,35 +15847,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="119" t="s">
+      <c r="A357" s="122" t="s">
         <v>516</v>
       </c>
-      <c r="B357" s="119"/>
-      <c r="C357" s="119"/>
-      <c r="D357" s="119"/>
-      <c r="E357" s="119"/>
-      <c r="F357" s="119"/>
-      <c r="G357" s="119"/>
-      <c r="H357" s="119"/>
-      <c r="I357" s="119"/>
-      <c r="J357" s="119"/>
-      <c r="K357" s="119"/>
+      <c r="B357" s="122"/>
+      <c r="C357" s="122"/>
+      <c r="D357" s="122"/>
+      <c r="E357" s="122"/>
+      <c r="F357" s="122"/>
+      <c r="G357" s="122"/>
+      <c r="H357" s="122"/>
+      <c r="I357" s="122"/>
+      <c r="J357" s="122"/>
+      <c r="K357" s="122"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="119" t="s">
+      <c r="A358" s="122" t="s">
         <v>1214</v>
       </c>
-      <c r="B358" s="119"/>
-      <c r="C358" s="119"/>
-      <c r="D358" s="119"/>
-      <c r="E358" s="119"/>
-      <c r="F358" s="119"/>
-      <c r="G358" s="119"/>
-      <c r="H358" s="119"/>
-      <c r="I358" s="119"/>
-      <c r="J358" s="119"/>
-      <c r="K358" s="119"/>
+      <c r="B358" s="122"/>
+      <c r="C358" s="122"/>
+      <c r="D358" s="122"/>
+      <c r="E358" s="122"/>
+      <c r="F358" s="122"/>
+      <c r="G358" s="122"/>
+      <c r="H358" s="122"/>
+      <c r="I358" s="122"/>
+      <c r="J358" s="122"/>
+      <c r="K358" s="122"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15967,7 +15967,7 @@
       <c r="G361"/>
       <c r="H361" s="4"/>
       <c r="I361" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J361"/>
       <c r="K361" s="5"/>
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J374"/>
       <c r="K374"/>
@@ -16335,7 +16335,7 @@
         <v>43</v>
       </c>
       <c r="I375" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="L375" s="35"/>
       <c r="U375" s="35"/>
@@ -16357,7 +16357,7 @@
         <v>43</v>
       </c>
       <c r="I376" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="L376" s="35"/>
       <c r="M376" s="35"/>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="L381" s="35"/>
       <c r="O381" s="35"/>
@@ -16510,7 +16510,7 @@
       </c>
       <c r="H382"/>
       <c r="I382" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="L382" s="35"/>
     </row>
@@ -16532,7 +16532,7 @@
       </c>
       <c r="H383"/>
       <c r="I383" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="L383" s="35"/>
     </row>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K409" s="5"/>
       <c r="L409" s="35"/>
@@ -17197,7 +17197,7 @@
         <v>43</v>
       </c>
       <c r="I410" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K410" s="5"/>
       <c r="L410" s="35"/>
@@ -17219,7 +17219,7 @@
         <v>43</v>
       </c>
       <c r="I411" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K411" s="5"/>
       <c r="L411" s="35"/>
@@ -17327,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K416" s="5"/>
       <c r="L416" s="35"/>
@@ -17349,7 +17349,7 @@
         <v>43</v>
       </c>
       <c r="I417" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K417" s="5"/>
       <c r="L417" s="35"/>
@@ -17371,7 +17371,7 @@
         <v>43</v>
       </c>
       <c r="I418" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K418" s="5"/>
       <c r="L418" s="35"/>
@@ -17501,7 +17501,7 @@
         <v>43</v>
       </c>
       <c r="I424" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K424" s="5"/>
       <c r="L424" s="35"/>
@@ -17523,7 +17523,7 @@
         <v>43</v>
       </c>
       <c r="I425" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K425" s="5"/>
       <c r="L425" s="35"/>
@@ -17653,7 +17653,7 @@
         <v>43</v>
       </c>
       <c r="I431" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="K431" s="5"/>
       <c r="L431" s="35"/>
@@ -17675,7 +17675,7 @@
         <v>43</v>
       </c>
       <c r="I432" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K432" s="5"/>
       <c r="L432" s="35"/>
@@ -17867,19 +17867,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="119" t="s">
+      <c r="A441" s="122" t="s">
         <v>1311</v>
       </c>
-      <c r="B441" s="119"/>
-      <c r="C441" s="119"/>
-      <c r="D441" s="119"/>
-      <c r="E441" s="119"/>
-      <c r="F441" s="119"/>
-      <c r="G441" s="119"/>
-      <c r="H441" s="119"/>
-      <c r="I441" s="119"/>
-      <c r="J441" s="119"/>
-      <c r="K441" s="119"/>
+      <c r="B441" s="122"/>
+      <c r="C441" s="122"/>
+      <c r="D441" s="122"/>
+      <c r="E441" s="122"/>
+      <c r="F441" s="122"/>
+      <c r="G441" s="122"/>
+      <c r="H441" s="122"/>
+      <c r="I441" s="122"/>
+      <c r="J441" s="122"/>
+      <c r="K441" s="122"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="J442"/>
       <c r="K442" s="5"/>
@@ -17952,7 +17952,7 @@
       <c r="G443"/>
       <c r="H443" s="4"/>
       <c r="I443" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="J443"/>
       <c r="K443" s="5"/>
@@ -18144,19 +18144,19 @@
       <c r="U449" s="14"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="119" t="s">
+      <c r="A450" s="122" t="s">
         <v>1321</v>
       </c>
-      <c r="B450" s="119"/>
-      <c r="C450" s="119"/>
-      <c r="D450" s="119"/>
-      <c r="E450" s="119"/>
-      <c r="F450" s="119"/>
-      <c r="G450" s="119"/>
-      <c r="H450" s="119"/>
-      <c r="I450" s="119"/>
-      <c r="J450" s="119"/>
-      <c r="K450" s="119"/>
+      <c r="B450" s="122"/>
+      <c r="C450" s="122"/>
+      <c r="D450" s="122"/>
+      <c r="E450" s="122"/>
+      <c r="F450" s="122"/>
+      <c r="G450" s="122"/>
+      <c r="H450" s="122"/>
+      <c r="I450" s="122"/>
+      <c r="J450" s="122"/>
+      <c r="K450" s="122"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18190,35 +18190,35 @@
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="122" t="s">
+      <c r="A453" s="123" t="s">
         <v>518</v>
       </c>
-      <c r="B453" s="122"/>
-      <c r="C453" s="122"/>
-      <c r="D453" s="122"/>
-      <c r="E453" s="122"/>
-      <c r="F453" s="122"/>
-      <c r="G453" s="122"/>
-      <c r="H453" s="122"/>
-      <c r="I453" s="122"/>
-      <c r="J453" s="122"/>
-      <c r="K453" s="122"/>
+      <c r="B453" s="123"/>
+      <c r="C453" s="123"/>
+      <c r="D453" s="123"/>
+      <c r="E453" s="123"/>
+      <c r="F453" s="123"/>
+      <c r="G453" s="123"/>
+      <c r="H453" s="123"/>
+      <c r="I453" s="123"/>
+      <c r="J453" s="123"/>
+      <c r="K453" s="123"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="118" t="s">
+      <c r="A454" s="120" t="s">
         <v>519</v>
       </c>
-      <c r="B454" s="118"/>
-      <c r="C454" s="118"/>
-      <c r="D454" s="118"/>
-      <c r="E454" s="118"/>
-      <c r="F454" s="118"/>
-      <c r="G454" s="118"/>
-      <c r="H454" s="118"/>
-      <c r="I454" s="118"/>
-      <c r="J454" s="118"/>
-      <c r="K454" s="118"/>
+      <c r="B454" s="120"/>
+      <c r="C454" s="120"/>
+      <c r="D454" s="120"/>
+      <c r="E454" s="120"/>
+      <c r="F454" s="120"/>
+      <c r="G454" s="120"/>
+      <c r="H454" s="120"/>
+      <c r="I454" s="120"/>
+      <c r="J454" s="120"/>
+      <c r="K454" s="120"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18278,19 +18278,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="118" t="s">
+      <c r="A462" s="120" t="s">
         <v>1073</v>
       </c>
-      <c r="B462" s="118"/>
-      <c r="C462" s="118"/>
-      <c r="D462" s="118"/>
-      <c r="E462" s="118"/>
-      <c r="F462" s="118"/>
-      <c r="G462" s="118"/>
-      <c r="H462" s="118"/>
-      <c r="I462" s="118"/>
-      <c r="J462" s="118"/>
-      <c r="K462" s="118"/>
+      <c r="B462" s="120"/>
+      <c r="C462" s="120"/>
+      <c r="D462" s="120"/>
+      <c r="E462" s="120"/>
+      <c r="F462" s="120"/>
+      <c r="G462" s="120"/>
+      <c r="H462" s="120"/>
+      <c r="I462" s="120"/>
+      <c r="J462" s="120"/>
+      <c r="K462" s="120"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18546,19 +18546,19 @@
       <c r="U468" s="14"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="123" t="s">
+      <c r="A469" s="121" t="s">
         <v>1098</v>
       </c>
-      <c r="B469" s="118"/>
-      <c r="C469" s="118"/>
-      <c r="D469" s="118"/>
-      <c r="E469" s="118"/>
-      <c r="F469" s="118"/>
-      <c r="G469" s="118"/>
-      <c r="H469" s="118"/>
-      <c r="I469" s="118"/>
-      <c r="J469" s="118"/>
-      <c r="K469" s="118"/>
+      <c r="B469" s="120"/>
+      <c r="C469" s="120"/>
+      <c r="D469" s="120"/>
+      <c r="E469" s="120"/>
+      <c r="F469" s="120"/>
+      <c r="G469" s="120"/>
+      <c r="H469" s="120"/>
+      <c r="I469" s="120"/>
+      <c r="J469" s="120"/>
+      <c r="K469" s="120"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18898,19 +18898,19 @@
       <c r="U477" s="14"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="118" t="s">
+      <c r="A478" s="120" t="s">
         <v>1131</v>
       </c>
-      <c r="B478" s="118"/>
-      <c r="C478" s="118"/>
-      <c r="D478" s="118"/>
-      <c r="E478" s="118"/>
-      <c r="F478" s="118"/>
-      <c r="G478" s="118"/>
-      <c r="H478" s="118"/>
-      <c r="I478" s="118"/>
-      <c r="J478" s="118"/>
-      <c r="K478" s="118"/>
+      <c r="B478" s="120"/>
+      <c r="C478" s="120"/>
+      <c r="D478" s="120"/>
+      <c r="E478" s="120"/>
+      <c r="F478" s="120"/>
+      <c r="G478" s="120"/>
+      <c r="H478" s="120"/>
+      <c r="I478" s="120"/>
+      <c r="J478" s="120"/>
+      <c r="K478" s="120"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19334,19 +19334,19 @@
       <c r="U488" s="14"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="118" t="s">
+      <c r="A489" s="120" t="s">
         <v>1172</v>
       </c>
-      <c r="B489" s="118"/>
-      <c r="C489" s="118"/>
-      <c r="D489" s="118"/>
-      <c r="E489" s="118"/>
-      <c r="F489" s="118"/>
-      <c r="G489" s="118"/>
-      <c r="H489" s="118"/>
-      <c r="I489" s="118"/>
-      <c r="J489" s="118"/>
-      <c r="K489" s="118"/>
+      <c r="B489" s="120"/>
+      <c r="C489" s="120"/>
+      <c r="D489" s="120"/>
+      <c r="E489" s="120"/>
+      <c r="F489" s="120"/>
+      <c r="G489" s="120"/>
+      <c r="H489" s="120"/>
+      <c r="I489" s="120"/>
+      <c r="J489" s="120"/>
+      <c r="K489" s="120"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19814,24 +19814,24 @@
       <c r="U501" s="44"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="120" t="s">
+      <c r="A502" s="118" t="s">
         <v>512</v>
       </c>
-      <c r="B502" s="120"/>
-      <c r="C502" s="120"/>
-      <c r="D502" s="120"/>
-      <c r="E502" s="120"/>
-      <c r="F502" s="120"/>
-      <c r="G502" s="120"/>
-      <c r="H502" s="120"/>
-      <c r="I502" s="120"/>
-      <c r="J502" s="120"/>
-      <c r="K502" s="121"/>
+      <c r="B502" s="118"/>
+      <c r="C502" s="118"/>
+      <c r="D502" s="118"/>
+      <c r="E502" s="118"/>
+      <c r="F502" s="118"/>
+      <c r="G502" s="118"/>
+      <c r="H502" s="118"/>
+      <c r="I502" s="118"/>
+      <c r="J502" s="118"/>
+      <c r="K502" s="119"/>
       <c r="L502" s="35" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="503" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>67</v>
       </c>
@@ -19867,7 +19867,7 @@
       </c>
       <c r="L503" s="35"/>
     </row>
-    <row r="504" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
@@ -19900,7 +19900,7 @@
       <c r="S504" s="50"/>
       <c r="T504" s="45"/>
     </row>
-    <row r="505" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G505" s="5"/>
       <c r="I505" t="s">
         <v>55</v>
@@ -19924,7 +19924,7 @@
       <c r="S505" s="48"/>
       <c r="T505" s="51"/>
     </row>
-    <row r="506" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B506" s="6"/>
       <c r="G506" s="5"/>
       <c r="I506" t="s">
@@ -19949,7 +19949,7 @@
       <c r="S506" s="47"/>
       <c r="T506" s="52"/>
     </row>
-    <row r="507" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B507" s="6"/>
       <c r="G507" s="5"/>
       <c r="J507" s="7"/>
@@ -19969,7 +19969,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B508" s="6"/>
       <c r="G508" s="5"/>
       <c r="J508" s="7"/>
@@ -19987,7 +19987,7 @@
       <c r="S508" s="50"/>
       <c r="T508" s="45"/>
     </row>
-    <row r="509" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B509" s="6"/>
       <c r="G509" s="5"/>
       <c r="J509" s="7"/>
@@ -20001,7 +20001,7 @@
       <c r="S509" s="48"/>
       <c r="T509" s="51"/>
     </row>
-    <row r="510" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B510" s="6"/>
       <c r="G510" s="5"/>
       <c r="J510" s="7"/>
@@ -20015,7 +20015,7 @@
       <c r="S510" s="47"/>
       <c r="T510" s="52"/>
     </row>
-    <row r="511" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B511" s="6"/>
       <c r="G511" s="5"/>
       <c r="J511" s="7"/>
@@ -20033,23 +20033,23 @@
         <v>255</v>
       </c>
     </row>
-    <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="119" t="s">
+    <row r="512" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="122" t="s">
         <v>1352</v>
       </c>
-      <c r="B512" s="119"/>
-      <c r="C512" s="119"/>
-      <c r="D512" s="119"/>
-      <c r="E512" s="119"/>
-      <c r="F512" s="119"/>
-      <c r="G512" s="119"/>
-      <c r="H512" s="119"/>
-      <c r="I512" s="119"/>
-      <c r="J512" s="119"/>
-      <c r="K512" s="119"/>
+      <c r="B512" s="122"/>
+      <c r="C512" s="122"/>
+      <c r="D512" s="122"/>
+      <c r="E512" s="122"/>
+      <c r="F512" s="122"/>
+      <c r="G512" s="122"/>
+      <c r="H512" s="122"/>
+      <c r="I512" s="122"/>
+      <c r="J512" s="122"/>
+      <c r="K512" s="122"/>
       <c r="L512" s="35"/>
     </row>
-    <row r="513" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>67</v>
       </c>
@@ -20093,7 +20093,7 @@
       <c r="S513"/>
       <c r="T513"/>
     </row>
-    <row r="514" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" s="35" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1339</v>
       </c>
@@ -20128,7 +20128,7 @@
       <c r="K514" s="5"/>
       <c r="U514" s="14"/>
     </row>
-    <row r="515" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1340</v>
       </c>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="L515" s="35"/>
     </row>
-    <row r="516" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1343</v>
       </c>
@@ -20188,7 +20188,7 @@
       </c>
       <c r="U516" s="14"/>
     </row>
-    <row r="517" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1344</v>
       </c>
@@ -20212,7 +20212,7 @@
       <c r="K517" s="5"/>
       <c r="L517" s="35"/>
     </row>
-    <row r="518" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1345</v>
       </c>
@@ -20239,7 +20239,7 @@
       <c r="T518" s="14"/>
       <c r="U518" s="14"/>
     </row>
-    <row r="519" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1346</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="T519" s="14"/>
       <c r="U519" s="14"/>
     </row>
-    <row r="520" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1347</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="M520"/>
       <c r="N520" s="6"/>
     </row>
-    <row r="521" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A521" s="27" t="s">
         <v>1349</v>
       </c>
@@ -20337,7 +20337,7 @@
       <c r="S521"/>
       <c r="T521"/>
     </row>
-    <row r="522" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" s="35" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A522" s="27" t="s">
         <v>43</v>
       </c>
@@ -20369,7 +20369,7 @@
       <c r="T522"/>
       <c r="U522" s="14"/>
     </row>
-    <row r="523" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A523" s="27" t="s">
         <v>1390</v>
       </c>
@@ -20403,7 +20403,7 @@
       <c r="K523" s="27"/>
       <c r="L523" s="35"/>
     </row>
-    <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A524" s="124" t="s">
         <v>1391</v>
       </c>
@@ -20419,55 +20419,55 @@
       <c r="K524" s="124"/>
       <c r="L524" s="35"/>
     </row>
-    <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="122" t="s">
+    <row r="525" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="123" t="s">
         <v>1392</v>
       </c>
-      <c r="B525" s="122"/>
-      <c r="C525" s="122"/>
-      <c r="D525" s="122"/>
-      <c r="E525" s="122"/>
-      <c r="F525" s="122"/>
-      <c r="G525" s="122"/>
-      <c r="H525" s="122"/>
-      <c r="I525" s="122"/>
-      <c r="J525" s="122"/>
-      <c r="K525" s="122"/>
+      <c r="B525" s="123"/>
+      <c r="C525" s="123"/>
+      <c r="D525" s="123"/>
+      <c r="E525" s="123"/>
+      <c r="F525" s="123"/>
+      <c r="G525" s="123"/>
+      <c r="H525" s="123"/>
+      <c r="I525" s="123"/>
+      <c r="J525" s="123"/>
+      <c r="K525" s="123"/>
       <c r="L525" s="35"/>
     </row>
-    <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="118" t="s">
+    <row r="526" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="120" t="s">
         <v>1393</v>
       </c>
-      <c r="B526" s="118"/>
-      <c r="C526" s="118"/>
-      <c r="D526" s="118"/>
-      <c r="E526" s="118"/>
-      <c r="F526" s="118"/>
-      <c r="G526" s="118"/>
-      <c r="H526" s="118"/>
-      <c r="I526" s="118"/>
-      <c r="J526" s="118"/>
-      <c r="K526" s="118"/>
+      <c r="B526" s="120"/>
+      <c r="C526" s="120"/>
+      <c r="D526" s="120"/>
+      <c r="E526" s="120"/>
+      <c r="F526" s="120"/>
+      <c r="G526" s="120"/>
+      <c r="H526" s="120"/>
+      <c r="I526" s="120"/>
+      <c r="J526" s="120"/>
+      <c r="K526" s="120"/>
       <c r="L526" s="35"/>
     </row>
-    <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="H527"/>
       <c r="L527" s="35"/>
     </row>
-    <row r="528" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="H528"/>
       <c r="L528" s="35"/>
     </row>
-    <row r="529" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="H529"/>
       <c r="L529" s="35"/>
     </row>
-    <row r="530" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="H530"/>
       <c r="L530" s="35"/>
     </row>
-    <row r="531" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="G531" s="5"/>
       <c r="I531" t="s">
         <v>51</v>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="L531" s="35"/>
     </row>
-    <row r="532" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="G532" s="5"/>
       <c r="I532" t="s">
         <v>55</v>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="L532" s="35"/>
     </row>
-    <row r="533" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B533" s="6"/>
       <c r="G533" s="5"/>
       <c r="I533" t="s">
@@ -20507,23 +20507,23 @@
       </c>
       <c r="L533" s="35"/>
     </row>
-    <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="118" t="s">
+    <row r="534" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A534" s="120" t="s">
         <v>1394</v>
       </c>
-      <c r="B534" s="118"/>
-      <c r="C534" s="118"/>
-      <c r="D534" s="118"/>
-      <c r="E534" s="118"/>
-      <c r="F534" s="118"/>
-      <c r="G534" s="118"/>
-      <c r="H534" s="118"/>
-      <c r="I534" s="118"/>
-      <c r="J534" s="118"/>
-      <c r="K534" s="118"/>
+      <c r="B534" s="120"/>
+      <c r="C534" s="120"/>
+      <c r="D534" s="120"/>
+      <c r="E534" s="120"/>
+      <c r="F534" s="120"/>
+      <c r="G534" s="120"/>
+      <c r="H534" s="120"/>
+      <c r="I534" s="120"/>
+      <c r="J534" s="120"/>
+      <c r="K534" s="120"/>
       <c r="L534" s="35"/>
     </row>
-    <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1395</v>
       </c>
@@ -20565,7 +20565,7 @@
       <c r="T535" s="14"/>
       <c r="U535" s="14"/>
     </row>
-    <row r="536" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A536" s="27" t="s">
         <v>1399</v>
       </c>
@@ -20607,7 +20607,7 @@
       <c r="T536" s="14"/>
       <c r="U536" s="14"/>
     </row>
-    <row r="537" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A537" s="27" t="s">
         <v>1403</v>
       </c>
@@ -20649,7 +20649,7 @@
       <c r="T537" s="14"/>
       <c r="U537" s="14"/>
     </row>
-    <row r="538" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A538" s="27" t="s">
         <v>1407</v>
       </c>
@@ -20691,7 +20691,7 @@
       <c r="T538" s="14"/>
       <c r="U538" s="14"/>
     </row>
-    <row r="539" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A539" s="27" t="s">
         <v>1411</v>
       </c>
@@ -20733,7 +20733,7 @@
       <c r="T539" s="14"/>
       <c r="U539" s="14"/>
     </row>
-    <row r="540" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A540" s="27" t="s">
         <v>1415</v>
       </c>
@@ -20775,40 +20775,40 @@
       <c r="T540" s="14"/>
       <c r="U540" s="14"/>
     </row>
-    <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="123" t="s">
+    <row r="541" spans="1:21" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A541" s="121" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B541" s="120"/>
+      <c r="C541" s="120"/>
+      <c r="D541" s="120"/>
+      <c r="E541" s="120"/>
+      <c r="F541" s="120"/>
+      <c r="G541" s="120"/>
+      <c r="H541" s="120"/>
+      <c r="I541" s="120"/>
+      <c r="J541" s="120"/>
+      <c r="K541" s="120"/>
+      <c r="L541" s="35"/>
+    </row>
+    <row r="542" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
         <v>1419</v>
       </c>
-      <c r="B541" s="118"/>
-      <c r="C541" s="118"/>
-      <c r="D541" s="118"/>
-      <c r="E541" s="118"/>
-      <c r="F541" s="118"/>
-      <c r="G541" s="118"/>
-      <c r="H541" s="118"/>
-      <c r="I541" s="118"/>
-      <c r="J541" s="118"/>
-      <c r="K541" s="118"/>
-      <c r="L541" s="35"/>
-    </row>
-    <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
-        <v>1420</v>
-      </c>
       <c r="B542" s="6" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C542" t="s">
         <v>29</v>
       </c>
       <c r="D542" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E542" t="s">
         <v>1421</v>
       </c>
-      <c r="E542" t="s">
+      <c r="F542" t="s">
         <v>1422</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1423</v>
       </c>
       <c r="G542">
         <v>254</v>
@@ -20833,24 +20833,24 @@
       <c r="T542" s="14"/>
       <c r="U542" s="14"/>
     </row>
-    <row r="543" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A543" s="27" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B543" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C543" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D543" s="27" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E543" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="E543" s="27" t="s">
+      <c r="F543" s="27" t="s">
         <v>1426</v>
-      </c>
-      <c r="F543" s="27" t="s">
-        <v>1427</v>
       </c>
       <c r="G543" s="27">
         <v>254</v>
@@ -20875,24 +20875,24 @@
       <c r="T543" s="14"/>
       <c r="U543" s="14"/>
     </row>
-    <row r="544" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A544" s="27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B544" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C544" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D544" s="27" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E544" s="27" t="s">
         <v>1429</v>
       </c>
-      <c r="E544" s="27" t="s">
+      <c r="F544" s="27" t="s">
         <v>1430</v>
-      </c>
-      <c r="F544" s="27" t="s">
-        <v>1431</v>
       </c>
       <c r="G544" s="27">
         <v>254</v>
@@ -20917,24 +20917,24 @@
       <c r="T544" s="14"/>
       <c r="U544" s="14"/>
     </row>
-    <row r="545" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A545" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B545" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C545" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D545" s="27" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E545" s="27" t="s">
         <v>1433</v>
       </c>
-      <c r="E545" s="27" t="s">
+      <c r="F545" s="27" t="s">
         <v>1434</v>
-      </c>
-      <c r="F545" s="27" t="s">
-        <v>1435</v>
       </c>
       <c r="G545" s="27">
         <v>254</v>
@@ -20959,24 +20959,24 @@
       <c r="T545" s="14"/>
       <c r="U545" s="14"/>
     </row>
-    <row r="546" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A546" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B546" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C546" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D546" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E546" s="27" t="s">
         <v>1437</v>
       </c>
-      <c r="E546" s="27" t="s">
+      <c r="F546" s="27" t="s">
         <v>1438</v>
-      </c>
-      <c r="F546" s="27" t="s">
-        <v>1439</v>
       </c>
       <c r="G546" s="27">
         <v>254</v>
@@ -21001,24 +21001,24 @@
       <c r="T546" s="14"/>
       <c r="U546" s="14"/>
     </row>
-    <row r="547" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A547" s="27" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B547" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C547" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D547" s="27" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E547" s="27" t="s">
         <v>1441</v>
       </c>
-      <c r="E547" s="27" t="s">
+      <c r="F547" s="27" t="s">
         <v>1442</v>
-      </c>
-      <c r="F547" s="27" t="s">
-        <v>1443</v>
       </c>
       <c r="G547" s="27">
         <v>254</v>
@@ -21043,24 +21043,24 @@
       <c r="T547" s="14"/>
       <c r="U547" s="14"/>
     </row>
-    <row r="548" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A548" s="27" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B548" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C548" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D548" s="27" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E548" s="27" t="s">
         <v>1445</v>
       </c>
-      <c r="E548" s="27" t="s">
+      <c r="F548" s="27" t="s">
         <v>1446</v>
-      </c>
-      <c r="F548" s="27" t="s">
-        <v>1447</v>
       </c>
       <c r="G548" s="27">
         <v>254</v>
@@ -21085,24 +21085,24 @@
       <c r="T548" s="14"/>
       <c r="U548" s="14"/>
     </row>
-    <row r="549" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:21" s="35" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A549" s="27" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B549" s="27" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="C549" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D549" s="27" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E549" s="27" t="s">
         <v>1449</v>
       </c>
-      <c r="E549" s="27" t="s">
+      <c r="F549" s="27" t="s">
         <v>1450</v>
-      </c>
-      <c r="F549" s="27" t="s">
-        <v>1451</v>
       </c>
       <c r="G549" s="27">
         <v>254</v>
@@ -21127,25 +21127,25 @@
       <c r="T549" s="14"/>
       <c r="U549" s="14"/>
     </row>
-    <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="118" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B550" s="118"/>
-      <c r="C550" s="118"/>
-      <c r="D550" s="118"/>
-      <c r="E550" s="118"/>
-      <c r="F550" s="118"/>
-      <c r="G550" s="118"/>
-      <c r="H550" s="118"/>
-      <c r="I550" s="118"/>
-      <c r="J550" s="118"/>
-      <c r="K550" s="118"/>
+    <row r="550" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A550" s="120" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B550" s="120"/>
+      <c r="C550" s="120"/>
+      <c r="D550" s="120"/>
+      <c r="E550" s="120"/>
+      <c r="F550" s="120"/>
+      <c r="G550" s="120"/>
+      <c r="H550" s="120"/>
+      <c r="I550" s="120"/>
+      <c r="J550" s="120"/>
+      <c r="K550" s="120"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B551" s="6" t="s">
         <v>31</v>
@@ -21154,13 +21154,13 @@
         <v>5</v>
       </c>
       <c r="D551" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E551" t="s">
         <v>1454</v>
       </c>
-      <c r="E551" t="s">
+      <c r="F551" t="s">
         <v>1455</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1456</v>
       </c>
       <c r="G551">
         <v>254</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="552" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A552" s="27" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B552" s="27" t="s">
         <v>31</v>
@@ -21196,13 +21196,13 @@
         <v>5</v>
       </c>
       <c r="D552" s="27" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E552" s="27" t="s">
         <v>1458</v>
       </c>
-      <c r="E552" s="27" t="s">
+      <c r="F552" s="27" t="s">
         <v>1459</v>
-      </c>
-      <c r="F552" s="27" t="s">
-        <v>1460</v>
       </c>
       <c r="G552" s="27">
         <v>254</v>
@@ -21229,7 +21229,7 @@
     </row>
     <row r="553" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A553" s="27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B553" s="27" t="s">
         <v>31</v>
@@ -21238,13 +21238,13 @@
         <v>5</v>
       </c>
       <c r="D553" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E553" s="27" t="s">
         <v>1462</v>
       </c>
-      <c r="E553" s="27" t="s">
+      <c r="F553" s="27" t="s">
         <v>1463</v>
-      </c>
-      <c r="F553" s="27" t="s">
-        <v>1464</v>
       </c>
       <c r="G553" s="27">
         <v>254</v>
@@ -21271,7 +21271,7 @@
     </row>
     <row r="554" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A554" s="27" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B554" s="27" t="s">
         <v>31</v>
@@ -21280,13 +21280,13 @@
         <v>5</v>
       </c>
       <c r="D554" s="27" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E554" s="27" t="s">
         <v>1466</v>
       </c>
-      <c r="E554" s="27" t="s">
+      <c r="F554" s="27" t="s">
         <v>1467</v>
-      </c>
-      <c r="F554" s="27" t="s">
-        <v>1468</v>
       </c>
       <c r="G554" s="27">
         <v>254</v>
@@ -21313,7 +21313,7 @@
     </row>
     <row r="555" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A555" s="27" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B555" s="27" t="s">
         <v>31</v>
@@ -21322,13 +21322,13 @@
         <v>5</v>
       </c>
       <c r="D555" s="27" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E555" s="27" t="s">
         <v>1470</v>
       </c>
-      <c r="E555" s="27" t="s">
+      <c r="F555" s="27" t="s">
         <v>1471</v>
-      </c>
-      <c r="F555" s="27" t="s">
-        <v>1472</v>
       </c>
       <c r="G555" s="27">
         <v>254</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="556" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A556" s="27" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B556" s="27" t="s">
         <v>31</v>
@@ -21364,13 +21364,13 @@
         <v>5</v>
       </c>
       <c r="D556" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E556" s="27" t="s">
         <v>1474</v>
       </c>
-      <c r="E556" s="27" t="s">
+      <c r="F556" s="27" t="s">
         <v>1475</v>
-      </c>
-      <c r="F556" s="27" t="s">
-        <v>1476</v>
       </c>
       <c r="G556" s="27">
         <v>254</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="557" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A557" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B557" s="27" t="s">
         <v>31</v>
@@ -21406,13 +21406,13 @@
         <v>5</v>
       </c>
       <c r="D557" s="27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E557" s="27" t="s">
         <v>1478</v>
       </c>
-      <c r="E557" s="27" t="s">
+      <c r="F557" s="27" t="s">
         <v>1479</v>
-      </c>
-      <c r="F557" s="27" t="s">
-        <v>1480</v>
       </c>
       <c r="G557" s="27">
         <v>254</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="558" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A558" s="27" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B558" s="27" t="s">
         <v>31</v>
@@ -21448,13 +21448,13 @@
         <v>5</v>
       </c>
       <c r="D558" s="27" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E558" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="E558" s="27" t="s">
+      <c r="F558" s="27" t="s">
         <v>1483</v>
-      </c>
-      <c r="F558" s="27" t="s">
-        <v>1484</v>
       </c>
       <c r="G558" s="27">
         <v>254</v>
@@ -21481,7 +21481,7 @@
     </row>
     <row r="559" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A559" s="27" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B559" s="27" t="s">
         <v>31</v>
@@ -21490,13 +21490,13 @@
         <v>5</v>
       </c>
       <c r="D559" s="27" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E559" s="27" t="s">
         <v>1486</v>
       </c>
-      <c r="E559" s="27" t="s">
+      <c r="F559" s="27" t="s">
         <v>1487</v>
-      </c>
-      <c r="F559" s="27" t="s">
-        <v>1488</v>
       </c>
       <c r="G559" s="27">
         <v>254</v>
@@ -21523,7 +21523,7 @@
     </row>
     <row r="560" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A560" s="27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B560" s="27" t="s">
         <v>31</v>
@@ -21532,13 +21532,13 @@
         <v>5</v>
       </c>
       <c r="D560" s="27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E560" s="27" t="s">
         <v>1490</v>
       </c>
-      <c r="E560" s="27" t="s">
+      <c r="F560" s="27" t="s">
         <v>1491</v>
-      </c>
-      <c r="F560" s="27" t="s">
-        <v>1492</v>
       </c>
       <c r="G560" s="27">
         <v>254</v>
@@ -21563,25 +21563,25 @@
       <c r="T560" s="14"/>
       <c r="U560" s="14"/>
     </row>
-    <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="118" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B561" s="118"/>
-      <c r="C561" s="118"/>
-      <c r="D561" s="118"/>
-      <c r="E561" s="118"/>
-      <c r="F561" s="118"/>
-      <c r="G561" s="118"/>
-      <c r="H561" s="118"/>
-      <c r="I561" s="118"/>
-      <c r="J561" s="118"/>
-      <c r="K561" s="118"/>
+    <row r="561" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="120" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B561" s="120"/>
+      <c r="C561" s="120"/>
+      <c r="D561" s="120"/>
+      <c r="E561" s="120"/>
+      <c r="F561" s="120"/>
+      <c r="G561" s="120"/>
+      <c r="H561" s="120"/>
+      <c r="I561" s="120"/>
+      <c r="J561" s="120"/>
+      <c r="K561" s="120"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B562" s="6" t="s">
         <v>31</v>
@@ -21590,13 +21590,13 @@
         <v>5</v>
       </c>
       <c r="D562" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E562" t="s">
         <v>1495</v>
       </c>
-      <c r="E562" t="s">
+      <c r="F562" t="s">
         <v>1496</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1497</v>
       </c>
       <c r="G562">
         <v>254</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="563" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A563" s="27" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B563" s="27" t="s">
         <v>31</v>
@@ -21632,13 +21632,13 @@
         <v>5</v>
       </c>
       <c r="D563" s="27" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E563" s="27" t="s">
         <v>1499</v>
       </c>
-      <c r="E563" s="27" t="s">
+      <c r="F563" s="27" t="s">
         <v>1500</v>
-      </c>
-      <c r="F563" s="27" t="s">
-        <v>1501</v>
       </c>
       <c r="G563" s="27">
         <v>254</v>
@@ -21665,7 +21665,7 @@
     </row>
     <row r="564" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A564" s="27" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B564" s="27" t="s">
         <v>31</v>
@@ -21674,13 +21674,13 @@
         <v>5</v>
       </c>
       <c r="D564" s="27" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E564" s="27" t="s">
         <v>1503</v>
       </c>
-      <c r="E564" s="27" t="s">
+      <c r="F564" s="27" t="s">
         <v>1504</v>
-      </c>
-      <c r="F564" s="27" t="s">
-        <v>1505</v>
       </c>
       <c r="G564" s="27">
         <v>254</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="565" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A565" s="27" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B565" s="27" t="s">
         <v>31</v>
@@ -21716,13 +21716,13 @@
         <v>5</v>
       </c>
       <c r="D565" s="27" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E565" s="27" t="s">
         <v>1507</v>
       </c>
-      <c r="E565" s="27" t="s">
+      <c r="F565" s="27" t="s">
         <v>1508</v>
-      </c>
-      <c r="F565" s="27" t="s">
-        <v>1509</v>
       </c>
       <c r="G565" s="27">
         <v>254</v>
@@ -21749,7 +21749,7 @@
     </row>
     <row r="566" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A566" s="27" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B566" s="27" t="s">
         <v>31</v>
@@ -21758,13 +21758,13 @@
         <v>5</v>
       </c>
       <c r="D566" s="27" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E566" s="27" t="s">
         <v>1511</v>
       </c>
-      <c r="E566" s="27" t="s">
+      <c r="F566" s="27" t="s">
         <v>1512</v>
-      </c>
-      <c r="F566" s="27" t="s">
-        <v>1513</v>
       </c>
       <c r="G566" s="27">
         <v>254</v>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="567" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A567" s="27" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B567" s="27" t="s">
         <v>31</v>
@@ -21800,13 +21800,13 @@
         <v>5</v>
       </c>
       <c r="D567" s="27" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E567" s="27" t="s">
         <v>1515</v>
       </c>
-      <c r="E567" s="27" t="s">
+      <c r="F567" s="27" t="s">
         <v>1516</v>
-      </c>
-      <c r="F567" s="27" t="s">
-        <v>1517</v>
       </c>
       <c r="G567" s="27">
         <v>254</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="568" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A568" s="27" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B568" s="27" t="s">
         <v>31</v>
@@ -21842,13 +21842,13 @@
         <v>5</v>
       </c>
       <c r="D568" s="27" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E568" s="27" t="s">
         <v>1519</v>
       </c>
-      <c r="E568" s="27" t="s">
+      <c r="F568" s="27" t="s">
         <v>1520</v>
-      </c>
-      <c r="F568" s="27" t="s">
-        <v>1521</v>
       </c>
       <c r="G568" s="27">
         <v>254</v>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="569" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A569" s="27" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B569" s="27" t="s">
         <v>31</v>
@@ -21884,13 +21884,13 @@
         <v>5</v>
       </c>
       <c r="D569" s="27" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E569" s="27" t="s">
         <v>1523</v>
       </c>
-      <c r="E569" s="27" t="s">
+      <c r="F569" s="27" t="s">
         <v>1524</v>
-      </c>
-      <c r="F569" s="27" t="s">
-        <v>1525</v>
       </c>
       <c r="G569" s="27">
         <v>254</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="570" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A570" s="27" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B570" s="27" t="s">
         <v>31</v>
@@ -21926,13 +21926,13 @@
         <v>5</v>
       </c>
       <c r="D570" s="27" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E570" s="27" t="s">
         <v>1527</v>
       </c>
-      <c r="E570" s="27" t="s">
+      <c r="F570" s="27" t="s">
         <v>1528</v>
-      </c>
-      <c r="F570" s="27" t="s">
-        <v>1529</v>
       </c>
       <c r="G570" s="27">
         <v>254</v>
@@ -21959,7 +21959,7 @@
     </row>
     <row r="571" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A571" s="27" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B571" s="27" t="s">
         <v>31</v>
@@ -21968,13 +21968,13 @@
         <v>5</v>
       </c>
       <c r="D571" s="27" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E571" s="27" t="s">
         <v>1531</v>
       </c>
-      <c r="E571" s="27" t="s">
+      <c r="F571" s="27" t="s">
         <v>1532</v>
-      </c>
-      <c r="F571" s="27" t="s">
-        <v>1533</v>
       </c>
       <c r="G571" s="27">
         <v>254</v>
@@ -21999,7 +21999,7 @@
       <c r="T571" s="14"/>
       <c r="U571" s="14"/>
     </row>
-    <row r="572" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:21" s="35" customFormat="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A572" s="27"/>
       <c r="B572" s="27"/>
       <c r="C572" s="27"/>
@@ -22021,7 +22021,7 @@
       <c r="T572" s="44"/>
       <c r="U572" s="44"/>
     </row>
-    <row r="573" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" s="35" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A573" s="27"/>
       <c r="B573" s="27"/>
       <c r="C573" s="27"/>
@@ -22043,25 +22043,25 @@
       <c r="T573" s="44"/>
       <c r="U573" s="44"/>
     </row>
-    <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="120" t="s">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A574" s="118" t="s">
         <v>513</v>
       </c>
-      <c r="B574" s="120"/>
-      <c r="C574" s="120"/>
-      <c r="D574" s="120"/>
-      <c r="E574" s="120"/>
-      <c r="F574" s="120"/>
-      <c r="G574" s="120"/>
-      <c r="H574" s="120"/>
-      <c r="I574" s="120"/>
-      <c r="J574" s="120"/>
-      <c r="K574" s="121"/>
+      <c r="B574" s="118"/>
+      <c r="C574" s="118"/>
+      <c r="D574" s="118"/>
+      <c r="E574" s="118"/>
+      <c r="F574" s="118"/>
+      <c r="G574" s="118"/>
+      <c r="H574" s="118"/>
+      <c r="I574" s="118"/>
+      <c r="J574" s="118"/>
+      <c r="K574" s="119"/>
       <c r="L574" s="35" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="575" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>67</v>
       </c>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="L575" s="35"/>
     </row>
-    <row r="576" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="G576" s="5"/>
       <c r="I576" t="s">
         <v>51</v>
@@ -22124,7 +22124,7 @@
       <c r="S576" s="50"/>
       <c r="T576" s="45"/>
     </row>
-    <row r="577" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G577" s="5"/>
       <c r="I577" t="s">
         <v>55</v>
@@ -22149,7 +22149,7 @@
       <c r="S577" s="48"/>
       <c r="T577" s="51"/>
     </row>
-    <row r="578" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B578" s="6"/>
       <c r="G578" s="5"/>
       <c r="I578" t="s">
@@ -22175,7 +22175,7 @@
       <c r="S578" s="47"/>
       <c r="T578" s="52"/>
     </row>
-    <row r="579" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B579" s="6"/>
       <c r="G579" s="5"/>
       <c r="J579" s="7"/>
@@ -22196,7 +22196,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="580" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B580" s="6"/>
       <c r="G580" s="5"/>
       <c r="J580" s="7"/>
@@ -22215,7 +22215,7 @@
       <c r="S580" s="50"/>
       <c r="T580" s="45"/>
     </row>
-    <row r="581" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B581" s="6"/>
       <c r="G581" s="5"/>
       <c r="J581" s="7"/>
@@ -22230,7 +22230,7 @@
       <c r="S581" s="48"/>
       <c r="T581" s="51"/>
     </row>
-    <row r="582" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B582" s="6"/>
       <c r="G582" s="5"/>
       <c r="J582" s="7"/>
@@ -22245,7 +22245,7 @@
       <c r="S582" s="47"/>
       <c r="T582" s="52"/>
     </row>
-    <row r="583" spans="1:20" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:20" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B583" s="6"/>
       <c r="G583" s="5"/>
       <c r="J583" s="7"/>
@@ -22264,23 +22264,23 @@
         <v>255</v>
       </c>
     </row>
-    <row r="584" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="119" t="s">
+    <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="122" t="s">
         <v>1353</v>
       </c>
-      <c r="B584" s="119"/>
-      <c r="C584" s="119"/>
-      <c r="D584" s="119"/>
-      <c r="E584" s="119"/>
-      <c r="F584" s="119"/>
-      <c r="G584" s="119"/>
-      <c r="H584" s="119"/>
-      <c r="I584" s="119"/>
-      <c r="J584" s="119"/>
-      <c r="K584" s="119"/>
+      <c r="B584" s="122"/>
+      <c r="C584" s="122"/>
+      <c r="D584" s="122"/>
+      <c r="E584" s="122"/>
+      <c r="F584" s="122"/>
+      <c r="G584" s="122"/>
+      <c r="H584" s="122"/>
+      <c r="I584" s="122"/>
+      <c r="J584" s="122"/>
+      <c r="K584" s="122"/>
       <c r="L584" s="35"/>
     </row>
-    <row r="585" spans="1:20" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>67</v>
       </c>
@@ -22316,7 +22316,7 @@
       </c>
       <c r="L585" s="35"/>
     </row>
-    <row r="586" spans="1:20" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1354</v>
       </c>
@@ -22348,7 +22348,7 @@
       <c r="K586" s="5"/>
       <c r="L586" s="35"/>
     </row>
-    <row r="587" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1355</v>
       </c>
@@ -22365,15 +22365,12 @@
         <v>43</v>
       </c>
       <c r="I587" t="s">
-        <v>1710</v>
-      </c>
-      <c r="J587">
-        <v>10</v>
+        <v>1711</v>
       </c>
       <c r="K587" s="5"/>
       <c r="L587" s="35"/>
     </row>
-    <row r="588" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1358</v>
       </c>
@@ -22392,13 +22389,10 @@
       <c r="I588" t="s">
         <v>1334</v>
       </c>
-      <c r="J588">
-        <v>10</v>
-      </c>
       <c r="K588" s="5"/>
       <c r="L588" s="35"/>
     </row>
-    <row r="589" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1359</v>
       </c>
@@ -22417,7 +22411,7 @@
       <c r="K589" s="5"/>
       <c r="L589" s="35"/>
     </row>
-    <row r="590" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1360</v>
       </c>
@@ -22436,7 +22430,7 @@
       <c r="K590" s="5"/>
       <c r="L590" s="35"/>
     </row>
-    <row r="591" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1361</v>
       </c>
@@ -22455,7 +22449,7 @@
       <c r="K591" s="5"/>
       <c r="L591" s="35"/>
     </row>
-    <row r="592" spans="1:20" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:20" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1356</v>
       </c>
@@ -22474,7 +22468,7 @@
       <c r="K592" s="5"/>
       <c r="L592" s="35"/>
     </row>
-    <row r="593" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>1362</v>
       </c>
@@ -22500,13 +22494,13 @@
         <v>0</v>
       </c>
       <c r="I593" s="5" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="J593" s="5"/>
       <c r="K593" s="5"/>
       <c r="L593" s="35"/>
     </row>
-    <row r="594" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>1363</v>
       </c>
@@ -22526,15 +22520,13 @@
       <c r="G594" s="5"/>
       <c r="H594" s="5"/>
       <c r="I594" s="5" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J594" s="5">
-        <v>20</v>
-      </c>
+        <v>1710</v>
+      </c>
+      <c r="J594" s="5"/>
       <c r="K594" s="5"/>
       <c r="L594" s="35"/>
     </row>
-    <row r="595" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>1366</v>
       </c>
@@ -22556,13 +22548,11 @@
       <c r="I595" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="J595" s="5">
-        <v>20</v>
-      </c>
+      <c r="J595" s="5"/>
       <c r="K595" s="5"/>
       <c r="L595" s="35"/>
     </row>
-    <row r="596" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>1367</v>
       </c>
@@ -22586,7 +22576,7 @@
       <c r="K596" s="5"/>
       <c r="L596" s="35"/>
     </row>
-    <row r="597" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>1368</v>
       </c>
@@ -22610,7 +22600,7 @@
       <c r="K597" s="5"/>
       <c r="L597" s="35"/>
     </row>
-    <row r="598" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>1369</v>
       </c>
@@ -22634,7 +22624,7 @@
       <c r="K598" s="5"/>
       <c r="L598" s="35"/>
     </row>
-    <row r="599" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A599" s="5" t="s">
         <v>1364</v>
       </c>
@@ -22658,7 +22648,7 @@
       <c r="K599" s="5"/>
       <c r="L599" s="35"/>
     </row>
-    <row r="600" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A600" s="27" t="s">
         <v>1370</v>
       </c>
@@ -22690,7 +22680,7 @@
       <c r="K600" s="27"/>
       <c r="L600" s="35"/>
     </row>
-    <row r="601" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A601" s="27" t="s">
         <v>1371</v>
       </c>
@@ -22714,7 +22704,7 @@
       <c r="K601" s="27"/>
       <c r="L601" s="35"/>
     </row>
-    <row r="602" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A602" s="27" t="s">
         <v>1374</v>
       </c>
@@ -22738,7 +22728,7 @@
       <c r="K602" s="27"/>
       <c r="L602" s="35"/>
     </row>
-    <row r="603" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A603" s="27" t="s">
         <v>1375</v>
       </c>
@@ -22762,7 +22752,7 @@
       <c r="K603" s="27"/>
       <c r="L603" s="35"/>
     </row>
-    <row r="604" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A604" s="27" t="s">
         <v>1376</v>
       </c>
@@ -22786,7 +22776,7 @@
       <c r="K604" s="27"/>
       <c r="L604" s="35"/>
     </row>
-    <row r="605" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A605" s="27" t="s">
         <v>1377</v>
       </c>
@@ -22810,7 +22800,7 @@
       <c r="K605" s="27"/>
       <c r="L605" s="35"/>
     </row>
-    <row r="606" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A606" s="27" t="s">
         <v>1372</v>
       </c>
@@ -22834,7 +22824,7 @@
       <c r="K606" s="27"/>
       <c r="L606" s="35"/>
     </row>
-    <row r="607" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A607" s="27" t="s">
         <v>43</v>
       </c>
@@ -22864,7 +22854,7 @@
       <c r="K607" s="27"/>
       <c r="L607" s="35"/>
     </row>
-    <row r="608" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A608" s="27" t="s">
         <v>1378</v>
       </c>
@@ -22896,27 +22886,27 @@
       <c r="K608" s="27"/>
       <c r="L608" s="35"/>
     </row>
-    <row r="609" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>43</v>
       </c>
       <c r="C609" s="104"/>
       <c r="D609" s="104"/>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A610" s="120" t="s">
+    <row r="610" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="118" t="s">
         <v>1387</v>
       </c>
-      <c r="B610" s="120"/>
-      <c r="C610" s="120"/>
-      <c r="D610" s="120"/>
-      <c r="E610" s="120"/>
-      <c r="F610" s="120"/>
-      <c r="G610" s="120"/>
-      <c r="H610" s="120"/>
-      <c r="I610" s="120"/>
-      <c r="J610" s="120"/>
-      <c r="K610" s="121"/>
+      <c r="B610" s="118"/>
+      <c r="C610" s="118"/>
+      <c r="D610" s="118"/>
+      <c r="E610" s="118"/>
+      <c r="F610" s="118"/>
+      <c r="G610" s="118"/>
+      <c r="H610" s="118"/>
+      <c r="I610" s="118"/>
+      <c r="J610" s="118"/>
+      <c r="K610" s="119"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
@@ -23036,30 +23026,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A574:K574"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A454:K454"/>
-    <mergeCell ref="A462:K462"/>
-    <mergeCell ref="A469:K469"/>
-    <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A489:K489"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A441:K441"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A348:K348"/>
-    <mergeCell ref="A502:K502"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A314:K314"/>
-    <mergeCell ref="A324:K324"/>
-    <mergeCell ref="A335:K335"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A307:K307"/>
-    <mergeCell ref="A450:K450"/>
     <mergeCell ref="A610:K610"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A303:K303"/>
@@ -23074,6 +23040,30 @@
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A201:K201"/>
     <mergeCell ref="A214:K214"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A348:K348"/>
+    <mergeCell ref="A502:K502"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A324:K324"/>
+    <mergeCell ref="A335:K335"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A307:K307"/>
+    <mergeCell ref="A450:K450"/>
+    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A454:K454"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A469:K469"/>
+    <mergeCell ref="A478:K478"/>
+    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A441:K441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23086,7 +23076,7 @@
   <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A73" sqref="A2:XFD73"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -23102,21 +23092,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="128" t="s">
-        <v>1619</v>
+      <c r="L1" s="127" t="s">
+        <v>1618</v>
       </c>
       <c r="M1" s="125"/>
     </row>
@@ -23334,19 +23324,19 @@
       <c r="U10" s="110"/>
     </row>
     <row r="11" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="A11" s="122" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
       <c r="L11" s="35"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
@@ -23400,7 +23390,7 @@
         <v>137</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>151</v>
@@ -23413,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="J13" s="83"/>
       <c r="K13" s="83" t="s">
@@ -23436,7 +23426,7 @@
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
@@ -23457,14 +23447,14 @@
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
       <c r="I15" s="83" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
     </row>
     <row r="16" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A16" s="83" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B16" s="83" t="s">
         <v>32</v>
@@ -23575,7 +23565,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F21" s="83" t="s">
         <v>153</v>
@@ -23611,7 +23601,7 @@
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
       <c r="I22" s="83" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
@@ -23632,14 +23622,14 @@
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
       <c r="I23" s="83" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B24" s="83" t="s">
         <v>32</v>
@@ -23719,7 +23709,7 @@
     </row>
     <row r="28" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A28" s="83" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B28" s="83" t="s">
         <v>32</v>
@@ -23750,10 +23740,10 @@
         <v>149</v>
       </c>
       <c r="E29" s="83" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G29" s="83">
         <v>15</v>
@@ -23763,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="J29" s="83"/>
       <c r="K29" s="83" t="s">
@@ -23786,7 +23776,7 @@
       <c r="G30" s="83"/>
       <c r="H30" s="83"/>
       <c r="I30" s="83" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83"/>
@@ -23807,14 +23797,14 @@
       <c r="G31" s="83"/>
       <c r="H31" s="83"/>
       <c r="I31" s="83" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J31" s="83"/>
       <c r="K31" s="83"/>
     </row>
     <row r="32" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A32" s="83" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B32" s="83" t="s">
         <v>32</v>
@@ -23894,7 +23884,7 @@
     </row>
     <row r="36" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A36" s="83" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B36" s="83" t="s">
         <v>32</v>
@@ -23913,7 +23903,7 @@
     </row>
     <row r="37" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B37" s="83" t="s">
         <v>32</v>
@@ -23922,13 +23912,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F37" s="83" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G37" s="83">
         <v>15</v>
@@ -23938,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="83" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="83" t="s">
@@ -23947,7 +23937,7 @@
     </row>
     <row r="38" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B38" s="83" t="s">
         <v>32</v>
@@ -23961,14 +23951,14 @@
       <c r="G38" s="83"/>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J38" s="83"/>
       <c r="K38" s="83"/>
     </row>
     <row r="39" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A39" s="83" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B39" s="83" t="s">
         <v>32</v>
@@ -23982,14 +23972,14 @@
       <c r="G39" s="83"/>
       <c r="H39" s="83"/>
       <c r="I39" s="83" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
     </row>
     <row r="40" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A40" s="83" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>32</v>
@@ -24008,7 +23998,7 @@
     </row>
     <row r="41" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B41" s="83" t="s">
         <v>32</v>
@@ -24027,7 +24017,7 @@
     </row>
     <row r="42" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A42" s="83" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B42" s="83" t="s">
         <v>32</v>
@@ -24046,7 +24036,7 @@
     </row>
     <row r="43" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A43" s="83" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B43" s="83" t="s">
         <v>43</v>
@@ -24069,7 +24059,7 @@
     </row>
     <row r="44" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A44" s="83" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>32</v>
@@ -24100,19 +24090,19 @@
       <c r="K45" s="83"/>
     </row>
     <row r="46" spans="1:14" s="110" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="118" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
+      <c r="A46" s="120" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
       <c r="L46" s="35"/>
       <c r="M46"/>
       <c r="N46" s="6"/>
@@ -24154,7 +24144,7 @@
     </row>
     <row r="48" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>123</v>
@@ -24163,13 +24153,13 @@
         <v>124</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>1669</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>1670</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G48" s="6">
         <v>2</v>
@@ -24179,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>123</v>
@@ -24202,14 +24192,14 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>123</v>
@@ -24223,14 +24213,14 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>123</v>
@@ -24239,13 +24229,13 @@
         <v>124</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>1673</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>1674</v>
       </c>
       <c r="G51" s="6">
         <v>2</v>
@@ -24255,16 +24245,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>123</v>
@@ -24278,14 +24268,14 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>123</v>
@@ -24299,14 +24289,14 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>123</v>
@@ -24315,13 +24305,13 @@
         <v>124</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G54" s="6">
         <v>2</v>
@@ -24331,16 +24321,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>123</v>
@@ -24354,14 +24344,14 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>123</v>
@@ -24375,14 +24365,14 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>123</v>
@@ -24391,13 +24381,13 @@
         <v>124</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G57" s="6">
         <v>2</v>
@@ -24407,16 +24397,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>123</v>
@@ -24430,14 +24420,14 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>123</v>
@@ -24451,14 +24441,14 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>123</v>
@@ -24467,13 +24457,13 @@
         <v>124</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G60" s="6">
         <v>2</v>
@@ -24483,15 +24473,15 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K60" s="35" t="s">
         <v>1663</v>
-      </c>
-      <c r="K60" s="35" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>123</v>
@@ -24505,7 +24495,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J61">
         <v>110</v>
@@ -24514,7 +24504,7 @@
     </row>
     <row r="62" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>123</v>
@@ -24528,7 +24518,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J62">
         <v>110</v>
@@ -24537,7 +24527,7 @@
     </row>
     <row r="63" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>123</v>
@@ -24546,13 +24536,13 @@
         <v>124</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G63" s="6">
         <v>2</v>
@@ -24562,15 +24552,15 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>123</v>
@@ -24584,7 +24574,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J64">
         <v>120</v>
@@ -24593,7 +24583,7 @@
     </row>
     <row r="65" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>123</v>
@@ -24607,7 +24597,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J65">
         <v>120</v>
@@ -24616,7 +24606,7 @@
     </row>
     <row r="66" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>123</v>
@@ -24625,13 +24615,13 @@
         <v>124</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G66" s="6">
         <v>2</v>
@@ -24641,16 +24631,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="67" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>123</v>
@@ -24664,14 +24654,14 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>123</v>
@@ -24685,14 +24675,14 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>123</v>
@@ -24701,13 +24691,13 @@
         <v>124</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G69" s="6">
         <v>2</v>
@@ -24722,7 +24712,7 @@
     </row>
     <row r="70" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>123</v>
@@ -24764,7 +24754,7 @@
     </row>
     <row r="72" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>123</v>
@@ -24789,18 +24779,18 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="127" t="s">
+      <c r="A74" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="127"/>
-      <c r="H74" s="127"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="127"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="128"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="128"/>
       <c r="K74" s="9"/>
       <c r="L74"/>
     </row>
@@ -24857,7 +24847,7 @@
     </row>
     <row r="77" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>123</v>
@@ -24866,13 +24856,13 @@
         <v>124</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>1669</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>1670</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G77" s="6">
         <v>2</v>
@@ -24882,16 +24872,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="78" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>123</v>
@@ -24905,14 +24895,14 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>123</v>
@@ -24926,7 +24916,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -24938,18 +24928,18 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="128"/>
+      <c r="J81" s="128"/>
       <c r="K81" s="9"/>
       <c r="L81"/>
     </row>
@@ -25006,7 +24996,7 @@
     </row>
     <row r="84" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>123</v>
@@ -25015,13 +25005,13 @@
         <v>124</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E84" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>1673</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>1674</v>
       </c>
       <c r="G84" s="6">
         <v>2</v>
@@ -25031,16 +25021,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="85" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>123</v>
@@ -25054,14 +25044,14 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>123</v>
@@ -25075,7 +25065,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -25086,18 +25076,18 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="127" t="s">
+      <c r="A88" s="128" t="s">
         <v>1330</v>
       </c>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
       <c r="K88" s="9"/>
       <c r="L88"/>
       <c r="M88"/>
@@ -25225,18 +25215,18 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="127" t="s">
+      <c r="A94" s="128" t="s">
         <v>1331</v>
       </c>
-      <c r="B94" s="127"/>
-      <c r="C94" s="127"/>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="127"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="127"/>
-      <c r="I94" s="127"/>
-      <c r="J94" s="127"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="128"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="128"/>
+      <c r="F94" s="128"/>
+      <c r="G94" s="128"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="128"/>
       <c r="K94" s="9"/>
       <c r="L94"/>
       <c r="M94"/>
@@ -25295,7 +25285,7 @@
     </row>
     <row r="97" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>123</v>
@@ -25304,13 +25294,13 @@
         <v>124</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G97" s="6">
         <v>2</v>
@@ -25320,16 +25310,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="98" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>123</v>
@@ -25343,14 +25333,14 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>123</v>
@@ -25364,14 +25354,14 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>123</v>
@@ -25380,13 +25370,13 @@
         <v>124</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G100" s="6">
         <v>2</v>
@@ -25396,16 +25386,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="101" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>123</v>
@@ -25419,14 +25409,14 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>123</v>
@@ -25440,7 +25430,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -25459,18 +25449,18 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="127" t="s">
+      <c r="A104" s="128" t="s">
         <v>1332</v>
       </c>
-      <c r="B104" s="127"/>
-      <c r="C104" s="127"/>
-      <c r="D104" s="127"/>
-      <c r="E104" s="127"/>
-      <c r="F104" s="127"/>
-      <c r="G104" s="127"/>
-      <c r="H104" s="127"/>
-      <c r="I104" s="127"/>
-      <c r="J104" s="127"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="128"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="128"/>
+      <c r="J104" s="128"/>
       <c r="K104" s="9"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -25529,7 +25519,7 @@
     </row>
     <row r="107" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>123</v>
@@ -25538,13 +25528,13 @@
         <v>124</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G107" s="6">
         <v>2</v>
@@ -25554,15 +25544,15 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K107" s="35" t="s">
         <v>1663</v>
-      </c>
-      <c r="K107" s="35" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="108" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>123</v>
@@ -25576,7 +25566,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J108">
         <v>110</v>
@@ -25585,7 +25575,7 @@
     </row>
     <row r="109" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>123</v>
@@ -25599,7 +25589,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J109">
         <v>110</v>
@@ -25608,7 +25598,7 @@
     </row>
     <row r="110" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>123</v>
@@ -25617,13 +25607,13 @@
         <v>124</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G110" s="6">
         <v>2</v>
@@ -25633,15 +25623,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K110" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="111" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>123</v>
@@ -25655,7 +25645,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J111">
         <v>120</v>
@@ -25664,7 +25654,7 @@
     </row>
     <row r="112" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>123</v>
@@ -25678,7 +25668,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J112">
         <v>120</v>
@@ -25687,18 +25677,18 @@
     </row>
     <row r="113" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="127" t="s">
+      <c r="A114" s="128" t="s">
         <v>1333</v>
       </c>
-      <c r="B114" s="127"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
+      <c r="H114" s="128"/>
+      <c r="I114" s="128"/>
+      <c r="J114" s="128"/>
       <c r="K114" s="9"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -25757,7 +25747,7 @@
     </row>
     <row r="117" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>123</v>
@@ -25766,13 +25756,13 @@
         <v>124</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G117" s="6">
         <v>2</v>
@@ -25782,16 +25772,16 @@
         <v>0</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="118" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>123</v>
@@ -25805,14 +25795,14 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>123</v>
@@ -25826,7 +25816,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -25839,6 +25829,11 @@
     <row r="121" spans="1:13" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A81:J81"/>
@@ -25851,11 +25846,6 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -25908,20 +25898,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="127" t="s">
         <v>331</v>
       </c>
       <c r="M1" s="125"/>
@@ -26016,18 +26006,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="33"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -29143,18 +29133,18 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="120" t="s">
+      <c r="A112" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="120"/>
-      <c r="C112" s="120"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="120"/>
-      <c r="F112" s="120"/>
-      <c r="G112" s="120"/>
-      <c r="H112" s="120"/>
-      <c r="I112" s="120"/>
-      <c r="J112" s="120"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="118"/>
+      <c r="I112" s="118"/>
+      <c r="J112" s="118"/>
       <c r="K112" s="33"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -30732,10 +30722,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="119" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="119"/>
       <c r="C23" t="s">
         <v>422</v>
       </c>

--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CC37D-D3F4-4EA3-B3FF-AA58C8A1582D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84014D8C-AB3C-40E4-9606-53B83656FDB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="0" windowWidth="15528" windowHeight="12312" activeTab="2" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
   <sheets>
     <sheet name="List_Net_v4" sheetId="4" r:id="rId1"/>
@@ -6049,11 +6049,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6064,21 +6074,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6482,10 +6482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA282CF-049F-4372-95A9-9E82C74C253D}">
-  <dimension ref="A1:U625"/>
+  <dimension ref="A1:U620"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
@@ -6505,48 +6505,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="124">
+      <c r="L1" s="128">
         <v>20210515</v>
       </c>
-      <c r="M1" s="124"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="13"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:21" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="14" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54"/>
       <c r="B4" s="6" t="s">
         <v>492</v>
@@ -6581,7 +6581,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="45"/>
     </row>
-    <row r="5" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -6609,7 +6609,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="51"/>
     </row>
-    <row r="6" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58"/>
       <c r="B6" s="6" t="s">
         <v>507</v>
@@ -6637,7 +6637,7 @@
       <c r="S6" s="47"/>
       <c r="T6" s="52"/>
     </row>
-    <row r="7" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62"/>
       <c r="B7" s="6" t="s">
         <v>506</v>
@@ -6660,7 +6660,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="G8" s="5"/>
       <c r="J8" s="7"/>
@@ -6678,7 +6678,7 @@
       <c r="S8" s="50"/>
       <c r="T8" s="45"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="G9" s="5"/>
       <c r="J9" s="7"/>
@@ -6692,7 +6692,7 @@
       <c r="S9" s="48"/>
       <c r="T9" s="51"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7"/>
@@ -6706,7 +6706,7 @@
       <c r="S10" s="47"/>
       <c r="T10" s="52"/>
     </row>
-    <row r="11" spans="1:21" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="G11" s="5"/>
       <c r="J11" s="7"/>
@@ -6724,38 +6724,38 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
+    <row r="12" spans="1:21" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="123" t="s">
         <v>1377</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+    <row r="13" spans="1:21" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -11271,20 +11271,20 @@
       <c r="K200" s="5"/>
       <c r="L200" s="35"/>
     </row>
-    <row r="201" spans="1:21" s="11" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="121" t="s">
+    <row r="201" spans="1:21" s="11" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="123" t="s">
         <v>788</v>
       </c>
-      <c r="B201" s="121"/>
-      <c r="C201" s="121"/>
-      <c r="D201" s="121"/>
-      <c r="E201" s="121"/>
-      <c r="F201" s="121"/>
-      <c r="G201" s="121"/>
-      <c r="H201" s="121"/>
-      <c r="I201" s="121"/>
-      <c r="J201" s="121"/>
-      <c r="K201" s="121"/>
+      <c r="B201" s="123"/>
+      <c r="C201" s="123"/>
+      <c r="D201" s="123"/>
+      <c r="E201" s="123"/>
+      <c r="F201" s="123"/>
+      <c r="G201" s="123"/>
+      <c r="H201" s="123"/>
+      <c r="I201" s="123"/>
+      <c r="J201" s="123"/>
+      <c r="K201" s="123"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -11684,20 +11684,20 @@
       <c r="M213"/>
       <c r="N213" s="6"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="121" t="s">
+    <row r="214" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="123" t="s">
         <v>789</v>
       </c>
-      <c r="B214" s="121"/>
-      <c r="C214" s="121"/>
-      <c r="D214" s="121"/>
-      <c r="E214" s="121"/>
-      <c r="F214" s="121"/>
-      <c r="G214" s="121"/>
-      <c r="H214" s="121"/>
-      <c r="I214" s="121"/>
-      <c r="J214" s="121"/>
-      <c r="K214" s="121"/>
+      <c r="B214" s="123"/>
+      <c r="C214" s="123"/>
+      <c r="D214" s="123"/>
+      <c r="E214" s="123"/>
+      <c r="F214" s="123"/>
+      <c r="G214" s="123"/>
+      <c r="H214" s="123"/>
+      <c r="I214" s="123"/>
+      <c r="J214" s="123"/>
+      <c r="K214" s="123"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -12740,20 +12740,20 @@
       <c r="T247" s="14"/>
       <c r="U247" s="14"/>
     </row>
-    <row r="248" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="121" t="s">
+    <row r="248" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="123" t="s">
         <v>790</v>
       </c>
-      <c r="B248" s="121"/>
-      <c r="C248" s="121"/>
-      <c r="D248" s="121"/>
-      <c r="E248" s="121"/>
-      <c r="F248" s="121"/>
-      <c r="G248" s="121"/>
-      <c r="H248" s="121"/>
-      <c r="I248" s="121"/>
-      <c r="J248" s="121"/>
-      <c r="K248" s="121"/>
+      <c r="B248" s="123"/>
+      <c r="C248" s="123"/>
+      <c r="D248" s="123"/>
+      <c r="E248" s="123"/>
+      <c r="F248" s="123"/>
+      <c r="G248" s="123"/>
+      <c r="H248" s="123"/>
+      <c r="I248" s="123"/>
+      <c r="J248" s="123"/>
+      <c r="K248" s="123"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -13794,20 +13794,20 @@
       <c r="T281" s="44"/>
       <c r="U281" s="44"/>
     </row>
-    <row r="282" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="122" t="s">
+    <row r="282" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="125" t="s">
         <v>512</v>
       </c>
-      <c r="B282" s="122"/>
-      <c r="C282" s="122"/>
-      <c r="D282" s="122"/>
-      <c r="E282" s="122"/>
-      <c r="F282" s="122"/>
-      <c r="G282" s="122"/>
-      <c r="H282" s="122"/>
-      <c r="I282" s="122"/>
-      <c r="J282" s="122"/>
-      <c r="K282" s="122"/>
+      <c r="B282" s="125"/>
+      <c r="C282" s="125"/>
+      <c r="D282" s="125"/>
+      <c r="E282" s="125"/>
+      <c r="F282" s="125"/>
+      <c r="G282" s="125"/>
+      <c r="H282" s="125"/>
+      <c r="I282" s="125"/>
+      <c r="J282" s="125"/>
+      <c r="K282" s="125"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14415,23 +14415,23 @@
       <c r="K302" s="7"/>
       <c r="L302" s="35"/>
     </row>
-    <row r="303" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="129" t="s">
+    <row r="303" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="124" t="s">
         <v>513</v>
       </c>
-      <c r="B303" s="129"/>
-      <c r="C303" s="129"/>
-      <c r="D303" s="129"/>
-      <c r="E303" s="129"/>
-      <c r="F303" s="129"/>
-      <c r="G303" s="129"/>
-      <c r="H303" s="129"/>
-      <c r="I303" s="129"/>
-      <c r="J303" s="129"/>
-      <c r="K303" s="129"/>
+      <c r="B303" s="124"/>
+      <c r="C303" s="124"/>
+      <c r="D303" s="124"/>
+      <c r="E303" s="124"/>
+      <c r="F303" s="124"/>
+      <c r="G303" s="124"/>
+      <c r="H303" s="124"/>
+      <c r="I303" s="124"/>
+      <c r="J303" s="124"/>
+      <c r="K303" s="124"/>
       <c r="L303" s="35"/>
     </row>
-    <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="G304" s="5"/>
       <c r="I304" t="s">
         <v>51</v>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="L304" s="35"/>
     </row>
-    <row r="305" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="G305" s="5"/>
       <c r="I305" t="s">
         <v>55</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="L305" s="35"/>
     </row>
-    <row r="306" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B306" s="6"/>
       <c r="G306" s="5"/>
       <c r="I306" t="s">
@@ -14471,20 +14471,20 @@
       </c>
       <c r="L306" s="35"/>
     </row>
-    <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="129" t="s">
+    <row r="307" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A307" s="124" t="s">
         <v>892</v>
       </c>
-      <c r="B307" s="129"/>
-      <c r="C307" s="129"/>
-      <c r="D307" s="129"/>
-      <c r="E307" s="129"/>
-      <c r="F307" s="129"/>
-      <c r="G307" s="129"/>
-      <c r="H307" s="129"/>
-      <c r="I307" s="129"/>
-      <c r="J307" s="129"/>
-      <c r="K307" s="129"/>
+      <c r="B307" s="124"/>
+      <c r="C307" s="124"/>
+      <c r="D307" s="124"/>
+      <c r="E307" s="124"/>
+      <c r="F307" s="124"/>
+      <c r="G307" s="124"/>
+      <c r="H307" s="124"/>
+      <c r="I307" s="124"/>
+      <c r="J307" s="124"/>
+      <c r="K307" s="124"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14731,20 +14731,20 @@
       <c r="T313" s="14"/>
       <c r="U313" s="14"/>
     </row>
-    <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="128" t="s">
+    <row r="314" spans="1:21" ht="31.2" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="126" t="s">
         <v>893</v>
       </c>
-      <c r="B314" s="129"/>
-      <c r="C314" s="129"/>
-      <c r="D314" s="129"/>
-      <c r="E314" s="129"/>
-      <c r="F314" s="129"/>
-      <c r="G314" s="129"/>
-      <c r="H314" s="129"/>
-      <c r="I314" s="129"/>
-      <c r="J314" s="129"/>
-      <c r="K314" s="129"/>
+      <c r="B314" s="124"/>
+      <c r="C314" s="124"/>
+      <c r="D314" s="124"/>
+      <c r="E314" s="124"/>
+      <c r="F314" s="124"/>
+      <c r="G314" s="124"/>
+      <c r="H314" s="124"/>
+      <c r="I314" s="124"/>
+      <c r="J314" s="124"/>
+      <c r="K314" s="124"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15105,20 +15105,20 @@
       <c r="T323" s="14"/>
       <c r="U323" s="14"/>
     </row>
-    <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="129" t="s">
+    <row r="324" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="124" t="s">
         <v>957</v>
       </c>
-      <c r="B324" s="129"/>
-      <c r="C324" s="129"/>
-      <c r="D324" s="129"/>
-      <c r="E324" s="129"/>
-      <c r="F324" s="129"/>
-      <c r="G324" s="129"/>
-      <c r="H324" s="129"/>
-      <c r="I324" s="129"/>
-      <c r="J324" s="129"/>
-      <c r="K324" s="129"/>
+      <c r="B324" s="124"/>
+      <c r="C324" s="124"/>
+      <c r="D324" s="124"/>
+      <c r="E324" s="124"/>
+      <c r="F324" s="124"/>
+      <c r="G324" s="124"/>
+      <c r="H324" s="124"/>
+      <c r="I324" s="124"/>
+      <c r="J324" s="124"/>
+      <c r="K324" s="124"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15541,20 +15541,20 @@
       <c r="T334" s="14"/>
       <c r="U334" s="14"/>
     </row>
-    <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="129" t="s">
+    <row r="335" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="124" t="s">
         <v>1010</v>
       </c>
-      <c r="B335" s="129"/>
-      <c r="C335" s="129"/>
-      <c r="D335" s="129"/>
-      <c r="E335" s="129"/>
-      <c r="F335" s="129"/>
-      <c r="G335" s="129"/>
-      <c r="H335" s="129"/>
-      <c r="I335" s="129"/>
-      <c r="J335" s="129"/>
-      <c r="K335" s="129"/>
+      <c r="B335" s="124"/>
+      <c r="C335" s="124"/>
+      <c r="D335" s="124"/>
+      <c r="E335" s="124"/>
+      <c r="F335" s="124"/>
+      <c r="G335" s="124"/>
+      <c r="H335" s="124"/>
+      <c r="I335" s="124"/>
+      <c r="J335" s="124"/>
+      <c r="K335" s="124"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15977,7 +15977,7 @@
       <c r="T345" s="14"/>
       <c r="U345" s="14"/>
     </row>
-    <row r="346" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" s="35" customFormat="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A346" s="27"/>
       <c r="B346" s="27"/>
       <c r="C346" s="27"/>
@@ -15999,7 +15999,7 @@
       <c r="T346" s="44"/>
       <c r="U346" s="44"/>
     </row>
-    <row r="347" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" s="35" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A347" s="27"/>
       <c r="B347" s="27"/>
       <c r="C347" s="27"/>
@@ -16021,20 +16021,20 @@
       <c r="T347" s="44"/>
       <c r="U347" s="44"/>
     </row>
-    <row r="348" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="126" t="s">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A348" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="B348" s="126"/>
-      <c r="C348" s="126"/>
-      <c r="D348" s="126"/>
-      <c r="E348" s="126"/>
-      <c r="F348" s="126"/>
-      <c r="G348" s="126"/>
-      <c r="H348" s="126"/>
-      <c r="I348" s="126"/>
-      <c r="J348" s="126"/>
-      <c r="K348" s="127"/>
+      <c r="B348" s="121"/>
+      <c r="C348" s="121"/>
+      <c r="D348" s="121"/>
+      <c r="E348" s="121"/>
+      <c r="F348" s="121"/>
+      <c r="G348" s="121"/>
+      <c r="H348" s="121"/>
+      <c r="I348" s="121"/>
+      <c r="J348" s="121"/>
+      <c r="K348" s="122"/>
       <c r="L348" s="35" t="s">
         <v>1372</v>
       </c>
@@ -16206,35 +16206,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="121" t="s">
+      <c r="A357" s="123" t="s">
         <v>1691</v>
       </c>
-      <c r="B357" s="121"/>
-      <c r="C357" s="121"/>
-      <c r="D357" s="121"/>
-      <c r="E357" s="121"/>
-      <c r="F357" s="121"/>
-      <c r="G357" s="121"/>
-      <c r="H357" s="121"/>
-      <c r="I357" s="121"/>
-      <c r="J357" s="121"/>
-      <c r="K357" s="121"/>
+      <c r="B357" s="123"/>
+      <c r="C357" s="123"/>
+      <c r="D357" s="123"/>
+      <c r="E357" s="123"/>
+      <c r="F357" s="123"/>
+      <c r="G357" s="123"/>
+      <c r="H357" s="123"/>
+      <c r="I357" s="123"/>
+      <c r="J357" s="123"/>
+      <c r="K357" s="123"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="121" t="s">
+      <c r="A358" s="123" t="s">
         <v>1692</v>
       </c>
-      <c r="B358" s="121"/>
-      <c r="C358" s="121"/>
-      <c r="D358" s="121"/>
-      <c r="E358" s="121"/>
-      <c r="F358" s="121"/>
-      <c r="G358" s="121"/>
-      <c r="H358" s="121"/>
-      <c r="I358" s="121"/>
-      <c r="J358" s="121"/>
-      <c r="K358" s="121"/>
+      <c r="B358" s="123"/>
+      <c r="C358" s="123"/>
+      <c r="D358" s="123"/>
+      <c r="E358" s="123"/>
+      <c r="F358" s="123"/>
+      <c r="G358" s="123"/>
+      <c r="H358" s="123"/>
+      <c r="I358" s="123"/>
+      <c r="J358" s="123"/>
+      <c r="K358" s="123"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18226,19 +18226,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="121" t="s">
+      <c r="A441" s="123" t="s">
         <v>1701</v>
       </c>
-      <c r="B441" s="121"/>
-      <c r="C441" s="121"/>
-      <c r="D441" s="121"/>
-      <c r="E441" s="121"/>
-      <c r="F441" s="121"/>
-      <c r="G441" s="121"/>
-      <c r="H441" s="121"/>
-      <c r="I441" s="121"/>
-      <c r="J441" s="121"/>
-      <c r="K441" s="121"/>
+      <c r="B441" s="123"/>
+      <c r="C441" s="123"/>
+      <c r="D441" s="123"/>
+      <c r="E441" s="123"/>
+      <c r="F441" s="123"/>
+      <c r="G441" s="123"/>
+      <c r="H441" s="123"/>
+      <c r="I441" s="123"/>
+      <c r="J441" s="123"/>
+      <c r="K441" s="123"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -18503,19 +18503,19 @@
       <c r="U449" s="14"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="121" t="s">
+      <c r="A450" s="123" t="s">
         <v>1703</v>
       </c>
-      <c r="B450" s="121"/>
-      <c r="C450" s="121"/>
-      <c r="D450" s="121"/>
-      <c r="E450" s="121"/>
-      <c r="F450" s="121"/>
-      <c r="G450" s="121"/>
-      <c r="H450" s="121"/>
-      <c r="I450" s="121"/>
-      <c r="J450" s="121"/>
-      <c r="K450" s="121"/>
+      <c r="B450" s="123"/>
+      <c r="C450" s="123"/>
+      <c r="D450" s="123"/>
+      <c r="E450" s="123"/>
+      <c r="F450" s="123"/>
+      <c r="G450" s="123"/>
+      <c r="H450" s="123"/>
+      <c r="I450" s="123"/>
+      <c r="J450" s="123"/>
+      <c r="K450" s="123"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18533,51 +18533,51 @@
       <c r="L451" s="35"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="123" t="s">
+      <c r="A452" s="127" t="s">
         <v>514</v>
       </c>
-      <c r="B452" s="123"/>
-      <c r="C452" s="123"/>
-      <c r="D452" s="123"/>
-      <c r="E452" s="123"/>
-      <c r="F452" s="123"/>
-      <c r="G452" s="123"/>
-      <c r="H452" s="123"/>
-      <c r="I452" s="123"/>
-      <c r="J452" s="123"/>
-      <c r="K452" s="123"/>
+      <c r="B452" s="127"/>
+      <c r="C452" s="127"/>
+      <c r="D452" s="127"/>
+      <c r="E452" s="127"/>
+      <c r="F452" s="127"/>
+      <c r="G452" s="127"/>
+      <c r="H452" s="127"/>
+      <c r="I452" s="127"/>
+      <c r="J452" s="127"/>
+      <c r="K452" s="127"/>
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="122" t="s">
+      <c r="A453" s="125" t="s">
         <v>515</v>
       </c>
-      <c r="B453" s="122"/>
-      <c r="C453" s="122"/>
-      <c r="D453" s="122"/>
-      <c r="E453" s="122"/>
-      <c r="F453" s="122"/>
-      <c r="G453" s="122"/>
-      <c r="H453" s="122"/>
-      <c r="I453" s="122"/>
-      <c r="J453" s="122"/>
-      <c r="K453" s="122"/>
+      <c r="B453" s="125"/>
+      <c r="C453" s="125"/>
+      <c r="D453" s="125"/>
+      <c r="E453" s="125"/>
+      <c r="F453" s="125"/>
+      <c r="G453" s="125"/>
+      <c r="H453" s="125"/>
+      <c r="I453" s="125"/>
+      <c r="J453" s="125"/>
+      <c r="K453" s="125"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="129" t="s">
+      <c r="A454" s="124" t="s">
         <v>516</v>
       </c>
-      <c r="B454" s="129"/>
-      <c r="C454" s="129"/>
-      <c r="D454" s="129"/>
-      <c r="E454" s="129"/>
-      <c r="F454" s="129"/>
-      <c r="G454" s="129"/>
-      <c r="H454" s="129"/>
-      <c r="I454" s="129"/>
-      <c r="J454" s="129"/>
-      <c r="K454" s="129"/>
+      <c r="B454" s="124"/>
+      <c r="C454" s="124"/>
+      <c r="D454" s="124"/>
+      <c r="E454" s="124"/>
+      <c r="F454" s="124"/>
+      <c r="G454" s="124"/>
+      <c r="H454" s="124"/>
+      <c r="I454" s="124"/>
+      <c r="J454" s="124"/>
+      <c r="K454" s="124"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18637,19 +18637,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="129" t="s">
+      <c r="A462" s="124" t="s">
         <v>1070</v>
       </c>
-      <c r="B462" s="129"/>
-      <c r="C462" s="129"/>
-      <c r="D462" s="129"/>
-      <c r="E462" s="129"/>
-      <c r="F462" s="129"/>
-      <c r="G462" s="129"/>
-      <c r="H462" s="129"/>
-      <c r="I462" s="129"/>
-      <c r="J462" s="129"/>
-      <c r="K462" s="129"/>
+      <c r="B462" s="124"/>
+      <c r="C462" s="124"/>
+      <c r="D462" s="124"/>
+      <c r="E462" s="124"/>
+      <c r="F462" s="124"/>
+      <c r="G462" s="124"/>
+      <c r="H462" s="124"/>
+      <c r="I462" s="124"/>
+      <c r="J462" s="124"/>
+      <c r="K462" s="124"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18905,19 +18905,19 @@
       <c r="U468" s="14"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="128" t="s">
+      <c r="A469" s="126" t="s">
         <v>1711</v>
       </c>
-      <c r="B469" s="129"/>
-      <c r="C469" s="129"/>
-      <c r="D469" s="129"/>
-      <c r="E469" s="129"/>
-      <c r="F469" s="129"/>
-      <c r="G469" s="129"/>
-      <c r="H469" s="129"/>
-      <c r="I469" s="129"/>
-      <c r="J469" s="129"/>
-      <c r="K469" s="129"/>
+      <c r="B469" s="124"/>
+      <c r="C469" s="124"/>
+      <c r="D469" s="124"/>
+      <c r="E469" s="124"/>
+      <c r="F469" s="124"/>
+      <c r="G469" s="124"/>
+      <c r="H469" s="124"/>
+      <c r="I469" s="124"/>
+      <c r="J469" s="124"/>
+      <c r="K469" s="124"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19257,19 +19257,19 @@
       <c r="U477" s="14"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="129" t="s">
+      <c r="A478" s="124" t="s">
         <v>1127</v>
       </c>
-      <c r="B478" s="129"/>
-      <c r="C478" s="129"/>
-      <c r="D478" s="129"/>
-      <c r="E478" s="129"/>
-      <c r="F478" s="129"/>
-      <c r="G478" s="129"/>
-      <c r="H478" s="129"/>
-      <c r="I478" s="129"/>
-      <c r="J478" s="129"/>
-      <c r="K478" s="129"/>
+      <c r="B478" s="124"/>
+      <c r="C478" s="124"/>
+      <c r="D478" s="124"/>
+      <c r="E478" s="124"/>
+      <c r="F478" s="124"/>
+      <c r="G478" s="124"/>
+      <c r="H478" s="124"/>
+      <c r="I478" s="124"/>
+      <c r="J478" s="124"/>
+      <c r="K478" s="124"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19693,19 +19693,19 @@
       <c r="U488" s="14"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="129" t="s">
+      <c r="A489" s="124" t="s">
         <v>1168</v>
       </c>
-      <c r="B489" s="129"/>
-      <c r="C489" s="129"/>
-      <c r="D489" s="129"/>
-      <c r="E489" s="129"/>
-      <c r="F489" s="129"/>
-      <c r="G489" s="129"/>
-      <c r="H489" s="129"/>
-      <c r="I489" s="129"/>
-      <c r="J489" s="129"/>
-      <c r="K489" s="129"/>
+      <c r="B489" s="124"/>
+      <c r="C489" s="124"/>
+      <c r="D489" s="124"/>
+      <c r="E489" s="124"/>
+      <c r="F489" s="124"/>
+      <c r="G489" s="124"/>
+      <c r="H489" s="124"/>
+      <c r="I489" s="124"/>
+      <c r="J489" s="124"/>
+      <c r="K489" s="124"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -20173,19 +20173,19 @@
       <c r="U501" s="44"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="126" t="s">
+      <c r="A502" s="121" t="s">
         <v>510</v>
       </c>
-      <c r="B502" s="126"/>
-      <c r="C502" s="126"/>
-      <c r="D502" s="126"/>
-      <c r="E502" s="126"/>
-      <c r="F502" s="126"/>
-      <c r="G502" s="126"/>
-      <c r="H502" s="126"/>
-      <c r="I502" s="126"/>
-      <c r="J502" s="126"/>
-      <c r="K502" s="127"/>
+      <c r="B502" s="121"/>
+      <c r="C502" s="121"/>
+      <c r="D502" s="121"/>
+      <c r="E502" s="121"/>
+      <c r="F502" s="121"/>
+      <c r="G502" s="121"/>
+      <c r="H502" s="121"/>
+      <c r="I502" s="121"/>
+      <c r="J502" s="121"/>
+      <c r="K502" s="122"/>
       <c r="L502" s="35" t="s">
         <v>1373</v>
       </c>
@@ -20393,19 +20393,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="121" t="s">
+      <c r="A512" s="123" t="s">
         <v>1342</v>
       </c>
-      <c r="B512" s="121"/>
-      <c r="C512" s="121"/>
-      <c r="D512" s="121"/>
-      <c r="E512" s="121"/>
-      <c r="F512" s="121"/>
-      <c r="G512" s="121"/>
-      <c r="H512" s="121"/>
-      <c r="I512" s="121"/>
-      <c r="J512" s="121"/>
-      <c r="K512" s="121"/>
+      <c r="B512" s="123"/>
+      <c r="C512" s="123"/>
+      <c r="D512" s="123"/>
+      <c r="E512" s="123"/>
+      <c r="F512" s="123"/>
+      <c r="G512" s="123"/>
+      <c r="H512" s="123"/>
+      <c r="I512" s="123"/>
+      <c r="J512" s="123"/>
+      <c r="K512" s="123"/>
       <c r="L512" s="35"/>
     </row>
     <row r="513" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20763,51 +20763,51 @@
       <c r="L523" s="35"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="123" t="s">
+      <c r="A524" s="127" t="s">
         <v>1380</v>
       </c>
-      <c r="B524" s="123"/>
-      <c r="C524" s="123"/>
-      <c r="D524" s="123"/>
-      <c r="E524" s="123"/>
-      <c r="F524" s="123"/>
-      <c r="G524" s="123"/>
-      <c r="H524" s="123"/>
-      <c r="I524" s="123"/>
-      <c r="J524" s="123"/>
-      <c r="K524" s="123"/>
+      <c r="B524" s="127"/>
+      <c r="C524" s="127"/>
+      <c r="D524" s="127"/>
+      <c r="E524" s="127"/>
+      <c r="F524" s="127"/>
+      <c r="G524" s="127"/>
+      <c r="H524" s="127"/>
+      <c r="I524" s="127"/>
+      <c r="J524" s="127"/>
+      <c r="K524" s="127"/>
       <c r="L524" s="35"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="122" t="s">
+      <c r="A525" s="125" t="s">
         <v>1381</v>
       </c>
-      <c r="B525" s="122"/>
-      <c r="C525" s="122"/>
-      <c r="D525" s="122"/>
-      <c r="E525" s="122"/>
-      <c r="F525" s="122"/>
-      <c r="G525" s="122"/>
-      <c r="H525" s="122"/>
-      <c r="I525" s="122"/>
-      <c r="J525" s="122"/>
-      <c r="K525" s="122"/>
+      <c r="B525" s="125"/>
+      <c r="C525" s="125"/>
+      <c r="D525" s="125"/>
+      <c r="E525" s="125"/>
+      <c r="F525" s="125"/>
+      <c r="G525" s="125"/>
+      <c r="H525" s="125"/>
+      <c r="I525" s="125"/>
+      <c r="J525" s="125"/>
+      <c r="K525" s="125"/>
       <c r="L525" s="35"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="129" t="s">
+      <c r="A526" s="124" t="s">
         <v>1382</v>
       </c>
-      <c r="B526" s="129"/>
-      <c r="C526" s="129"/>
-      <c r="D526" s="129"/>
-      <c r="E526" s="129"/>
-      <c r="F526" s="129"/>
-      <c r="G526" s="129"/>
-      <c r="H526" s="129"/>
-      <c r="I526" s="129"/>
-      <c r="J526" s="129"/>
-      <c r="K526" s="129"/>
+      <c r="B526" s="124"/>
+      <c r="C526" s="124"/>
+      <c r="D526" s="124"/>
+      <c r="E526" s="124"/>
+      <c r="F526" s="124"/>
+      <c r="G526" s="124"/>
+      <c r="H526" s="124"/>
+      <c r="I526" s="124"/>
+      <c r="J526" s="124"/>
+      <c r="K526" s="124"/>
       <c r="L526" s="35"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20867,19 +20867,19 @@
       <c r="L533" s="35"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="129" t="s">
+      <c r="A534" s="124" t="s">
         <v>1383</v>
       </c>
-      <c r="B534" s="129"/>
-      <c r="C534" s="129"/>
-      <c r="D534" s="129"/>
-      <c r="E534" s="129"/>
-      <c r="F534" s="129"/>
-      <c r="G534" s="129"/>
-      <c r="H534" s="129"/>
-      <c r="I534" s="129"/>
-      <c r="J534" s="129"/>
-      <c r="K534" s="129"/>
+      <c r="B534" s="124"/>
+      <c r="C534" s="124"/>
+      <c r="D534" s="124"/>
+      <c r="E534" s="124"/>
+      <c r="F534" s="124"/>
+      <c r="G534" s="124"/>
+      <c r="H534" s="124"/>
+      <c r="I534" s="124"/>
+      <c r="J534" s="124"/>
+      <c r="K534" s="124"/>
       <c r="L534" s="35"/>
     </row>
     <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21135,19 +21135,19 @@
       <c r="U540" s="14"/>
     </row>
     <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="128" t="s">
+      <c r="A541" s="126" t="s">
         <v>1690</v>
       </c>
-      <c r="B541" s="129"/>
-      <c r="C541" s="129"/>
-      <c r="D541" s="129"/>
-      <c r="E541" s="129"/>
-      <c r="F541" s="129"/>
-      <c r="G541" s="129"/>
-      <c r="H541" s="129"/>
-      <c r="I541" s="129"/>
-      <c r="J541" s="129"/>
-      <c r="K541" s="129"/>
+      <c r="B541" s="124"/>
+      <c r="C541" s="124"/>
+      <c r="D541" s="124"/>
+      <c r="E541" s="124"/>
+      <c r="F541" s="124"/>
+      <c r="G541" s="124"/>
+      <c r="H541" s="124"/>
+      <c r="I541" s="124"/>
+      <c r="J541" s="124"/>
+      <c r="K541" s="124"/>
       <c r="L541" s="35"/>
     </row>
     <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21487,19 +21487,19 @@
       <c r="U549" s="14"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="129" t="s">
+      <c r="A550" s="124" t="s">
         <v>1440</v>
       </c>
-      <c r="B550" s="129"/>
-      <c r="C550" s="129"/>
-      <c r="D550" s="129"/>
-      <c r="E550" s="129"/>
-      <c r="F550" s="129"/>
-      <c r="G550" s="129"/>
-      <c r="H550" s="129"/>
-      <c r="I550" s="129"/>
-      <c r="J550" s="129"/>
-      <c r="K550" s="129"/>
+      <c r="B550" s="124"/>
+      <c r="C550" s="124"/>
+      <c r="D550" s="124"/>
+      <c r="E550" s="124"/>
+      <c r="F550" s="124"/>
+      <c r="G550" s="124"/>
+      <c r="H550" s="124"/>
+      <c r="I550" s="124"/>
+      <c r="J550" s="124"/>
+      <c r="K550" s="124"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21923,19 +21923,19 @@
       <c r="U560" s="14"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="129" t="s">
+      <c r="A561" s="124" t="s">
         <v>1481</v>
       </c>
-      <c r="B561" s="129"/>
-      <c r="C561" s="129"/>
-      <c r="D561" s="129"/>
-      <c r="E561" s="129"/>
-      <c r="F561" s="129"/>
-      <c r="G561" s="129"/>
-      <c r="H561" s="129"/>
-      <c r="I561" s="129"/>
-      <c r="J561" s="129"/>
-      <c r="K561" s="129"/>
+      <c r="B561" s="124"/>
+      <c r="C561" s="124"/>
+      <c r="D561" s="124"/>
+      <c r="E561" s="124"/>
+      <c r="F561" s="124"/>
+      <c r="G561" s="124"/>
+      <c r="H561" s="124"/>
+      <c r="I561" s="124"/>
+      <c r="J561" s="124"/>
+      <c r="K561" s="124"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -22403,19 +22403,19 @@
       <c r="U573" s="44"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="126" t="s">
+      <c r="A574" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="B574" s="126"/>
-      <c r="C574" s="126"/>
-      <c r="D574" s="126"/>
-      <c r="E574" s="126"/>
-      <c r="F574" s="126"/>
-      <c r="G574" s="126"/>
-      <c r="H574" s="126"/>
-      <c r="I574" s="126"/>
-      <c r="J574" s="126"/>
-      <c r="K574" s="127"/>
+      <c r="B574" s="121"/>
+      <c r="C574" s="121"/>
+      <c r="D574" s="121"/>
+      <c r="E574" s="121"/>
+      <c r="F574" s="121"/>
+      <c r="G574" s="121"/>
+      <c r="H574" s="121"/>
+      <c r="I574" s="121"/>
+      <c r="J574" s="121"/>
+      <c r="K574" s="122"/>
       <c r="L574" s="35" t="s">
         <v>1374</v>
       </c>
@@ -22624,19 +22624,19 @@
       </c>
     </row>
     <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="121" t="s">
+      <c r="A584" s="123" t="s">
         <v>1712</v>
       </c>
-      <c r="B584" s="121"/>
-      <c r="C584" s="121"/>
-      <c r="D584" s="121"/>
-      <c r="E584" s="121"/>
-      <c r="F584" s="121"/>
-      <c r="G584" s="121"/>
-      <c r="H584" s="121"/>
-      <c r="I584" s="121"/>
-      <c r="J584" s="121"/>
-      <c r="K584" s="121"/>
+      <c r="B584" s="123"/>
+      <c r="C584" s="123"/>
+      <c r="D584" s="123"/>
+      <c r="E584" s="123"/>
+      <c r="F584" s="123"/>
+      <c r="G584" s="123"/>
+      <c r="H584" s="123"/>
+      <c r="I584" s="123"/>
+      <c r="J584" s="123"/>
+      <c r="K584" s="123"/>
       <c r="L584" s="35"/>
     </row>
     <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23245,146 +23245,168 @@
       <c r="K608" s="27"/>
       <c r="L608" s="35"/>
     </row>
-    <row r="609" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:20" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>43</v>
       </c>
       <c r="C609" s="104"/>
       <c r="D609" s="104"/>
     </row>
-    <row r="610" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="126" t="s">
+    <row r="610" spans="1:20" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="121" t="s">
         <v>1376</v>
       </c>
-      <c r="B610" s="126"/>
-      <c r="C610" s="126"/>
-      <c r="D610" s="126"/>
-      <c r="E610" s="126"/>
-      <c r="F610" s="126"/>
-      <c r="G610" s="126"/>
-      <c r="H610" s="126"/>
-      <c r="I610" s="126"/>
-      <c r="J610" s="126"/>
-      <c r="K610" s="127"/>
+      <c r="B610" s="121"/>
+      <c r="C610" s="121"/>
+      <c r="D610" s="121"/>
+      <c r="E610" s="121"/>
+      <c r="F610" s="121"/>
+      <c r="G610" s="121"/>
+      <c r="H610" s="121"/>
+      <c r="I610" s="121"/>
+      <c r="J610" s="121"/>
+      <c r="K610" s="122"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C611" s="104"/>
       <c r="D611" s="104"/>
     </row>
-    <row r="617" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N618" s="84">
+    <row r="612" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="613" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M613" s="84">
         <v>0</v>
       </c>
-      <c r="O618" s="85"/>
-      <c r="P618" s="88">
+      <c r="N613" s="85"/>
+      <c r="O613" s="88">
         <v>32</v>
       </c>
-      <c r="Q618" s="89"/>
-      <c r="R618" s="84">
+      <c r="P613" s="89"/>
+      <c r="Q613" s="84">
         <v>128</v>
       </c>
-      <c r="S618" s="49"/>
-      <c r="T618" s="50"/>
-      <c r="U618" s="45"/>
-    </row>
-    <row r="619" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N619" s="86"/>
-      <c r="O619" s="87">
+      <c r="R613" s="49"/>
+      <c r="S613" s="50"/>
+      <c r="T613" s="45"/>
+    </row>
+    <row r="614" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M614" s="86"/>
+      <c r="N614" s="87">
         <v>15</v>
       </c>
-      <c r="P619" s="90"/>
-      <c r="Q619" s="91">
+      <c r="O614" s="90"/>
+      <c r="P614" s="91">
         <v>47</v>
       </c>
-      <c r="R619" s="92"/>
-      <c r="S619" s="46"/>
-      <c r="T619" s="48"/>
-      <c r="U619" s="51"/>
-    </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N620" s="105">
+      <c r="Q614" s="92"/>
+      <c r="R614" s="46"/>
+      <c r="S614" s="48"/>
+      <c r="T614" s="51"/>
+    </row>
+    <row r="615" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M615" s="105">
         <v>16</v>
       </c>
-      <c r="O620" s="106"/>
-      <c r="P620" s="88">
+      <c r="N615" s="106"/>
+      <c r="O615" s="88">
         <v>48</v>
       </c>
-      <c r="Q620" s="89"/>
-      <c r="R620" s="92"/>
-      <c r="S620" s="46"/>
-      <c r="T620" s="47"/>
-      <c r="U620" s="52"/>
-    </row>
-    <row r="621" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N621" s="107"/>
-      <c r="O621" s="108">
+      <c r="P615" s="89"/>
+      <c r="Q615" s="92"/>
+      <c r="R615" s="46"/>
+      <c r="S615" s="47"/>
+      <c r="T615" s="52"/>
+    </row>
+    <row r="616" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M616" s="107"/>
+      <c r="N616" s="108">
         <v>31</v>
       </c>
-      <c r="P621" s="92"/>
-      <c r="Q621" s="93">
+      <c r="O616" s="92"/>
+      <c r="P616" s="93">
         <v>63</v>
       </c>
-      <c r="R621" s="86"/>
-      <c r="S621" s="53"/>
-      <c r="T621" s="22"/>
-      <c r="U621" s="23">
+      <c r="Q616" s="86"/>
+      <c r="R616" s="53"/>
+      <c r="S616" s="22"/>
+      <c r="T616" s="23">
         <v>191</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N622" s="84">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M617" s="84">
         <v>64</v>
       </c>
-      <c r="O622" s="101"/>
-      <c r="P622" s="94"/>
-      <c r="Q622" s="89"/>
-      <c r="R622" s="109">
+      <c r="N617" s="101"/>
+      <c r="O617" s="94"/>
+      <c r="P617" s="89"/>
+      <c r="Q617" s="109">
         <v>192</v>
       </c>
-      <c r="S622" s="49"/>
-      <c r="T622" s="50"/>
-      <c r="U622" s="45"/>
-    </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N623" s="92"/>
-      <c r="O623" s="102"/>
-      <c r="P623" s="95"/>
-      <c r="Q623" s="96"/>
-      <c r="R623" s="39"/>
-      <c r="S623" s="46"/>
-      <c r="T623" s="48"/>
-      <c r="U623" s="51"/>
-    </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N624" s="92"/>
-      <c r="O624" s="102"/>
-      <c r="P624" s="97"/>
-      <c r="Q624" s="98"/>
-      <c r="R624" s="39"/>
-      <c r="S624" s="46"/>
-      <c r="T624" s="47"/>
-      <c r="U624" s="52"/>
-    </row>
-    <row r="625" spans="14:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N625" s="86"/>
-      <c r="O625" s="103"/>
-      <c r="P625" s="99"/>
-      <c r="Q625" s="100">
+      <c r="R617" s="49"/>
+      <c r="S617" s="50"/>
+      <c r="T617" s="45"/>
+    </row>
+    <row r="618" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M618" s="92"/>
+      <c r="N618" s="102"/>
+      <c r="O618" s="95"/>
+      <c r="P618" s="96"/>
+      <c r="Q618" s="39"/>
+      <c r="R618" s="46"/>
+      <c r="S618" s="48"/>
+      <c r="T618" s="51"/>
+    </row>
+    <row r="619" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M619" s="92"/>
+      <c r="N619" s="102"/>
+      <c r="O619" s="97"/>
+      <c r="P619" s="98"/>
+      <c r="Q619" s="39"/>
+      <c r="R619" s="46"/>
+      <c r="S619" s="47"/>
+      <c r="T619" s="52"/>
+    </row>
+    <row r="620" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M620" s="86"/>
+      <c r="N620" s="103"/>
+      <c r="O620" s="99"/>
+      <c r="P620" s="100">
         <v>127</v>
       </c>
-      <c r="R625" s="99"/>
-      <c r="S625" s="53"/>
-      <c r="T625" s="22"/>
-      <c r="U625" s="23">
+      <c r="Q620" s="99"/>
+      <c r="R620" s="53"/>
+      <c r="S620" s="22"/>
+      <c r="T620" s="23">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A441:K441"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A348:K348"/>
+    <mergeCell ref="A502:K502"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A324:K324"/>
+    <mergeCell ref="A335:K335"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A307:K307"/>
+    <mergeCell ref="A450:K450"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A454:K454"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A469:K469"/>
+    <mergeCell ref="A478:K478"/>
     <mergeCell ref="A610:K610"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A303:K303"/>
@@ -23401,28 +23423,6 @@
     <mergeCell ref="A214:K214"/>
     <mergeCell ref="A574:K574"/>
     <mergeCell ref="A489:K489"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A348:K348"/>
-    <mergeCell ref="A502:K502"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A314:K314"/>
-    <mergeCell ref="A324:K324"/>
-    <mergeCell ref="A335:K335"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A307:K307"/>
-    <mergeCell ref="A450:K450"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A454:K454"/>
-    <mergeCell ref="A462:K462"/>
-    <mergeCell ref="A469:K469"/>
-    <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A441:K441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23455,43 +23455,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="124">
+      <c r="L1" s="128">
         <v>20210515</v>
       </c>
-      <c r="M1" s="124"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>1716</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="120"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="121" t="s">
         <v>1715</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
@@ -23533,19 +23533,19 @@
       <c r="U5" s="119"/>
     </row>
     <row r="6" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="123" t="s">
         <v>1717</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="35"/>
       <c r="M6"/>
       <c r="N6" s="6"/>
@@ -23553,19 +23553,19 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="123" t="s">
         <v>1773</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
       <c r="L7" s="35"/>
       <c r="M7"/>
       <c r="N7" s="6"/>
@@ -23851,19 +23851,19 @@
       <c r="U16" s="119"/>
     </row>
     <row r="17" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="123" t="s">
         <v>1774</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
       <c r="L17" s="35"/>
       <c r="M17"/>
       <c r="N17" s="6"/>
@@ -24112,19 +24112,19 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="123" t="s">
         <v>1775</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
       <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24417,19 +24417,19 @@
       <c r="U35" s="119"/>
     </row>
     <row r="36" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="123" t="s">
         <v>1776</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
       <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24814,19 +24814,19 @@
       <c r="U48" s="119"/>
     </row>
     <row r="49" spans="1:22" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="123" t="s">
         <v>1777</v>
       </c>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="121"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
       <c r="L49" s="35"/>
     </row>
     <row r="50" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -25209,19 +25209,19 @@
       <c r="U61" s="119"/>
     </row>
     <row r="62" spans="1:22" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="121" t="s">
         <v>1779</v>
       </c>
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="127"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="122"/>
       <c r="L62" s="35" t="s">
         <v>1372</v>
       </c>
@@ -25264,19 +25264,19 @@
       <c r="V64" s="119"/>
     </row>
     <row r="65" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="123" t="s">
         <v>1780</v>
       </c>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="121"/>
-      <c r="K65" s="121"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="123"/>
       <c r="L65" s="35"/>
       <c r="N65" s="6"/>
       <c r="O65" s="119"/>
@@ -25288,19 +25288,19 @@
       <c r="V65" s="35"/>
     </row>
     <row r="66" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A66" s="121" t="s">
+      <c r="A66" s="123" t="s">
         <v>1781</v>
       </c>
-      <c r="B66" s="121"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="121"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="121"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
       <c r="L66" s="35"/>
       <c r="M66"/>
       <c r="N66" s="6"/>
@@ -25567,19 +25567,19 @@
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="121" t="s">
+      <c r="A75" s="123" t="s">
         <v>1782</v>
       </c>
-      <c r="B75" s="121"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="121"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="121"/>
-      <c r="J75" s="121"/>
-      <c r="K75" s="121"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="123"/>
       <c r="L75" s="35"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -25807,19 +25807,19 @@
       <c r="U82" s="119"/>
     </row>
     <row r="83" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="121" t="s">
+      <c r="A83" s="123" t="s">
         <v>1783</v>
       </c>
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="121"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="121"/>
+      <c r="B83" s="123"/>
+      <c r="C83" s="123"/>
+      <c r="D83" s="123"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="123"/>
+      <c r="H83" s="123"/>
+      <c r="I83" s="123"/>
+      <c r="J83" s="123"/>
+      <c r="K83" s="123"/>
       <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -26102,19 +26102,19 @@
       <c r="U93" s="119"/>
     </row>
     <row r="94" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="126" t="s">
+      <c r="A94" s="121" t="s">
         <v>510</v>
       </c>
-      <c r="B94" s="126"/>
-      <c r="C94" s="126"/>
-      <c r="D94" s="126"/>
-      <c r="E94" s="126"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="126"/>
-      <c r="H94" s="126"/>
-      <c r="I94" s="126"/>
-      <c r="J94" s="126"/>
-      <c r="K94" s="127"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="121"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="121"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="121"/>
+      <c r="K94" s="122"/>
       <c r="L94" s="35" t="s">
         <v>1373</v>
       </c>
@@ -26185,35 +26185,35 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="121" t="s">
+      <c r="A98" s="123" t="s">
         <v>1805</v>
       </c>
-      <c r="B98" s="121"/>
-      <c r="C98" s="121"/>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
-      <c r="G98" s="121"/>
-      <c r="H98" s="121"/>
-      <c r="I98" s="121"/>
-      <c r="J98" s="121"/>
-      <c r="K98" s="121"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="123"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123"/>
+      <c r="I98" s="123"/>
+      <c r="J98" s="123"/>
+      <c r="K98" s="123"/>
       <c r="L98" s="35"/>
     </row>
     <row r="99" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="121" t="s">
+      <c r="A99" s="123" t="s">
         <v>1813</v>
       </c>
-      <c r="B99" s="121"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="121"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="121"/>
-      <c r="K99" s="121"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="123"/>
+      <c r="F99" s="123"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="123"/>
+      <c r="I99" s="123"/>
+      <c r="J99" s="123"/>
+      <c r="K99" s="123"/>
       <c r="L99" s="35"/>
       <c r="M99"/>
       <c r="N99" s="6"/>
@@ -26445,19 +26445,19 @@
       <c r="L106" s="35"/>
     </row>
     <row r="107" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="121" t="s">
+      <c r="A107" s="123" t="s">
         <v>1814</v>
       </c>
-      <c r="B107" s="121"/>
-      <c r="C107" s="121"/>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
-      <c r="G107" s="121"/>
-      <c r="H107" s="121"/>
-      <c r="I107" s="121"/>
-      <c r="J107" s="121"/>
-      <c r="K107" s="121"/>
+      <c r="B107" s="123"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="123"/>
+      <c r="E107" s="123"/>
+      <c r="F107" s="123"/>
+      <c r="G107" s="123"/>
+      <c r="H107" s="123"/>
+      <c r="I107" s="123"/>
+      <c r="J107" s="123"/>
+      <c r="K107" s="123"/>
       <c r="L107" s="35"/>
       <c r="M107"/>
       <c r="N107" s="6"/>
@@ -26711,19 +26711,19 @@
       <c r="U115" s="119"/>
     </row>
     <row r="116" spans="1:22" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="126" t="s">
+      <c r="A116" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="B116" s="126"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="126"/>
-      <c r="E116" s="126"/>
-      <c r="F116" s="126"/>
-      <c r="G116" s="126"/>
-      <c r="H116" s="126"/>
-      <c r="I116" s="126"/>
-      <c r="J116" s="126"/>
-      <c r="K116" s="127"/>
+      <c r="B116" s="121"/>
+      <c r="C116" s="121"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="121"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="121"/>
+      <c r="K116" s="122"/>
       <c r="L116" s="35" t="s">
         <v>1374</v>
       </c>
@@ -26802,35 +26802,35 @@
       <c r="U119" s="119"/>
     </row>
     <row r="120" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="121" t="s">
+      <c r="A120" s="123" t="s">
         <v>1816</v>
       </c>
-      <c r="B120" s="121"/>
-      <c r="C120" s="121"/>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
-      <c r="G120" s="121"/>
-      <c r="H120" s="121"/>
-      <c r="I120" s="121"/>
-      <c r="J120" s="121"/>
-      <c r="K120" s="121"/>
+      <c r="B120" s="123"/>
+      <c r="C120" s="123"/>
+      <c r="D120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="123"/>
+      <c r="H120" s="123"/>
+      <c r="I120" s="123"/>
+      <c r="J120" s="123"/>
+      <c r="K120" s="123"/>
       <c r="L120" s="35"/>
     </row>
     <row r="121" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="121" t="s">
+      <c r="A121" s="123" t="s">
         <v>1817</v>
       </c>
-      <c r="B121" s="121"/>
-      <c r="C121" s="121"/>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="121"/>
-      <c r="G121" s="121"/>
-      <c r="H121" s="121"/>
-      <c r="I121" s="121"/>
-      <c r="J121" s="121"/>
-      <c r="K121" s="121"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="123"/>
+      <c r="D121" s="123"/>
+      <c r="E121" s="123"/>
+      <c r="F121" s="123"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123"/>
+      <c r="J121" s="123"/>
+      <c r="K121" s="123"/>
       <c r="L121" s="35"/>
       <c r="M121"/>
       <c r="N121" s="6"/>
@@ -27069,19 +27069,19 @@
       <c r="D129" s="104"/>
     </row>
     <row r="130" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="126" t="s">
+      <c r="A130" s="121" t="s">
         <v>1376</v>
       </c>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="126"/>
-      <c r="E130" s="126"/>
-      <c r="F130" s="126"/>
-      <c r="G130" s="126"/>
-      <c r="H130" s="126"/>
-      <c r="I130" s="126"/>
-      <c r="J130" s="126"/>
-      <c r="K130" s="127"/>
+      <c r="B130" s="121"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="121"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="121"/>
+      <c r="K130" s="122"/>
       <c r="L130" s="35" t="s">
         <v>15</v>
       </c>
@@ -27201,6 +27201,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A99:K99"/>
@@ -27215,14 +27223,6 @@
     <mergeCell ref="A65:K65"/>
     <mergeCell ref="A66:K66"/>
     <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27234,7 +27234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0499C-ECE6-4332-9D97-B01953C2C420}">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:J82"/>
     </sheetView>
   </sheetViews>
@@ -27251,40 +27251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="130" t="s">
+      <c r="L1" s="131" t="s">
         <v>1596</v>
       </c>
-      <c r="M1" s="124"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
@@ -27483,19 +27483,19 @@
       <c r="U10" s="110"/>
     </row>
     <row r="11" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="123" t="s">
         <v>1597</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
       <c r="L11" s="35"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
@@ -28249,19 +28249,19 @@
       <c r="K45" s="83"/>
     </row>
     <row r="46" spans="1:14" s="110" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="124" t="s">
         <v>1625</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
       <c r="L46" s="35"/>
       <c r="M46"/>
       <c r="N46" s="6"/>
@@ -28938,34 +28938,34 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="131" t="s">
+      <c r="A74" s="130" t="s">
         <v>1713</v>
       </c>
-      <c r="B74" s="131"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
       <c r="K74" s="9"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="125" t="s">
+      <c r="A75" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
       <c r="K75" s="10"/>
       <c r="L75"/>
     </row>
@@ -29087,34 +29087,34 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="131" t="s">
+      <c r="A81" s="130" t="s">
         <v>1714</v>
       </c>
-      <c r="B81" s="131"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="131"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="130"/>
+      <c r="J81" s="130"/>
       <c r="K81" s="9"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="125" t="s">
+      <c r="A82" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
-      <c r="J82" s="125"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
+      <c r="H82" s="129"/>
+      <c r="I82" s="129"/>
+      <c r="J82" s="129"/>
       <c r="K82" s="10"/>
       <c r="L82"/>
     </row>
@@ -29235,35 +29235,35 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="130" t="s">
         <v>1320</v>
       </c>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
-      <c r="G88" s="131"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="131"/>
-      <c r="J88" s="131"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="130"/>
+      <c r="J88" s="130"/>
       <c r="K88" s="9"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="125" t="s">
+      <c r="A89" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="129"/>
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
       <c r="K89" s="10"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -29374,35 +29374,35 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="131" t="s">
+      <c r="A94" s="130" t="s">
         <v>1321</v>
       </c>
-      <c r="B94" s="131"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
-      <c r="F94" s="131"/>
-      <c r="G94" s="131"/>
-      <c r="H94" s="131"/>
-      <c r="I94" s="131"/>
-      <c r="J94" s="131"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="130"/>
+      <c r="G94" s="130"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="130"/>
+      <c r="J94" s="130"/>
       <c r="K94" s="9"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
     <row r="95" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="125" t="s">
+      <c r="A95" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="125"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="125"/>
-      <c r="E95" s="125"/>
-      <c r="F95" s="125"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="125"/>
-      <c r="J95" s="125"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
       <c r="K95" s="10"/>
       <c r="L95"/>
       <c r="M95"/>
@@ -29608,35 +29608,35 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="131" t="s">
+      <c r="A104" s="130" t="s">
         <v>1322</v>
       </c>
-      <c r="B104" s="131"/>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="131"/>
-      <c r="F104" s="131"/>
-      <c r="G104" s="131"/>
-      <c r="H104" s="131"/>
-      <c r="I104" s="131"/>
-      <c r="J104" s="131"/>
+      <c r="B104" s="130"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="130"/>
+      <c r="G104" s="130"/>
+      <c r="H104" s="130"/>
+      <c r="I104" s="130"/>
+      <c r="J104" s="130"/>
       <c r="K104" s="9"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="125" t="s">
+      <c r="A105" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="125"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="125"/>
+      <c r="B105" s="129"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="129"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
       <c r="K105" s="10"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -29836,35 +29836,35 @@
     </row>
     <row r="113" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="131" t="s">
+      <c r="A114" s="130" t="s">
         <v>1323</v>
       </c>
-      <c r="B114" s="131"/>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
-      <c r="F114" s="131"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="131"/>
-      <c r="J114" s="131"/>
+      <c r="B114" s="130"/>
+      <c r="C114" s="130"/>
+      <c r="D114" s="130"/>
+      <c r="E114" s="130"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="130"/>
+      <c r="J114" s="130"/>
       <c r="K114" s="9"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
     <row r="115" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="125" t="s">
+      <c r="A115" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="125"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
-      <c r="F115" s="125"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="125"/>
-      <c r="J115" s="125"/>
+      <c r="B115" s="129"/>
+      <c r="C115" s="129"/>
+      <c r="D115" s="129"/>
+      <c r="E115" s="129"/>
+      <c r="F115" s="129"/>
+      <c r="G115" s="129"/>
+      <c r="H115" s="129"/>
+      <c r="I115" s="129"/>
+      <c r="J115" s="129"/>
       <c r="K115" s="10"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -29988,11 +29988,6 @@
     <row r="121" spans="1:13" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A81:J81"/>
@@ -30005,6 +30000,11 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -30055,43 +30055,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="124">
+      <c r="L1" s="128">
         <v>20210515</v>
       </c>
-      <c r="M1" s="124"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="120"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
@@ -30275,37 +30275,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="123" t="s">
         <v>1377</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="123" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -34822,19 +34822,19 @@
       <c r="L200" s="35"/>
     </row>
     <row r="201" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="121" t="s">
+      <c r="A201" s="123" t="s">
         <v>788</v>
       </c>
-      <c r="B201" s="121"/>
-      <c r="C201" s="121"/>
-      <c r="D201" s="121"/>
-      <c r="E201" s="121"/>
-      <c r="F201" s="121"/>
-      <c r="G201" s="121"/>
-      <c r="H201" s="121"/>
-      <c r="I201" s="121"/>
-      <c r="J201" s="121"/>
-      <c r="K201" s="121"/>
+      <c r="B201" s="123"/>
+      <c r="C201" s="123"/>
+      <c r="D201" s="123"/>
+      <c r="E201" s="123"/>
+      <c r="F201" s="123"/>
+      <c r="G201" s="123"/>
+      <c r="H201" s="123"/>
+      <c r="I201" s="123"/>
+      <c r="J201" s="123"/>
+      <c r="K201" s="123"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -35235,19 +35235,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="121" t="s">
+      <c r="A214" s="123" t="s">
         <v>789</v>
       </c>
-      <c r="B214" s="121"/>
-      <c r="C214" s="121"/>
-      <c r="D214" s="121"/>
-      <c r="E214" s="121"/>
-      <c r="F214" s="121"/>
-      <c r="G214" s="121"/>
-      <c r="H214" s="121"/>
-      <c r="I214" s="121"/>
-      <c r="J214" s="121"/>
-      <c r="K214" s="121"/>
+      <c r="B214" s="123"/>
+      <c r="C214" s="123"/>
+      <c r="D214" s="123"/>
+      <c r="E214" s="123"/>
+      <c r="F214" s="123"/>
+      <c r="G214" s="123"/>
+      <c r="H214" s="123"/>
+      <c r="I214" s="123"/>
+      <c r="J214" s="123"/>
+      <c r="K214" s="123"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -36291,19 +36291,19 @@
       <c r="U247" s="119"/>
     </row>
     <row r="248" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="121" t="s">
+      <c r="A248" s="123" t="s">
         <v>790</v>
       </c>
-      <c r="B248" s="121"/>
-      <c r="C248" s="121"/>
-      <c r="D248" s="121"/>
-      <c r="E248" s="121"/>
-      <c r="F248" s="121"/>
-      <c r="G248" s="121"/>
-      <c r="H248" s="121"/>
-      <c r="I248" s="121"/>
-      <c r="J248" s="121"/>
-      <c r="K248" s="121"/>
+      <c r="B248" s="123"/>
+      <c r="C248" s="123"/>
+      <c r="D248" s="123"/>
+      <c r="E248" s="123"/>
+      <c r="F248" s="123"/>
+      <c r="G248" s="123"/>
+      <c r="H248" s="123"/>
+      <c r="I248" s="123"/>
+      <c r="J248" s="123"/>
+      <c r="K248" s="123"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -37345,19 +37345,19 @@
       <c r="U281" s="119"/>
     </row>
     <row r="282" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="122" t="s">
+      <c r="A282" s="125" t="s">
         <v>512</v>
       </c>
-      <c r="B282" s="122"/>
-      <c r="C282" s="122"/>
-      <c r="D282" s="122"/>
-      <c r="E282" s="122"/>
-      <c r="F282" s="122"/>
-      <c r="G282" s="122"/>
-      <c r="H282" s="122"/>
-      <c r="I282" s="122"/>
-      <c r="J282" s="122"/>
-      <c r="K282" s="122"/>
+      <c r="B282" s="125"/>
+      <c r="C282" s="125"/>
+      <c r="D282" s="125"/>
+      <c r="E282" s="125"/>
+      <c r="F282" s="125"/>
+      <c r="G282" s="125"/>
+      <c r="H282" s="125"/>
+      <c r="I282" s="125"/>
+      <c r="J282" s="125"/>
+      <c r="K282" s="125"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -37966,19 +37966,19 @@
       <c r="L302" s="35"/>
     </row>
     <row r="303" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="129" t="s">
+      <c r="A303" s="124" t="s">
         <v>513</v>
       </c>
-      <c r="B303" s="129"/>
-      <c r="C303" s="129"/>
-      <c r="D303" s="129"/>
-      <c r="E303" s="129"/>
-      <c r="F303" s="129"/>
-      <c r="G303" s="129"/>
-      <c r="H303" s="129"/>
-      <c r="I303" s="129"/>
-      <c r="J303" s="129"/>
-      <c r="K303" s="129"/>
+      <c r="B303" s="124"/>
+      <c r="C303" s="124"/>
+      <c r="D303" s="124"/>
+      <c r="E303" s="124"/>
+      <c r="F303" s="124"/>
+      <c r="G303" s="124"/>
+      <c r="H303" s="124"/>
+      <c r="I303" s="124"/>
+      <c r="J303" s="124"/>
+      <c r="K303" s="124"/>
       <c r="L303" s="35"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -38022,19 +38022,19 @@
       <c r="L306" s="35"/>
     </row>
     <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="129" t="s">
+      <c r="A307" s="124" t="s">
         <v>892</v>
       </c>
-      <c r="B307" s="129"/>
-      <c r="C307" s="129"/>
-      <c r="D307" s="129"/>
-      <c r="E307" s="129"/>
-      <c r="F307" s="129"/>
-      <c r="G307" s="129"/>
-      <c r="H307" s="129"/>
-      <c r="I307" s="129"/>
-      <c r="J307" s="129"/>
-      <c r="K307" s="129"/>
+      <c r="B307" s="124"/>
+      <c r="C307" s="124"/>
+      <c r="D307" s="124"/>
+      <c r="E307" s="124"/>
+      <c r="F307" s="124"/>
+      <c r="G307" s="124"/>
+      <c r="H307" s="124"/>
+      <c r="I307" s="124"/>
+      <c r="J307" s="124"/>
+      <c r="K307" s="124"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -38282,19 +38282,19 @@
       <c r="U313" s="119"/>
     </row>
     <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="128" t="s">
+      <c r="A314" s="126" t="s">
         <v>893</v>
       </c>
-      <c r="B314" s="129"/>
-      <c r="C314" s="129"/>
-      <c r="D314" s="129"/>
-      <c r="E314" s="129"/>
-      <c r="F314" s="129"/>
-      <c r="G314" s="129"/>
-      <c r="H314" s="129"/>
-      <c r="I314" s="129"/>
-      <c r="J314" s="129"/>
-      <c r="K314" s="129"/>
+      <c r="B314" s="124"/>
+      <c r="C314" s="124"/>
+      <c r="D314" s="124"/>
+      <c r="E314" s="124"/>
+      <c r="F314" s="124"/>
+      <c r="G314" s="124"/>
+      <c r="H314" s="124"/>
+      <c r="I314" s="124"/>
+      <c r="J314" s="124"/>
+      <c r="K314" s="124"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -38656,19 +38656,19 @@
       <c r="U323" s="119"/>
     </row>
     <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="129" t="s">
+      <c r="A324" s="124" t="s">
         <v>957</v>
       </c>
-      <c r="B324" s="129"/>
-      <c r="C324" s="129"/>
-      <c r="D324" s="129"/>
-      <c r="E324" s="129"/>
-      <c r="F324" s="129"/>
-      <c r="G324" s="129"/>
-      <c r="H324" s="129"/>
-      <c r="I324" s="129"/>
-      <c r="J324" s="129"/>
-      <c r="K324" s="129"/>
+      <c r="B324" s="124"/>
+      <c r="C324" s="124"/>
+      <c r="D324" s="124"/>
+      <c r="E324" s="124"/>
+      <c r="F324" s="124"/>
+      <c r="G324" s="124"/>
+      <c r="H324" s="124"/>
+      <c r="I324" s="124"/>
+      <c r="J324" s="124"/>
+      <c r="K324" s="124"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -39092,19 +39092,19 @@
       <c r="U334" s="119"/>
     </row>
     <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="129" t="s">
+      <c r="A335" s="124" t="s">
         <v>1010</v>
       </c>
-      <c r="B335" s="129"/>
-      <c r="C335" s="129"/>
-      <c r="D335" s="129"/>
-      <c r="E335" s="129"/>
-      <c r="F335" s="129"/>
-      <c r="G335" s="129"/>
-      <c r="H335" s="129"/>
-      <c r="I335" s="129"/>
-      <c r="J335" s="129"/>
-      <c r="K335" s="129"/>
+      <c r="B335" s="124"/>
+      <c r="C335" s="124"/>
+      <c r="D335" s="124"/>
+      <c r="E335" s="124"/>
+      <c r="F335" s="124"/>
+      <c r="G335" s="124"/>
+      <c r="H335" s="124"/>
+      <c r="I335" s="124"/>
+      <c r="J335" s="124"/>
+      <c r="K335" s="124"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -39572,19 +39572,19 @@
       <c r="U347" s="119"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A348" s="126" t="s">
+      <c r="A348" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="B348" s="126"/>
-      <c r="C348" s="126"/>
-      <c r="D348" s="126"/>
-      <c r="E348" s="126"/>
-      <c r="F348" s="126"/>
-      <c r="G348" s="126"/>
-      <c r="H348" s="126"/>
-      <c r="I348" s="126"/>
-      <c r="J348" s="126"/>
-      <c r="K348" s="127"/>
+      <c r="B348" s="121"/>
+      <c r="C348" s="121"/>
+      <c r="D348" s="121"/>
+      <c r="E348" s="121"/>
+      <c r="F348" s="121"/>
+      <c r="G348" s="121"/>
+      <c r="H348" s="121"/>
+      <c r="I348" s="121"/>
+      <c r="J348" s="121"/>
+      <c r="K348" s="122"/>
       <c r="L348" s="35" t="s">
         <v>1372</v>
       </c>
@@ -39756,35 +39756,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="121" t="s">
+      <c r="A357" s="123" t="s">
         <v>1691</v>
       </c>
-      <c r="B357" s="121"/>
-      <c r="C357" s="121"/>
-      <c r="D357" s="121"/>
-      <c r="E357" s="121"/>
-      <c r="F357" s="121"/>
-      <c r="G357" s="121"/>
-      <c r="H357" s="121"/>
-      <c r="I357" s="121"/>
-      <c r="J357" s="121"/>
-      <c r="K357" s="121"/>
+      <c r="B357" s="123"/>
+      <c r="C357" s="123"/>
+      <c r="D357" s="123"/>
+      <c r="E357" s="123"/>
+      <c r="F357" s="123"/>
+      <c r="G357" s="123"/>
+      <c r="H357" s="123"/>
+      <c r="I357" s="123"/>
+      <c r="J357" s="123"/>
+      <c r="K357" s="123"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="121" t="s">
+      <c r="A358" s="123" t="s">
         <v>1692</v>
       </c>
-      <c r="B358" s="121"/>
-      <c r="C358" s="121"/>
-      <c r="D358" s="121"/>
-      <c r="E358" s="121"/>
-      <c r="F358" s="121"/>
-      <c r="G358" s="121"/>
-      <c r="H358" s="121"/>
-      <c r="I358" s="121"/>
-      <c r="J358" s="121"/>
-      <c r="K358" s="121"/>
+      <c r="B358" s="123"/>
+      <c r="C358" s="123"/>
+      <c r="D358" s="123"/>
+      <c r="E358" s="123"/>
+      <c r="F358" s="123"/>
+      <c r="G358" s="123"/>
+      <c r="H358" s="123"/>
+      <c r="I358" s="123"/>
+      <c r="J358" s="123"/>
+      <c r="K358" s="123"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -41776,19 +41776,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="121" t="s">
+      <c r="A441" s="123" t="s">
         <v>1701</v>
       </c>
-      <c r="B441" s="121"/>
-      <c r="C441" s="121"/>
-      <c r="D441" s="121"/>
-      <c r="E441" s="121"/>
-      <c r="F441" s="121"/>
-      <c r="G441" s="121"/>
-      <c r="H441" s="121"/>
-      <c r="I441" s="121"/>
-      <c r="J441" s="121"/>
-      <c r="K441" s="121"/>
+      <c r="B441" s="123"/>
+      <c r="C441" s="123"/>
+      <c r="D441" s="123"/>
+      <c r="E441" s="123"/>
+      <c r="F441" s="123"/>
+      <c r="G441" s="123"/>
+      <c r="H441" s="123"/>
+      <c r="I441" s="123"/>
+      <c r="J441" s="123"/>
+      <c r="K441" s="123"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -42053,19 +42053,19 @@
       <c r="U449" s="119"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="121" t="s">
+      <c r="A450" s="123" t="s">
         <v>1703</v>
       </c>
-      <c r="B450" s="121"/>
-      <c r="C450" s="121"/>
-      <c r="D450" s="121"/>
-      <c r="E450" s="121"/>
-      <c r="F450" s="121"/>
-      <c r="G450" s="121"/>
-      <c r="H450" s="121"/>
-      <c r="I450" s="121"/>
-      <c r="J450" s="121"/>
-      <c r="K450" s="121"/>
+      <c r="B450" s="123"/>
+      <c r="C450" s="123"/>
+      <c r="D450" s="123"/>
+      <c r="E450" s="123"/>
+      <c r="F450" s="123"/>
+      <c r="G450" s="123"/>
+      <c r="H450" s="123"/>
+      <c r="I450" s="123"/>
+      <c r="J450" s="123"/>
+      <c r="K450" s="123"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -42083,51 +42083,51 @@
       <c r="L451" s="35"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="123" t="s">
+      <c r="A452" s="127" t="s">
         <v>514</v>
       </c>
-      <c r="B452" s="123"/>
-      <c r="C452" s="123"/>
-      <c r="D452" s="123"/>
-      <c r="E452" s="123"/>
-      <c r="F452" s="123"/>
-      <c r="G452" s="123"/>
-      <c r="H452" s="123"/>
-      <c r="I452" s="123"/>
-      <c r="J452" s="123"/>
-      <c r="K452" s="123"/>
+      <c r="B452" s="127"/>
+      <c r="C452" s="127"/>
+      <c r="D452" s="127"/>
+      <c r="E452" s="127"/>
+      <c r="F452" s="127"/>
+      <c r="G452" s="127"/>
+      <c r="H452" s="127"/>
+      <c r="I452" s="127"/>
+      <c r="J452" s="127"/>
+      <c r="K452" s="127"/>
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="122" t="s">
+      <c r="A453" s="125" t="s">
         <v>515</v>
       </c>
-      <c r="B453" s="122"/>
-      <c r="C453" s="122"/>
-      <c r="D453" s="122"/>
-      <c r="E453" s="122"/>
-      <c r="F453" s="122"/>
-      <c r="G453" s="122"/>
-      <c r="H453" s="122"/>
-      <c r="I453" s="122"/>
-      <c r="J453" s="122"/>
-      <c r="K453" s="122"/>
+      <c r="B453" s="125"/>
+      <c r="C453" s="125"/>
+      <c r="D453" s="125"/>
+      <c r="E453" s="125"/>
+      <c r="F453" s="125"/>
+      <c r="G453" s="125"/>
+      <c r="H453" s="125"/>
+      <c r="I453" s="125"/>
+      <c r="J453" s="125"/>
+      <c r="K453" s="125"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="129" t="s">
+      <c r="A454" s="124" t="s">
         <v>516</v>
       </c>
-      <c r="B454" s="129"/>
-      <c r="C454" s="129"/>
-      <c r="D454" s="129"/>
-      <c r="E454" s="129"/>
-      <c r="F454" s="129"/>
-      <c r="G454" s="129"/>
-      <c r="H454" s="129"/>
-      <c r="I454" s="129"/>
-      <c r="J454" s="129"/>
-      <c r="K454" s="129"/>
+      <c r="B454" s="124"/>
+      <c r="C454" s="124"/>
+      <c r="D454" s="124"/>
+      <c r="E454" s="124"/>
+      <c r="F454" s="124"/>
+      <c r="G454" s="124"/>
+      <c r="H454" s="124"/>
+      <c r="I454" s="124"/>
+      <c r="J454" s="124"/>
+      <c r="K454" s="124"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -42187,19 +42187,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="129" t="s">
+      <c r="A462" s="124" t="s">
         <v>1070</v>
       </c>
-      <c r="B462" s="129"/>
-      <c r="C462" s="129"/>
-      <c r="D462" s="129"/>
-      <c r="E462" s="129"/>
-      <c r="F462" s="129"/>
-      <c r="G462" s="129"/>
-      <c r="H462" s="129"/>
-      <c r="I462" s="129"/>
-      <c r="J462" s="129"/>
-      <c r="K462" s="129"/>
+      <c r="B462" s="124"/>
+      <c r="C462" s="124"/>
+      <c r="D462" s="124"/>
+      <c r="E462" s="124"/>
+      <c r="F462" s="124"/>
+      <c r="G462" s="124"/>
+      <c r="H462" s="124"/>
+      <c r="I462" s="124"/>
+      <c r="J462" s="124"/>
+      <c r="K462" s="124"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -42455,19 +42455,19 @@
       <c r="U468" s="119"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="128" t="s">
+      <c r="A469" s="126" t="s">
         <v>1711</v>
       </c>
-      <c r="B469" s="129"/>
-      <c r="C469" s="129"/>
-      <c r="D469" s="129"/>
-      <c r="E469" s="129"/>
-      <c r="F469" s="129"/>
-      <c r="G469" s="129"/>
-      <c r="H469" s="129"/>
-      <c r="I469" s="129"/>
-      <c r="J469" s="129"/>
-      <c r="K469" s="129"/>
+      <c r="B469" s="124"/>
+      <c r="C469" s="124"/>
+      <c r="D469" s="124"/>
+      <c r="E469" s="124"/>
+      <c r="F469" s="124"/>
+      <c r="G469" s="124"/>
+      <c r="H469" s="124"/>
+      <c r="I469" s="124"/>
+      <c r="J469" s="124"/>
+      <c r="K469" s="124"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -42807,19 +42807,19 @@
       <c r="U477" s="119"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="129" t="s">
+      <c r="A478" s="124" t="s">
         <v>1127</v>
       </c>
-      <c r="B478" s="129"/>
-      <c r="C478" s="129"/>
-      <c r="D478" s="129"/>
-      <c r="E478" s="129"/>
-      <c r="F478" s="129"/>
-      <c r="G478" s="129"/>
-      <c r="H478" s="129"/>
-      <c r="I478" s="129"/>
-      <c r="J478" s="129"/>
-      <c r="K478" s="129"/>
+      <c r="B478" s="124"/>
+      <c r="C478" s="124"/>
+      <c r="D478" s="124"/>
+      <c r="E478" s="124"/>
+      <c r="F478" s="124"/>
+      <c r="G478" s="124"/>
+      <c r="H478" s="124"/>
+      <c r="I478" s="124"/>
+      <c r="J478" s="124"/>
+      <c r="K478" s="124"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -43243,19 +43243,19 @@
       <c r="U488" s="119"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="129" t="s">
+      <c r="A489" s="124" t="s">
         <v>1168</v>
       </c>
-      <c r="B489" s="129"/>
-      <c r="C489" s="129"/>
-      <c r="D489" s="129"/>
-      <c r="E489" s="129"/>
-      <c r="F489" s="129"/>
-      <c r="G489" s="129"/>
-      <c r="H489" s="129"/>
-      <c r="I489" s="129"/>
-      <c r="J489" s="129"/>
-      <c r="K489" s="129"/>
+      <c r="B489" s="124"/>
+      <c r="C489" s="124"/>
+      <c r="D489" s="124"/>
+      <c r="E489" s="124"/>
+      <c r="F489" s="124"/>
+      <c r="G489" s="124"/>
+      <c r="H489" s="124"/>
+      <c r="I489" s="124"/>
+      <c r="J489" s="124"/>
+      <c r="K489" s="124"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -43723,19 +43723,19 @@
       <c r="U501" s="119"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="126" t="s">
+      <c r="A502" s="121" t="s">
         <v>510</v>
       </c>
-      <c r="B502" s="126"/>
-      <c r="C502" s="126"/>
-      <c r="D502" s="126"/>
-      <c r="E502" s="126"/>
-      <c r="F502" s="126"/>
-      <c r="G502" s="126"/>
-      <c r="H502" s="126"/>
-      <c r="I502" s="126"/>
-      <c r="J502" s="126"/>
-      <c r="K502" s="127"/>
+      <c r="B502" s="121"/>
+      <c r="C502" s="121"/>
+      <c r="D502" s="121"/>
+      <c r="E502" s="121"/>
+      <c r="F502" s="121"/>
+      <c r="G502" s="121"/>
+      <c r="H502" s="121"/>
+      <c r="I502" s="121"/>
+      <c r="J502" s="121"/>
+      <c r="K502" s="122"/>
       <c r="L502" s="35" t="s">
         <v>1373</v>
       </c>
@@ -43943,19 +43943,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="121" t="s">
+      <c r="A512" s="123" t="s">
         <v>1342</v>
       </c>
-      <c r="B512" s="121"/>
-      <c r="C512" s="121"/>
-      <c r="D512" s="121"/>
-      <c r="E512" s="121"/>
-      <c r="F512" s="121"/>
-      <c r="G512" s="121"/>
-      <c r="H512" s="121"/>
-      <c r="I512" s="121"/>
-      <c r="J512" s="121"/>
-      <c r="K512" s="121"/>
+      <c r="B512" s="123"/>
+      <c r="C512" s="123"/>
+      <c r="D512" s="123"/>
+      <c r="E512" s="123"/>
+      <c r="F512" s="123"/>
+      <c r="G512" s="123"/>
+      <c r="H512" s="123"/>
+      <c r="I512" s="123"/>
+      <c r="J512" s="123"/>
+      <c r="K512" s="123"/>
       <c r="L512" s="35"/>
     </row>
     <row r="513" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -44313,51 +44313,51 @@
       <c r="L523" s="35"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="123" t="s">
+      <c r="A524" s="127" t="s">
         <v>1380</v>
       </c>
-      <c r="B524" s="123"/>
-      <c r="C524" s="123"/>
-      <c r="D524" s="123"/>
-      <c r="E524" s="123"/>
-      <c r="F524" s="123"/>
-      <c r="G524" s="123"/>
-      <c r="H524" s="123"/>
-      <c r="I524" s="123"/>
-      <c r="J524" s="123"/>
-      <c r="K524" s="123"/>
+      <c r="B524" s="127"/>
+      <c r="C524" s="127"/>
+      <c r="D524" s="127"/>
+      <c r="E524" s="127"/>
+      <c r="F524" s="127"/>
+      <c r="G524" s="127"/>
+      <c r="H524" s="127"/>
+      <c r="I524" s="127"/>
+      <c r="J524" s="127"/>
+      <c r="K524" s="127"/>
       <c r="L524" s="35"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="122" t="s">
+      <c r="A525" s="125" t="s">
         <v>1381</v>
       </c>
-      <c r="B525" s="122"/>
-      <c r="C525" s="122"/>
-      <c r="D525" s="122"/>
-      <c r="E525" s="122"/>
-      <c r="F525" s="122"/>
-      <c r="G525" s="122"/>
-      <c r="H525" s="122"/>
-      <c r="I525" s="122"/>
-      <c r="J525" s="122"/>
-      <c r="K525" s="122"/>
+      <c r="B525" s="125"/>
+      <c r="C525" s="125"/>
+      <c r="D525" s="125"/>
+      <c r="E525" s="125"/>
+      <c r="F525" s="125"/>
+      <c r="G525" s="125"/>
+      <c r="H525" s="125"/>
+      <c r="I525" s="125"/>
+      <c r="J525" s="125"/>
+      <c r="K525" s="125"/>
       <c r="L525" s="35"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="129" t="s">
+      <c r="A526" s="124" t="s">
         <v>1382</v>
       </c>
-      <c r="B526" s="129"/>
-      <c r="C526" s="129"/>
-      <c r="D526" s="129"/>
-      <c r="E526" s="129"/>
-      <c r="F526" s="129"/>
-      <c r="G526" s="129"/>
-      <c r="H526" s="129"/>
-      <c r="I526" s="129"/>
-      <c r="J526" s="129"/>
-      <c r="K526" s="129"/>
+      <c r="B526" s="124"/>
+      <c r="C526" s="124"/>
+      <c r="D526" s="124"/>
+      <c r="E526" s="124"/>
+      <c r="F526" s="124"/>
+      <c r="G526" s="124"/>
+      <c r="H526" s="124"/>
+      <c r="I526" s="124"/>
+      <c r="J526" s="124"/>
+      <c r="K526" s="124"/>
       <c r="L526" s="35"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -44417,19 +44417,19 @@
       <c r="L533" s="35"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="129" t="s">
+      <c r="A534" s="124" t="s">
         <v>1383</v>
       </c>
-      <c r="B534" s="129"/>
-      <c r="C534" s="129"/>
-      <c r="D534" s="129"/>
-      <c r="E534" s="129"/>
-      <c r="F534" s="129"/>
-      <c r="G534" s="129"/>
-      <c r="H534" s="129"/>
-      <c r="I534" s="129"/>
-      <c r="J534" s="129"/>
-      <c r="K534" s="129"/>
+      <c r="B534" s="124"/>
+      <c r="C534" s="124"/>
+      <c r="D534" s="124"/>
+      <c r="E534" s="124"/>
+      <c r="F534" s="124"/>
+      <c r="G534" s="124"/>
+      <c r="H534" s="124"/>
+      <c r="I534" s="124"/>
+      <c r="J534" s="124"/>
+      <c r="K534" s="124"/>
       <c r="L534" s="35"/>
     </row>
     <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -44685,19 +44685,19 @@
       <c r="U540" s="119"/>
     </row>
     <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="128" t="s">
+      <c r="A541" s="126" t="s">
         <v>1690</v>
       </c>
-      <c r="B541" s="129"/>
-      <c r="C541" s="129"/>
-      <c r="D541" s="129"/>
-      <c r="E541" s="129"/>
-      <c r="F541" s="129"/>
-      <c r="G541" s="129"/>
-      <c r="H541" s="129"/>
-      <c r="I541" s="129"/>
-      <c r="J541" s="129"/>
-      <c r="K541" s="129"/>
+      <c r="B541" s="124"/>
+      <c r="C541" s="124"/>
+      <c r="D541" s="124"/>
+      <c r="E541" s="124"/>
+      <c r="F541" s="124"/>
+      <c r="G541" s="124"/>
+      <c r="H541" s="124"/>
+      <c r="I541" s="124"/>
+      <c r="J541" s="124"/>
+      <c r="K541" s="124"/>
       <c r="L541" s="35"/>
     </row>
     <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45037,19 +45037,19 @@
       <c r="U549" s="119"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="129" t="s">
+      <c r="A550" s="124" t="s">
         <v>1440</v>
       </c>
-      <c r="B550" s="129"/>
-      <c r="C550" s="129"/>
-      <c r="D550" s="129"/>
-      <c r="E550" s="129"/>
-      <c r="F550" s="129"/>
-      <c r="G550" s="129"/>
-      <c r="H550" s="129"/>
-      <c r="I550" s="129"/>
-      <c r="J550" s="129"/>
-      <c r="K550" s="129"/>
+      <c r="B550" s="124"/>
+      <c r="C550" s="124"/>
+      <c r="D550" s="124"/>
+      <c r="E550" s="124"/>
+      <c r="F550" s="124"/>
+      <c r="G550" s="124"/>
+      <c r="H550" s="124"/>
+      <c r="I550" s="124"/>
+      <c r="J550" s="124"/>
+      <c r="K550" s="124"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45473,19 +45473,19 @@
       <c r="U560" s="119"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="129" t="s">
+      <c r="A561" s="124" t="s">
         <v>1481</v>
       </c>
-      <c r="B561" s="129"/>
-      <c r="C561" s="129"/>
-      <c r="D561" s="129"/>
-      <c r="E561" s="129"/>
-      <c r="F561" s="129"/>
-      <c r="G561" s="129"/>
-      <c r="H561" s="129"/>
-      <c r="I561" s="129"/>
-      <c r="J561" s="129"/>
-      <c r="K561" s="129"/>
+      <c r="B561" s="124"/>
+      <c r="C561" s="124"/>
+      <c r="D561" s="124"/>
+      <c r="E561" s="124"/>
+      <c r="F561" s="124"/>
+      <c r="G561" s="124"/>
+      <c r="H561" s="124"/>
+      <c r="I561" s="124"/>
+      <c r="J561" s="124"/>
+      <c r="K561" s="124"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45953,19 +45953,19 @@
       <c r="U573" s="119"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="126" t="s">
+      <c r="A574" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="B574" s="126"/>
-      <c r="C574" s="126"/>
-      <c r="D574" s="126"/>
-      <c r="E574" s="126"/>
-      <c r="F574" s="126"/>
-      <c r="G574" s="126"/>
-      <c r="H574" s="126"/>
-      <c r="I574" s="126"/>
-      <c r="J574" s="126"/>
-      <c r="K574" s="127"/>
+      <c r="B574" s="121"/>
+      <c r="C574" s="121"/>
+      <c r="D574" s="121"/>
+      <c r="E574" s="121"/>
+      <c r="F574" s="121"/>
+      <c r="G574" s="121"/>
+      <c r="H574" s="121"/>
+      <c r="I574" s="121"/>
+      <c r="J574" s="121"/>
+      <c r="K574" s="122"/>
       <c r="L574" s="35" t="s">
         <v>1374</v>
       </c>
@@ -46174,19 +46174,19 @@
       </c>
     </row>
     <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="121" t="s">
+      <c r="A584" s="123" t="s">
         <v>1712</v>
       </c>
-      <c r="B584" s="121"/>
-      <c r="C584" s="121"/>
-      <c r="D584" s="121"/>
-      <c r="E584" s="121"/>
-      <c r="F584" s="121"/>
-      <c r="G584" s="121"/>
-      <c r="H584" s="121"/>
-      <c r="I584" s="121"/>
-      <c r="J584" s="121"/>
-      <c r="K584" s="121"/>
+      <c r="B584" s="123"/>
+      <c r="C584" s="123"/>
+      <c r="D584" s="123"/>
+      <c r="E584" s="123"/>
+      <c r="F584" s="123"/>
+      <c r="G584" s="123"/>
+      <c r="H584" s="123"/>
+      <c r="I584" s="123"/>
+      <c r="J584" s="123"/>
+      <c r="K584" s="123"/>
       <c r="L584" s="35"/>
     </row>
     <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -46803,19 +46803,19 @@
       <c r="D609" s="104"/>
     </row>
     <row r="610" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="126" t="s">
+      <c r="A610" s="121" t="s">
         <v>1376</v>
       </c>
-      <c r="B610" s="126"/>
-      <c r="C610" s="126"/>
-      <c r="D610" s="126"/>
-      <c r="E610" s="126"/>
-      <c r="F610" s="126"/>
-      <c r="G610" s="126"/>
-      <c r="H610" s="126"/>
-      <c r="I610" s="126"/>
-      <c r="J610" s="126"/>
-      <c r="K610" s="127"/>
+      <c r="B610" s="121"/>
+      <c r="C610" s="121"/>
+      <c r="D610" s="121"/>
+      <c r="E610" s="121"/>
+      <c r="F610" s="121"/>
+      <c r="G610" s="121"/>
+      <c r="H610" s="121"/>
+      <c r="I610" s="121"/>
+      <c r="J610" s="121"/>
+      <c r="K610" s="122"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
@@ -46935,6 +46935,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A441:K441"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A303:K303"/>
+    <mergeCell ref="A307:K307"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A324:K324"/>
+    <mergeCell ref="A335:K335"/>
+    <mergeCell ref="A348:K348"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A525:K525"/>
+    <mergeCell ref="A450:K450"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A454:K454"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A469:K469"/>
+    <mergeCell ref="A478:K478"/>
+    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A502:K502"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A524:K524"/>
     <mergeCell ref="A584:K584"/>
     <mergeCell ref="A610:K610"/>
     <mergeCell ref="A526:K526"/>
@@ -46943,36 +46973,6 @@
     <mergeCell ref="A550:K550"/>
     <mergeCell ref="A561:K561"/>
     <mergeCell ref="A574:K574"/>
-    <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A489:K489"/>
-    <mergeCell ref="A502:K502"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A524:K524"/>
-    <mergeCell ref="A525:K525"/>
-    <mergeCell ref="A450:K450"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A454:K454"/>
-    <mergeCell ref="A462:K462"/>
-    <mergeCell ref="A469:K469"/>
-    <mergeCell ref="A324:K324"/>
-    <mergeCell ref="A335:K335"/>
-    <mergeCell ref="A348:K348"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A441:K441"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A303:K303"/>
-    <mergeCell ref="A307:K307"/>
-    <mergeCell ref="A314:K314"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A201:K201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47006,40 +47006,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="130" t="s">
+      <c r="L1" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="124"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -47114,18 +47114,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="33"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -50241,18 +50241,18 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="126" t="s">
+      <c r="A112" s="121" t="s">
         <v>330</v>
       </c>
-      <c r="B112" s="126"/>
-      <c r="C112" s="126"/>
-      <c r="D112" s="126"/>
-      <c r="E112" s="126"/>
-      <c r="F112" s="126"/>
-      <c r="G112" s="126"/>
-      <c r="H112" s="126"/>
-      <c r="I112" s="126"/>
-      <c r="J112" s="126"/>
+      <c r="B112" s="121"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="121"/>
+      <c r="I112" s="121"/>
+      <c r="J112" s="121"/>
       <c r="K112" s="33"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -50611,18 +50611,18 @@
       <c r="N126" s="6"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="125" t="s">
+      <c r="A128" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="B128" s="125"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="125"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="125"/>
-      <c r="G128" s="125"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="125"/>
-      <c r="J128" s="125"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="129"/>
+      <c r="F128" s="129"/>
+      <c r="G128" s="129"/>
+      <c r="H128" s="129"/>
+      <c r="I128" s="129"/>
+      <c r="J128" s="129"/>
       <c r="K128" s="10"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51128,18 +51128,18 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="125" t="s">
+      <c r="A153" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="125"/>
-      <c r="C153" s="125"/>
-      <c r="D153" s="125"/>
-      <c r="E153" s="125"/>
-      <c r="F153" s="125"/>
-      <c r="G153" s="125"/>
-      <c r="H153" s="125"/>
-      <c r="I153" s="125"/>
-      <c r="J153" s="125"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="129"/>
+      <c r="D153" s="129"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="129"/>
+      <c r="G153" s="129"/>
+      <c r="H153" s="129"/>
+      <c r="I153" s="129"/>
+      <c r="J153" s="129"/>
       <c r="K153" s="10"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51403,18 +51403,18 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="125" t="s">
+      <c r="A168" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="B168" s="125"/>
-      <c r="C168" s="125"/>
-      <c r="D168" s="125"/>
-      <c r="E168" s="125"/>
-      <c r="F168" s="125"/>
-      <c r="G168" s="125"/>
-      <c r="H168" s="125"/>
-      <c r="I168" s="125"/>
-      <c r="J168" s="125"/>
+      <c r="B168" s="129"/>
+      <c r="C168" s="129"/>
+      <c r="D168" s="129"/>
+      <c r="E168" s="129"/>
+      <c r="F168" s="129"/>
+      <c r="G168" s="129"/>
+      <c r="H168" s="129"/>
+      <c r="I168" s="129"/>
+      <c r="J168" s="129"/>
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51830,10 +51830,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="122" t="s">
         <v>415</v>
       </c>
-      <c r="B23" s="127"/>
+      <c r="B23" s="122"/>
       <c r="C23" t="s">
         <v>420</v>
       </c>

--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84014D8C-AB3C-40E4-9606-53B83656FDB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F0ECE-7589-4219-8FE4-E69ED6D3E9CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
   <sheets>
     <sheet name="List_Net_v4" sheetId="4" r:id="rId1"/>
@@ -5813,7 +5813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6049,21 +6049,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6074,11 +6064,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6106,6 +6106,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6484,7 +6490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA282CF-049F-4372-95A9-9E82C74C253D}">
   <dimension ref="A1:U620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
@@ -6505,43 +6511,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="128">
+      <c r="L1" s="124">
         <v>20210515</v>
       </c>
-      <c r="M1" s="128"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="125" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="13"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
@@ -6725,37 +6731,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="121" t="s">
         <v>1377</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -11272,19 +11278,19 @@
       <c r="L200" s="35"/>
     </row>
     <row r="201" spans="1:21" s="11" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="123" t="s">
+      <c r="A201" s="121" t="s">
         <v>788</v>
       </c>
-      <c r="B201" s="123"/>
-      <c r="C201" s="123"/>
-      <c r="D201" s="123"/>
-      <c r="E201" s="123"/>
-      <c r="F201" s="123"/>
-      <c r="G201" s="123"/>
-      <c r="H201" s="123"/>
-      <c r="I201" s="123"/>
-      <c r="J201" s="123"/>
-      <c r="K201" s="123"/>
+      <c r="B201" s="121"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="121"/>
+      <c r="E201" s="121"/>
+      <c r="F201" s="121"/>
+      <c r="G201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="121"/>
+      <c r="K201" s="121"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -11685,19 +11691,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="123" t="s">
+      <c r="A214" s="121" t="s">
         <v>789</v>
       </c>
-      <c r="B214" s="123"/>
-      <c r="C214" s="123"/>
-      <c r="D214" s="123"/>
-      <c r="E214" s="123"/>
-      <c r="F214" s="123"/>
-      <c r="G214" s="123"/>
-      <c r="H214" s="123"/>
-      <c r="I214" s="123"/>
-      <c r="J214" s="123"/>
-      <c r="K214" s="123"/>
+      <c r="B214" s="121"/>
+      <c r="C214" s="121"/>
+      <c r="D214" s="121"/>
+      <c r="E214" s="121"/>
+      <c r="F214" s="121"/>
+      <c r="G214" s="121"/>
+      <c r="H214" s="121"/>
+      <c r="I214" s="121"/>
+      <c r="J214" s="121"/>
+      <c r="K214" s="121"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -12741,19 +12747,19 @@
       <c r="U247" s="14"/>
     </row>
     <row r="248" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="123" t="s">
+      <c r="A248" s="121" t="s">
         <v>790</v>
       </c>
-      <c r="B248" s="123"/>
-      <c r="C248" s="123"/>
-      <c r="D248" s="123"/>
-      <c r="E248" s="123"/>
-      <c r="F248" s="123"/>
-      <c r="G248" s="123"/>
-      <c r="H248" s="123"/>
-      <c r="I248" s="123"/>
-      <c r="J248" s="123"/>
-      <c r="K248" s="123"/>
+      <c r="B248" s="121"/>
+      <c r="C248" s="121"/>
+      <c r="D248" s="121"/>
+      <c r="E248" s="121"/>
+      <c r="F248" s="121"/>
+      <c r="G248" s="121"/>
+      <c r="H248" s="121"/>
+      <c r="I248" s="121"/>
+      <c r="J248" s="121"/>
+      <c r="K248" s="121"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -13795,19 +13801,19 @@
       <c r="U281" s="44"/>
     </row>
     <row r="282" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="125" t="s">
+      <c r="A282" s="122" t="s">
         <v>512</v>
       </c>
-      <c r="B282" s="125"/>
-      <c r="C282" s="125"/>
-      <c r="D282" s="125"/>
-      <c r="E282" s="125"/>
-      <c r="F282" s="125"/>
-      <c r="G282" s="125"/>
-      <c r="H282" s="125"/>
-      <c r="I282" s="125"/>
-      <c r="J282" s="125"/>
-      <c r="K282" s="125"/>
+      <c r="B282" s="122"/>
+      <c r="C282" s="122"/>
+      <c r="D282" s="122"/>
+      <c r="E282" s="122"/>
+      <c r="F282" s="122"/>
+      <c r="G282" s="122"/>
+      <c r="H282" s="122"/>
+      <c r="I282" s="122"/>
+      <c r="J282" s="122"/>
+      <c r="K282" s="122"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14416,19 +14422,19 @@
       <c r="L302" s="35"/>
     </row>
     <row r="303" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="124" t="s">
+      <c r="A303" s="129" t="s">
         <v>513</v>
       </c>
-      <c r="B303" s="124"/>
-      <c r="C303" s="124"/>
-      <c r="D303" s="124"/>
-      <c r="E303" s="124"/>
-      <c r="F303" s="124"/>
-      <c r="G303" s="124"/>
-      <c r="H303" s="124"/>
-      <c r="I303" s="124"/>
-      <c r="J303" s="124"/>
-      <c r="K303" s="124"/>
+      <c r="B303" s="129"/>
+      <c r="C303" s="129"/>
+      <c r="D303" s="129"/>
+      <c r="E303" s="129"/>
+      <c r="F303" s="129"/>
+      <c r="G303" s="129"/>
+      <c r="H303" s="129"/>
+      <c r="I303" s="129"/>
+      <c r="J303" s="129"/>
+      <c r="K303" s="129"/>
       <c r="L303" s="35"/>
     </row>
     <row r="304" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14472,19 +14478,19 @@
       <c r="L306" s="35"/>
     </row>
     <row r="307" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="124" t="s">
+      <c r="A307" s="129" t="s">
         <v>892</v>
       </c>
-      <c r="B307" s="124"/>
-      <c r="C307" s="124"/>
-      <c r="D307" s="124"/>
-      <c r="E307" s="124"/>
-      <c r="F307" s="124"/>
-      <c r="G307" s="124"/>
-      <c r="H307" s="124"/>
-      <c r="I307" s="124"/>
-      <c r="J307" s="124"/>
-      <c r="K307" s="124"/>
+      <c r="B307" s="129"/>
+      <c r="C307" s="129"/>
+      <c r="D307" s="129"/>
+      <c r="E307" s="129"/>
+      <c r="F307" s="129"/>
+      <c r="G307" s="129"/>
+      <c r="H307" s="129"/>
+      <c r="I307" s="129"/>
+      <c r="J307" s="129"/>
+      <c r="K307" s="129"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -14732,19 +14738,19 @@
       <c r="U313" s="14"/>
     </row>
     <row r="314" spans="1:21" ht="31.2" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="126" t="s">
+      <c r="A314" s="128" t="s">
         <v>893</v>
       </c>
-      <c r="B314" s="124"/>
-      <c r="C314" s="124"/>
-      <c r="D314" s="124"/>
-      <c r="E314" s="124"/>
-      <c r="F314" s="124"/>
-      <c r="G314" s="124"/>
-      <c r="H314" s="124"/>
-      <c r="I314" s="124"/>
-      <c r="J314" s="124"/>
-      <c r="K314" s="124"/>
+      <c r="B314" s="129"/>
+      <c r="C314" s="129"/>
+      <c r="D314" s="129"/>
+      <c r="E314" s="129"/>
+      <c r="F314" s="129"/>
+      <c r="G314" s="129"/>
+      <c r="H314" s="129"/>
+      <c r="I314" s="129"/>
+      <c r="J314" s="129"/>
+      <c r="K314" s="129"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15106,19 +15112,19 @@
       <c r="U323" s="14"/>
     </row>
     <row r="324" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="124" t="s">
+      <c r="A324" s="129" t="s">
         <v>957</v>
       </c>
-      <c r="B324" s="124"/>
-      <c r="C324" s="124"/>
-      <c r="D324" s="124"/>
-      <c r="E324" s="124"/>
-      <c r="F324" s="124"/>
-      <c r="G324" s="124"/>
-      <c r="H324" s="124"/>
-      <c r="I324" s="124"/>
-      <c r="J324" s="124"/>
-      <c r="K324" s="124"/>
+      <c r="B324" s="129"/>
+      <c r="C324" s="129"/>
+      <c r="D324" s="129"/>
+      <c r="E324" s="129"/>
+      <c r="F324" s="129"/>
+      <c r="G324" s="129"/>
+      <c r="H324" s="129"/>
+      <c r="I324" s="129"/>
+      <c r="J324" s="129"/>
+      <c r="K324" s="129"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -15542,19 +15548,19 @@
       <c r="U334" s="14"/>
     </row>
     <row r="335" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="124" t="s">
+      <c r="A335" s="129" t="s">
         <v>1010</v>
       </c>
-      <c r="B335" s="124"/>
-      <c r="C335" s="124"/>
-      <c r="D335" s="124"/>
-      <c r="E335" s="124"/>
-      <c r="F335" s="124"/>
-      <c r="G335" s="124"/>
-      <c r="H335" s="124"/>
-      <c r="I335" s="124"/>
-      <c r="J335" s="124"/>
-      <c r="K335" s="124"/>
+      <c r="B335" s="129"/>
+      <c r="C335" s="129"/>
+      <c r="D335" s="129"/>
+      <c r="E335" s="129"/>
+      <c r="F335" s="129"/>
+      <c r="G335" s="129"/>
+      <c r="H335" s="129"/>
+      <c r="I335" s="129"/>
+      <c r="J335" s="129"/>
+      <c r="K335" s="129"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -16022,19 +16028,19 @@
       <c r="U347" s="44"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A348" s="121" t="s">
+      <c r="A348" s="126" t="s">
         <v>509</v>
       </c>
-      <c r="B348" s="121"/>
-      <c r="C348" s="121"/>
-      <c r="D348" s="121"/>
-      <c r="E348" s="121"/>
-      <c r="F348" s="121"/>
-      <c r="G348" s="121"/>
-      <c r="H348" s="121"/>
-      <c r="I348" s="121"/>
-      <c r="J348" s="121"/>
-      <c r="K348" s="122"/>
+      <c r="B348" s="126"/>
+      <c r="C348" s="126"/>
+      <c r="D348" s="126"/>
+      <c r="E348" s="126"/>
+      <c r="F348" s="126"/>
+      <c r="G348" s="126"/>
+      <c r="H348" s="126"/>
+      <c r="I348" s="126"/>
+      <c r="J348" s="126"/>
+      <c r="K348" s="127"/>
       <c r="L348" s="35" t="s">
         <v>1372</v>
       </c>
@@ -16206,35 +16212,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="123" t="s">
+      <c r="A357" s="121" t="s">
         <v>1691</v>
       </c>
-      <c r="B357" s="123"/>
-      <c r="C357" s="123"/>
-      <c r="D357" s="123"/>
-      <c r="E357" s="123"/>
-      <c r="F357" s="123"/>
-      <c r="G357" s="123"/>
-      <c r="H357" s="123"/>
-      <c r="I357" s="123"/>
-      <c r="J357" s="123"/>
-      <c r="K357" s="123"/>
+      <c r="B357" s="121"/>
+      <c r="C357" s="121"/>
+      <c r="D357" s="121"/>
+      <c r="E357" s="121"/>
+      <c r="F357" s="121"/>
+      <c r="G357" s="121"/>
+      <c r="H357" s="121"/>
+      <c r="I357" s="121"/>
+      <c r="J357" s="121"/>
+      <c r="K357" s="121"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="123" t="s">
+      <c r="A358" s="121" t="s">
         <v>1692</v>
       </c>
-      <c r="B358" s="123"/>
-      <c r="C358" s="123"/>
-      <c r="D358" s="123"/>
-      <c r="E358" s="123"/>
-      <c r="F358" s="123"/>
-      <c r="G358" s="123"/>
-      <c r="H358" s="123"/>
-      <c r="I358" s="123"/>
-      <c r="J358" s="123"/>
-      <c r="K358" s="123"/>
+      <c r="B358" s="121"/>
+      <c r="C358" s="121"/>
+      <c r="D358" s="121"/>
+      <c r="E358" s="121"/>
+      <c r="F358" s="121"/>
+      <c r="G358" s="121"/>
+      <c r="H358" s="121"/>
+      <c r="I358" s="121"/>
+      <c r="J358" s="121"/>
+      <c r="K358" s="121"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18226,19 +18232,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="123" t="s">
+      <c r="A441" s="121" t="s">
         <v>1701</v>
       </c>
-      <c r="B441" s="123"/>
-      <c r="C441" s="123"/>
-      <c r="D441" s="123"/>
-      <c r="E441" s="123"/>
-      <c r="F441" s="123"/>
-      <c r="G441" s="123"/>
-      <c r="H441" s="123"/>
-      <c r="I441" s="123"/>
-      <c r="J441" s="123"/>
-      <c r="K441" s="123"/>
+      <c r="B441" s="121"/>
+      <c r="C441" s="121"/>
+      <c r="D441" s="121"/>
+      <c r="E441" s="121"/>
+      <c r="F441" s="121"/>
+      <c r="G441" s="121"/>
+      <c r="H441" s="121"/>
+      <c r="I441" s="121"/>
+      <c r="J441" s="121"/>
+      <c r="K441" s="121"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -18503,19 +18509,19 @@
       <c r="U449" s="14"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="123" t="s">
+      <c r="A450" s="121" t="s">
         <v>1703</v>
       </c>
-      <c r="B450" s="123"/>
-      <c r="C450" s="123"/>
-      <c r="D450" s="123"/>
-      <c r="E450" s="123"/>
-      <c r="F450" s="123"/>
-      <c r="G450" s="123"/>
-      <c r="H450" s="123"/>
-      <c r="I450" s="123"/>
-      <c r="J450" s="123"/>
-      <c r="K450" s="123"/>
+      <c r="B450" s="121"/>
+      <c r="C450" s="121"/>
+      <c r="D450" s="121"/>
+      <c r="E450" s="121"/>
+      <c r="F450" s="121"/>
+      <c r="G450" s="121"/>
+      <c r="H450" s="121"/>
+      <c r="I450" s="121"/>
+      <c r="J450" s="121"/>
+      <c r="K450" s="121"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18533,51 +18539,51 @@
       <c r="L451" s="35"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="127" t="s">
+      <c r="A452" s="123" t="s">
         <v>514</v>
       </c>
-      <c r="B452" s="127"/>
-      <c r="C452" s="127"/>
-      <c r="D452" s="127"/>
-      <c r="E452" s="127"/>
-      <c r="F452" s="127"/>
-      <c r="G452" s="127"/>
-      <c r="H452" s="127"/>
-      <c r="I452" s="127"/>
-      <c r="J452" s="127"/>
-      <c r="K452" s="127"/>
+      <c r="B452" s="123"/>
+      <c r="C452" s="123"/>
+      <c r="D452" s="123"/>
+      <c r="E452" s="123"/>
+      <c r="F452" s="123"/>
+      <c r="G452" s="123"/>
+      <c r="H452" s="123"/>
+      <c r="I452" s="123"/>
+      <c r="J452" s="123"/>
+      <c r="K452" s="123"/>
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="125" t="s">
+      <c r="A453" s="122" t="s">
         <v>515</v>
       </c>
-      <c r="B453" s="125"/>
-      <c r="C453" s="125"/>
-      <c r="D453" s="125"/>
-      <c r="E453" s="125"/>
-      <c r="F453" s="125"/>
-      <c r="G453" s="125"/>
-      <c r="H453" s="125"/>
-      <c r="I453" s="125"/>
-      <c r="J453" s="125"/>
-      <c r="K453" s="125"/>
+      <c r="B453" s="122"/>
+      <c r="C453" s="122"/>
+      <c r="D453" s="122"/>
+      <c r="E453" s="122"/>
+      <c r="F453" s="122"/>
+      <c r="G453" s="122"/>
+      <c r="H453" s="122"/>
+      <c r="I453" s="122"/>
+      <c r="J453" s="122"/>
+      <c r="K453" s="122"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="124" t="s">
+      <c r="A454" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="B454" s="124"/>
-      <c r="C454" s="124"/>
-      <c r="D454" s="124"/>
-      <c r="E454" s="124"/>
-      <c r="F454" s="124"/>
-      <c r="G454" s="124"/>
-      <c r="H454" s="124"/>
-      <c r="I454" s="124"/>
-      <c r="J454" s="124"/>
-      <c r="K454" s="124"/>
+      <c r="B454" s="129"/>
+      <c r="C454" s="129"/>
+      <c r="D454" s="129"/>
+      <c r="E454" s="129"/>
+      <c r="F454" s="129"/>
+      <c r="G454" s="129"/>
+      <c r="H454" s="129"/>
+      <c r="I454" s="129"/>
+      <c r="J454" s="129"/>
+      <c r="K454" s="129"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -18637,19 +18643,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="124" t="s">
+      <c r="A462" s="129" t="s">
         <v>1070</v>
       </c>
-      <c r="B462" s="124"/>
-      <c r="C462" s="124"/>
-      <c r="D462" s="124"/>
-      <c r="E462" s="124"/>
-      <c r="F462" s="124"/>
-      <c r="G462" s="124"/>
-      <c r="H462" s="124"/>
-      <c r="I462" s="124"/>
-      <c r="J462" s="124"/>
-      <c r="K462" s="124"/>
+      <c r="B462" s="129"/>
+      <c r="C462" s="129"/>
+      <c r="D462" s="129"/>
+      <c r="E462" s="129"/>
+      <c r="F462" s="129"/>
+      <c r="G462" s="129"/>
+      <c r="H462" s="129"/>
+      <c r="I462" s="129"/>
+      <c r="J462" s="129"/>
+      <c r="K462" s="129"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -18905,19 +18911,19 @@
       <c r="U468" s="14"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="126" t="s">
+      <c r="A469" s="128" t="s">
         <v>1711</v>
       </c>
-      <c r="B469" s="124"/>
-      <c r="C469" s="124"/>
-      <c r="D469" s="124"/>
-      <c r="E469" s="124"/>
-      <c r="F469" s="124"/>
-      <c r="G469" s="124"/>
-      <c r="H469" s="124"/>
-      <c r="I469" s="124"/>
-      <c r="J469" s="124"/>
-      <c r="K469" s="124"/>
+      <c r="B469" s="129"/>
+      <c r="C469" s="129"/>
+      <c r="D469" s="129"/>
+      <c r="E469" s="129"/>
+      <c r="F469" s="129"/>
+      <c r="G469" s="129"/>
+      <c r="H469" s="129"/>
+      <c r="I469" s="129"/>
+      <c r="J469" s="129"/>
+      <c r="K469" s="129"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19257,19 +19263,19 @@
       <c r="U477" s="14"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="124" t="s">
+      <c r="A478" s="129" t="s">
         <v>1127</v>
       </c>
-      <c r="B478" s="124"/>
-      <c r="C478" s="124"/>
-      <c r="D478" s="124"/>
-      <c r="E478" s="124"/>
-      <c r="F478" s="124"/>
-      <c r="G478" s="124"/>
-      <c r="H478" s="124"/>
-      <c r="I478" s="124"/>
-      <c r="J478" s="124"/>
-      <c r="K478" s="124"/>
+      <c r="B478" s="129"/>
+      <c r="C478" s="129"/>
+      <c r="D478" s="129"/>
+      <c r="E478" s="129"/>
+      <c r="F478" s="129"/>
+      <c r="G478" s="129"/>
+      <c r="H478" s="129"/>
+      <c r="I478" s="129"/>
+      <c r="J478" s="129"/>
+      <c r="K478" s="129"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -19693,19 +19699,19 @@
       <c r="U488" s="14"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="124" t="s">
+      <c r="A489" s="129" t="s">
         <v>1168</v>
       </c>
-      <c r="B489" s="124"/>
-      <c r="C489" s="124"/>
-      <c r="D489" s="124"/>
-      <c r="E489" s="124"/>
-      <c r="F489" s="124"/>
-      <c r="G489" s="124"/>
-      <c r="H489" s="124"/>
-      <c r="I489" s="124"/>
-      <c r="J489" s="124"/>
-      <c r="K489" s="124"/>
+      <c r="B489" s="129"/>
+      <c r="C489" s="129"/>
+      <c r="D489" s="129"/>
+      <c r="E489" s="129"/>
+      <c r="F489" s="129"/>
+      <c r="G489" s="129"/>
+      <c r="H489" s="129"/>
+      <c r="I489" s="129"/>
+      <c r="J489" s="129"/>
+      <c r="K489" s="129"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -20173,19 +20179,19 @@
       <c r="U501" s="44"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="121" t="s">
+      <c r="A502" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="B502" s="121"/>
-      <c r="C502" s="121"/>
-      <c r="D502" s="121"/>
-      <c r="E502" s="121"/>
-      <c r="F502" s="121"/>
-      <c r="G502" s="121"/>
-      <c r="H502" s="121"/>
-      <c r="I502" s="121"/>
-      <c r="J502" s="121"/>
-      <c r="K502" s="122"/>
+      <c r="B502" s="126"/>
+      <c r="C502" s="126"/>
+      <c r="D502" s="126"/>
+      <c r="E502" s="126"/>
+      <c r="F502" s="126"/>
+      <c r="G502" s="126"/>
+      <c r="H502" s="126"/>
+      <c r="I502" s="126"/>
+      <c r="J502" s="126"/>
+      <c r="K502" s="127"/>
       <c r="L502" s="35" t="s">
         <v>1373</v>
       </c>
@@ -20393,19 +20399,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="123" t="s">
+      <c r="A512" s="121" t="s">
         <v>1342</v>
       </c>
-      <c r="B512" s="123"/>
-      <c r="C512" s="123"/>
-      <c r="D512" s="123"/>
-      <c r="E512" s="123"/>
-      <c r="F512" s="123"/>
-      <c r="G512" s="123"/>
-      <c r="H512" s="123"/>
-      <c r="I512" s="123"/>
-      <c r="J512" s="123"/>
-      <c r="K512" s="123"/>
+      <c r="B512" s="121"/>
+      <c r="C512" s="121"/>
+      <c r="D512" s="121"/>
+      <c r="E512" s="121"/>
+      <c r="F512" s="121"/>
+      <c r="G512" s="121"/>
+      <c r="H512" s="121"/>
+      <c r="I512" s="121"/>
+      <c r="J512" s="121"/>
+      <c r="K512" s="121"/>
       <c r="L512" s="35"/>
     </row>
     <row r="513" spans="1:21" s="14" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20763,51 +20769,51 @@
       <c r="L523" s="35"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="127" t="s">
+      <c r="A524" s="123" t="s">
         <v>1380</v>
       </c>
-      <c r="B524" s="127"/>
-      <c r="C524" s="127"/>
-      <c r="D524" s="127"/>
-      <c r="E524" s="127"/>
-      <c r="F524" s="127"/>
-      <c r="G524" s="127"/>
-      <c r="H524" s="127"/>
-      <c r="I524" s="127"/>
-      <c r="J524" s="127"/>
-      <c r="K524" s="127"/>
+      <c r="B524" s="123"/>
+      <c r="C524" s="123"/>
+      <c r="D524" s="123"/>
+      <c r="E524" s="123"/>
+      <c r="F524" s="123"/>
+      <c r="G524" s="123"/>
+      <c r="H524" s="123"/>
+      <c r="I524" s="123"/>
+      <c r="J524" s="123"/>
+      <c r="K524" s="123"/>
       <c r="L524" s="35"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="125" t="s">
+      <c r="A525" s="122" t="s">
         <v>1381</v>
       </c>
-      <c r="B525" s="125"/>
-      <c r="C525" s="125"/>
-      <c r="D525" s="125"/>
-      <c r="E525" s="125"/>
-      <c r="F525" s="125"/>
-      <c r="G525" s="125"/>
-      <c r="H525" s="125"/>
-      <c r="I525" s="125"/>
-      <c r="J525" s="125"/>
-      <c r="K525" s="125"/>
+      <c r="B525" s="122"/>
+      <c r="C525" s="122"/>
+      <c r="D525" s="122"/>
+      <c r="E525" s="122"/>
+      <c r="F525" s="122"/>
+      <c r="G525" s="122"/>
+      <c r="H525" s="122"/>
+      <c r="I525" s="122"/>
+      <c r="J525" s="122"/>
+      <c r="K525" s="122"/>
       <c r="L525" s="35"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="124" t="s">
+      <c r="A526" s="129" t="s">
         <v>1382</v>
       </c>
-      <c r="B526" s="124"/>
-      <c r="C526" s="124"/>
-      <c r="D526" s="124"/>
-      <c r="E526" s="124"/>
-      <c r="F526" s="124"/>
-      <c r="G526" s="124"/>
-      <c r="H526" s="124"/>
-      <c r="I526" s="124"/>
-      <c r="J526" s="124"/>
-      <c r="K526" s="124"/>
+      <c r="B526" s="129"/>
+      <c r="C526" s="129"/>
+      <c r="D526" s="129"/>
+      <c r="E526" s="129"/>
+      <c r="F526" s="129"/>
+      <c r="G526" s="129"/>
+      <c r="H526" s="129"/>
+      <c r="I526" s="129"/>
+      <c r="J526" s="129"/>
+      <c r="K526" s="129"/>
       <c r="L526" s="35"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -20867,19 +20873,19 @@
       <c r="L533" s="35"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="124" t="s">
+      <c r="A534" s="129" t="s">
         <v>1383</v>
       </c>
-      <c r="B534" s="124"/>
-      <c r="C534" s="124"/>
-      <c r="D534" s="124"/>
-      <c r="E534" s="124"/>
-      <c r="F534" s="124"/>
-      <c r="G534" s="124"/>
-      <c r="H534" s="124"/>
-      <c r="I534" s="124"/>
-      <c r="J534" s="124"/>
-      <c r="K534" s="124"/>
+      <c r="B534" s="129"/>
+      <c r="C534" s="129"/>
+      <c r="D534" s="129"/>
+      <c r="E534" s="129"/>
+      <c r="F534" s="129"/>
+      <c r="G534" s="129"/>
+      <c r="H534" s="129"/>
+      <c r="I534" s="129"/>
+      <c r="J534" s="129"/>
+      <c r="K534" s="129"/>
       <c r="L534" s="35"/>
     </row>
     <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21135,19 +21141,19 @@
       <c r="U540" s="14"/>
     </row>
     <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="126" t="s">
+      <c r="A541" s="128" t="s">
         <v>1690</v>
       </c>
-      <c r="B541" s="124"/>
-      <c r="C541" s="124"/>
-      <c r="D541" s="124"/>
-      <c r="E541" s="124"/>
-      <c r="F541" s="124"/>
-      <c r="G541" s="124"/>
-      <c r="H541" s="124"/>
-      <c r="I541" s="124"/>
-      <c r="J541" s="124"/>
-      <c r="K541" s="124"/>
+      <c r="B541" s="129"/>
+      <c r="C541" s="129"/>
+      <c r="D541" s="129"/>
+      <c r="E541" s="129"/>
+      <c r="F541" s="129"/>
+      <c r="G541" s="129"/>
+      <c r="H541" s="129"/>
+      <c r="I541" s="129"/>
+      <c r="J541" s="129"/>
+      <c r="K541" s="129"/>
       <c r="L541" s="35"/>
     </row>
     <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21487,19 +21493,19 @@
       <c r="U549" s="14"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="124" t="s">
+      <c r="A550" s="129" t="s">
         <v>1440</v>
       </c>
-      <c r="B550" s="124"/>
-      <c r="C550" s="124"/>
-      <c r="D550" s="124"/>
-      <c r="E550" s="124"/>
-      <c r="F550" s="124"/>
-      <c r="G550" s="124"/>
-      <c r="H550" s="124"/>
-      <c r="I550" s="124"/>
-      <c r="J550" s="124"/>
-      <c r="K550" s="124"/>
+      <c r="B550" s="129"/>
+      <c r="C550" s="129"/>
+      <c r="D550" s="129"/>
+      <c r="E550" s="129"/>
+      <c r="F550" s="129"/>
+      <c r="G550" s="129"/>
+      <c r="H550" s="129"/>
+      <c r="I550" s="129"/>
+      <c r="J550" s="129"/>
+      <c r="K550" s="129"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -21923,19 +21929,19 @@
       <c r="U560" s="14"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="124" t="s">
+      <c r="A561" s="129" t="s">
         <v>1481</v>
       </c>
-      <c r="B561" s="124"/>
-      <c r="C561" s="124"/>
-      <c r="D561" s="124"/>
-      <c r="E561" s="124"/>
-      <c r="F561" s="124"/>
-      <c r="G561" s="124"/>
-      <c r="H561" s="124"/>
-      <c r="I561" s="124"/>
-      <c r="J561" s="124"/>
-      <c r="K561" s="124"/>
+      <c r="B561" s="129"/>
+      <c r="C561" s="129"/>
+      <c r="D561" s="129"/>
+      <c r="E561" s="129"/>
+      <c r="F561" s="129"/>
+      <c r="G561" s="129"/>
+      <c r="H561" s="129"/>
+      <c r="I561" s="129"/>
+      <c r="J561" s="129"/>
+      <c r="K561" s="129"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -22403,19 +22409,19 @@
       <c r="U573" s="44"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="121" t="s">
+      <c r="A574" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="B574" s="121"/>
-      <c r="C574" s="121"/>
-      <c r="D574" s="121"/>
-      <c r="E574" s="121"/>
-      <c r="F574" s="121"/>
-      <c r="G574" s="121"/>
-      <c r="H574" s="121"/>
-      <c r="I574" s="121"/>
-      <c r="J574" s="121"/>
-      <c r="K574" s="122"/>
+      <c r="B574" s="126"/>
+      <c r="C574" s="126"/>
+      <c r="D574" s="126"/>
+      <c r="E574" s="126"/>
+      <c r="F574" s="126"/>
+      <c r="G574" s="126"/>
+      <c r="H574" s="126"/>
+      <c r="I574" s="126"/>
+      <c r="J574" s="126"/>
+      <c r="K574" s="127"/>
       <c r="L574" s="35" t="s">
         <v>1374</v>
       </c>
@@ -22624,19 +22630,19 @@
       </c>
     </row>
     <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="123" t="s">
+      <c r="A584" s="121" t="s">
         <v>1712</v>
       </c>
-      <c r="B584" s="123"/>
-      <c r="C584" s="123"/>
-      <c r="D584" s="123"/>
-      <c r="E584" s="123"/>
-      <c r="F584" s="123"/>
-      <c r="G584" s="123"/>
-      <c r="H584" s="123"/>
-      <c r="I584" s="123"/>
-      <c r="J584" s="123"/>
-      <c r="K584" s="123"/>
+      <c r="B584" s="121"/>
+      <c r="C584" s="121"/>
+      <c r="D584" s="121"/>
+      <c r="E584" s="121"/>
+      <c r="F584" s="121"/>
+      <c r="G584" s="121"/>
+      <c r="H584" s="121"/>
+      <c r="I584" s="121"/>
+      <c r="J584" s="121"/>
+      <c r="K584" s="121"/>
       <c r="L584" s="35"/>
     </row>
     <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23253,19 +23259,19 @@
       <c r="D609" s="104"/>
     </row>
     <row r="610" spans="1:20" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="121" t="s">
+      <c r="A610" s="126" t="s">
         <v>1376</v>
       </c>
-      <c r="B610" s="121"/>
-      <c r="C610" s="121"/>
-      <c r="D610" s="121"/>
-      <c r="E610" s="121"/>
-      <c r="F610" s="121"/>
-      <c r="G610" s="121"/>
-      <c r="H610" s="121"/>
-      <c r="I610" s="121"/>
-      <c r="J610" s="121"/>
-      <c r="K610" s="122"/>
+      <c r="B610" s="126"/>
+      <c r="C610" s="126"/>
+      <c r="D610" s="126"/>
+      <c r="E610" s="126"/>
+      <c r="F610" s="126"/>
+      <c r="G610" s="126"/>
+      <c r="H610" s="126"/>
+      <c r="I610" s="126"/>
+      <c r="J610" s="126"/>
+      <c r="K610" s="127"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
@@ -23385,12 +23391,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A441:K441"/>
+    <mergeCell ref="A610:K610"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A303:K303"/>
+    <mergeCell ref="A525:K525"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A534:K534"/>
+    <mergeCell ref="A541:K541"/>
+    <mergeCell ref="A550:K550"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A524:K524"/>
+    <mergeCell ref="A584:K584"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A489:K489"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A348:K348"/>
@@ -23407,22 +23423,12 @@
     <mergeCell ref="A462:K462"/>
     <mergeCell ref="A469:K469"/>
     <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A610:K610"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A303:K303"/>
-    <mergeCell ref="A525:K525"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A534:K534"/>
-    <mergeCell ref="A541:K541"/>
-    <mergeCell ref="A550:K550"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A524:K524"/>
-    <mergeCell ref="A584:K584"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="A574:K574"/>
-    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A441:K441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23455,43 +23461,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="128">
+      <c r="L1" s="124">
         <v>20210515</v>
       </c>
-      <c r="M1" s="128"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="125" t="s">
         <v>1716</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="120"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>1715</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
@@ -23533,19 +23539,19 @@
       <c r="U5" s="119"/>
     </row>
     <row r="6" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="121" t="s">
         <v>1717</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="35"/>
       <c r="M6"/>
       <c r="N6" s="6"/>
@@ -23553,19 +23559,19 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="121" t="s">
         <v>1773</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="35"/>
       <c r="M7"/>
       <c r="N7" s="6"/>
@@ -23851,19 +23857,19 @@
       <c r="U16" s="119"/>
     </row>
     <row r="17" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="121" t="s">
         <v>1774</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
       <c r="L17" s="35"/>
       <c r="M17"/>
       <c r="N17" s="6"/>
@@ -24112,19 +24118,19 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="121" t="s">
         <v>1775</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24417,19 +24423,19 @@
       <c r="U35" s="119"/>
     </row>
     <row r="36" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="121" t="s">
         <v>1776</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
       <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24814,19 +24820,19 @@
       <c r="U48" s="119"/>
     </row>
     <row r="49" spans="1:22" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="123" t="s">
+      <c r="A49" s="121" t="s">
         <v>1777</v>
       </c>
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="121"/>
       <c r="L49" s="35"/>
     </row>
     <row r="50" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -25209,19 +25215,19 @@
       <c r="U61" s="119"/>
     </row>
     <row r="62" spans="1:22" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="126" t="s">
         <v>1779</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="121"/>
-      <c r="K62" s="122"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="127"/>
       <c r="L62" s="35" t="s">
         <v>1372</v>
       </c>
@@ -25264,19 +25270,19 @@
       <c r="V64" s="119"/>
     </row>
     <row r="65" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="121" t="s">
         <v>1780</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="123"/>
-      <c r="K65" s="123"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="121"/>
       <c r="L65" s="35"/>
       <c r="N65" s="6"/>
       <c r="O65" s="119"/>
@@ -25288,19 +25294,19 @@
       <c r="V65" s="35"/>
     </row>
     <row r="66" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A66" s="123" t="s">
+      <c r="A66" s="121" t="s">
         <v>1781</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="121"/>
       <c r="L66" s="35"/>
       <c r="M66"/>
       <c r="N66" s="6"/>
@@ -25567,19 +25573,19 @@
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="123" t="s">
+      <c r="A75" s="121" t="s">
         <v>1782</v>
       </c>
-      <c r="B75" s="123"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="123"/>
-      <c r="I75" s="123"/>
-      <c r="J75" s="123"/>
-      <c r="K75" s="123"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="121"/>
       <c r="L75" s="35"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -25807,19 +25813,19 @@
       <c r="U82" s="119"/>
     </row>
     <row r="83" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="123" t="s">
+      <c r="A83" s="121" t="s">
         <v>1783</v>
       </c>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
-      <c r="K83" s="123"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="121"/>
       <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -26102,19 +26108,19 @@
       <c r="U93" s="119"/>
     </row>
     <row r="94" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="121" t="s">
+      <c r="A94" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
-      <c r="D94" s="121"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="121"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="121"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="121"/>
-      <c r="K94" s="122"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
+      <c r="F94" s="126"/>
+      <c r="G94" s="126"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="126"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="127"/>
       <c r="L94" s="35" t="s">
         <v>1373</v>
       </c>
@@ -26185,35 +26191,35 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="123" t="s">
+      <c r="A98" s="121" t="s">
         <v>1805</v>
       </c>
-      <c r="B98" s="123"/>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123"/>
-      <c r="I98" s="123"/>
-      <c r="J98" s="123"/>
-      <c r="K98" s="123"/>
+      <c r="B98" s="121"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="121"/>
       <c r="L98" s="35"/>
     </row>
     <row r="99" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="123" t="s">
+      <c r="A99" s="121" t="s">
         <v>1813</v>
       </c>
-      <c r="B99" s="123"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123"/>
-      <c r="I99" s="123"/>
-      <c r="J99" s="123"/>
-      <c r="K99" s="123"/>
+      <c r="B99" s="121"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="121"/>
       <c r="L99" s="35"/>
       <c r="M99"/>
       <c r="N99" s="6"/>
@@ -26445,19 +26451,19 @@
       <c r="L106" s="35"/>
     </row>
     <row r="107" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="123" t="s">
+      <c r="A107" s="121" t="s">
         <v>1814</v>
       </c>
-      <c r="B107" s="123"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="123"/>
-      <c r="G107" s="123"/>
-      <c r="H107" s="123"/>
-      <c r="I107" s="123"/>
-      <c r="J107" s="123"/>
-      <c r="K107" s="123"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
       <c r="L107" s="35"/>
       <c r="M107"/>
       <c r="N107" s="6"/>
@@ -26711,19 +26717,19 @@
       <c r="U115" s="119"/>
     </row>
     <row r="116" spans="1:22" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="121" t="s">
+      <c r="A116" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="B116" s="121"/>
-      <c r="C116" s="121"/>
-      <c r="D116" s="121"/>
-      <c r="E116" s="121"/>
-      <c r="F116" s="121"/>
-      <c r="G116" s="121"/>
-      <c r="H116" s="121"/>
-      <c r="I116" s="121"/>
-      <c r="J116" s="121"/>
-      <c r="K116" s="122"/>
+      <c r="B116" s="126"/>
+      <c r="C116" s="126"/>
+      <c r="D116" s="126"/>
+      <c r="E116" s="126"/>
+      <c r="F116" s="126"/>
+      <c r="G116" s="126"/>
+      <c r="H116" s="126"/>
+      <c r="I116" s="126"/>
+      <c r="J116" s="126"/>
+      <c r="K116" s="127"/>
       <c r="L116" s="35" t="s">
         <v>1374</v>
       </c>
@@ -26802,35 +26808,35 @@
       <c r="U119" s="119"/>
     </row>
     <row r="120" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="123" t="s">
+      <c r="A120" s="121" t="s">
         <v>1816</v>
       </c>
-      <c r="B120" s="123"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="123"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="123"/>
-      <c r="J120" s="123"/>
-      <c r="K120" s="123"/>
+      <c r="B120" s="121"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+      <c r="G120" s="121"/>
+      <c r="H120" s="121"/>
+      <c r="I120" s="121"/>
+      <c r="J120" s="121"/>
+      <c r="K120" s="121"/>
       <c r="L120" s="35"/>
     </row>
     <row r="121" spans="1:22" s="119" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="123" t="s">
+      <c r="A121" s="121" t="s">
         <v>1817</v>
       </c>
-      <c r="B121" s="123"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123"/>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="123"/>
-      <c r="J121" s="123"/>
-      <c r="K121" s="123"/>
+      <c r="B121" s="121"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="121"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="121"/>
+      <c r="K121" s="121"/>
       <c r="L121" s="35"/>
       <c r="M121"/>
       <c r="N121" s="6"/>
@@ -27069,19 +27075,19 @@
       <c r="D129" s="104"/>
     </row>
     <row r="130" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="121" t="s">
+      <c r="A130" s="126" t="s">
         <v>1376</v>
       </c>
-      <c r="B130" s="121"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="121"/>
-      <c r="F130" s="121"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="121"/>
-      <c r="I130" s="121"/>
-      <c r="J130" s="121"/>
-      <c r="K130" s="122"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="126"/>
+      <c r="F130" s="126"/>
+      <c r="G130" s="126"/>
+      <c r="H130" s="126"/>
+      <c r="I130" s="126"/>
+      <c r="J130" s="126"/>
+      <c r="K130" s="127"/>
       <c r="L130" s="35" t="s">
         <v>15</v>
       </c>
@@ -27201,14 +27207,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A99:K99"/>
@@ -27223,6 +27221,14 @@
     <mergeCell ref="A65:K65"/>
     <mergeCell ref="A66:K66"/>
     <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27232,10 +27238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0499C-ECE6-4332-9D97-B01953C2C420}">
-  <dimension ref="A1:U121"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:J82"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -27251,42 +27257,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="131" t="s">
+      <c r="L1" s="141" t="s">
         <v>1596</v>
       </c>
-      <c r="M1" s="128"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="129" t="s">
+      <c r="M1" s="142"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-    </row>
-    <row r="3" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+    </row>
+    <row r="3" spans="1:21" s="35" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="6"/>
       <c r="C3"/>
@@ -27314,7 +27320,7 @@
       <c r="T3" s="45"/>
       <c r="U3" s="110"/>
     </row>
-    <row r="4" spans="1:21" s="110" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="110" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="6"/>
       <c r="C4"/>
@@ -27340,7 +27346,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="51"/>
     </row>
-    <row r="5" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="35" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="6"/>
       <c r="C5"/>
@@ -27366,7 +27372,7 @@
       <c r="T5" s="52"/>
       <c r="U5" s="110"/>
     </row>
-    <row r="6" spans="1:21" s="110" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="110" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="6"/>
       <c r="C6"/>
@@ -27394,7 +27400,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="110" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="6"/>
       <c r="C7"/>
@@ -27420,7 +27426,7 @@
       <c r="S7" s="50"/>
       <c r="T7" s="45"/>
     </row>
-    <row r="8" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="110" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" s="6"/>
       <c r="C8"/>
@@ -27442,7 +27448,7 @@
       <c r="S8" s="48"/>
       <c r="T8" s="51"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="K9" s="5"/>
       <c r="L9" s="35"/>
@@ -27456,7 +27462,7 @@
       <c r="T9" s="52"/>
       <c r="U9" s="110"/>
     </row>
-    <row r="10" spans="1:21" s="35" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="35" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="6"/>
       <c r="C10"/>
@@ -27482,25 +27488,25 @@
       </c>
       <c r="U10" s="110"/>
     </row>
-    <row r="11" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
+    <row r="11" spans="1:21" s="110" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="121" t="s">
         <v>1597</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
       <c r="L11" s="35"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -27535,7 +27541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
         <v>135</v>
       </c>
@@ -27710,7 +27716,7 @@
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
         <v>141</v>
       </c>
@@ -27885,7 +27891,7 @@
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A29" s="83" t="s">
         <v>143</v>
       </c>
@@ -28060,7 +28066,7 @@
       <c r="J36" s="83"/>
       <c r="K36" s="83"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
         <v>1598</v>
       </c>
@@ -28235,7 +28241,7 @@
       <c r="J44" s="83"/>
       <c r="K44" s="83"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
@@ -28248,25 +28254,25 @@
       <c r="J45" s="83"/>
       <c r="K45" s="83"/>
     </row>
-    <row r="46" spans="1:14" s="110" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124" t="s">
+    <row r="46" spans="1:14" s="110" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="129" t="s">
         <v>1625</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
       <c r="L46" s="35"/>
       <c r="M46"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="110" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -28301,7 +28307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1599</v>
       </c>
@@ -28377,7 +28383,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1626</v>
       </c>
@@ -28453,7 +28459,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>1627</v>
       </c>
@@ -28529,7 +28535,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>1628</v>
       </c>
@@ -28605,7 +28611,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1600</v>
       </c>
@@ -28684,7 +28690,7 @@
       </c>
       <c r="K62" s="35"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1629</v>
       </c>
@@ -28763,7 +28769,7 @@
       </c>
       <c r="K65" s="35"/>
     </row>
-    <row r="66" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>1630</v>
       </c>
@@ -28839,7 +28845,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1631</v>
       </c>
@@ -28869,7 +28875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>1601</v>
       </c>
@@ -28890,7 +28896,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>43</v>
       </c>
@@ -28911,7 +28917,7 @@
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>1684</v>
       </c>
@@ -28932,44 +28938,44 @@
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="G73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="130" t="s">
+    <row r="74" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="131" t="s">
         <v>1713</v>
       </c>
-      <c r="B74" s="130"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="131"/>
+      <c r="G74" s="131"/>
+      <c r="H74" s="131"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="131"/>
       <c r="K74" s="9"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="129" t="s">
+    <row r="75" spans="1:12" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="129"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
       <c r="K75" s="10"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
@@ -29004,7 +29010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>1599</v>
       </c>
@@ -29080,45 +29086,45 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:12" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="G80" s="8"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="130" t="s">
+    <row r="81" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="131" t="s">
         <v>1714</v>
       </c>
-      <c r="B81" s="130"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="131"/>
       <c r="K81" s="9"/>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="129" t="s">
+    <row r="82" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="129"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="129"/>
-      <c r="J82" s="129"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
       <c r="K82" s="10"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
@@ -29153,7 +29159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>1626</v>
       </c>
@@ -29229,46 +29235,46 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
       <c r="G87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="130" t="s">
+    <row r="88" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="131" t="s">
         <v>1320</v>
       </c>
-      <c r="B88" s="130"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="130"/>
-      <c r="J88" s="130"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
+      <c r="J88" s="131"/>
       <c r="K88" s="9"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="129" t="s">
+    <row r="89" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
       <c r="K89" s="10"/>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>67</v>
       </c>
@@ -29303,7 +29309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -29335,7 +29341,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -29367,47 +29373,47 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6"/>
       <c r="G93" s="5"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="130" t="s">
+    <row r="94" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="131" t="s">
         <v>1321</v>
       </c>
-      <c r="B94" s="130"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="131"/>
+      <c r="F94" s="131"/>
+      <c r="G94" s="131"/>
+      <c r="H94" s="131"/>
+      <c r="I94" s="131"/>
+      <c r="J94" s="131"/>
       <c r="K94" s="9"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="129" t="s">
+    <row r="95" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="129"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
       <c r="K95" s="10"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>67</v>
       </c>
@@ -29442,7 +29448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>1627</v>
       </c>
@@ -29518,7 +29524,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>1628</v>
       </c>
@@ -29594,7 +29600,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -29607,41 +29613,41 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="130" t="s">
+    <row r="104" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="131" t="s">
         <v>1322</v>
       </c>
-      <c r="B104" s="130"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="130"/>
-      <c r="F104" s="130"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="130"/>
-      <c r="J104" s="130"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="131"/>
+      <c r="H104" s="131"/>
+      <c r="I104" s="131"/>
+      <c r="J104" s="131"/>
       <c r="K104" s="9"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="129" t="s">
+    <row r="105" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="129"/>
-      <c r="C105" s="129"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="129"/>
-      <c r="I105" s="129"/>
-      <c r="J105" s="129"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
       <c r="K105" s="10"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
@@ -29676,7 +29682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>1600</v>
       </c>
@@ -29755,7 +29761,7 @@
       </c>
       <c r="K109" s="35"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>1629</v>
       </c>
@@ -29834,42 +29840,42 @@
       </c>
       <c r="K112" s="35"/>
     </row>
-    <row r="113" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="130" t="s">
+    <row r="113" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:13" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="131" t="s">
         <v>1323</v>
       </c>
-      <c r="B114" s="130"/>
-      <c r="C114" s="130"/>
-      <c r="D114" s="130"/>
-      <c r="E114" s="130"/>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
+      <c r="B114" s="131"/>
+      <c r="C114" s="131"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="131"/>
+      <c r="F114" s="131"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="131"/>
+      <c r="I114" s="131"/>
+      <c r="J114" s="131"/>
       <c r="K114" s="9"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="129" t="s">
+    <row r="115" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="129"/>
-      <c r="C115" s="129"/>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
-      <c r="F115" s="129"/>
-      <c r="G115" s="129"/>
-      <c r="H115" s="129"/>
-      <c r="I115" s="129"/>
-      <c r="J115" s="129"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="125"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="125"/>
       <c r="K115" s="10"/>
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>67</v>
       </c>
@@ -29904,7 +29910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>1630</v>
       </c>
@@ -29980,14 +29986,18 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="G120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A81:J81"/>
@@ -30000,11 +30010,6 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -30055,43 +30060,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L1" s="128">
+      <c r="L1" s="124">
         <v>20210515</v>
       </c>
-      <c r="M1" s="128"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="125" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="120"/>
       <c r="L2" s="35" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="35" t="s">
         <v>1371</v>
       </c>
@@ -30275,37 +30280,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="121" t="s">
         <v>1377</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="35"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="35"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -34822,19 +34827,19 @@
       <c r="L200" s="35"/>
     </row>
     <row r="201" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="123" t="s">
+      <c r="A201" s="121" t="s">
         <v>788</v>
       </c>
-      <c r="B201" s="123"/>
-      <c r="C201" s="123"/>
-      <c r="D201" s="123"/>
-      <c r="E201" s="123"/>
-      <c r="F201" s="123"/>
-      <c r="G201" s="123"/>
-      <c r="H201" s="123"/>
-      <c r="I201" s="123"/>
-      <c r="J201" s="123"/>
-      <c r="K201" s="123"/>
+      <c r="B201" s="121"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="121"/>
+      <c r="E201" s="121"/>
+      <c r="F201" s="121"/>
+      <c r="G201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="121"/>
+      <c r="K201" s="121"/>
       <c r="L201" s="35"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -35235,19 +35240,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="123" t="s">
+      <c r="A214" s="121" t="s">
         <v>789</v>
       </c>
-      <c r="B214" s="123"/>
-      <c r="C214" s="123"/>
-      <c r="D214" s="123"/>
-      <c r="E214" s="123"/>
-      <c r="F214" s="123"/>
-      <c r="G214" s="123"/>
-      <c r="H214" s="123"/>
-      <c r="I214" s="123"/>
-      <c r="J214" s="123"/>
-      <c r="K214" s="123"/>
+      <c r="B214" s="121"/>
+      <c r="C214" s="121"/>
+      <c r="D214" s="121"/>
+      <c r="E214" s="121"/>
+      <c r="F214" s="121"/>
+      <c r="G214" s="121"/>
+      <c r="H214" s="121"/>
+      <c r="I214" s="121"/>
+      <c r="J214" s="121"/>
+      <c r="K214" s="121"/>
       <c r="L214" s="35"/>
     </row>
     <row r="215" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -36291,19 +36296,19 @@
       <c r="U247" s="119"/>
     </row>
     <row r="248" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="123" t="s">
+      <c r="A248" s="121" t="s">
         <v>790</v>
       </c>
-      <c r="B248" s="123"/>
-      <c r="C248" s="123"/>
-      <c r="D248" s="123"/>
-      <c r="E248" s="123"/>
-      <c r="F248" s="123"/>
-      <c r="G248" s="123"/>
-      <c r="H248" s="123"/>
-      <c r="I248" s="123"/>
-      <c r="J248" s="123"/>
-      <c r="K248" s="123"/>
+      <c r="B248" s="121"/>
+      <c r="C248" s="121"/>
+      <c r="D248" s="121"/>
+      <c r="E248" s="121"/>
+      <c r="F248" s="121"/>
+      <c r="G248" s="121"/>
+      <c r="H248" s="121"/>
+      <c r="I248" s="121"/>
+      <c r="J248" s="121"/>
+      <c r="K248" s="121"/>
       <c r="L248" s="35"/>
     </row>
     <row r="249" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -37345,19 +37350,19 @@
       <c r="U281" s="119"/>
     </row>
     <row r="282" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="125" t="s">
+      <c r="A282" s="122" t="s">
         <v>512</v>
       </c>
-      <c r="B282" s="125"/>
-      <c r="C282" s="125"/>
-      <c r="D282" s="125"/>
-      <c r="E282" s="125"/>
-      <c r="F282" s="125"/>
-      <c r="G282" s="125"/>
-      <c r="H282" s="125"/>
-      <c r="I282" s="125"/>
-      <c r="J282" s="125"/>
-      <c r="K282" s="125"/>
+      <c r="B282" s="122"/>
+      <c r="C282" s="122"/>
+      <c r="D282" s="122"/>
+      <c r="E282" s="122"/>
+      <c r="F282" s="122"/>
+      <c r="G282" s="122"/>
+      <c r="H282" s="122"/>
+      <c r="I282" s="122"/>
+      <c r="J282" s="122"/>
+      <c r="K282" s="122"/>
       <c r="L282" s="35"/>
     </row>
     <row r="283" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -37966,19 +37971,19 @@
       <c r="L302" s="35"/>
     </row>
     <row r="303" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="124" t="s">
+      <c r="A303" s="129" t="s">
         <v>513</v>
       </c>
-      <c r="B303" s="124"/>
-      <c r="C303" s="124"/>
-      <c r="D303" s="124"/>
-      <c r="E303" s="124"/>
-      <c r="F303" s="124"/>
-      <c r="G303" s="124"/>
-      <c r="H303" s="124"/>
-      <c r="I303" s="124"/>
-      <c r="J303" s="124"/>
-      <c r="K303" s="124"/>
+      <c r="B303" s="129"/>
+      <c r="C303" s="129"/>
+      <c r="D303" s="129"/>
+      <c r="E303" s="129"/>
+      <c r="F303" s="129"/>
+      <c r="G303" s="129"/>
+      <c r="H303" s="129"/>
+      <c r="I303" s="129"/>
+      <c r="J303" s="129"/>
+      <c r="K303" s="129"/>
       <c r="L303" s="35"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -38022,19 +38027,19 @@
       <c r="L306" s="35"/>
     </row>
     <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A307" s="124" t="s">
+      <c r="A307" s="129" t="s">
         <v>892</v>
       </c>
-      <c r="B307" s="124"/>
-      <c r="C307" s="124"/>
-      <c r="D307" s="124"/>
-      <c r="E307" s="124"/>
-      <c r="F307" s="124"/>
-      <c r="G307" s="124"/>
-      <c r="H307" s="124"/>
-      <c r="I307" s="124"/>
-      <c r="J307" s="124"/>
-      <c r="K307" s="124"/>
+      <c r="B307" s="129"/>
+      <c r="C307" s="129"/>
+      <c r="D307" s="129"/>
+      <c r="E307" s="129"/>
+      <c r="F307" s="129"/>
+      <c r="G307" s="129"/>
+      <c r="H307" s="129"/>
+      <c r="I307" s="129"/>
+      <c r="J307" s="129"/>
+      <c r="K307" s="129"/>
       <c r="L307" s="35"/>
     </row>
     <row r="308" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -38282,19 +38287,19 @@
       <c r="U313" s="119"/>
     </row>
     <row r="314" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="126" t="s">
+      <c r="A314" s="128" t="s">
         <v>893</v>
       </c>
-      <c r="B314" s="124"/>
-      <c r="C314" s="124"/>
-      <c r="D314" s="124"/>
-      <c r="E314" s="124"/>
-      <c r="F314" s="124"/>
-      <c r="G314" s="124"/>
-      <c r="H314" s="124"/>
-      <c r="I314" s="124"/>
-      <c r="J314" s="124"/>
-      <c r="K314" s="124"/>
+      <c r="B314" s="129"/>
+      <c r="C314" s="129"/>
+      <c r="D314" s="129"/>
+      <c r="E314" s="129"/>
+      <c r="F314" s="129"/>
+      <c r="G314" s="129"/>
+      <c r="H314" s="129"/>
+      <c r="I314" s="129"/>
+      <c r="J314" s="129"/>
+      <c r="K314" s="129"/>
       <c r="L314" s="35"/>
     </row>
     <row r="315" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -38656,19 +38661,19 @@
       <c r="U323" s="119"/>
     </row>
     <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="124" t="s">
+      <c r="A324" s="129" t="s">
         <v>957</v>
       </c>
-      <c r="B324" s="124"/>
-      <c r="C324" s="124"/>
-      <c r="D324" s="124"/>
-      <c r="E324" s="124"/>
-      <c r="F324" s="124"/>
-      <c r="G324" s="124"/>
-      <c r="H324" s="124"/>
-      <c r="I324" s="124"/>
-      <c r="J324" s="124"/>
-      <c r="K324" s="124"/>
+      <c r="B324" s="129"/>
+      <c r="C324" s="129"/>
+      <c r="D324" s="129"/>
+      <c r="E324" s="129"/>
+      <c r="F324" s="129"/>
+      <c r="G324" s="129"/>
+      <c r="H324" s="129"/>
+      <c r="I324" s="129"/>
+      <c r="J324" s="129"/>
+      <c r="K324" s="129"/>
       <c r="L324" s="35"/>
     </row>
     <row r="325" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -39092,19 +39097,19 @@
       <c r="U334" s="119"/>
     </row>
     <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="124" t="s">
+      <c r="A335" s="129" t="s">
         <v>1010</v>
       </c>
-      <c r="B335" s="124"/>
-      <c r="C335" s="124"/>
-      <c r="D335" s="124"/>
-      <c r="E335" s="124"/>
-      <c r="F335" s="124"/>
-      <c r="G335" s="124"/>
-      <c r="H335" s="124"/>
-      <c r="I335" s="124"/>
-      <c r="J335" s="124"/>
-      <c r="K335" s="124"/>
+      <c r="B335" s="129"/>
+      <c r="C335" s="129"/>
+      <c r="D335" s="129"/>
+      <c r="E335" s="129"/>
+      <c r="F335" s="129"/>
+      <c r="G335" s="129"/>
+      <c r="H335" s="129"/>
+      <c r="I335" s="129"/>
+      <c r="J335" s="129"/>
+      <c r="K335" s="129"/>
       <c r="L335" s="35"/>
     </row>
     <row r="336" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -39572,19 +39577,19 @@
       <c r="U347" s="119"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A348" s="121" t="s">
+      <c r="A348" s="126" t="s">
         <v>509</v>
       </c>
-      <c r="B348" s="121"/>
-      <c r="C348" s="121"/>
-      <c r="D348" s="121"/>
-      <c r="E348" s="121"/>
-      <c r="F348" s="121"/>
-      <c r="G348" s="121"/>
-      <c r="H348" s="121"/>
-      <c r="I348" s="121"/>
-      <c r="J348" s="121"/>
-      <c r="K348" s="122"/>
+      <c r="B348" s="126"/>
+      <c r="C348" s="126"/>
+      <c r="D348" s="126"/>
+      <c r="E348" s="126"/>
+      <c r="F348" s="126"/>
+      <c r="G348" s="126"/>
+      <c r="H348" s="126"/>
+      <c r="I348" s="126"/>
+      <c r="J348" s="126"/>
+      <c r="K348" s="127"/>
       <c r="L348" s="35" t="s">
         <v>1372</v>
       </c>
@@ -39756,35 +39761,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="123" t="s">
+      <c r="A357" s="121" t="s">
         <v>1691</v>
       </c>
-      <c r="B357" s="123"/>
-      <c r="C357" s="123"/>
-      <c r="D357" s="123"/>
-      <c r="E357" s="123"/>
-      <c r="F357" s="123"/>
-      <c r="G357" s="123"/>
-      <c r="H357" s="123"/>
-      <c r="I357" s="123"/>
-      <c r="J357" s="123"/>
-      <c r="K357" s="123"/>
+      <c r="B357" s="121"/>
+      <c r="C357" s="121"/>
+      <c r="D357" s="121"/>
+      <c r="E357" s="121"/>
+      <c r="F357" s="121"/>
+      <c r="G357" s="121"/>
+      <c r="H357" s="121"/>
+      <c r="I357" s="121"/>
+      <c r="J357" s="121"/>
+      <c r="K357" s="121"/>
       <c r="L357" s="35"/>
     </row>
     <row r="358" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A358" s="123" t="s">
+      <c r="A358" s="121" t="s">
         <v>1692</v>
       </c>
-      <c r="B358" s="123"/>
-      <c r="C358" s="123"/>
-      <c r="D358" s="123"/>
-      <c r="E358" s="123"/>
-      <c r="F358" s="123"/>
-      <c r="G358" s="123"/>
-      <c r="H358" s="123"/>
-      <c r="I358" s="123"/>
-      <c r="J358" s="123"/>
-      <c r="K358" s="123"/>
+      <c r="B358" s="121"/>
+      <c r="C358" s="121"/>
+      <c r="D358" s="121"/>
+      <c r="E358" s="121"/>
+      <c r="F358" s="121"/>
+      <c r="G358" s="121"/>
+      <c r="H358" s="121"/>
+      <c r="I358" s="121"/>
+      <c r="J358" s="121"/>
+      <c r="K358" s="121"/>
       <c r="L358" s="35"/>
     </row>
     <row r="359" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -41776,19 +41781,19 @@
       <c r="L440" s="35"/>
     </row>
     <row r="441" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="123" t="s">
+      <c r="A441" s="121" t="s">
         <v>1701</v>
       </c>
-      <c r="B441" s="123"/>
-      <c r="C441" s="123"/>
-      <c r="D441" s="123"/>
-      <c r="E441" s="123"/>
-      <c r="F441" s="123"/>
-      <c r="G441" s="123"/>
-      <c r="H441" s="123"/>
-      <c r="I441" s="123"/>
-      <c r="J441" s="123"/>
-      <c r="K441" s="123"/>
+      <c r="B441" s="121"/>
+      <c r="C441" s="121"/>
+      <c r="D441" s="121"/>
+      <c r="E441" s="121"/>
+      <c r="F441" s="121"/>
+      <c r="G441" s="121"/>
+      <c r="H441" s="121"/>
+      <c r="I441" s="121"/>
+      <c r="J441" s="121"/>
+      <c r="K441" s="121"/>
       <c r="L441" s="35"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -42053,19 +42058,19 @@
       <c r="U449" s="119"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="123" t="s">
+      <c r="A450" s="121" t="s">
         <v>1703</v>
       </c>
-      <c r="B450" s="123"/>
-      <c r="C450" s="123"/>
-      <c r="D450" s="123"/>
-      <c r="E450" s="123"/>
-      <c r="F450" s="123"/>
-      <c r="G450" s="123"/>
-      <c r="H450" s="123"/>
-      <c r="I450" s="123"/>
-      <c r="J450" s="123"/>
-      <c r="K450" s="123"/>
+      <c r="B450" s="121"/>
+      <c r="C450" s="121"/>
+      <c r="D450" s="121"/>
+      <c r="E450" s="121"/>
+      <c r="F450" s="121"/>
+      <c r="G450" s="121"/>
+      <c r="H450" s="121"/>
+      <c r="I450" s="121"/>
+      <c r="J450" s="121"/>
+      <c r="K450" s="121"/>
       <c r="L450" s="35"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -42083,51 +42088,51 @@
       <c r="L451" s="35"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="127" t="s">
+      <c r="A452" s="123" t="s">
         <v>514</v>
       </c>
-      <c r="B452" s="127"/>
-      <c r="C452" s="127"/>
-      <c r="D452" s="127"/>
-      <c r="E452" s="127"/>
-      <c r="F452" s="127"/>
-      <c r="G452" s="127"/>
-      <c r="H452" s="127"/>
-      <c r="I452" s="127"/>
-      <c r="J452" s="127"/>
-      <c r="K452" s="127"/>
+      <c r="B452" s="123"/>
+      <c r="C452" s="123"/>
+      <c r="D452" s="123"/>
+      <c r="E452" s="123"/>
+      <c r="F452" s="123"/>
+      <c r="G452" s="123"/>
+      <c r="H452" s="123"/>
+      <c r="I452" s="123"/>
+      <c r="J452" s="123"/>
+      <c r="K452" s="123"/>
       <c r="L452" s="35"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="125" t="s">
+      <c r="A453" s="122" t="s">
         <v>515</v>
       </c>
-      <c r="B453" s="125"/>
-      <c r="C453" s="125"/>
-      <c r="D453" s="125"/>
-      <c r="E453" s="125"/>
-      <c r="F453" s="125"/>
-      <c r="G453" s="125"/>
-      <c r="H453" s="125"/>
-      <c r="I453" s="125"/>
-      <c r="J453" s="125"/>
-      <c r="K453" s="125"/>
+      <c r="B453" s="122"/>
+      <c r="C453" s="122"/>
+      <c r="D453" s="122"/>
+      <c r="E453" s="122"/>
+      <c r="F453" s="122"/>
+      <c r="G453" s="122"/>
+      <c r="H453" s="122"/>
+      <c r="I453" s="122"/>
+      <c r="J453" s="122"/>
+      <c r="K453" s="122"/>
       <c r="L453" s="35"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="124" t="s">
+      <c r="A454" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="B454" s="124"/>
-      <c r="C454" s="124"/>
-      <c r="D454" s="124"/>
-      <c r="E454" s="124"/>
-      <c r="F454" s="124"/>
-      <c r="G454" s="124"/>
-      <c r="H454" s="124"/>
-      <c r="I454" s="124"/>
-      <c r="J454" s="124"/>
-      <c r="K454" s="124"/>
+      <c r="B454" s="129"/>
+      <c r="C454" s="129"/>
+      <c r="D454" s="129"/>
+      <c r="E454" s="129"/>
+      <c r="F454" s="129"/>
+      <c r="G454" s="129"/>
+      <c r="H454" s="129"/>
+      <c r="I454" s="129"/>
+      <c r="J454" s="129"/>
+      <c r="K454" s="129"/>
       <c r="L454" s="35"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -42187,19 +42192,19 @@
       <c r="L461" s="35"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A462" s="124" t="s">
+      <c r="A462" s="129" t="s">
         <v>1070</v>
       </c>
-      <c r="B462" s="124"/>
-      <c r="C462" s="124"/>
-      <c r="D462" s="124"/>
-      <c r="E462" s="124"/>
-      <c r="F462" s="124"/>
-      <c r="G462" s="124"/>
-      <c r="H462" s="124"/>
-      <c r="I462" s="124"/>
-      <c r="J462" s="124"/>
-      <c r="K462" s="124"/>
+      <c r="B462" s="129"/>
+      <c r="C462" s="129"/>
+      <c r="D462" s="129"/>
+      <c r="E462" s="129"/>
+      <c r="F462" s="129"/>
+      <c r="G462" s="129"/>
+      <c r="H462" s="129"/>
+      <c r="I462" s="129"/>
+      <c r="J462" s="129"/>
+      <c r="K462" s="129"/>
       <c r="L462" s="35"/>
     </row>
     <row r="463" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -42455,19 +42460,19 @@
       <c r="U468" s="119"/>
     </row>
     <row r="469" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="126" t="s">
+      <c r="A469" s="128" t="s">
         <v>1711</v>
       </c>
-      <c r="B469" s="124"/>
-      <c r="C469" s="124"/>
-      <c r="D469" s="124"/>
-      <c r="E469" s="124"/>
-      <c r="F469" s="124"/>
-      <c r="G469" s="124"/>
-      <c r="H469" s="124"/>
-      <c r="I469" s="124"/>
-      <c r="J469" s="124"/>
-      <c r="K469" s="124"/>
+      <c r="B469" s="129"/>
+      <c r="C469" s="129"/>
+      <c r="D469" s="129"/>
+      <c r="E469" s="129"/>
+      <c r="F469" s="129"/>
+      <c r="G469" s="129"/>
+      <c r="H469" s="129"/>
+      <c r="I469" s="129"/>
+      <c r="J469" s="129"/>
+      <c r="K469" s="129"/>
       <c r="L469" s="35"/>
     </row>
     <row r="470" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -42807,19 +42812,19 @@
       <c r="U477" s="119"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="124" t="s">
+      <c r="A478" s="129" t="s">
         <v>1127</v>
       </c>
-      <c r="B478" s="124"/>
-      <c r="C478" s="124"/>
-      <c r="D478" s="124"/>
-      <c r="E478" s="124"/>
-      <c r="F478" s="124"/>
-      <c r="G478" s="124"/>
-      <c r="H478" s="124"/>
-      <c r="I478" s="124"/>
-      <c r="J478" s="124"/>
-      <c r="K478" s="124"/>
+      <c r="B478" s="129"/>
+      <c r="C478" s="129"/>
+      <c r="D478" s="129"/>
+      <c r="E478" s="129"/>
+      <c r="F478" s="129"/>
+      <c r="G478" s="129"/>
+      <c r="H478" s="129"/>
+      <c r="I478" s="129"/>
+      <c r="J478" s="129"/>
+      <c r="K478" s="129"/>
       <c r="L478" s="35"/>
     </row>
     <row r="479" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -43243,19 +43248,19 @@
       <c r="U488" s="119"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="124" t="s">
+      <c r="A489" s="129" t="s">
         <v>1168</v>
       </c>
-      <c r="B489" s="124"/>
-      <c r="C489" s="124"/>
-      <c r="D489" s="124"/>
-      <c r="E489" s="124"/>
-      <c r="F489" s="124"/>
-      <c r="G489" s="124"/>
-      <c r="H489" s="124"/>
-      <c r="I489" s="124"/>
-      <c r="J489" s="124"/>
-      <c r="K489" s="124"/>
+      <c r="B489" s="129"/>
+      <c r="C489" s="129"/>
+      <c r="D489" s="129"/>
+      <c r="E489" s="129"/>
+      <c r="F489" s="129"/>
+      <c r="G489" s="129"/>
+      <c r="H489" s="129"/>
+      <c r="I489" s="129"/>
+      <c r="J489" s="129"/>
+      <c r="K489" s="129"/>
       <c r="L489" s="35"/>
     </row>
     <row r="490" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -43723,19 +43728,19 @@
       <c r="U501" s="119"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="121" t="s">
+      <c r="A502" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="B502" s="121"/>
-      <c r="C502" s="121"/>
-      <c r="D502" s="121"/>
-      <c r="E502" s="121"/>
-      <c r="F502" s="121"/>
-      <c r="G502" s="121"/>
-      <c r="H502" s="121"/>
-      <c r="I502" s="121"/>
-      <c r="J502" s="121"/>
-      <c r="K502" s="122"/>
+      <c r="B502" s="126"/>
+      <c r="C502" s="126"/>
+      <c r="D502" s="126"/>
+      <c r="E502" s="126"/>
+      <c r="F502" s="126"/>
+      <c r="G502" s="126"/>
+      <c r="H502" s="126"/>
+      <c r="I502" s="126"/>
+      <c r="J502" s="126"/>
+      <c r="K502" s="127"/>
       <c r="L502" s="35" t="s">
         <v>1373</v>
       </c>
@@ -43943,19 +43948,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="123" t="s">
+      <c r="A512" s="121" t="s">
         <v>1342</v>
       </c>
-      <c r="B512" s="123"/>
-      <c r="C512" s="123"/>
-      <c r="D512" s="123"/>
-      <c r="E512" s="123"/>
-      <c r="F512" s="123"/>
-      <c r="G512" s="123"/>
-      <c r="H512" s="123"/>
-      <c r="I512" s="123"/>
-      <c r="J512" s="123"/>
-      <c r="K512" s="123"/>
+      <c r="B512" s="121"/>
+      <c r="C512" s="121"/>
+      <c r="D512" s="121"/>
+      <c r="E512" s="121"/>
+      <c r="F512" s="121"/>
+      <c r="G512" s="121"/>
+      <c r="H512" s="121"/>
+      <c r="I512" s="121"/>
+      <c r="J512" s="121"/>
+      <c r="K512" s="121"/>
       <c r="L512" s="35"/>
     </row>
     <row r="513" spans="1:21" s="119" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -44313,51 +44318,51 @@
       <c r="L523" s="35"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="127" t="s">
+      <c r="A524" s="123" t="s">
         <v>1380</v>
       </c>
-      <c r="B524" s="127"/>
-      <c r="C524" s="127"/>
-      <c r="D524" s="127"/>
-      <c r="E524" s="127"/>
-      <c r="F524" s="127"/>
-      <c r="G524" s="127"/>
-      <c r="H524" s="127"/>
-      <c r="I524" s="127"/>
-      <c r="J524" s="127"/>
-      <c r="K524" s="127"/>
+      <c r="B524" s="123"/>
+      <c r="C524" s="123"/>
+      <c r="D524" s="123"/>
+      <c r="E524" s="123"/>
+      <c r="F524" s="123"/>
+      <c r="G524" s="123"/>
+      <c r="H524" s="123"/>
+      <c r="I524" s="123"/>
+      <c r="J524" s="123"/>
+      <c r="K524" s="123"/>
       <c r="L524" s="35"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="125" t="s">
+      <c r="A525" s="122" t="s">
         <v>1381</v>
       </c>
-      <c r="B525" s="125"/>
-      <c r="C525" s="125"/>
-      <c r="D525" s="125"/>
-      <c r="E525" s="125"/>
-      <c r="F525" s="125"/>
-      <c r="G525" s="125"/>
-      <c r="H525" s="125"/>
-      <c r="I525" s="125"/>
-      <c r="J525" s="125"/>
-      <c r="K525" s="125"/>
+      <c r="B525" s="122"/>
+      <c r="C525" s="122"/>
+      <c r="D525" s="122"/>
+      <c r="E525" s="122"/>
+      <c r="F525" s="122"/>
+      <c r="G525" s="122"/>
+      <c r="H525" s="122"/>
+      <c r="I525" s="122"/>
+      <c r="J525" s="122"/>
+      <c r="K525" s="122"/>
       <c r="L525" s="35"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="124" t="s">
+      <c r="A526" s="129" t="s">
         <v>1382</v>
       </c>
-      <c r="B526" s="124"/>
-      <c r="C526" s="124"/>
-      <c r="D526" s="124"/>
-      <c r="E526" s="124"/>
-      <c r="F526" s="124"/>
-      <c r="G526" s="124"/>
-      <c r="H526" s="124"/>
-      <c r="I526" s="124"/>
-      <c r="J526" s="124"/>
-      <c r="K526" s="124"/>
+      <c r="B526" s="129"/>
+      <c r="C526" s="129"/>
+      <c r="D526" s="129"/>
+      <c r="E526" s="129"/>
+      <c r="F526" s="129"/>
+      <c r="G526" s="129"/>
+      <c r="H526" s="129"/>
+      <c r="I526" s="129"/>
+      <c r="J526" s="129"/>
+      <c r="K526" s="129"/>
       <c r="L526" s="35"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -44417,19 +44422,19 @@
       <c r="L533" s="35"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A534" s="124" t="s">
+      <c r="A534" s="129" t="s">
         <v>1383</v>
       </c>
-      <c r="B534" s="124"/>
-      <c r="C534" s="124"/>
-      <c r="D534" s="124"/>
-      <c r="E534" s="124"/>
-      <c r="F534" s="124"/>
-      <c r="G534" s="124"/>
-      <c r="H534" s="124"/>
-      <c r="I534" s="124"/>
-      <c r="J534" s="124"/>
-      <c r="K534" s="124"/>
+      <c r="B534" s="129"/>
+      <c r="C534" s="129"/>
+      <c r="D534" s="129"/>
+      <c r="E534" s="129"/>
+      <c r="F534" s="129"/>
+      <c r="G534" s="129"/>
+      <c r="H534" s="129"/>
+      <c r="I534" s="129"/>
+      <c r="J534" s="129"/>
+      <c r="K534" s="129"/>
       <c r="L534" s="35"/>
     </row>
     <row r="535" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -44685,19 +44690,19 @@
       <c r="U540" s="119"/>
     </row>
     <row r="541" spans="1:21" ht="31.2" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="126" t="s">
+      <c r="A541" s="128" t="s">
         <v>1690</v>
       </c>
-      <c r="B541" s="124"/>
-      <c r="C541" s="124"/>
-      <c r="D541" s="124"/>
-      <c r="E541" s="124"/>
-      <c r="F541" s="124"/>
-      <c r="G541" s="124"/>
-      <c r="H541" s="124"/>
-      <c r="I541" s="124"/>
-      <c r="J541" s="124"/>
-      <c r="K541" s="124"/>
+      <c r="B541" s="129"/>
+      <c r="C541" s="129"/>
+      <c r="D541" s="129"/>
+      <c r="E541" s="129"/>
+      <c r="F541" s="129"/>
+      <c r="G541" s="129"/>
+      <c r="H541" s="129"/>
+      <c r="I541" s="129"/>
+      <c r="J541" s="129"/>
+      <c r="K541" s="129"/>
       <c r="L541" s="35"/>
     </row>
     <row r="542" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45037,19 +45042,19 @@
       <c r="U549" s="119"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="124" t="s">
+      <c r="A550" s="129" t="s">
         <v>1440</v>
       </c>
-      <c r="B550" s="124"/>
-      <c r="C550" s="124"/>
-      <c r="D550" s="124"/>
-      <c r="E550" s="124"/>
-      <c r="F550" s="124"/>
-      <c r="G550" s="124"/>
-      <c r="H550" s="124"/>
-      <c r="I550" s="124"/>
-      <c r="J550" s="124"/>
-      <c r="K550" s="124"/>
+      <c r="B550" s="129"/>
+      <c r="C550" s="129"/>
+      <c r="D550" s="129"/>
+      <c r="E550" s="129"/>
+      <c r="F550" s="129"/>
+      <c r="G550" s="129"/>
+      <c r="H550" s="129"/>
+      <c r="I550" s="129"/>
+      <c r="J550" s="129"/>
+      <c r="K550" s="129"/>
       <c r="L550" s="35"/>
     </row>
     <row r="551" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45473,19 +45478,19 @@
       <c r="U560" s="119"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="124" t="s">
+      <c r="A561" s="129" t="s">
         <v>1481</v>
       </c>
-      <c r="B561" s="124"/>
-      <c r="C561" s="124"/>
-      <c r="D561" s="124"/>
-      <c r="E561" s="124"/>
-      <c r="F561" s="124"/>
-      <c r="G561" s="124"/>
-      <c r="H561" s="124"/>
-      <c r="I561" s="124"/>
-      <c r="J561" s="124"/>
-      <c r="K561" s="124"/>
+      <c r="B561" s="129"/>
+      <c r="C561" s="129"/>
+      <c r="D561" s="129"/>
+      <c r="E561" s="129"/>
+      <c r="F561" s="129"/>
+      <c r="G561" s="129"/>
+      <c r="H561" s="129"/>
+      <c r="I561" s="129"/>
+      <c r="J561" s="129"/>
+      <c r="K561" s="129"/>
       <c r="L561" s="35"/>
     </row>
     <row r="562" spans="1:21" s="35" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.3">
@@ -45953,19 +45958,19 @@
       <c r="U573" s="119"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="121" t="s">
+      <c r="A574" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="B574" s="121"/>
-      <c r="C574" s="121"/>
-      <c r="D574" s="121"/>
-      <c r="E574" s="121"/>
-      <c r="F574" s="121"/>
-      <c r="G574" s="121"/>
-      <c r="H574" s="121"/>
-      <c r="I574" s="121"/>
-      <c r="J574" s="121"/>
-      <c r="K574" s="122"/>
+      <c r="B574" s="126"/>
+      <c r="C574" s="126"/>
+      <c r="D574" s="126"/>
+      <c r="E574" s="126"/>
+      <c r="F574" s="126"/>
+      <c r="G574" s="126"/>
+      <c r="H574" s="126"/>
+      <c r="I574" s="126"/>
+      <c r="J574" s="126"/>
+      <c r="K574" s="127"/>
       <c r="L574" s="35" t="s">
         <v>1374</v>
       </c>
@@ -46174,19 +46179,19 @@
       </c>
     </row>
     <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="123" t="s">
+      <c r="A584" s="121" t="s">
         <v>1712</v>
       </c>
-      <c r="B584" s="123"/>
-      <c r="C584" s="123"/>
-      <c r="D584" s="123"/>
-      <c r="E584" s="123"/>
-      <c r="F584" s="123"/>
-      <c r="G584" s="123"/>
-      <c r="H584" s="123"/>
-      <c r="I584" s="123"/>
-      <c r="J584" s="123"/>
-      <c r="K584" s="123"/>
+      <c r="B584" s="121"/>
+      <c r="C584" s="121"/>
+      <c r="D584" s="121"/>
+      <c r="E584" s="121"/>
+      <c r="F584" s="121"/>
+      <c r="G584" s="121"/>
+      <c r="H584" s="121"/>
+      <c r="I584" s="121"/>
+      <c r="J584" s="121"/>
+      <c r="K584" s="121"/>
       <c r="L584" s="35"/>
     </row>
     <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -46803,19 +46808,19 @@
       <c r="D609" s="104"/>
     </row>
     <row r="610" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="121" t="s">
+      <c r="A610" s="126" t="s">
         <v>1376</v>
       </c>
-      <c r="B610" s="121"/>
-      <c r="C610" s="121"/>
-      <c r="D610" s="121"/>
-      <c r="E610" s="121"/>
-      <c r="F610" s="121"/>
-      <c r="G610" s="121"/>
-      <c r="H610" s="121"/>
-      <c r="I610" s="121"/>
-      <c r="J610" s="121"/>
-      <c r="K610" s="122"/>
+      <c r="B610" s="126"/>
+      <c r="C610" s="126"/>
+      <c r="D610" s="126"/>
+      <c r="E610" s="126"/>
+      <c r="F610" s="126"/>
+      <c r="G610" s="126"/>
+      <c r="H610" s="126"/>
+      <c r="I610" s="126"/>
+      <c r="J610" s="126"/>
+      <c r="K610" s="127"/>
       <c r="L610" s="35" t="s">
         <v>15</v>
       </c>
@@ -46935,12 +46940,26 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A584:K584"/>
+    <mergeCell ref="A610:K610"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A534:K534"/>
+    <mergeCell ref="A541:K541"/>
+    <mergeCell ref="A550:K550"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A525:K525"/>
+    <mergeCell ref="A450:K450"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A454:K454"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A469:K469"/>
+    <mergeCell ref="A478:K478"/>
+    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A502:K502"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A524:K524"/>
     <mergeCell ref="A441:K441"/>
     <mergeCell ref="A214:K214"/>
     <mergeCell ref="A248:K248"/>
@@ -46953,26 +46972,12 @@
     <mergeCell ref="A348:K348"/>
     <mergeCell ref="A357:K357"/>
     <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A525:K525"/>
-    <mergeCell ref="A450:K450"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A454:K454"/>
-    <mergeCell ref="A462:K462"/>
-    <mergeCell ref="A469:K469"/>
-    <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A489:K489"/>
-    <mergeCell ref="A502:K502"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A524:K524"/>
-    <mergeCell ref="A584:K584"/>
-    <mergeCell ref="A610:K610"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A534:K534"/>
-    <mergeCell ref="A541:K541"/>
-    <mergeCell ref="A550:K550"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47006,40 +47011,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="131" t="s">
+      <c r="L1" s="130" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="128"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -47114,18 +47119,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="33"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -50241,18 +50246,18 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="121" t="s">
+      <c r="A112" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="B112" s="121"/>
-      <c r="C112" s="121"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="121"/>
-      <c r="G112" s="121"/>
-      <c r="H112" s="121"/>
-      <c r="I112" s="121"/>
-      <c r="J112" s="121"/>
+      <c r="B112" s="126"/>
+      <c r="C112" s="126"/>
+      <c r="D112" s="126"/>
+      <c r="E112" s="126"/>
+      <c r="F112" s="126"/>
+      <c r="G112" s="126"/>
+      <c r="H112" s="126"/>
+      <c r="I112" s="126"/>
+      <c r="J112" s="126"/>
       <c r="K112" s="33"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -50611,18 +50616,18 @@
       <c r="N126" s="6"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="129" t="s">
+      <c r="A128" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="129"/>
-      <c r="G128" s="129"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="129"/>
-      <c r="J128" s="129"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="125"/>
+      <c r="G128" s="125"/>
+      <c r="H128" s="125"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="125"/>
       <c r="K128" s="10"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51128,18 +51133,18 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="129" t="s">
+      <c r="A153" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="129"/>
-      <c r="C153" s="129"/>
-      <c r="D153" s="129"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="129"/>
-      <c r="H153" s="129"/>
-      <c r="I153" s="129"/>
-      <c r="J153" s="129"/>
+      <c r="B153" s="125"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="125"/>
+      <c r="E153" s="125"/>
+      <c r="F153" s="125"/>
+      <c r="G153" s="125"/>
+      <c r="H153" s="125"/>
+      <c r="I153" s="125"/>
+      <c r="J153" s="125"/>
       <c r="K153" s="10"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51403,18 +51408,18 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="129" t="s">
+      <c r="A168" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B168" s="129"/>
-      <c r="C168" s="129"/>
-      <c r="D168" s="129"/>
-      <c r="E168" s="129"/>
-      <c r="F168" s="129"/>
-      <c r="G168" s="129"/>
-      <c r="H168" s="129"/>
-      <c r="I168" s="129"/>
-      <c r="J168" s="129"/>
+      <c r="B168" s="125"/>
+      <c r="C168" s="125"/>
+      <c r="D168" s="125"/>
+      <c r="E168" s="125"/>
+      <c r="F168" s="125"/>
+      <c r="G168" s="125"/>
+      <c r="H168" s="125"/>
+      <c r="I168" s="125"/>
+      <c r="J168" s="125"/>
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -51830,10 +51835,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="127" t="s">
         <v>415</v>
       </c>
-      <c r="B23" s="122"/>
+      <c r="B23" s="127"/>
       <c r="C23" t="s">
         <v>420</v>
       </c>

--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693480C-3306-4B2E-84B8-D9BEB2D3177B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF045107-B00A-4413-A45E-1E4FF85B4DAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4936" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4951" uniqueCount="1549">
   <si>
     <t>Net Mask</t>
   </si>
@@ -4607,9 +4607,6 @@
     <t>/125</t>
   </si>
   <si>
-    <t>TRIADA INSIDE:  2000:AAAA::/124</t>
-  </si>
-  <si>
     <t>2000:AAAA::9</t>
   </si>
   <si>
@@ -4671,6 +4668,30 @@
   </si>
   <si>
     <t>2000:AAAA::1F</t>
+  </si>
+  <si>
+    <t>TRIADA INSIDE:  2000:AAAA::/122</t>
+  </si>
+  <si>
+    <t>/124</t>
+  </si>
+  <si>
+    <t>2000:AAAA::4</t>
+  </si>
+  <si>
+    <t>2000:AAAA::5</t>
+  </si>
+  <si>
+    <t>2000:AAAA::6</t>
+  </si>
+  <si>
+    <t>2000:AAAA::C</t>
+  </si>
+  <si>
+    <t>2000:AAAA::D</t>
+  </si>
+  <si>
+    <t>2000:AAAA::E</t>
   </si>
 </sst>
 </file>
@@ -5152,83 +5173,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5301,9 +5249,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5312,9 +5257,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -5328,6 +5270,85 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5787,43 +5808,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L1" s="119">
+      <c r="L1" s="161">
         <v>20210515</v>
       </c>
-      <c r="M1" s="119"/>
+      <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="162" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="12"/>
       <c r="L2" s="26" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="26" t="s">
         <v>1051</v>
       </c>
@@ -6007,37 +6028,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="158" t="s">
         <v>1057</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
       <c r="L12" s="26"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
       <c r="L13" s="26"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -10554,19 +10575,19 @@
       <c r="L200" s="26"/>
     </row>
     <row r="201" spans="1:21" s="11" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="114" t="s">
+      <c r="A201" s="158" t="s">
         <v>470</v>
       </c>
-      <c r="B201" s="114"/>
-      <c r="C201" s="114"/>
-      <c r="D201" s="114"/>
-      <c r="E201" s="114"/>
-      <c r="F201" s="114"/>
-      <c r="G201" s="114"/>
-      <c r="H201" s="114"/>
-      <c r="I201" s="114"/>
-      <c r="J201" s="114"/>
-      <c r="K201" s="114"/>
+      <c r="B201" s="158"/>
+      <c r="C201" s="158"/>
+      <c r="D201" s="158"/>
+      <c r="E201" s="158"/>
+      <c r="F201" s="158"/>
+      <c r="G201" s="158"/>
+      <c r="H201" s="158"/>
+      <c r="I201" s="158"/>
+      <c r="J201" s="158"/>
+      <c r="K201" s="158"/>
       <c r="L201" s="26"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -10967,19 +10988,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="114" t="s">
+      <c r="A214" s="158" t="s">
         <v>471</v>
       </c>
-      <c r="B214" s="114"/>
-      <c r="C214" s="114"/>
-      <c r="D214" s="114"/>
-      <c r="E214" s="114"/>
-      <c r="F214" s="114"/>
-      <c r="G214" s="114"/>
-      <c r="H214" s="114"/>
-      <c r="I214" s="114"/>
-      <c r="J214" s="114"/>
-      <c r="K214" s="114"/>
+      <c r="B214" s="158"/>
+      <c r="C214" s="158"/>
+      <c r="D214" s="158"/>
+      <c r="E214" s="158"/>
+      <c r="F214" s="158"/>
+      <c r="G214" s="158"/>
+      <c r="H214" s="158"/>
+      <c r="I214" s="158"/>
+      <c r="J214" s="158"/>
+      <c r="K214" s="158"/>
       <c r="L214" s="26"/>
     </row>
     <row r="215" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -12023,19 +12044,19 @@
       <c r="U247" s="13"/>
     </row>
     <row r="248" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="114" t="s">
+      <c r="A248" s="158" t="s">
         <v>472</v>
       </c>
-      <c r="B248" s="114"/>
-      <c r="C248" s="114"/>
-      <c r="D248" s="114"/>
-      <c r="E248" s="114"/>
-      <c r="F248" s="114"/>
-      <c r="G248" s="114"/>
-      <c r="H248" s="114"/>
-      <c r="I248" s="114"/>
-      <c r="J248" s="114"/>
-      <c r="K248" s="114"/>
+      <c r="B248" s="158"/>
+      <c r="C248" s="158"/>
+      <c r="D248" s="158"/>
+      <c r="E248" s="158"/>
+      <c r="F248" s="158"/>
+      <c r="G248" s="158"/>
+      <c r="H248" s="158"/>
+      <c r="I248" s="158"/>
+      <c r="J248" s="158"/>
+      <c r="K248" s="158"/>
       <c r="L248" s="26"/>
     </row>
     <row r="249" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -13077,19 +13098,19 @@
       <c r="U281" s="35"/>
     </row>
     <row r="282" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="116" t="s">
+      <c r="A282" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="B282" s="116"/>
-      <c r="C282" s="116"/>
-      <c r="D282" s="116"/>
-      <c r="E282" s="116"/>
-      <c r="F282" s="116"/>
-      <c r="G282" s="116"/>
-      <c r="H282" s="116"/>
-      <c r="I282" s="116"/>
-      <c r="J282" s="116"/>
-      <c r="K282" s="116"/>
+      <c r="B282" s="159"/>
+      <c r="C282" s="159"/>
+      <c r="D282" s="159"/>
+      <c r="E282" s="159"/>
+      <c r="F282" s="159"/>
+      <c r="G282" s="159"/>
+      <c r="H282" s="159"/>
+      <c r="I282" s="159"/>
+      <c r="J282" s="159"/>
+      <c r="K282" s="159"/>
       <c r="L282" s="26"/>
     </row>
     <row r="283" spans="1:21" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -13698,19 +13719,19 @@
       <c r="L302" s="26"/>
     </row>
     <row r="303" spans="1:21" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="115" t="s">
+      <c r="A303" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="B303" s="115"/>
-      <c r="C303" s="115"/>
-      <c r="D303" s="115"/>
-      <c r="E303" s="115"/>
-      <c r="F303" s="115"/>
-      <c r="G303" s="115"/>
-      <c r="H303" s="115"/>
-      <c r="I303" s="115"/>
-      <c r="J303" s="115"/>
-      <c r="K303" s="115"/>
+      <c r="B303" s="166"/>
+      <c r="C303" s="166"/>
+      <c r="D303" s="166"/>
+      <c r="E303" s="166"/>
+      <c r="F303" s="166"/>
+      <c r="G303" s="166"/>
+      <c r="H303" s="166"/>
+      <c r="I303" s="166"/>
+      <c r="J303" s="166"/>
+      <c r="K303" s="166"/>
       <c r="L303" s="26"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -13754,19 +13775,19 @@
       <c r="L306" s="26"/>
     </row>
     <row r="307" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A307" s="115" t="s">
+      <c r="A307" s="166" t="s">
         <v>574</v>
       </c>
-      <c r="B307" s="115"/>
-      <c r="C307" s="115"/>
-      <c r="D307" s="115"/>
-      <c r="E307" s="115"/>
-      <c r="F307" s="115"/>
-      <c r="G307" s="115"/>
-      <c r="H307" s="115"/>
-      <c r="I307" s="115"/>
-      <c r="J307" s="115"/>
-      <c r="K307" s="115"/>
+      <c r="B307" s="166"/>
+      <c r="C307" s="166"/>
+      <c r="D307" s="166"/>
+      <c r="E307" s="166"/>
+      <c r="F307" s="166"/>
+      <c r="G307" s="166"/>
+      <c r="H307" s="166"/>
+      <c r="I307" s="166"/>
+      <c r="J307" s="166"/>
+      <c r="K307" s="166"/>
       <c r="L307" s="26"/>
     </row>
     <row r="308" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -14014,19 +14035,19 @@
       <c r="U313" s="13"/>
     </row>
     <row r="314" spans="1:21" ht="31.15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="117" t="s">
+      <c r="A314" s="165" t="s">
         <v>575</v>
       </c>
-      <c r="B314" s="115"/>
-      <c r="C314" s="115"/>
-      <c r="D314" s="115"/>
-      <c r="E314" s="115"/>
-      <c r="F314" s="115"/>
-      <c r="G314" s="115"/>
-      <c r="H314" s="115"/>
-      <c r="I314" s="115"/>
-      <c r="J314" s="115"/>
-      <c r="K314" s="115"/>
+      <c r="B314" s="166"/>
+      <c r="C314" s="166"/>
+      <c r="D314" s="166"/>
+      <c r="E314" s="166"/>
+      <c r="F314" s="166"/>
+      <c r="G314" s="166"/>
+      <c r="H314" s="166"/>
+      <c r="I314" s="166"/>
+      <c r="J314" s="166"/>
+      <c r="K314" s="166"/>
       <c r="L314" s="26"/>
     </row>
     <row r="315" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -14388,19 +14409,19 @@
       <c r="U323" s="13"/>
     </row>
     <row r="324" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="115" t="s">
+      <c r="A324" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="B324" s="115"/>
-      <c r="C324" s="115"/>
-      <c r="D324" s="115"/>
-      <c r="E324" s="115"/>
-      <c r="F324" s="115"/>
-      <c r="G324" s="115"/>
-      <c r="H324" s="115"/>
-      <c r="I324" s="115"/>
-      <c r="J324" s="115"/>
-      <c r="K324" s="115"/>
+      <c r="B324" s="166"/>
+      <c r="C324" s="166"/>
+      <c r="D324" s="166"/>
+      <c r="E324" s="166"/>
+      <c r="F324" s="166"/>
+      <c r="G324" s="166"/>
+      <c r="H324" s="166"/>
+      <c r="I324" s="166"/>
+      <c r="J324" s="166"/>
+      <c r="K324" s="166"/>
       <c r="L324" s="26"/>
     </row>
     <row r="325" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -14824,19 +14845,19 @@
       <c r="U334" s="13"/>
     </row>
     <row r="335" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="115" t="s">
+      <c r="A335" s="166" t="s">
         <v>692</v>
       </c>
-      <c r="B335" s="115"/>
-      <c r="C335" s="115"/>
-      <c r="D335" s="115"/>
-      <c r="E335" s="115"/>
-      <c r="F335" s="115"/>
-      <c r="G335" s="115"/>
-      <c r="H335" s="115"/>
-      <c r="I335" s="115"/>
-      <c r="J335" s="115"/>
-      <c r="K335" s="115"/>
+      <c r="B335" s="166"/>
+      <c r="C335" s="166"/>
+      <c r="D335" s="166"/>
+      <c r="E335" s="166"/>
+      <c r="F335" s="166"/>
+      <c r="G335" s="166"/>
+      <c r="H335" s="166"/>
+      <c r="I335" s="166"/>
+      <c r="J335" s="166"/>
+      <c r="K335" s="166"/>
       <c r="L335" s="26"/>
     </row>
     <row r="336" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -15304,19 +15325,19 @@
       <c r="U347" s="35"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A348" s="112" t="s">
+      <c r="A348" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="B348" s="112"/>
-      <c r="C348" s="112"/>
-      <c r="D348" s="112"/>
-      <c r="E348" s="112"/>
-      <c r="F348" s="112"/>
-      <c r="G348" s="112"/>
-      <c r="H348" s="112"/>
-      <c r="I348" s="112"/>
-      <c r="J348" s="112"/>
-      <c r="K348" s="113"/>
+      <c r="B348" s="163"/>
+      <c r="C348" s="163"/>
+      <c r="D348" s="163"/>
+      <c r="E348" s="163"/>
+      <c r="F348" s="163"/>
+      <c r="G348" s="163"/>
+      <c r="H348" s="163"/>
+      <c r="I348" s="163"/>
+      <c r="J348" s="163"/>
+      <c r="K348" s="164"/>
       <c r="L348" s="26" t="s">
         <v>1052</v>
       </c>
@@ -15488,35 +15509,35 @@
       </c>
     </row>
     <row r="357" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="114" t="s">
+      <c r="A357" s="158" t="s">
         <v>1371</v>
       </c>
-      <c r="B357" s="114"/>
-      <c r="C357" s="114"/>
-      <c r="D357" s="114"/>
-      <c r="E357" s="114"/>
-      <c r="F357" s="114"/>
-      <c r="G357" s="114"/>
-      <c r="H357" s="114"/>
-      <c r="I357" s="114"/>
-      <c r="J357" s="114"/>
-      <c r="K357" s="114"/>
+      <c r="B357" s="158"/>
+      <c r="C357" s="158"/>
+      <c r="D357" s="158"/>
+      <c r="E357" s="158"/>
+      <c r="F357" s="158"/>
+      <c r="G357" s="158"/>
+      <c r="H357" s="158"/>
+      <c r="I357" s="158"/>
+      <c r="J357" s="158"/>
+      <c r="K357" s="158"/>
       <c r="L357" s="26"/>
     </row>
     <row r="358" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A358" s="114" t="s">
+      <c r="A358" s="158" t="s">
         <v>1372</v>
       </c>
-      <c r="B358" s="114"/>
-      <c r="C358" s="114"/>
-      <c r="D358" s="114"/>
-      <c r="E358" s="114"/>
-      <c r="F358" s="114"/>
-      <c r="G358" s="114"/>
-      <c r="H358" s="114"/>
-      <c r="I358" s="114"/>
-      <c r="J358" s="114"/>
-      <c r="K358" s="114"/>
+      <c r="B358" s="158"/>
+      <c r="C358" s="158"/>
+      <c r="D358" s="158"/>
+      <c r="E358" s="158"/>
+      <c r="F358" s="158"/>
+      <c r="G358" s="158"/>
+      <c r="H358" s="158"/>
+      <c r="I358" s="158"/>
+      <c r="J358" s="158"/>
+      <c r="K358" s="158"/>
       <c r="L358" s="26"/>
     </row>
     <row r="359" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -17508,19 +17529,19 @@
       <c r="L440" s="26"/>
     </row>
     <row r="441" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="114" t="s">
+      <c r="A441" s="158" t="s">
         <v>1381</v>
       </c>
-      <c r="B441" s="114"/>
-      <c r="C441" s="114"/>
-      <c r="D441" s="114"/>
-      <c r="E441" s="114"/>
-      <c r="F441" s="114"/>
-      <c r="G441" s="114"/>
-      <c r="H441" s="114"/>
-      <c r="I441" s="114"/>
-      <c r="J441" s="114"/>
-      <c r="K441" s="114"/>
+      <c r="B441" s="158"/>
+      <c r="C441" s="158"/>
+      <c r="D441" s="158"/>
+      <c r="E441" s="158"/>
+      <c r="F441" s="158"/>
+      <c r="G441" s="158"/>
+      <c r="H441" s="158"/>
+      <c r="I441" s="158"/>
+      <c r="J441" s="158"/>
+      <c r="K441" s="158"/>
       <c r="L441" s="26"/>
       <c r="M441"/>
       <c r="N441"/>
@@ -17785,19 +17806,19 @@
       <c r="U449" s="13"/>
     </row>
     <row r="450" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="114" t="s">
+      <c r="A450" s="158" t="s">
         <v>1383</v>
       </c>
-      <c r="B450" s="114"/>
-      <c r="C450" s="114"/>
-      <c r="D450" s="114"/>
-      <c r="E450" s="114"/>
-      <c r="F450" s="114"/>
-      <c r="G450" s="114"/>
-      <c r="H450" s="114"/>
-      <c r="I450" s="114"/>
-      <c r="J450" s="114"/>
-      <c r="K450" s="114"/>
+      <c r="B450" s="158"/>
+      <c r="C450" s="158"/>
+      <c r="D450" s="158"/>
+      <c r="E450" s="158"/>
+      <c r="F450" s="158"/>
+      <c r="G450" s="158"/>
+      <c r="H450" s="158"/>
+      <c r="I450" s="158"/>
+      <c r="J450" s="158"/>
+      <c r="K450" s="158"/>
       <c r="L450" s="26"/>
     </row>
     <row r="451" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -17815,51 +17836,51 @@
       <c r="L451" s="26"/>
     </row>
     <row r="452" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="118" t="s">
+      <c r="A452" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="B452" s="118"/>
-      <c r="C452" s="118"/>
-      <c r="D452" s="118"/>
-      <c r="E452" s="118"/>
-      <c r="F452" s="118"/>
-      <c r="G452" s="118"/>
-      <c r="H452" s="118"/>
-      <c r="I452" s="118"/>
-      <c r="J452" s="118"/>
-      <c r="K452" s="118"/>
+      <c r="B452" s="160"/>
+      <c r="C452" s="160"/>
+      <c r="D452" s="160"/>
+      <c r="E452" s="160"/>
+      <c r="F452" s="160"/>
+      <c r="G452" s="160"/>
+      <c r="H452" s="160"/>
+      <c r="I452" s="160"/>
+      <c r="J452" s="160"/>
+      <c r="K452" s="160"/>
       <c r="L452" s="26"/>
     </row>
     <row r="453" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="116" t="s">
+      <c r="A453" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="B453" s="116"/>
-      <c r="C453" s="116"/>
-      <c r="D453" s="116"/>
-      <c r="E453" s="116"/>
-      <c r="F453" s="116"/>
-      <c r="G453" s="116"/>
-      <c r="H453" s="116"/>
-      <c r="I453" s="116"/>
-      <c r="J453" s="116"/>
-      <c r="K453" s="116"/>
+      <c r="B453" s="159"/>
+      <c r="C453" s="159"/>
+      <c r="D453" s="159"/>
+      <c r="E453" s="159"/>
+      <c r="F453" s="159"/>
+      <c r="G453" s="159"/>
+      <c r="H453" s="159"/>
+      <c r="I453" s="159"/>
+      <c r="J453" s="159"/>
+      <c r="K453" s="159"/>
       <c r="L453" s="26"/>
     </row>
     <row r="454" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="115" t="s">
+      <c r="A454" s="166" t="s">
         <v>198</v>
       </c>
-      <c r="B454" s="115"/>
-      <c r="C454" s="115"/>
-      <c r="D454" s="115"/>
-      <c r="E454" s="115"/>
-      <c r="F454" s="115"/>
-      <c r="G454" s="115"/>
-      <c r="H454" s="115"/>
-      <c r="I454" s="115"/>
-      <c r="J454" s="115"/>
-      <c r="K454" s="115"/>
+      <c r="B454" s="166"/>
+      <c r="C454" s="166"/>
+      <c r="D454" s="166"/>
+      <c r="E454" s="166"/>
+      <c r="F454" s="166"/>
+      <c r="G454" s="166"/>
+      <c r="H454" s="166"/>
+      <c r="I454" s="166"/>
+      <c r="J454" s="166"/>
+      <c r="K454" s="166"/>
       <c r="L454" s="26"/>
     </row>
     <row r="455" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -17919,19 +17940,19 @@
       <c r="L461" s="26"/>
     </row>
     <row r="462" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A462" s="115" t="s">
+      <c r="A462" s="166" t="s">
         <v>752</v>
       </c>
-      <c r="B462" s="115"/>
-      <c r="C462" s="115"/>
-      <c r="D462" s="115"/>
-      <c r="E462" s="115"/>
-      <c r="F462" s="115"/>
-      <c r="G462" s="115"/>
-      <c r="H462" s="115"/>
-      <c r="I462" s="115"/>
-      <c r="J462" s="115"/>
-      <c r="K462" s="115"/>
+      <c r="B462" s="166"/>
+      <c r="C462" s="166"/>
+      <c r="D462" s="166"/>
+      <c r="E462" s="166"/>
+      <c r="F462" s="166"/>
+      <c r="G462" s="166"/>
+      <c r="H462" s="166"/>
+      <c r="I462" s="166"/>
+      <c r="J462" s="166"/>
+      <c r="K462" s="166"/>
       <c r="L462" s="26"/>
     </row>
     <row r="463" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -18187,19 +18208,19 @@
       <c r="U468" s="13"/>
     </row>
     <row r="469" spans="1:21" ht="31.15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="117" t="s">
+      <c r="A469" s="165" t="s">
         <v>1391</v>
       </c>
-      <c r="B469" s="115"/>
-      <c r="C469" s="115"/>
-      <c r="D469" s="115"/>
-      <c r="E469" s="115"/>
-      <c r="F469" s="115"/>
-      <c r="G469" s="115"/>
-      <c r="H469" s="115"/>
-      <c r="I469" s="115"/>
-      <c r="J469" s="115"/>
-      <c r="K469" s="115"/>
+      <c r="B469" s="166"/>
+      <c r="C469" s="166"/>
+      <c r="D469" s="166"/>
+      <c r="E469" s="166"/>
+      <c r="F469" s="166"/>
+      <c r="G469" s="166"/>
+      <c r="H469" s="166"/>
+      <c r="I469" s="166"/>
+      <c r="J469" s="166"/>
+      <c r="K469" s="166"/>
       <c r="L469" s="26"/>
     </row>
     <row r="470" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -18539,19 +18560,19 @@
       <c r="U477" s="13"/>
     </row>
     <row r="478" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="115" t="s">
+      <c r="A478" s="166" t="s">
         <v>809</v>
       </c>
-      <c r="B478" s="115"/>
-      <c r="C478" s="115"/>
-      <c r="D478" s="115"/>
-      <c r="E478" s="115"/>
-      <c r="F478" s="115"/>
-      <c r="G478" s="115"/>
-      <c r="H478" s="115"/>
-      <c r="I478" s="115"/>
-      <c r="J478" s="115"/>
-      <c r="K478" s="115"/>
+      <c r="B478" s="166"/>
+      <c r="C478" s="166"/>
+      <c r="D478" s="166"/>
+      <c r="E478" s="166"/>
+      <c r="F478" s="166"/>
+      <c r="G478" s="166"/>
+      <c r="H478" s="166"/>
+      <c r="I478" s="166"/>
+      <c r="J478" s="166"/>
+      <c r="K478" s="166"/>
       <c r="L478" s="26"/>
     </row>
     <row r="479" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -18975,19 +18996,19 @@
       <c r="U488" s="13"/>
     </row>
     <row r="489" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="115" t="s">
+      <c r="A489" s="166" t="s">
         <v>850</v>
       </c>
-      <c r="B489" s="115"/>
-      <c r="C489" s="115"/>
-      <c r="D489" s="115"/>
-      <c r="E489" s="115"/>
-      <c r="F489" s="115"/>
-      <c r="G489" s="115"/>
-      <c r="H489" s="115"/>
-      <c r="I489" s="115"/>
-      <c r="J489" s="115"/>
-      <c r="K489" s="115"/>
+      <c r="B489" s="166"/>
+      <c r="C489" s="166"/>
+      <c r="D489" s="166"/>
+      <c r="E489" s="166"/>
+      <c r="F489" s="166"/>
+      <c r="G489" s="166"/>
+      <c r="H489" s="166"/>
+      <c r="I489" s="166"/>
+      <c r="J489" s="166"/>
+      <c r="K489" s="166"/>
       <c r="L489" s="26"/>
     </row>
     <row r="490" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -19455,19 +19476,19 @@
       <c r="U501" s="35"/>
     </row>
     <row r="502" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="112" t="s">
+      <c r="A502" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="B502" s="112"/>
-      <c r="C502" s="112"/>
-      <c r="D502" s="112"/>
-      <c r="E502" s="112"/>
-      <c r="F502" s="112"/>
-      <c r="G502" s="112"/>
-      <c r="H502" s="112"/>
-      <c r="I502" s="112"/>
-      <c r="J502" s="112"/>
-      <c r="K502" s="113"/>
+      <c r="B502" s="163"/>
+      <c r="C502" s="163"/>
+      <c r="D502" s="163"/>
+      <c r="E502" s="163"/>
+      <c r="F502" s="163"/>
+      <c r="G502" s="163"/>
+      <c r="H502" s="163"/>
+      <c r="I502" s="163"/>
+      <c r="J502" s="163"/>
+      <c r="K502" s="164"/>
       <c r="L502" s="26" t="s">
         <v>1053</v>
       </c>
@@ -19675,19 +19696,19 @@
       </c>
     </row>
     <row r="512" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="114" t="s">
+      <c r="A512" s="158" t="s">
         <v>1022</v>
       </c>
-      <c r="B512" s="114"/>
-      <c r="C512" s="114"/>
-      <c r="D512" s="114"/>
-      <c r="E512" s="114"/>
-      <c r="F512" s="114"/>
-      <c r="G512" s="114"/>
-      <c r="H512" s="114"/>
-      <c r="I512" s="114"/>
-      <c r="J512" s="114"/>
-      <c r="K512" s="114"/>
+      <c r="B512" s="158"/>
+      <c r="C512" s="158"/>
+      <c r="D512" s="158"/>
+      <c r="E512" s="158"/>
+      <c r="F512" s="158"/>
+      <c r="G512" s="158"/>
+      <c r="H512" s="158"/>
+      <c r="I512" s="158"/>
+      <c r="J512" s="158"/>
+      <c r="K512" s="158"/>
       <c r="L512" s="26"/>
     </row>
     <row r="513" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -20045,51 +20066,51 @@
       <c r="L523" s="26"/>
     </row>
     <row r="524" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="118" t="s">
+      <c r="A524" s="160" t="s">
         <v>1060</v>
       </c>
-      <c r="B524" s="118"/>
-      <c r="C524" s="118"/>
-      <c r="D524" s="118"/>
-      <c r="E524" s="118"/>
-      <c r="F524" s="118"/>
-      <c r="G524" s="118"/>
-      <c r="H524" s="118"/>
-      <c r="I524" s="118"/>
-      <c r="J524" s="118"/>
-      <c r="K524" s="118"/>
+      <c r="B524" s="160"/>
+      <c r="C524" s="160"/>
+      <c r="D524" s="160"/>
+      <c r="E524" s="160"/>
+      <c r="F524" s="160"/>
+      <c r="G524" s="160"/>
+      <c r="H524" s="160"/>
+      <c r="I524" s="160"/>
+      <c r="J524" s="160"/>
+      <c r="K524" s="160"/>
       <c r="L524" s="26"/>
     </row>
     <row r="525" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="116" t="s">
+      <c r="A525" s="159" t="s">
         <v>1061</v>
       </c>
-      <c r="B525" s="116"/>
-      <c r="C525" s="116"/>
-      <c r="D525" s="116"/>
-      <c r="E525" s="116"/>
-      <c r="F525" s="116"/>
-      <c r="G525" s="116"/>
-      <c r="H525" s="116"/>
-      <c r="I525" s="116"/>
-      <c r="J525" s="116"/>
-      <c r="K525" s="116"/>
+      <c r="B525" s="159"/>
+      <c r="C525" s="159"/>
+      <c r="D525" s="159"/>
+      <c r="E525" s="159"/>
+      <c r="F525" s="159"/>
+      <c r="G525" s="159"/>
+      <c r="H525" s="159"/>
+      <c r="I525" s="159"/>
+      <c r="J525" s="159"/>
+      <c r="K525" s="159"/>
       <c r="L525" s="26"/>
     </row>
     <row r="526" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="115" t="s">
+      <c r="A526" s="166" t="s">
         <v>1062</v>
       </c>
-      <c r="B526" s="115"/>
-      <c r="C526" s="115"/>
-      <c r="D526" s="115"/>
-      <c r="E526" s="115"/>
-      <c r="F526" s="115"/>
-      <c r="G526" s="115"/>
-      <c r="H526" s="115"/>
-      <c r="I526" s="115"/>
-      <c r="J526" s="115"/>
-      <c r="K526" s="115"/>
+      <c r="B526" s="166"/>
+      <c r="C526" s="166"/>
+      <c r="D526" s="166"/>
+      <c r="E526" s="166"/>
+      <c r="F526" s="166"/>
+      <c r="G526" s="166"/>
+      <c r="H526" s="166"/>
+      <c r="I526" s="166"/>
+      <c r="J526" s="166"/>
+      <c r="K526" s="166"/>
       <c r="L526" s="26"/>
     </row>
     <row r="527" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -20149,19 +20170,19 @@
       <c r="L533" s="26"/>
     </row>
     <row r="534" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A534" s="115" t="s">
+      <c r="A534" s="166" t="s">
         <v>1063</v>
       </c>
-      <c r="B534" s="115"/>
-      <c r="C534" s="115"/>
-      <c r="D534" s="115"/>
-      <c r="E534" s="115"/>
-      <c r="F534" s="115"/>
-      <c r="G534" s="115"/>
-      <c r="H534" s="115"/>
-      <c r="I534" s="115"/>
-      <c r="J534" s="115"/>
-      <c r="K534" s="115"/>
+      <c r="B534" s="166"/>
+      <c r="C534" s="166"/>
+      <c r="D534" s="166"/>
+      <c r="E534" s="166"/>
+      <c r="F534" s="166"/>
+      <c r="G534" s="166"/>
+      <c r="H534" s="166"/>
+      <c r="I534" s="166"/>
+      <c r="J534" s="166"/>
+      <c r="K534" s="166"/>
       <c r="L534" s="26"/>
     </row>
     <row r="535" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -20417,19 +20438,19 @@
       <c r="U540" s="13"/>
     </row>
     <row r="541" spans="1:21" ht="31.15" hidden="1" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="117" t="s">
+      <c r="A541" s="165" t="s">
         <v>1370</v>
       </c>
-      <c r="B541" s="115"/>
-      <c r="C541" s="115"/>
-      <c r="D541" s="115"/>
-      <c r="E541" s="115"/>
-      <c r="F541" s="115"/>
-      <c r="G541" s="115"/>
-      <c r="H541" s="115"/>
-      <c r="I541" s="115"/>
-      <c r="J541" s="115"/>
-      <c r="K541" s="115"/>
+      <c r="B541" s="166"/>
+      <c r="C541" s="166"/>
+      <c r="D541" s="166"/>
+      <c r="E541" s="166"/>
+      <c r="F541" s="166"/>
+      <c r="G541" s="166"/>
+      <c r="H541" s="166"/>
+      <c r="I541" s="166"/>
+      <c r="J541" s="166"/>
+      <c r="K541" s="166"/>
       <c r="L541" s="26"/>
     </row>
     <row r="542" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -20769,19 +20790,19 @@
       <c r="U549" s="13"/>
     </row>
     <row r="550" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="115" t="s">
+      <c r="A550" s="166" t="s">
         <v>1120</v>
       </c>
-      <c r="B550" s="115"/>
-      <c r="C550" s="115"/>
-      <c r="D550" s="115"/>
-      <c r="E550" s="115"/>
-      <c r="F550" s="115"/>
-      <c r="G550" s="115"/>
-      <c r="H550" s="115"/>
-      <c r="I550" s="115"/>
-      <c r="J550" s="115"/>
-      <c r="K550" s="115"/>
+      <c r="B550" s="166"/>
+      <c r="C550" s="166"/>
+      <c r="D550" s="166"/>
+      <c r="E550" s="166"/>
+      <c r="F550" s="166"/>
+      <c r="G550" s="166"/>
+      <c r="H550" s="166"/>
+      <c r="I550" s="166"/>
+      <c r="J550" s="166"/>
+      <c r="K550" s="166"/>
       <c r="L550" s="26"/>
     </row>
     <row r="551" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -21205,19 +21226,19 @@
       <c r="U560" s="13"/>
     </row>
     <row r="561" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="115" t="s">
+      <c r="A561" s="166" t="s">
         <v>1161</v>
       </c>
-      <c r="B561" s="115"/>
-      <c r="C561" s="115"/>
-      <c r="D561" s="115"/>
-      <c r="E561" s="115"/>
-      <c r="F561" s="115"/>
-      <c r="G561" s="115"/>
-      <c r="H561" s="115"/>
-      <c r="I561" s="115"/>
-      <c r="J561" s="115"/>
-      <c r="K561" s="115"/>
+      <c r="B561" s="166"/>
+      <c r="C561" s="166"/>
+      <c r="D561" s="166"/>
+      <c r="E561" s="166"/>
+      <c r="F561" s="166"/>
+      <c r="G561" s="166"/>
+      <c r="H561" s="166"/>
+      <c r="I561" s="166"/>
+      <c r="J561" s="166"/>
+      <c r="K561" s="166"/>
       <c r="L561" s="26"/>
     </row>
     <row r="562" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -21685,19 +21706,19 @@
       <c r="U573" s="35"/>
     </row>
     <row r="574" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="112" t="s">
+      <c r="A574" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="B574" s="112"/>
-      <c r="C574" s="112"/>
-      <c r="D574" s="112"/>
-      <c r="E574" s="112"/>
-      <c r="F574" s="112"/>
-      <c r="G574" s="112"/>
-      <c r="H574" s="112"/>
-      <c r="I574" s="112"/>
-      <c r="J574" s="112"/>
-      <c r="K574" s="113"/>
+      <c r="B574" s="163"/>
+      <c r="C574" s="163"/>
+      <c r="D574" s="163"/>
+      <c r="E574" s="163"/>
+      <c r="F574" s="163"/>
+      <c r="G574" s="163"/>
+      <c r="H574" s="163"/>
+      <c r="I574" s="163"/>
+      <c r="J574" s="163"/>
+      <c r="K574" s="164"/>
       <c r="L574" s="26" t="s">
         <v>1054</v>
       </c>
@@ -21906,19 +21927,19 @@
       </c>
     </row>
     <row r="584" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="114" t="s">
+      <c r="A584" s="158" t="s">
         <v>1392</v>
       </c>
-      <c r="B584" s="114"/>
-      <c r="C584" s="114"/>
-      <c r="D584" s="114"/>
-      <c r="E584" s="114"/>
-      <c r="F584" s="114"/>
-      <c r="G584" s="114"/>
-      <c r="H584" s="114"/>
-      <c r="I584" s="114"/>
-      <c r="J584" s="114"/>
-      <c r="K584" s="114"/>
+      <c r="B584" s="158"/>
+      <c r="C584" s="158"/>
+      <c r="D584" s="158"/>
+      <c r="E584" s="158"/>
+      <c r="F584" s="158"/>
+      <c r="G584" s="158"/>
+      <c r="H584" s="158"/>
+      <c r="I584" s="158"/>
+      <c r="J584" s="158"/>
+      <c r="K584" s="158"/>
       <c r="L584" s="26"/>
     </row>
     <row r="585" spans="1:20" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22535,19 +22556,19 @@
       <c r="D609" s="95"/>
     </row>
     <row r="610" spans="1:20" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="112" t="s">
+      <c r="A610" s="163" t="s">
         <v>1056</v>
       </c>
-      <c r="B610" s="112"/>
-      <c r="C610" s="112"/>
-      <c r="D610" s="112"/>
-      <c r="E610" s="112"/>
-      <c r="F610" s="112"/>
-      <c r="G610" s="112"/>
-      <c r="H610" s="112"/>
-      <c r="I610" s="112"/>
-      <c r="J610" s="112"/>
-      <c r="K610" s="113"/>
+      <c r="B610" s="163"/>
+      <c r="C610" s="163"/>
+      <c r="D610" s="163"/>
+      <c r="E610" s="163"/>
+      <c r="F610" s="163"/>
+      <c r="G610" s="163"/>
+      <c r="H610" s="163"/>
+      <c r="I610" s="163"/>
+      <c r="J610" s="163"/>
+      <c r="K610" s="164"/>
       <c r="L610" s="26" t="s">
         <v>10</v>
       </c>
@@ -22667,12 +22688,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A357:K357"/>
-    <mergeCell ref="A452:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A441:K441"/>
+    <mergeCell ref="A610:K610"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A303:K303"/>
+    <mergeCell ref="A525:K525"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A534:K534"/>
+    <mergeCell ref="A541:K541"/>
+    <mergeCell ref="A550:K550"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A524:K524"/>
+    <mergeCell ref="A584:K584"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="A574:K574"/>
+    <mergeCell ref="A489:K489"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A348:K348"/>
@@ -22689,22 +22720,12 @@
     <mergeCell ref="A462:K462"/>
     <mergeCell ref="A469:K469"/>
     <mergeCell ref="A478:K478"/>
-    <mergeCell ref="A610:K610"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A303:K303"/>
-    <mergeCell ref="A525:K525"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A534:K534"/>
-    <mergeCell ref="A541:K541"/>
-    <mergeCell ref="A550:K550"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A524:K524"/>
-    <mergeCell ref="A584:K584"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="A574:K574"/>
-    <mergeCell ref="A489:K489"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A357:K357"/>
+    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A441:K441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22737,43 +22758,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L1" s="119">
+      <c r="L1" s="161">
         <v>20210515</v>
       </c>
-      <c r="M1" s="119"/>
+      <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="162" t="s">
         <v>1394</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="111"/>
       <c r="L2" s="26" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="163" t="s">
         <v>1393</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="26" t="s">
         <v>1051</v>
       </c>
@@ -22815,19 +22836,19 @@
       <c r="U5" s="110"/>
     </row>
     <row r="6" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="158" t="s">
         <v>1395</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
       <c r="L6" s="26"/>
       <c r="M6"/>
       <c r="N6" s="6"/>
@@ -22835,19 +22856,19 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="158" t="s">
         <v>1451</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
       <c r="L7" s="26"/>
       <c r="M7"/>
       <c r="N7" s="6"/>
@@ -23133,19 +23154,19 @@
       <c r="U16" s="110"/>
     </row>
     <row r="17" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="158" t="s">
         <v>1452</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
       <c r="L17" s="26"/>
       <c r="M17"/>
       <c r="N17" s="6"/>
@@ -23394,19 +23415,19 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="158" t="s">
         <v>1453</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -23699,19 +23720,19 @@
       <c r="U35" s="110"/>
     </row>
     <row r="36" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="158" t="s">
         <v>1454</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="158"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:21" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -24096,19 +24117,19 @@
       <c r="U48" s="110"/>
     </row>
     <row r="49" spans="1:22" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="158" t="s">
         <v>1455</v>
       </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="114"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
       <c r="L49" s="26"/>
     </row>
     <row r="50" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -24491,19 +24512,19 @@
       <c r="U61" s="110"/>
     </row>
     <row r="62" spans="1:22" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="163" t="s">
         <v>1457</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="113"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="163"/>
+      <c r="F62" s="163"/>
+      <c r="G62" s="163"/>
+      <c r="H62" s="163"/>
+      <c r="I62" s="163"/>
+      <c r="J62" s="163"/>
+      <c r="K62" s="164"/>
       <c r="L62" s="26" t="s">
         <v>1052</v>
       </c>
@@ -24546,19 +24567,19 @@
       <c r="V64" s="110"/>
     </row>
     <row r="65" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="114" t="s">
+      <c r="A65" s="158" t="s">
         <v>1458</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
       <c r="L65" s="26"/>
       <c r="N65" s="6"/>
       <c r="O65" s="110"/>
@@ -24570,19 +24591,19 @@
       <c r="V65" s="26"/>
     </row>
     <row r="66" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A66" s="114" t="s">
+      <c r="A66" s="158" t="s">
         <v>1459</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="114"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
       <c r="L66" s="26"/>
       <c r="M66"/>
       <c r="N66" s="6"/>
@@ -24849,19 +24870,19 @@
       <c r="L74" s="26"/>
     </row>
     <row r="75" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="114" t="s">
+      <c r="A75" s="158" t="s">
         <v>1460</v>
       </c>
-      <c r="B75" s="114"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="158"/>
       <c r="L75" s="26"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -25089,19 +25110,19 @@
       <c r="U82" s="110"/>
     </row>
     <row r="83" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="158" t="s">
         <v>1461</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
+      <c r="B83" s="158"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="158"/>
+      <c r="H83" s="158"/>
+      <c r="I83" s="158"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
       <c r="L83" s="26"/>
     </row>
     <row r="84" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -25384,19 +25405,19 @@
       <c r="U93" s="110"/>
     </row>
     <row r="94" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="112"/>
-      <c r="I94" s="112"/>
-      <c r="J94" s="112"/>
-      <c r="K94" s="113"/>
+      <c r="B94" s="163"/>
+      <c r="C94" s="163"/>
+      <c r="D94" s="163"/>
+      <c r="E94" s="163"/>
+      <c r="F94" s="163"/>
+      <c r="G94" s="163"/>
+      <c r="H94" s="163"/>
+      <c r="I94" s="163"/>
+      <c r="J94" s="163"/>
+      <c r="K94" s="164"/>
       <c r="L94" s="26" t="s">
         <v>1053</v>
       </c>
@@ -25467,35 +25488,35 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="114" t="s">
+      <c r="A98" s="158" t="s">
         <v>1483</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114"/>
-      <c r="J98" s="114"/>
-      <c r="K98" s="114"/>
+      <c r="B98" s="158"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="158"/>
+      <c r="J98" s="158"/>
+      <c r="K98" s="158"/>
       <c r="L98" s="26"/>
     </row>
     <row r="99" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="114" t="s">
+      <c r="A99" s="158" t="s">
         <v>1491</v>
       </c>
-      <c r="B99" s="114"/>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
-      <c r="G99" s="114"/>
-      <c r="H99" s="114"/>
-      <c r="I99" s="114"/>
-      <c r="J99" s="114"/>
-      <c r="K99" s="114"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
       <c r="L99" s="26"/>
       <c r="M99"/>
       <c r="N99" s="6"/>
@@ -25727,19 +25748,19 @@
       <c r="L106" s="26"/>
     </row>
     <row r="107" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="114" t="s">
+      <c r="A107" s="158" t="s">
         <v>1492</v>
       </c>
-      <c r="B107" s="114"/>
-      <c r="C107" s="114"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="114"/>
-      <c r="H107" s="114"/>
-      <c r="I107" s="114"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114"/>
+      <c r="B107" s="158"/>
+      <c r="C107" s="158"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="158"/>
+      <c r="G107" s="158"/>
+      <c r="H107" s="158"/>
+      <c r="I107" s="158"/>
+      <c r="J107" s="158"/>
+      <c r="K107" s="158"/>
       <c r="L107" s="26"/>
       <c r="M107"/>
       <c r="N107" s="6"/>
@@ -25993,19 +26014,19 @@
       <c r="U115" s="110"/>
     </row>
     <row r="116" spans="1:22" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="112" t="s">
+      <c r="A116" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="B116" s="112"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="112"/>
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="112"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="113"/>
+      <c r="B116" s="163"/>
+      <c r="C116" s="163"/>
+      <c r="D116" s="163"/>
+      <c r="E116" s="163"/>
+      <c r="F116" s="163"/>
+      <c r="G116" s="163"/>
+      <c r="H116" s="163"/>
+      <c r="I116" s="163"/>
+      <c r="J116" s="163"/>
+      <c r="K116" s="164"/>
       <c r="L116" s="26" t="s">
         <v>1054</v>
       </c>
@@ -26084,35 +26105,35 @@
       <c r="U119" s="110"/>
     </row>
     <row r="120" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="114" t="s">
+      <c r="A120" s="158" t="s">
         <v>1494</v>
       </c>
-      <c r="B120" s="114"/>
-      <c r="C120" s="114"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="114"/>
-      <c r="J120" s="114"/>
-      <c r="K120" s="114"/>
+      <c r="B120" s="158"/>
+      <c r="C120" s="158"/>
+      <c r="D120" s="158"/>
+      <c r="E120" s="158"/>
+      <c r="F120" s="158"/>
+      <c r="G120" s="158"/>
+      <c r="H120" s="158"/>
+      <c r="I120" s="158"/>
+      <c r="J120" s="158"/>
+      <c r="K120" s="158"/>
       <c r="L120" s="26"/>
     </row>
     <row r="121" spans="1:22" s="110" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="114" t="s">
+      <c r="A121" s="158" t="s">
         <v>1495</v>
       </c>
-      <c r="B121" s="114"/>
-      <c r="C121" s="114"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="114"/>
-      <c r="G121" s="114"/>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114"/>
-      <c r="J121" s="114"/>
-      <c r="K121" s="114"/>
+      <c r="B121" s="158"/>
+      <c r="C121" s="158"/>
+      <c r="D121" s="158"/>
+      <c r="E121" s="158"/>
+      <c r="F121" s="158"/>
+      <c r="G121" s="158"/>
+      <c r="H121" s="158"/>
+      <c r="I121" s="158"/>
+      <c r="J121" s="158"/>
+      <c r="K121" s="158"/>
       <c r="L121" s="26"/>
       <c r="M121"/>
       <c r="N121" s="6"/>
@@ -26351,19 +26372,19 @@
       <c r="D129" s="95"/>
     </row>
     <row r="130" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="112" t="s">
+      <c r="A130" s="163" t="s">
         <v>1056</v>
       </c>
-      <c r="B130" s="112"/>
-      <c r="C130" s="112"/>
-      <c r="D130" s="112"/>
-      <c r="E130" s="112"/>
-      <c r="F130" s="112"/>
-      <c r="G130" s="112"/>
-      <c r="H130" s="112"/>
-      <c r="I130" s="112"/>
-      <c r="J130" s="112"/>
-      <c r="K130" s="113"/>
+      <c r="B130" s="163"/>
+      <c r="C130" s="163"/>
+      <c r="D130" s="163"/>
+      <c r="E130" s="163"/>
+      <c r="F130" s="163"/>
+      <c r="G130" s="163"/>
+      <c r="H130" s="163"/>
+      <c r="I130" s="163"/>
+      <c r="J130" s="163"/>
+      <c r="K130" s="164"/>
       <c r="L130" s="26" t="s">
         <v>10</v>
       </c>
@@ -26483,14 +26504,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A99:K99"/>
@@ -26505,6 +26518,14 @@
     <mergeCell ref="A65:K65"/>
     <mergeCell ref="A66:K66"/>
     <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26516,7 +26537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0499C-ECE6-4332-9D97-B01953C2C420}">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -26533,40 +26554,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="169" t="s">
         <v>1508</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="167" t="s">
         <v>1276</v>
       </c>
-      <c r="M1" s="123"/>
+      <c r="M1" s="168"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -26765,24 +26786,24 @@
       <c r="U10" s="101"/>
     </row>
     <row r="11" spans="1:21" s="101" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="158" t="s">
         <v>1277</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="26"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -26817,7 +26838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>37</v>
       </c>
@@ -26851,7 +26872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>38</v>
       </c>
@@ -26872,7 +26893,7 @@
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>39</v>
       </c>
@@ -26893,7 +26914,7 @@
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>1274</v>
       </c>
@@ -26912,7 +26933,7 @@
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>40</v>
       </c>
@@ -26931,7 +26952,7 @@
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>41</v>
       </c>
@@ -26950,7 +26971,7 @@
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>18</v>
       </c>
@@ -26973,7 +26994,7 @@
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>52</v>
       </c>
@@ -26992,7 +27013,7 @@
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>43</v>
       </c>
@@ -27167,7 +27188,7 @@
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>45</v>
       </c>
@@ -27342,7 +27363,7 @@
       <c r="J36" s="74"/>
       <c r="K36" s="74"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
         <v>1278</v>
       </c>
@@ -27517,7 +27538,7 @@
       <c r="J44" s="74"/>
       <c r="K44" s="74"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74"/>
@@ -27530,20 +27551,20 @@
       <c r="J45" s="74"/>
       <c r="K45" s="74"/>
     </row>
-    <row r="46" spans="1:14" s="101" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="115" t="s">
+    <row r="46" spans="1:14" s="101" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="166" t="s">
         <v>1305</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
       <c r="L46" s="26"/>
       <c r="M46"/>
       <c r="N46" s="6"/>
@@ -28220,34 +28241,34 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="121" t="s">
+      <c r="A74" s="169" t="s">
         <v>1509</v>
       </c>
-      <c r="B74" s="121"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="121"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="169"/>
       <c r="K74" s="9"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="120" t="s">
+      <c r="A75" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="120"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="120"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="120"/>
-      <c r="H75" s="120"/>
-      <c r="I75" s="120"/>
-      <c r="J75" s="120"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="162"/>
+      <c r="E75" s="162"/>
+      <c r="F75" s="162"/>
+      <c r="G75" s="162"/>
+      <c r="H75" s="162"/>
+      <c r="I75" s="162"/>
+      <c r="J75" s="162"/>
       <c r="K75" s="10"/>
       <c r="L75"/>
     </row>
@@ -28369,34 +28390,34 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="121" t="s">
+      <c r="A81" s="169" t="s">
         <v>1510</v>
       </c>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
-      <c r="F81" s="121"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="121"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="121"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
       <c r="K81" s="9"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="120"/>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="120"/>
-      <c r="I82" s="120"/>
-      <c r="J82" s="120"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="162"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="162"/>
+      <c r="G82" s="162"/>
+      <c r="H82" s="162"/>
+      <c r="I82" s="162"/>
+      <c r="J82" s="162"/>
       <c r="K82" s="10"/>
       <c r="L82"/>
     </row>
@@ -28517,35 +28538,35 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="121" t="s">
+      <c r="A88" s="169" t="s">
         <v>1511</v>
       </c>
-      <c r="B88" s="121"/>
-      <c r="C88" s="121"/>
-      <c r="D88" s="121"/>
-      <c r="E88" s="121"/>
-      <c r="F88" s="121"/>
-      <c r="G88" s="121"/>
-      <c r="H88" s="121"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="121"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="169"/>
+      <c r="G88" s="169"/>
+      <c r="H88" s="169"/>
+      <c r="I88" s="169"/>
+      <c r="J88" s="169"/>
       <c r="K88" s="9"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="120" t="s">
+      <c r="A89" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="120"/>
-      <c r="C89" s="120"/>
-      <c r="D89" s="120"/>
-      <c r="E89" s="120"/>
-      <c r="F89" s="120"/>
-      <c r="G89" s="120"/>
-      <c r="H89" s="120"/>
-      <c r="I89" s="120"/>
-      <c r="J89" s="120"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="162"/>
+      <c r="G89" s="162"/>
+      <c r="H89" s="162"/>
+      <c r="I89" s="162"/>
+      <c r="J89" s="162"/>
       <c r="K89" s="10"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -28656,35 +28677,35 @@
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="121" t="s">
+      <c r="A94" s="169" t="s">
         <v>1512</v>
       </c>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
-      <c r="D94" s="121"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="121"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="121"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="121"/>
+      <c r="B94" s="169"/>
+      <c r="C94" s="169"/>
+      <c r="D94" s="169"/>
+      <c r="E94" s="169"/>
+      <c r="F94" s="169"/>
+      <c r="G94" s="169"/>
+      <c r="H94" s="169"/>
+      <c r="I94" s="169"/>
+      <c r="J94" s="169"/>
       <c r="K94" s="9"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
     <row r="95" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="120" t="s">
+      <c r="A95" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="120"/>
-      <c r="C95" s="120"/>
-      <c r="D95" s="120"/>
-      <c r="E95" s="120"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="120"/>
-      <c r="H95" s="120"/>
-      <c r="I95" s="120"/>
-      <c r="J95" s="120"/>
+      <c r="B95" s="162"/>
+      <c r="C95" s="162"/>
+      <c r="D95" s="162"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="162"/>
+      <c r="G95" s="162"/>
+      <c r="H95" s="162"/>
+      <c r="I95" s="162"/>
+      <c r="J95" s="162"/>
       <c r="K95" s="10"/>
       <c r="L95"/>
       <c r="M95"/>
@@ -28890,35 +28911,35 @@
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="121" t="s">
+      <c r="A104" s="169" t="s">
         <v>1002</v>
       </c>
-      <c r="B104" s="121"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="121"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="121"/>
+      <c r="B104" s="169"/>
+      <c r="C104" s="169"/>
+      <c r="D104" s="169"/>
+      <c r="E104" s="169"/>
+      <c r="F104" s="169"/>
+      <c r="G104" s="169"/>
+      <c r="H104" s="169"/>
+      <c r="I104" s="169"/>
+      <c r="J104" s="169"/>
       <c r="K104" s="9"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="120" t="s">
+      <c r="A105" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="B105" s="120"/>
-      <c r="C105" s="120"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="120"/>
-      <c r="F105" s="120"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="120"/>
-      <c r="I105" s="120"/>
-      <c r="J105" s="120"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="162"/>
+      <c r="D105" s="162"/>
+      <c r="E105" s="162"/>
+      <c r="F105" s="162"/>
+      <c r="G105" s="162"/>
+      <c r="H105" s="162"/>
+      <c r="I105" s="162"/>
+      <c r="J105" s="162"/>
       <c r="K105" s="10"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -29118,35 +29139,35 @@
     </row>
     <row r="113" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="121" t="s">
+      <c r="A114" s="169" t="s">
         <v>1003</v>
       </c>
-      <c r="B114" s="121"/>
-      <c r="C114" s="121"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
-      <c r="G114" s="121"/>
-      <c r="H114" s="121"/>
-      <c r="I114" s="121"/>
-      <c r="J114" s="121"/>
+      <c r="B114" s="169"/>
+      <c r="C114" s="169"/>
+      <c r="D114" s="169"/>
+      <c r="E114" s="169"/>
+      <c r="F114" s="169"/>
+      <c r="G114" s="169"/>
+      <c r="H114" s="169"/>
+      <c r="I114" s="169"/>
+      <c r="J114" s="169"/>
       <c r="K114" s="9"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
     <row r="115" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="120" t="s">
+      <c r="A115" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="B115" s="120"/>
-      <c r="C115" s="120"/>
-      <c r="D115" s="120"/>
-      <c r="E115" s="120"/>
-      <c r="F115" s="120"/>
-      <c r="G115" s="120"/>
-      <c r="H115" s="120"/>
-      <c r="I115" s="120"/>
-      <c r="J115" s="120"/>
+      <c r="B115" s="162"/>
+      <c r="C115" s="162"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="162"/>
+      <c r="F115" s="162"/>
+      <c r="G115" s="162"/>
+      <c r="H115" s="162"/>
+      <c r="I115" s="162"/>
+      <c r="J115" s="162"/>
       <c r="K115" s="10"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -29270,6 +29291,11 @@
     <row r="121" spans="1:13" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A81:J81"/>
@@ -29282,11 +29308,6 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -29314,2609 +29335,2756 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08D38C9-34BA-4DD4-8FAB-E0125A5CA3E0}">
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:U122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="140" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="140" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" style="140" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="140" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="140" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="142" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="140" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="140" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="140" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="140" customWidth="1"/>
-    <col min="13" max="20" width="5" style="140" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="140"/>
+    <col min="1" max="1" width="14" style="115" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="115" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" style="115" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="115" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="115" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="117" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="115" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="115" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="115" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="115" customWidth="1"/>
+    <col min="13" max="20" width="5" style="115" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="137" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:21" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="171" t="s">
         <v>1507</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="135" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="172" t="s">
         <v>1518</v>
       </c>
-      <c r="M1" s="136"/>
-    </row>
-    <row r="2" spans="1:21" s="137" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="M1" s="173"/>
+    </row>
+    <row r="2" spans="1:21" s="113" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-    </row>
-    <row r="3" spans="1:21" s="144" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="143"/>
-      <c r="M3" s="145">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+    </row>
+    <row r="3" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="118"/>
+      <c r="M3" s="120">
         <v>0</v>
       </c>
-      <c r="N3" s="146"/>
-      <c r="O3" s="147">
+      <c r="N3" s="121"/>
+      <c r="O3" s="122">
         <v>32</v>
       </c>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148">
+      <c r="P3" s="122"/>
+      <c r="Q3" s="123">
         <v>128</v>
       </c>
-      <c r="R3" s="149"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="137"/>
-    </row>
-    <row r="4" spans="1:21" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="183">
+      <c r="R3" s="124"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="113"/>
+    </row>
+    <row r="4" spans="1:21" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="156">
         <v>7</v>
       </c>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147">
+      <c r="O4" s="122"/>
+      <c r="P4" s="122">
         <v>47</v>
       </c>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="155"/>
-    </row>
-    <row r="5" spans="1:21" s="144" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="143"/>
-      <c r="M5" s="147">
+      <c r="Q4" s="127"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="130"/>
+    </row>
+    <row r="5" spans="1:21" s="119" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="118"/>
+      <c r="M5" s="122">
         <v>8</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147">
+      <c r="N5" s="122"/>
+      <c r="O5" s="122">
         <v>48</v>
       </c>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="137"/>
-    </row>
-    <row r="6" spans="1:21" s="137" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="184">
+      <c r="P5" s="122"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="113"/>
+    </row>
+    <row r="6" spans="1:21" s="113" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="157">
         <v>15</v>
       </c>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147">
+      <c r="O6" s="122"/>
+      <c r="P6" s="122">
         <v>63</v>
       </c>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="161">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="162">
-        <v>64</v>
-      </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="148">
+    <row r="7" spans="1:21" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="137">
+        <v>64</v>
+      </c>
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="123">
         <v>192</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="151"/>
-    </row>
-    <row r="8" spans="1:21" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="155"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
+    </row>
+    <row r="8" spans="1:21" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="130"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="141"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="137"/>
-    </row>
-    <row r="10" spans="1:21" s="144" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="143"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="174">
+      <c r="B9" s="116"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="113"/>
+    </row>
+    <row r="10" spans="1:21" s="119" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="118"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="149">
         <v>127</v>
       </c>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="161">
+      <c r="Q10" s="133"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136">
         <v>255</v>
       </c>
-      <c r="U10" s="137"/>
-    </row>
-    <row r="11" spans="1:21" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="175" t="s">
+      <c r="U10" s="113"/>
+    </row>
+    <row r="11" spans="1:21" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="174" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="116"/>
+    </row>
+    <row r="12" spans="1:21" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="152" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E13" s="152" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F13" s="152" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G13" s="152">
+        <v>15</v>
+      </c>
+      <c r="H13" s="152">
+        <f>SUM(H14:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A14" s="152" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B14" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+    </row>
+    <row r="15" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A15" s="152" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+    </row>
+    <row r="16" spans="1:21" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A16" s="152" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+    </row>
+    <row r="17" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A17" s="152" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B17" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+    </row>
+    <row r="18" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A18" s="152" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B18" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+    </row>
+    <row r="19" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A19" s="152" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B19" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+    </row>
+    <row r="20" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A20" s="152" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B20" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+    </row>
+    <row r="21" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A21" s="152" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B21" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+    </row>
+    <row r="22" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A22" s="152" t="s">
         <v>1520</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="141"/>
-    </row>
-    <row r="12" spans="1:21" s="137" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A12" s="176" t="s">
+      <c r="B22" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+    </row>
+    <row r="23" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A23" s="152" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+    </row>
+    <row r="24" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A24" s="152" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B24" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+    </row>
+    <row r="25" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A25" s="152" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B25" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+    </row>
+    <row r="26" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A26" s="152" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B26" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+    </row>
+    <row r="27" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A27" s="152" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+    </row>
+    <row r="28" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A28" s="152" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B28" s="152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E28" s="152" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F28" s="152" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G28" s="152">
+        <v>8</v>
+      </c>
+      <c r="H28" s="152">
+        <f>SUM(H29:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A29" s="152" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B29" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+    </row>
+    <row r="30" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A30" s="152" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B30" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+    </row>
+    <row r="31" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A31" s="152" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B31" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+    </row>
+    <row r="32" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A32" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+    </row>
+    <row r="33" spans="1:14" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A33" s="152" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B33" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+    </row>
+    <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A34" s="152" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B34" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E34" s="152" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F34" s="152" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G34" s="152">
+        <v>8</v>
+      </c>
+      <c r="H34" s="152">
+        <f>SUM(H35:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="152" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A35" s="152" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B35" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A36" s="152" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B36" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A37" s="152" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B37" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A38" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A39" s="152" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B39" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+    </row>
+    <row r="40" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="152" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B40" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E40" s="152" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F40" s="152" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G40" s="152">
+        <v>15</v>
+      </c>
+      <c r="H40" s="152">
+        <f>SUM(H41:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="152" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A41" s="152" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B41" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A42" s="152" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B42" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A43" s="152" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B43" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A44" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+    </row>
+    <row r="45" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A45" s="152" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B45" s="152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+    </row>
+    <row r="46" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="152"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+    </row>
+    <row r="47" spans="1:14" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="175" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="116"/>
+    </row>
+    <row r="48" spans="1:14" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A48" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B48" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C48" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D48" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E48" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F48" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G48" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="177" t="s">
+      <c r="H48" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="176" t="s">
+      <c r="I48" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="176" t="s">
+      <c r="J48" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="176" t="s">
+      <c r="K48" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13" s="178" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B13" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E13" s="178" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F13" s="178" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G13" s="178">
-        <v>8</v>
-      </c>
-      <c r="H13" s="178">
-        <f>SUM(H14:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="178" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A14" s="178" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B14" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-    </row>
-    <row r="15" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A15" s="178" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B15" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-    </row>
-    <row r="16" spans="1:21" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A16" s="178" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B16" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A17" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A18" s="178" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-    </row>
-    <row r="19" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="178" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B19" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E19" s="178" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F19" s="178" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G19" s="178">
-        <v>8</v>
-      </c>
-      <c r="H19" s="178">
-        <f>SUM(H20:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A20" s="178" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-    </row>
-    <row r="21" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A21" s="178" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-    </row>
-    <row r="22" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A22" s="178" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-    </row>
-    <row r="23" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A23" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A24" s="178" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B24" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-    </row>
-    <row r="25" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="178" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B25" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E25" s="178" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F25" s="178" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G25" s="178">
-        <v>8</v>
-      </c>
-      <c r="H25" s="178">
-        <f>SUM(H26:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="178" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A26" s="178" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B26" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A27" s="178" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B27" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-    </row>
-    <row r="28" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A28" s="178" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B28" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A29" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-    </row>
-    <row r="30" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B30" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-    </row>
-    <row r="31" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="178" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B31" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E31" s="178" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F31" s="178" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G31" s="178">
-        <v>15</v>
-      </c>
-      <c r="H31" s="178">
-        <f>SUM(H32:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="178" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A32" s="178" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B32" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178" t="s">
-        <v>1303</v>
-      </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-    </row>
-    <row r="33" spans="1:14" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A33" s="178" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B33" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-    </row>
-    <row r="34" spans="1:14" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A34" s="178" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B34" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-    </row>
-    <row r="35" spans="1:14" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A35" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-    </row>
-    <row r="36" spans="1:14" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A36" s="178" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B36" s="178" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-    </row>
-    <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A37" s="178"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
-    </row>
-    <row r="38" spans="1:14" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="179" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="179"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="141"/>
-    </row>
-    <row r="39" spans="1:14" s="137" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A39" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="176" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="176" t="s">
+    <row r="49" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A49" s="116" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E49" s="116" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G49" s="116">
         <v>2</v>
       </c>
-      <c r="K39" s="176" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A40" s="141" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B40" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="141" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E40" s="141" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F40" s="141" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G40" s="141">
-        <v>2</v>
-      </c>
-      <c r="H40" s="141">
-        <f>SUM(H41:H42)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="141" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A41" s="141" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B41" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-    </row>
-    <row r="42" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A42" s="141" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B42" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-    </row>
-    <row r="43" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="141" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B43" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="141" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E43" s="141" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F43" s="141" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G43" s="141">
-        <v>2</v>
-      </c>
-      <c r="H43" s="141">
-        <f>SUM(H44:H45)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="141" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A44" s="141" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B44" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141" t="s">
-        <v>1352</v>
-      </c>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
-    </row>
-    <row r="45" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A45" s="141" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B45" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141" t="s">
-        <v>1353</v>
-      </c>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-    </row>
-    <row r="46" spans="1:14" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="141" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B46" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="141" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F46" s="141" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G46" s="141">
-        <v>2</v>
-      </c>
-      <c r="H46" s="141">
-        <f>SUM(H47:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="141" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A47" s="141" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B47" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141" t="s">
-        <v>1354</v>
-      </c>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A48" s="141" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B48" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="141" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-    </row>
-    <row r="49" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="141" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B49" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="141" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E49" s="141" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F49" s="141" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G49" s="141">
-        <v>2</v>
-      </c>
-      <c r="H49" s="141">
+      <c r="H49" s="116">
         <f>SUM(H50:H51)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="141" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J49" s="141"/>
-      <c r="K49" s="141" t="s">
-        <v>1318</v>
+      <c r="I49" s="116" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A50" s="141" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B50" s="141" t="s">
+      <c r="A50" s="116" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B50" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="141" t="s">
+      <c r="C50" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
     </row>
     <row r="51" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A51" s="141" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B51" s="141" t="s">
+      <c r="A51" s="116" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B51" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="141" t="s">
+      <c r="C51" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J51" s="141"/>
-      <c r="K51" s="141"/>
-    </row>
-    <row r="52" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="141" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B52" s="141" t="s">
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="116" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B52" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="141" t="s">
+      <c r="C52" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="141" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E52" s="141" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F52" s="141" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G52" s="141">
+      <c r="D52" s="116" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E52" s="116" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F52" s="116" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G52" s="116">
         <v>2</v>
       </c>
-      <c r="H52" s="141">
+      <c r="H52" s="116">
         <f>SUM(H53:H54)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="140" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K52" s="144" t="s">
-        <v>1321</v>
+      <c r="I52" s="116" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A53" s="141" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B53" s="141" t="s">
+      <c r="A53" s="116" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B53" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="141" t="s">
+      <c r="C53" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="140" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J53" s="140">
-        <v>110</v>
-      </c>
-      <c r="K53" s="144"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
     </row>
     <row r="54" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A54" s="141" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B54" s="141" t="s">
+      <c r="A54" s="116" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B54" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="141" t="s">
+      <c r="C54" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="140" t="s">
-        <v>1359</v>
-      </c>
-      <c r="J54" s="140">
-        <v>110</v>
-      </c>
-      <c r="K54" s="144"/>
-    </row>
-    <row r="55" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B55" s="141" t="s">
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="116" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B55" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="141" t="s">
+      <c r="C55" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="141" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E55" s="141" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F55" s="141" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G55" s="141">
+      <c r="D55" s="116" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E55" s="116" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F55" s="116" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G55" s="116">
         <v>2</v>
       </c>
-      <c r="H55" s="141">
+      <c r="H55" s="116">
         <f>SUM(H56:H57)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="140" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K55" s="144" t="s">
-        <v>1322</v>
+      <c r="I55" s="116" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A56" s="141" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B56" s="141" t="s">
+      <c r="A56" s="116" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B56" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="140" t="s">
-        <v>1360</v>
-      </c>
-      <c r="J56" s="140">
-        <v>120</v>
-      </c>
-      <c r="K56" s="144"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A57" s="141" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B57" s="141" t="s">
+      <c r="A57" s="116" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B57" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="141" t="s">
+      <c r="C57" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="140" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J57" s="140">
-        <v>120</v>
-      </c>
-      <c r="K57" s="144"/>
-    </row>
-    <row r="58" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="141" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B58" s="141" t="s">
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="116" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B58" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="141" t="s">
+      <c r="C58" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="141" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E58" s="141" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F58" s="141" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G58" s="141">
+      <c r="D58" s="116" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E58" s="116" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F58" s="116" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G58" s="116">
         <v>2</v>
       </c>
-      <c r="H58" s="141">
+      <c r="H58" s="116">
         <f>SUM(H59:H60)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="141" t="s">
+      <c r="I58" s="116" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A59" s="116" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B59" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A60" s="116" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B60" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+    </row>
+    <row r="61" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="116" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B61" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E61" s="116" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F61" s="116" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G61" s="116">
+        <v>2</v>
+      </c>
+      <c r="H61" s="116">
+        <f>SUM(H62:H63)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="115" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K61" s="119" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A62" s="116" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B62" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="115" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J62" s="115">
+        <v>110</v>
+      </c>
+      <c r="K62" s="119"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A63" s="116" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B63" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="115" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J63" s="115">
+        <v>110</v>
+      </c>
+      <c r="K63" s="119"/>
+    </row>
+    <row r="64" spans="1:11" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="116" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B64" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="116" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E64" s="116" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F64" s="116" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G64" s="116">
+        <v>2</v>
+      </c>
+      <c r="H64" s="116">
+        <f>SUM(H65:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="115" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K64" s="119" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A65" s="116" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B65" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="115" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J65" s="115">
+        <v>120</v>
+      </c>
+      <c r="K65" s="119"/>
+    </row>
+    <row r="66" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A66" s="116" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B66" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="115" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J66" s="115">
+        <v>120</v>
+      </c>
+      <c r="K66" s="119"/>
+    </row>
+    <row r="67" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="116" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B67" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="116" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E67" s="116" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F67" s="116" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G67" s="116">
+        <v>2</v>
+      </c>
+      <c r="H67" s="116">
+        <f>SUM(H68:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="116" t="s">
         <v>1324</v>
       </c>
-      <c r="J58" s="141"/>
-      <c r="K58" s="141" t="s">
+      <c r="J67" s="116"/>
+      <c r="K67" s="116" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A59" s="141" t="s">
+    <row r="68" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A68" s="116" t="s">
         <v>1333</v>
       </c>
-      <c r="B59" s="141" t="s">
+      <c r="B68" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="141" t="s">
+      <c r="C68" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141" t="s">
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116" t="s">
         <v>1362</v>
       </c>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-    </row>
-    <row r="60" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A60" s="141" t="s">
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+    </row>
+    <row r="69" spans="1:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A69" s="116" t="s">
         <v>1348</v>
       </c>
-      <c r="B60" s="141" t="s">
+      <c r="B69" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="141" t="s">
+      <c r="C69" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141" t="s">
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116" t="s">
         <v>1363</v>
       </c>
-      <c r="J60" s="141"/>
-      <c r="K60" s="141"/>
-    </row>
-    <row r="61" spans="1:11" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="141" t="s">
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+    </row>
+    <row r="70" spans="1:12" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="116" t="s">
         <v>1311</v>
       </c>
-      <c r="B61" s="141" t="s">
+      <c r="B70" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="141" t="s">
+      <c r="C70" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="141" t="s">
+      <c r="D70" s="116" t="s">
         <v>1338</v>
       </c>
-      <c r="E61" s="141" t="s">
+      <c r="E70" s="116" t="s">
         <v>1343</v>
       </c>
-      <c r="F61" s="141" t="s">
+      <c r="F70" s="116" t="s">
         <v>1349</v>
       </c>
-      <c r="G61" s="141">
+      <c r="G70" s="116">
         <v>2</v>
       </c>
-      <c r="H61" s="141">
-        <f>SUM(H62:H62)</f>
+      <c r="H70" s="116">
+        <f>SUM(H71:H71)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="140" t="s">
+      <c r="I70" s="115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A62" s="180" t="s">
+    <row r="71" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A71" s="153" t="s">
         <v>1281</v>
       </c>
-      <c r="B62" s="180" t="s">
+      <c r="B71" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="180" t="s">
+      <c r="C71" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180" t="s">
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-    </row>
-    <row r="63" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A63" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-    </row>
-    <row r="64" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A64" s="180" t="s">
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+    </row>
+    <row r="72" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A72" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+    </row>
+    <row r="73" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A73" s="153" t="s">
         <v>1364</v>
       </c>
-      <c r="B64" s="180" t="s">
+      <c r="B73" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="180" t="s">
+      <c r="C73" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180" t="s">
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="153"/>
+      <c r="I73" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-    </row>
-    <row r="65" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="141"/>
-      <c r="G65" s="143"/>
-      <c r="K65" s="143"/>
-    </row>
-    <row r="66" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="133" t="s">
+      <c r="J73" s="153"/>
+      <c r="K73" s="153"/>
+    </row>
+    <row r="74" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="116"/>
+      <c r="G74" s="118"/>
+      <c r="K74" s="118"/>
+    </row>
+    <row r="75" spans="1:12" s="113" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="171" t="s">
         <v>1513</v>
       </c>
-      <c r="B66" s="133"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="140"/>
-    </row>
-    <row r="67" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="138" t="s">
+      <c r="B75" s="171"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="171"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="115"/>
+    </row>
+    <row r="76" spans="1:12" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
-      <c r="G67" s="138"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="138"/>
-      <c r="J67" s="138"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="140"/>
-    </row>
-    <row r="68" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="176" t="s">
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
+      <c r="J76" s="170"/>
+      <c r="K76" s="114"/>
+      <c r="L76" s="115"/>
+    </row>
+    <row r="77" spans="1:12" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="176" t="s">
+      <c r="B77" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="176" t="s">
+      <c r="C77" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="176" t="s">
+      <c r="D77" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="176" t="s">
+      <c r="E77" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="176" t="s">
+      <c r="F77" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="176" t="s">
+      <c r="G77" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="177" t="s">
+      <c r="H77" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="176" t="s">
+      <c r="I77" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J68" s="176" t="s">
+      <c r="J77" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K68" s="176" t="s">
+      <c r="K77" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="141" t="s">
+    <row r="78" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="116" t="s">
         <v>1279</v>
       </c>
-      <c r="B69" s="141" t="s">
+      <c r="B78" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="141" t="s">
+      <c r="C78" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="141" t="s">
+      <c r="D78" s="116" t="s">
         <v>1326</v>
       </c>
-      <c r="E69" s="141" t="s">
+      <c r="E78" s="116" t="s">
         <v>1327</v>
       </c>
-      <c r="F69" s="141" t="s">
+      <c r="F78" s="116" t="s">
         <v>1329</v>
       </c>
-      <c r="G69" s="141">
+      <c r="G78" s="116">
         <v>2</v>
       </c>
-      <c r="H69" s="141">
-        <f>SUM(H70:H71)</f>
+      <c r="H78" s="116">
+        <f>SUM(H79:H80)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="141" t="s">
+      <c r="I78" s="116" t="s">
         <v>1313</v>
       </c>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141" t="s">
+      <c r="J78" s="116"/>
+      <c r="K78" s="116" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A70" s="141" t="s">
+    <row r="79" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A79" s="116" t="s">
         <v>1326</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B79" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="141" t="s">
+      <c r="C79" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="141" t="s">
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116" t="s">
         <v>1350</v>
       </c>
-      <c r="J70" s="141"/>
-      <c r="K70" s="141"/>
-    </row>
-    <row r="71" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A71" s="141" t="s">
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+    </row>
+    <row r="80" spans="1:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A80" s="116" t="s">
         <v>1329</v>
       </c>
-      <c r="B71" s="141" t="s">
+      <c r="B80" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="141" t="s">
+      <c r="C80" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="141" t="s">
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116" t="s">
         <v>1351</v>
       </c>
-      <c r="J71" s="141"/>
-      <c r="K71" s="141"/>
-    </row>
-    <row r="72" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="141"/>
-      <c r="G72" s="181"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="143"/>
-    </row>
-    <row r="73" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="133" t="s">
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+    </row>
+    <row r="81" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="116"/>
+      <c r="G81" s="154"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="118"/>
+    </row>
+    <row r="82" spans="1:13" s="113" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="171" t="s">
         <v>1514</v>
       </c>
-      <c r="B73" s="133"/>
-      <c r="C73" s="133"/>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="133"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="140"/>
-    </row>
-    <row r="74" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="138" t="s">
+      <c r="B82" s="171"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
+      <c r="H82" s="171"/>
+      <c r="I82" s="171"/>
+      <c r="J82" s="171"/>
+      <c r="K82" s="112"/>
+      <c r="L82" s="115"/>
+    </row>
+    <row r="83" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="138"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="138"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="138"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="138"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="140"/>
-    </row>
-    <row r="75" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="176" t="s">
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="170"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="115"/>
+    </row>
+    <row r="84" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="176" t="s">
+      <c r="B84" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="176" t="s">
+      <c r="C84" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="176" t="s">
+      <c r="D84" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="176" t="s">
+      <c r="E84" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="176" t="s">
+      <c r="F84" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="176" t="s">
+      <c r="G84" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="177" t="s">
+      <c r="H84" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="176" t="s">
+      <c r="I84" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J75" s="176" t="s">
+      <c r="J84" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K75" s="176" t="s">
+      <c r="K84" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="141" t="s">
+    <row r="85" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="116" t="s">
         <v>1306</v>
       </c>
-      <c r="B76" s="141" t="s">
+      <c r="B85" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="141" t="s">
+      <c r="C85" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="141" t="s">
+      <c r="D85" s="116" t="s">
         <v>1332</v>
       </c>
-      <c r="E76" s="141" t="s">
+      <c r="E85" s="116" t="s">
         <v>1330</v>
       </c>
-      <c r="F76" s="141" t="s">
+      <c r="F85" s="116" t="s">
         <v>1331</v>
       </c>
-      <c r="G76" s="141">
+      <c r="G85" s="116">
         <v>2</v>
       </c>
-      <c r="H76" s="141">
-        <f>SUM(H77:H78)</f>
+      <c r="H85" s="116">
+        <f>SUM(H86:H87)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="141" t="s">
+      <c r="I85" s="116" t="s">
         <v>1314</v>
       </c>
-      <c r="J76" s="141"/>
-      <c r="K76" s="141" t="s">
+      <c r="J85" s="116"/>
+      <c r="K85" s="116" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A77" s="141" t="s">
+    <row r="86" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A86" s="116" t="s">
         <v>1332</v>
       </c>
-      <c r="B77" s="141" t="s">
+      <c r="B86" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="141" t="s">
+      <c r="C86" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="141" t="s">
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116" t="s">
         <v>1352</v>
       </c>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-    </row>
-    <row r="78" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A78" s="141" t="s">
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+    </row>
+    <row r="87" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A87" s="116" t="s">
         <v>1331</v>
       </c>
-      <c r="B78" s="141" t="s">
+      <c r="B87" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="141" t="s">
+      <c r="C87" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141" t="s">
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116" t="s">
         <v>1353</v>
       </c>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
-    </row>
-    <row r="79" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="141"/>
-      <c r="G79" s="143"/>
-      <c r="K79" s="143"/>
-    </row>
-    <row r="80" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="133" t="s">
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+    </row>
+    <row r="88" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="116"/>
+      <c r="G88" s="118"/>
+      <c r="K88" s="118"/>
+    </row>
+    <row r="89" spans="1:13" s="113" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="171" t="s">
         <v>1516</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="133"/>
-      <c r="G80" s="133"/>
-      <c r="H80" s="133"/>
-      <c r="I80" s="133"/>
-      <c r="J80" s="133"/>
-      <c r="K80" s="134"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-    </row>
-    <row r="81" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="138" t="s">
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="171"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="115"/>
+      <c r="M89" s="115"/>
+    </row>
+    <row r="90" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="138"/>
-      <c r="C81" s="138"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="138"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="138"/>
-      <c r="H81" s="138"/>
-      <c r="I81" s="138"/>
-      <c r="J81" s="138"/>
-      <c r="K81" s="139"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140"/>
-    </row>
-    <row r="82" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="176" t="s">
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="170"/>
+      <c r="J90" s="170"/>
+      <c r="K90" s="114"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="115"/>
+    </row>
+    <row r="91" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="176" t="s">
+      <c r="B91" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="176" t="s">
+      <c r="C91" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D82" s="176" t="s">
+      <c r="D91" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="176" t="s">
+      <c r="E91" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="176" t="s">
+      <c r="F91" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="176" t="s">
+      <c r="G91" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="177" t="s">
+      <c r="H91" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="176" t="s">
+      <c r="I91" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J82" s="176" t="s">
+      <c r="J91" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K82" s="176" t="s">
+      <c r="K91" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="140" t="s">
+    <row r="92" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="141" t="s">
+      <c r="B92" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="140" t="s">
+      <c r="C92" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="140" t="s">
+      <c r="D92" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="140" t="s">
+      <c r="E92" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="140" t="s">
+      <c r="F92" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="G83" s="143">
+      <c r="G92" s="118">
         <v>2</v>
       </c>
-      <c r="H83" s="142">
+      <c r="H92" s="117">
         <v>2</v>
       </c>
-      <c r="I83" s="140" t="s">
+      <c r="I92" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="K83" s="143" t="s">
+      <c r="K92" s="118" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="140" t="s">
+    <row r="93" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="141" t="s">
+      <c r="B93" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="140" t="s">
+      <c r="C93" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="140" t="s">
+      <c r="D93" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="140" t="s">
+      <c r="E93" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="140" t="s">
+      <c r="F93" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="G84" s="143">
+      <c r="G93" s="118">
         <v>2</v>
       </c>
-      <c r="H84" s="142">
+      <c r="H93" s="117">
         <v>2</v>
       </c>
-      <c r="I84" s="140" t="s">
+      <c r="I93" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="K84" s="143" t="s">
+      <c r="K93" s="118" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="141"/>
-      <c r="G85" s="143"/>
-      <c r="J85" s="182"/>
-      <c r="K85" s="182"/>
-    </row>
-    <row r="86" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="133" t="s">
+    <row r="94" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="116"/>
+      <c r="G94" s="118"/>
+      <c r="J94" s="155"/>
+      <c r="K94" s="155"/>
+    </row>
+    <row r="95" spans="1:13" s="113" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="171" t="s">
         <v>1515</v>
       </c>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="133"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="133"/>
-      <c r="H86" s="133"/>
-      <c r="I86" s="133"/>
-      <c r="J86" s="133"/>
-      <c r="K86" s="134"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-    </row>
-    <row r="87" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="138" t="s">
+      <c r="B95" s="171"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="171"/>
+      <c r="G95" s="171"/>
+      <c r="H95" s="171"/>
+      <c r="I95" s="171"/>
+      <c r="J95" s="171"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="115"/>
+      <c r="M95" s="115"/>
+    </row>
+    <row r="96" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="138"/>
-      <c r="H87" s="138"/>
-      <c r="I87" s="138"/>
-      <c r="J87" s="138"/>
-      <c r="K87" s="139"/>
-      <c r="L87" s="140"/>
-      <c r="M87" s="140"/>
-    </row>
-    <row r="88" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="176" t="s">
+      <c r="B96" s="170"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="170"/>
+      <c r="E96" s="170"/>
+      <c r="F96" s="170"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="170"/>
+      <c r="J96" s="170"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="115"/>
+      <c r="M96" s="115"/>
+    </row>
+    <row r="97" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="176" t="s">
+      <c r="B97" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="176" t="s">
+      <c r="C97" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="176" t="s">
+      <c r="D97" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="176" t="s">
+      <c r="E97" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="176" t="s">
+      <c r="F97" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="176" t="s">
+      <c r="G97" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="177" t="s">
+      <c r="H97" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="176" t="s">
+      <c r="I97" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J88" s="176" t="s">
+      <c r="J97" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K88" s="176" t="s">
+      <c r="K97" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="141" t="s">
+    <row r="98" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="116" t="s">
         <v>1307</v>
       </c>
-      <c r="B89" s="141" t="s">
+      <c r="B98" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="141" t="s">
+      <c r="C98" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="141" t="s">
+      <c r="D98" s="116" t="s">
         <v>1334</v>
       </c>
-      <c r="E89" s="141" t="s">
+      <c r="E98" s="116" t="s">
         <v>1339</v>
       </c>
-      <c r="F89" s="141" t="s">
+      <c r="F98" s="116" t="s">
         <v>1344</v>
       </c>
-      <c r="G89" s="141">
+      <c r="G98" s="116">
         <v>2</v>
       </c>
-      <c r="H89" s="141">
-        <f>SUM(H90:H91)</f>
+      <c r="H98" s="116">
+        <f>SUM(H99:H100)</f>
         <v>0</v>
       </c>
-      <c r="I89" s="141" t="s">
+      <c r="I98" s="116" t="s">
         <v>1317</v>
       </c>
-      <c r="J89" s="141"/>
-      <c r="K89" s="141" t="s">
+      <c r="J98" s="116"/>
+      <c r="K98" s="116" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A90" s="141" t="s">
+    <row r="99" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A99" s="116" t="s">
         <v>1334</v>
       </c>
-      <c r="B90" s="141" t="s">
+      <c r="B99" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="141" t="s">
+      <c r="C99" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="141"/>
-      <c r="G90" s="141"/>
-      <c r="H90" s="141"/>
-      <c r="I90" s="141" t="s">
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116" t="s">
         <v>1354</v>
       </c>
-      <c r="J90" s="141"/>
-      <c r="K90" s="141"/>
-    </row>
-    <row r="91" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A91" s="141" t="s">
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+    </row>
+    <row r="100" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A100" s="116" t="s">
         <v>1344</v>
       </c>
-      <c r="B91" s="141" t="s">
+      <c r="B100" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="141" t="s">
+      <c r="C100" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="141"/>
-      <c r="E91" s="141"/>
-      <c r="F91" s="141"/>
-      <c r="G91" s="141"/>
-      <c r="H91" s="141"/>
-      <c r="I91" s="141" t="s">
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116" t="s">
         <v>1355</v>
       </c>
-      <c r="J91" s="141"/>
-      <c r="K91" s="141"/>
-    </row>
-    <row r="92" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="141" t="s">
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
+    </row>
+    <row r="101" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="116" t="s">
         <v>1308</v>
       </c>
-      <c r="B92" s="141" t="s">
+      <c r="B101" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="141" t="s">
+      <c r="C101" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="141" t="s">
+      <c r="D101" s="116" t="s">
         <v>1335</v>
       </c>
-      <c r="E92" s="141" t="s">
+      <c r="E101" s="116" t="s">
         <v>1340</v>
       </c>
-      <c r="F92" s="141" t="s">
+      <c r="F101" s="116" t="s">
         <v>1345</v>
       </c>
-      <c r="G92" s="141">
+      <c r="G101" s="116">
         <v>2</v>
       </c>
-      <c r="H92" s="141">
-        <f>SUM(H93:H94)</f>
+      <c r="H101" s="116">
+        <f>SUM(H102:H103)</f>
         <v>0</v>
       </c>
-      <c r="I92" s="141" t="s">
+      <c r="I101" s="116" t="s">
         <v>1319</v>
       </c>
-      <c r="J92" s="141"/>
-      <c r="K92" s="141" t="s">
+      <c r="J101" s="116"/>
+      <c r="K101" s="116" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A93" s="141" t="s">
+    <row r="102" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A102" s="116" t="s">
         <v>1335</v>
       </c>
-      <c r="B93" s="141" t="s">
+      <c r="B102" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="141" t="s">
+      <c r="C102" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="141"/>
-      <c r="I93" s="141" t="s">
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+      <c r="H102" s="116"/>
+      <c r="I102" s="116" t="s">
         <v>1356</v>
       </c>
-      <c r="J93" s="141"/>
-      <c r="K93" s="141"/>
-    </row>
-    <row r="94" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A94" s="141" t="s">
+      <c r="J102" s="116"/>
+      <c r="K102" s="116"/>
+    </row>
+    <row r="103" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A103" s="116" t="s">
         <v>1345</v>
       </c>
-      <c r="B94" s="141" t="s">
+      <c r="B103" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="141" t="s">
+      <c r="C103" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="141"/>
-      <c r="G94" s="141"/>
-      <c r="H94" s="141"/>
-      <c r="I94" s="141" t="s">
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116" t="s">
         <v>1357</v>
       </c>
-      <c r="J94" s="141"/>
-      <c r="K94" s="141"/>
-    </row>
-    <row r="95" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="141"/>
-      <c r="B95" s="141"/>
-      <c r="C95" s="141"/>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
-      <c r="H95" s="141"/>
-      <c r="I95" s="141"/>
-      <c r="J95" s="141"/>
-      <c r="K95" s="141"/>
-    </row>
-    <row r="96" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="133" t="s">
+      <c r="J103" s="116"/>
+      <c r="K103" s="116"/>
+    </row>
+    <row r="104" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="116"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+    </row>
+    <row r="105" spans="1:13" s="113" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="171" t="s">
         <v>1002</v>
       </c>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
-      <c r="D96" s="133"/>
-      <c r="E96" s="133"/>
-      <c r="F96" s="133"/>
-      <c r="G96" s="133"/>
-      <c r="H96" s="133"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="133"/>
-      <c r="K96" s="134"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="140"/>
-    </row>
-    <row r="97" spans="1:13" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="138" t="s">
+      <c r="B105" s="171"/>
+      <c r="C105" s="171"/>
+      <c r="D105" s="171"/>
+      <c r="E105" s="171"/>
+      <c r="F105" s="171"/>
+      <c r="G105" s="171"/>
+      <c r="H105" s="171"/>
+      <c r="I105" s="171"/>
+      <c r="J105" s="171"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="115"/>
+      <c r="M105" s="115"/>
+    </row>
+    <row r="106" spans="1:13" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="170" t="s">
         <v>1517</v>
       </c>
-      <c r="B97" s="138"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="138"/>
-      <c r="J97" s="138"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="140"/>
-      <c r="M97" s="140"/>
-    </row>
-    <row r="98" spans="1:13" s="137" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="176" t="s">
+      <c r="B106" s="170"/>
+      <c r="C106" s="170"/>
+      <c r="D106" s="170"/>
+      <c r="E106" s="170"/>
+      <c r="F106" s="170"/>
+      <c r="G106" s="170"/>
+      <c r="H106" s="170"/>
+      <c r="I106" s="170"/>
+      <c r="J106" s="170"/>
+      <c r="K106" s="114"/>
+      <c r="L106" s="115"/>
+      <c r="M106" s="115"/>
+    </row>
+    <row r="107" spans="1:13" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="176" t="s">
+      <c r="B107" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="176" t="s">
+      <c r="C107" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D98" s="176" t="s">
+      <c r="D107" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="176" t="s">
+      <c r="E107" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="176" t="s">
+      <c r="F107" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="176" t="s">
+      <c r="G107" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="177" t="s">
+      <c r="H107" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I98" s="176" t="s">
+      <c r="I107" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J98" s="176" t="s">
+      <c r="J107" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K98" s="176" t="s">
+      <c r="K107" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="141" t="s">
+    <row r="108" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="116" t="s">
         <v>1280</v>
       </c>
-      <c r="B99" s="141" t="s">
+      <c r="B108" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="141" t="s">
+      <c r="C108" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="141" t="s">
+      <c r="D108" s="116" t="s">
         <v>1336</v>
       </c>
-      <c r="E99" s="141" t="s">
+      <c r="E108" s="116" t="s">
         <v>1341</v>
       </c>
-      <c r="F99" s="141" t="s">
+      <c r="F108" s="116" t="s">
         <v>1346</v>
       </c>
-      <c r="G99" s="141">
+      <c r="G108" s="116">
         <v>2</v>
       </c>
-      <c r="H99" s="141">
-        <f>SUM(H100:H101)</f>
+      <c r="H108" s="116">
+        <f>SUM(H109:H110)</f>
         <v>0</v>
       </c>
-      <c r="I99" s="140" t="s">
+      <c r="I108" s="115" t="s">
         <v>1320</v>
       </c>
-      <c r="K99" s="144" t="s">
+      <c r="K108" s="119" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A100" s="141" t="s">
+    <row r="109" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A109" s="116" t="s">
         <v>1336</v>
       </c>
-      <c r="B100" s="141" t="s">
+      <c r="B109" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="141" t="s">
+      <c r="C109" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="141"/>
-      <c r="E100" s="141"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="141"/>
-      <c r="I100" s="140" t="s">
+      <c r="D109" s="116"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="116"/>
+      <c r="H109" s="116"/>
+      <c r="I109" s="115" t="s">
         <v>1358</v>
       </c>
-      <c r="J100" s="140">
+      <c r="J109" s="115">
         <v>110</v>
       </c>
-      <c r="K100" s="144"/>
-    </row>
-    <row r="101" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A101" s="141" t="s">
+      <c r="K109" s="119"/>
+    </row>
+    <row r="110" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A110" s="116" t="s">
         <v>1346</v>
       </c>
-      <c r="B101" s="141" t="s">
+      <c r="B110" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="141" t="s">
+      <c r="C110" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="141"/>
-      <c r="E101" s="141"/>
-      <c r="F101" s="141"/>
-      <c r="G101" s="141"/>
-      <c r="H101" s="141"/>
-      <c r="I101" s="140" t="s">
+      <c r="D110" s="116"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="116"/>
+      <c r="H110" s="116"/>
+      <c r="I110" s="115" t="s">
         <v>1359</v>
       </c>
-      <c r="J101" s="140">
+      <c r="J110" s="115">
         <v>110</v>
       </c>
-      <c r="K101" s="144"/>
-    </row>
-    <row r="102" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="141" t="s">
+      <c r="K110" s="119"/>
+    </row>
+    <row r="111" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="116" t="s">
         <v>1309</v>
       </c>
-      <c r="B102" s="141" t="s">
+      <c r="B111" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="141" t="s">
+      <c r="C111" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="141" t="s">
+      <c r="D111" s="116" t="s">
         <v>1337</v>
       </c>
-      <c r="E102" s="141" t="s">
+      <c r="E111" s="116" t="s">
         <v>1328</v>
       </c>
-      <c r="F102" s="141" t="s">
+      <c r="F111" s="116" t="s">
         <v>1347</v>
       </c>
-      <c r="G102" s="141">
+      <c r="G111" s="116">
         <v>2</v>
       </c>
-      <c r="H102" s="141">
-        <f>SUM(H103:H104)</f>
+      <c r="H111" s="116">
+        <f>SUM(H112:H113)</f>
         <v>0</v>
       </c>
-      <c r="I102" s="140" t="s">
+      <c r="I111" s="115" t="s">
         <v>1323</v>
       </c>
-      <c r="K102" s="144" t="s">
+      <c r="K111" s="119" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A103" s="141" t="s">
+    <row r="112" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A112" s="116" t="s">
         <v>1337</v>
       </c>
-      <c r="B103" s="141" t="s">
+      <c r="B112" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="141" t="s">
+      <c r="C112" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D103" s="141"/>
-      <c r="E103" s="141"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="141"/>
-      <c r="H103" s="141"/>
-      <c r="I103" s="140" t="s">
+      <c r="D112" s="116"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="116"/>
+      <c r="H112" s="116"/>
+      <c r="I112" s="115" t="s">
         <v>1360</v>
       </c>
-      <c r="J103" s="140">
+      <c r="J112" s="115">
         <v>120</v>
       </c>
-      <c r="K103" s="144"/>
-    </row>
-    <row r="104" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A104" s="141" t="s">
+      <c r="K112" s="119"/>
+    </row>
+    <row r="113" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A113" s="116" t="s">
         <v>1347</v>
       </c>
-      <c r="B104" s="141" t="s">
+      <c r="B113" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="141" t="s">
+      <c r="C113" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D104" s="141"/>
-      <c r="E104" s="141"/>
-      <c r="F104" s="141"/>
-      <c r="G104" s="141"/>
-      <c r="H104" s="141"/>
-      <c r="I104" s="140" t="s">
+      <c r="D113" s="116"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+      <c r="G113" s="116"/>
+      <c r="H113" s="116"/>
+      <c r="I113" s="115" t="s">
         <v>1361</v>
       </c>
-      <c r="J104" s="140">
+      <c r="J113" s="115">
         <v>120</v>
       </c>
-      <c r="K104" s="144"/>
-    </row>
-    <row r="105" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:13" s="137" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="133" t="s">
+      <c r="K113" s="119"/>
+    </row>
+    <row r="114" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:13" s="113" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="171" t="s">
         <v>1003</v>
       </c>
-      <c r="B106" s="133"/>
-      <c r="C106" s="133"/>
-      <c r="D106" s="133"/>
-      <c r="E106" s="133"/>
-      <c r="F106" s="133"/>
-      <c r="G106" s="133"/>
-      <c r="H106" s="133"/>
-      <c r="I106" s="133"/>
-      <c r="J106" s="133"/>
-      <c r="K106" s="134"/>
-      <c r="L106" s="140"/>
-      <c r="M106" s="140"/>
-    </row>
-    <row r="107" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="138" t="s">
+      <c r="B115" s="171"/>
+      <c r="C115" s="171"/>
+      <c r="D115" s="171"/>
+      <c r="E115" s="171"/>
+      <c r="F115" s="171"/>
+      <c r="G115" s="171"/>
+      <c r="H115" s="171"/>
+      <c r="I115" s="171"/>
+      <c r="J115" s="171"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="115"/>
+      <c r="M115" s="115"/>
+    </row>
+    <row r="116" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="B107" s="138"/>
-      <c r="C107" s="138"/>
-      <c r="D107" s="138"/>
-      <c r="E107" s="138"/>
-      <c r="F107" s="138"/>
-      <c r="G107" s="138"/>
-      <c r="H107" s="138"/>
-      <c r="I107" s="138"/>
-      <c r="J107" s="138"/>
-      <c r="K107" s="139"/>
-      <c r="L107" s="140"/>
-      <c r="M107" s="140"/>
-    </row>
-    <row r="108" spans="1:13" s="137" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="176" t="s">
+      <c r="B116" s="170"/>
+      <c r="C116" s="170"/>
+      <c r="D116" s="170"/>
+      <c r="E116" s="170"/>
+      <c r="F116" s="170"/>
+      <c r="G116" s="170"/>
+      <c r="H116" s="170"/>
+      <c r="I116" s="170"/>
+      <c r="J116" s="170"/>
+      <c r="K116" s="114"/>
+      <c r="L116" s="115"/>
+      <c r="M116" s="115"/>
+    </row>
+    <row r="117" spans="1:13" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="176" t="s">
+      <c r="B117" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="176" t="s">
+      <c r="C117" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D108" s="176" t="s">
+      <c r="D117" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="176" t="s">
+      <c r="E117" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="176" t="s">
+      <c r="F117" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="176" t="s">
+      <c r="G117" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="177" t="s">
+      <c r="H117" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="I108" s="176" t="s">
+      <c r="I117" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="J108" s="176" t="s">
+      <c r="J117" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K108" s="176" t="s">
+      <c r="K117" s="150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="141" t="s">
+    <row r="118" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="116" t="s">
         <v>1310</v>
       </c>
-      <c r="B109" s="141" t="s">
+      <c r="B118" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="141" t="s">
+      <c r="C118" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="141" t="s">
+      <c r="D118" s="116" t="s">
         <v>1333</v>
       </c>
-      <c r="E109" s="141" t="s">
+      <c r="E118" s="116" t="s">
         <v>1342</v>
       </c>
-      <c r="F109" s="141" t="s">
+      <c r="F118" s="116" t="s">
         <v>1348</v>
       </c>
-      <c r="G109" s="141">
+      <c r="G118" s="116">
         <v>2</v>
       </c>
-      <c r="H109" s="141">
-        <f>SUM(H110:H111)</f>
+      <c r="H118" s="116">
+        <f>SUM(H119:H120)</f>
         <v>0</v>
       </c>
-      <c r="I109" s="141" t="s">
+      <c r="I118" s="116" t="s">
         <v>1324</v>
       </c>
-      <c r="J109" s="141"/>
-      <c r="K109" s="141" t="s">
+      <c r="J118" s="116"/>
+      <c r="K118" s="116" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A110" s="141" t="s">
+    <row r="119" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A119" s="116" t="s">
         <v>1333</v>
       </c>
-      <c r="B110" s="141" t="s">
+      <c r="B119" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="141" t="s">
+      <c r="C119" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="141"/>
-      <c r="E110" s="141"/>
-      <c r="F110" s="141"/>
-      <c r="G110" s="141"/>
-      <c r="H110" s="141"/>
-      <c r="I110" s="141" t="s">
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+      <c r="G119" s="116"/>
+      <c r="H119" s="116"/>
+      <c r="I119" s="116" t="s">
         <v>1362</v>
       </c>
-      <c r="J110" s="141"/>
-      <c r="K110" s="141"/>
-    </row>
-    <row r="111" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A111" s="141" t="s">
+      <c r="J119" s="116"/>
+      <c r="K119" s="116"/>
+    </row>
+    <row r="120" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A120" s="116" t="s">
         <v>1348</v>
       </c>
-      <c r="B111" s="141" t="s">
+      <c r="B120" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="141" t="s">
+      <c r="C120" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="141"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="141"/>
-      <c r="H111" s="141"/>
-      <c r="I111" s="141" t="s">
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="116"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="116" t="s">
         <v>1363</v>
       </c>
-      <c r="J111" s="141"/>
-      <c r="K111" s="141"/>
-    </row>
-    <row r="112" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="141"/>
-      <c r="G112" s="143"/>
-      <c r="K112" s="143"/>
-    </row>
-    <row r="113" collapsed="1" x14ac:dyDescent="0.2"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="116"/>
+    </row>
+    <row r="121" spans="1:13" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="116"/>
+      <c r="G121" s="118"/>
+      <c r="K121" s="118"/>
+    </row>
+    <row r="122" spans="1:13" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A95:J95"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A116:J116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I25:K25">
+  <conditionalFormatting sqref="I34:K34">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19">
+  <conditionalFormatting sqref="I28:K28">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I29">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="I30">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="I35">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I36">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32135,10 +32303,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="113"/>
+      <c r="B23" s="164"/>
       <c r="C23" t="s">
         <v>102</v>
       </c>
@@ -32221,7 +32389,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="176" t="s">
         <v>163</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -32234,8 +32402,8 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="127" t="s">
+      <c r="A31" s="177"/>
+      <c r="B31" s="179" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -32249,8 +32417,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
-      <c r="B32" s="128"/>
+      <c r="A32" s="177"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="17" t="s">
         <v>107</v>
       </c>
@@ -32262,8 +32430,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="125"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="177"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="33" t="s">
         <v>107</v>
       </c>
@@ -32275,7 +32443,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+      <c r="A34" s="177"/>
       <c r="B34" s="19" t="s">
         <v>111</v>
       </c>
@@ -32286,7 +32454,7 @@
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
+      <c r="A35" s="178"/>
       <c r="B35" s="19" t="s">
         <v>112</v>
       </c>
@@ -32297,7 +32465,7 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="130" t="s">
+      <c r="A36" s="182" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -32312,7 +32480,7 @@
       <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="28" t="s">
         <v>183</v>
       </c>
@@ -32323,7 +32491,7 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="28" t="s">
         <v>185</v>
       </c>
@@ -32334,7 +32502,7 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="132"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="29" t="s">
         <v>186</v>
       </c>
@@ -32345,7 +32513,7 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="176" t="s">
         <v>179</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -32358,8 +32526,8 @@
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="127" t="s">
+      <c r="A41" s="177"/>
+      <c r="B41" s="179" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -32373,8 +32541,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
-      <c r="B42" s="128"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="17" t="s">
         <v>175</v>
       </c>
@@ -32386,8 +32554,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="129"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="33" t="s">
         <v>175</v>
       </c>
@@ -32399,7 +32567,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
+      <c r="A44" s="177"/>
       <c r="B44" s="28" t="s">
         <v>164</v>
       </c>
@@ -32410,7 +32578,7 @@
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
+      <c r="A45" s="177"/>
       <c r="B45" s="28" t="s">
         <v>18</v>
       </c>
@@ -32423,7 +32591,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
+      <c r="A46" s="178"/>
       <c r="B46" s="29" t="s">
         <v>165</v>
       </c>
@@ -32434,7 +32602,7 @@
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="176" t="s">
         <v>180</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -32447,8 +32615,8 @@
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="127" t="s">
+      <c r="A48" s="177"/>
+      <c r="B48" s="179" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -32462,8 +32630,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="128"/>
+      <c r="A49" s="177"/>
+      <c r="B49" s="180"/>
       <c r="C49" s="18" t="s">
         <v>181</v>
       </c>
@@ -32475,8 +32643,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="129"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="20" t="s">
         <v>181</v>
       </c>
@@ -32488,8 +32656,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="124" t="s">
+      <c r="A51" s="177"/>
+      <c r="B51" s="176" t="s">
         <v>178</v>
       </c>
       <c r="C51" s="15"/>
@@ -32501,8 +32669,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
         <v>120</v>
@@ -32512,8 +32680,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
         <v>122</v>
@@ -32523,8 +32691,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
+      <c r="A54" s="177"/>
+      <c r="B54" s="177"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
         <v>124</v>
@@ -32534,8 +32702,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
         <v>126</v>
@@ -32545,8 +32713,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
+      <c r="A56" s="177"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
         <v>18</v>
@@ -32556,8 +32724,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="126"/>
+      <c r="A57" s="177"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
         <v>128</v>
@@ -32567,8 +32735,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="124" t="s">
+      <c r="A58" s="177"/>
+      <c r="B58" s="176" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="15"/>
@@ -32580,8 +32748,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18" t="s">
         <v>133</v>
@@ -32591,8 +32759,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
-      <c r="B60" s="125"/>
+      <c r="A60" s="177"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
         <v>134</v>
@@ -32602,8 +32770,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="125"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="177"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18" t="s">
         <v>135</v>
@@ -32613,8 +32781,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="177"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18" t="s">
         <v>136</v>
@@ -32624,8 +32792,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
+      <c r="A63" s="177"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18" t="s">
         <v>140</v>
@@ -32633,8 +32801,8 @@
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="126"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="178"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
         <v>142</v>
@@ -32644,7 +32812,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="125"/>
+      <c r="A65" s="177"/>
       <c r="B65" s="27" t="s">
         <v>143</v>
       </c>
@@ -32655,7 +32823,7 @@
       <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
+      <c r="A66" s="177"/>
       <c r="B66" s="28" t="s">
         <v>144</v>
       </c>
@@ -32666,7 +32834,7 @@
       <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
+      <c r="A67" s="177"/>
       <c r="B67" s="28" t="s">
         <v>145</v>
       </c>
@@ -32677,7 +32845,7 @@
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="125"/>
+      <c r="A68" s="177"/>
       <c r="B68" s="28" t="s">
         <v>146</v>
       </c>
@@ -32688,7 +32856,7 @@
       <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
+      <c r="A69" s="177"/>
       <c r="B69" s="29" t="s">
         <v>147</v>
       </c>
@@ -32699,7 +32867,7 @@
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="125"/>
+      <c r="A70" s="177"/>
       <c r="B70" s="27" t="s">
         <v>148</v>
       </c>
@@ -32710,7 +32878,7 @@
       <c r="E70" s="16"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="125"/>
+      <c r="A71" s="177"/>
       <c r="B71" s="28" t="s">
         <v>159</v>
       </c>
@@ -32721,7 +32889,7 @@
       <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="125"/>
+      <c r="A72" s="177"/>
       <c r="B72" s="28" t="s">
         <v>160</v>
       </c>
@@ -32732,7 +32900,7 @@
       <c r="E72" s="19"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="125"/>
+      <c r="A73" s="177"/>
       <c r="B73" s="28" t="s">
         <v>161</v>
       </c>
@@ -32743,7 +32911,7 @@
       <c r="E73" s="19"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="126"/>
+      <c r="A74" s="178"/>
       <c r="B74" s="29" t="s">
         <v>162</v>
       </c>

--- a/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
+++ b/LECTURES/MODULE02/Lecture10/labs/AddressSpace.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\GIT\Myotus-networks\LECTURES\MODULE02\Lecture10\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF4EBD-27F8-4E5D-A5A3-910BE7D9A923}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC713871-6AA8-4D08-8A35-E8C98309A092}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{4843B3F7-AE49-493A-B218-4C3BFCA489C9}"/>
   </bookViews>
   <sheets>
     <sheet name="MGM_v4" sheetId="7" r:id="rId1"/>
     <sheet name="LAN_PRIVATE_v4" sheetId="4" r:id="rId2"/>
-    <sheet name="LAN_GUA_v6" sheetId="9" r:id="rId3"/>
-    <sheet name="ISP_IPv4" sheetId="3" r:id="rId4"/>
-    <sheet name="ISP_GUA_IPv6" sheetId="8" r:id="rId5"/>
-    <sheet name="ТЗ проекта" sheetId="5" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="10" r:id="rId3"/>
+    <sheet name="LAN_GUA_v6" sheetId="9" r:id="rId4"/>
+    <sheet name="ISP_IPv4" sheetId="3" r:id="rId5"/>
+    <sheet name="ISP_GUA_IPv6" sheetId="8" r:id="rId6"/>
+    <sheet name="ТЗ проекта" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7203" uniqueCount="1866">
   <si>
     <t>Net Mask</t>
   </si>
@@ -5622,6 +5623,27 @@
   </si>
   <si>
     <t>ACCESS PRN 172.17.71.0 /24: 4x172.17.71.0/25</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>Description/Device</t>
+  </si>
+  <si>
+    <t>AREA0 IPv6 172.17.0.0 /24: 31x172.17.0.0 /29</t>
+  </si>
+  <si>
+    <t>AREA0 IPv4 172.17.0.0 /24: 31x172.17.0.0 /29</t>
+  </si>
+  <si>
+    <t>OSPF IPv4: 172.17.0-15.0/24</t>
+  </si>
+  <si>
+    <t>OSPF IPv6: 172.17.0-15.0/24</t>
   </si>
 </sst>
 </file>
@@ -5886,7 +5908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6244,10 +6266,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6256,14 +6279,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6271,12 +6299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6286,6 +6308,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6324,47 +6349,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6868,43 +6853,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L1" s="175">
+      <c r="L1" s="176">
         <v>20210515</v>
       </c>
-      <c r="M1" s="175"/>
+      <c r="M1" s="176"/>
     </row>
     <row r="2" spans="1:21" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>1380</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
       <c r="K2" s="106"/>
       <c r="L2" s="26" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="173" t="s">
         <v>1379</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
       <c r="L3" s="26" t="s">
         <v>1045</v>
       </c>
@@ -6946,19 +6931,19 @@
       <c r="U5" s="105"/>
     </row>
     <row r="6" spans="1:21" s="105" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="175" t="s">
         <v>1381</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
       <c r="L6" s="26"/>
       <c r="M6"/>
       <c r="N6" s="6"/>
@@ -6966,19 +6951,19 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:21" s="105" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="175" t="s">
         <v>1437</v>
       </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
       <c r="L7" s="26"/>
       <c r="M7"/>
       <c r="N7" s="6"/>
@@ -7264,19 +7249,19 @@
       <c r="U16" s="105"/>
     </row>
     <row r="17" spans="1:21" s="105" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="175" t="s">
         <v>1438</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
       <c r="L17" s="26"/>
       <c r="M17"/>
       <c r="N17" s="6"/>
@@ -7525,19 +7510,19 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="175" t="s">
         <v>1439</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:21" s="105" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7830,19 +7815,19 @@
       <c r="U35" s="105"/>
     </row>
     <row r="36" spans="1:21" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172" t="s">
+      <c r="A36" s="175" t="s">
         <v>1440</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:21" s="105" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -8227,19 +8212,19 @@
       <c r="U48" s="105"/>
     </row>
     <row r="49" spans="1:22" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="175" t="s">
         <v>1441</v>
       </c>
-      <c r="B49" s="172"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="172"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="172"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
       <c r="L49" s="26"/>
     </row>
     <row r="50" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -8622,19 +8607,19 @@
       <c r="U61" s="105"/>
     </row>
     <row r="62" spans="1:22" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="173" t="s">
         <v>1443</v>
       </c>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
-      <c r="E62" s="177"/>
-      <c r="F62" s="177"/>
-      <c r="G62" s="177"/>
-      <c r="H62" s="177"/>
-      <c r="I62" s="177"/>
-      <c r="J62" s="177"/>
-      <c r="K62" s="178"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="173"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="174"/>
       <c r="L62" s="26" t="s">
         <v>1046</v>
       </c>
@@ -8677,19 +8662,19 @@
       <c r="V64" s="105"/>
     </row>
     <row r="65" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="175" t="s">
         <v>1444</v>
       </c>
-      <c r="B65" s="172"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="172"/>
-      <c r="K65" s="172"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="175"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="175"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="175"/>
       <c r="L65" s="26"/>
       <c r="N65" s="6"/>
       <c r="O65" s="105"/>
@@ -8701,19 +8686,19 @@
       <c r="V65" s="26"/>
     </row>
     <row r="66" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A66" s="172" t="s">
+      <c r="A66" s="175" t="s">
         <v>1445</v>
       </c>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
+      <c r="B66" s="175"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="175"/>
+      <c r="E66" s="175"/>
+      <c r="F66" s="175"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
       <c r="L66" s="26"/>
       <c r="M66"/>
       <c r="N66" s="6"/>
@@ -8980,19 +8965,19 @@
       <c r="L74" s="26"/>
     </row>
     <row r="75" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="175" t="s">
         <v>1446</v>
       </c>
-      <c r="B75" s="172"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="172"/>
+      <c r="B75" s="175"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
+      <c r="I75" s="175"/>
+      <c r="J75" s="175"/>
+      <c r="K75" s="175"/>
       <c r="L75" s="26"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -9220,19 +9205,19 @@
       <c r="U82" s="105"/>
     </row>
     <row r="83" spans="1:21" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="172" t="s">
+      <c r="A83" s="175" t="s">
         <v>1447</v>
       </c>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="172"/>
-      <c r="G83" s="172"/>
-      <c r="H83" s="172"/>
-      <c r="I83" s="172"/>
-      <c r="J83" s="172"/>
-      <c r="K83" s="172"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="175"/>
+      <c r="I83" s="175"/>
+      <c r="J83" s="175"/>
+      <c r="K83" s="175"/>
       <c r="L83" s="26"/>
     </row>
     <row r="84" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -9515,19 +9500,19 @@
       <c r="U93" s="105"/>
     </row>
     <row r="94" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="177" t="s">
+      <c r="A94" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="177"/>
-      <c r="C94" s="177"/>
-      <c r="D94" s="177"/>
-      <c r="E94" s="177"/>
-      <c r="F94" s="177"/>
-      <c r="G94" s="177"/>
-      <c r="H94" s="177"/>
-      <c r="I94" s="177"/>
-      <c r="J94" s="177"/>
-      <c r="K94" s="178"/>
+      <c r="B94" s="173"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="173"/>
+      <c r="I94" s="173"/>
+      <c r="J94" s="173"/>
+      <c r="K94" s="174"/>
       <c r="L94" s="26" t="s">
         <v>1047</v>
       </c>
@@ -9598,35 +9583,35 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="172" t="s">
+      <c r="A98" s="175" t="s">
         <v>1469</v>
       </c>
-      <c r="B98" s="172"/>
-      <c r="C98" s="172"/>
-      <c r="D98" s="172"/>
-      <c r="E98" s="172"/>
-      <c r="F98" s="172"/>
-      <c r="G98" s="172"/>
-      <c r="H98" s="172"/>
-      <c r="I98" s="172"/>
-      <c r="J98" s="172"/>
-      <c r="K98" s="172"/>
+      <c r="B98" s="175"/>
+      <c r="C98" s="175"/>
+      <c r="D98" s="175"/>
+      <c r="E98" s="175"/>
+      <c r="F98" s="175"/>
+      <c r="G98" s="175"/>
+      <c r="H98" s="175"/>
+      <c r="I98" s="175"/>
+      <c r="J98" s="175"/>
+      <c r="K98" s="175"/>
       <c r="L98" s="26"/>
     </row>
     <row r="99" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="172" t="s">
+      <c r="A99" s="175" t="s">
         <v>1477</v>
       </c>
-      <c r="B99" s="172"/>
-      <c r="C99" s="172"/>
-      <c r="D99" s="172"/>
-      <c r="E99" s="172"/>
-      <c r="F99" s="172"/>
-      <c r="G99" s="172"/>
-      <c r="H99" s="172"/>
-      <c r="I99" s="172"/>
-      <c r="J99" s="172"/>
-      <c r="K99" s="172"/>
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
+      <c r="I99" s="175"/>
+      <c r="J99" s="175"/>
+      <c r="K99" s="175"/>
       <c r="L99" s="26"/>
       <c r="M99"/>
       <c r="N99" s="6"/>
@@ -9858,19 +9843,19 @@
       <c r="L106" s="26"/>
     </row>
     <row r="107" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="172" t="s">
+      <c r="A107" s="175" t="s">
         <v>1478</v>
       </c>
-      <c r="B107" s="172"/>
-      <c r="C107" s="172"/>
-      <c r="D107" s="172"/>
-      <c r="E107" s="172"/>
-      <c r="F107" s="172"/>
-      <c r="G107" s="172"/>
-      <c r="H107" s="172"/>
-      <c r="I107" s="172"/>
-      <c r="J107" s="172"/>
-      <c r="K107" s="172"/>
+      <c r="B107" s="175"/>
+      <c r="C107" s="175"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="175"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="175"/>
+      <c r="I107" s="175"/>
+      <c r="J107" s="175"/>
+      <c r="K107" s="175"/>
       <c r="L107" s="26"/>
       <c r="M107"/>
       <c r="N107" s="6"/>
@@ -10124,19 +10109,19 @@
       <c r="U115" s="105"/>
     </row>
     <row r="116" spans="1:22" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="177" t="s">
+      <c r="A116" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="177"/>
-      <c r="C116" s="177"/>
-      <c r="D116" s="177"/>
-      <c r="E116" s="177"/>
-      <c r="F116" s="177"/>
-      <c r="G116" s="177"/>
-      <c r="H116" s="177"/>
-      <c r="I116" s="177"/>
-      <c r="J116" s="177"/>
-      <c r="K116" s="178"/>
+      <c r="B116" s="173"/>
+      <c r="C116" s="173"/>
+      <c r="D116" s="173"/>
+      <c r="E116" s="173"/>
+      <c r="F116" s="173"/>
+      <c r="G116" s="173"/>
+      <c r="H116" s="173"/>
+      <c r="I116" s="173"/>
+      <c r="J116" s="173"/>
+      <c r="K116" s="174"/>
       <c r="L116" s="26" t="s">
         <v>1048</v>
       </c>
@@ -10215,35 +10200,35 @@
       <c r="U119" s="105"/>
     </row>
     <row r="120" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="172" t="s">
+      <c r="A120" s="175" t="s">
         <v>1480</v>
       </c>
-      <c r="B120" s="172"/>
-      <c r="C120" s="172"/>
-      <c r="D120" s="172"/>
-      <c r="E120" s="172"/>
-      <c r="F120" s="172"/>
-      <c r="G120" s="172"/>
-      <c r="H120" s="172"/>
-      <c r="I120" s="172"/>
-      <c r="J120" s="172"/>
-      <c r="K120" s="172"/>
+      <c r="B120" s="175"/>
+      <c r="C120" s="175"/>
+      <c r="D120" s="175"/>
+      <c r="E120" s="175"/>
+      <c r="F120" s="175"/>
+      <c r="G120" s="175"/>
+      <c r="H120" s="175"/>
+      <c r="I120" s="175"/>
+      <c r="J120" s="175"/>
+      <c r="K120" s="175"/>
       <c r="L120" s="26"/>
     </row>
     <row r="121" spans="1:22" s="105" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="172" t="s">
+      <c r="A121" s="175" t="s">
         <v>1481</v>
       </c>
-      <c r="B121" s="172"/>
-      <c r="C121" s="172"/>
-      <c r="D121" s="172"/>
-      <c r="E121" s="172"/>
-      <c r="F121" s="172"/>
-      <c r="G121" s="172"/>
-      <c r="H121" s="172"/>
-      <c r="I121" s="172"/>
-      <c r="J121" s="172"/>
-      <c r="K121" s="172"/>
+      <c r="B121" s="175"/>
+      <c r="C121" s="175"/>
+      <c r="D121" s="175"/>
+      <c r="E121" s="175"/>
+      <c r="F121" s="175"/>
+      <c r="G121" s="175"/>
+      <c r="H121" s="175"/>
+      <c r="I121" s="175"/>
+      <c r="J121" s="175"/>
+      <c r="K121" s="175"/>
       <c r="L121" s="26"/>
       <c r="M121"/>
       <c r="N121" s="6"/>
@@ -10482,19 +10467,19 @@
       <c r="D129" s="95"/>
     </row>
     <row r="130" spans="1:21" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="177" t="s">
+      <c r="A130" s="173" t="s">
         <v>1050</v>
       </c>
-      <c r="B130" s="177"/>
-      <c r="C130" s="177"/>
-      <c r="D130" s="177"/>
-      <c r="E130" s="177"/>
-      <c r="F130" s="177"/>
-      <c r="G130" s="177"/>
-      <c r="H130" s="177"/>
-      <c r="I130" s="177"/>
-      <c r="J130" s="177"/>
-      <c r="K130" s="178"/>
+      <c r="B130" s="173"/>
+      <c r="C130" s="173"/>
+      <c r="D130" s="173"/>
+      <c r="E130" s="173"/>
+      <c r="F130" s="173"/>
+      <c r="G130" s="173"/>
+      <c r="H130" s="173"/>
+      <c r="I130" s="173"/>
+      <c r="J130" s="173"/>
+      <c r="K130" s="174"/>
       <c r="L130" s="26" t="s">
         <v>10</v>
       </c>
@@ -10614,6 +10599,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A130:K130"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A99:K99"/>
@@ -10628,14 +10621,6 @@
     <mergeCell ref="A65:K65"/>
     <mergeCell ref="A66:K66"/>
     <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10647,8 +10632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA282CF-049F-4372-95A9-9E82C74C253D}">
   <dimension ref="A1:U625"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303:K350"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -10668,43 +10653,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L1" s="175">
+      <c r="L1" s="176">
         <v>20210515</v>
       </c>
-      <c r="M1" s="175"/>
+      <c r="M1" s="176"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
       <c r="K2" s="12"/>
       <c r="L2" s="26" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
       <c r="L3" s="26" t="s">
         <v>1045</v>
       </c>
@@ -10888,37 +10873,37 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="175" t="s">
         <v>1051</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
       <c r="L12" s="26"/>
       <c r="M12"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
       <c r="L13" s="26"/>
       <c r="M13"/>
       <c r="N13" s="6"/>
@@ -15435,19 +15420,19 @@
       <c r="L200" s="26"/>
     </row>
     <row r="201" spans="1:21" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="172" t="s">
+      <c r="A201" s="175" t="s">
         <v>465</v>
       </c>
-      <c r="B201" s="172"/>
-      <c r="C201" s="172"/>
-      <c r="D201" s="172"/>
-      <c r="E201" s="172"/>
-      <c r="F201" s="172"/>
-      <c r="G201" s="172"/>
-      <c r="H201" s="172"/>
-      <c r="I201" s="172"/>
-      <c r="J201" s="172"/>
-      <c r="K201" s="172"/>
+      <c r="B201" s="175"/>
+      <c r="C201" s="175"/>
+      <c r="D201" s="175"/>
+      <c r="E201" s="175"/>
+      <c r="F201" s="175"/>
+      <c r="G201" s="175"/>
+      <c r="H201" s="175"/>
+      <c r="I201" s="175"/>
+      <c r="J201" s="175"/>
+      <c r="K201" s="175"/>
       <c r="L201" s="26"/>
       <c r="M201"/>
       <c r="N201"/>
@@ -15848,19 +15833,19 @@
       <c r="N213" s="6"/>
     </row>
     <row r="214" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="172" t="s">
+      <c r="A214" s="175" t="s">
         <v>466</v>
       </c>
-      <c r="B214" s="172"/>
-      <c r="C214" s="172"/>
-      <c r="D214" s="172"/>
-      <c r="E214" s="172"/>
-      <c r="F214" s="172"/>
-      <c r="G214" s="172"/>
-      <c r="H214" s="172"/>
-      <c r="I214" s="172"/>
-      <c r="J214" s="172"/>
-      <c r="K214" s="172"/>
+      <c r="B214" s="175"/>
+      <c r="C214" s="175"/>
+      <c r="D214" s="175"/>
+      <c r="E214" s="175"/>
+      <c r="F214" s="175"/>
+      <c r="G214" s="175"/>
+      <c r="H214" s="175"/>
+      <c r="I214" s="175"/>
+      <c r="J214" s="175"/>
+      <c r="K214" s="175"/>
       <c r="L214" s="26"/>
     </row>
     <row r="215" spans="1:21" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -16904,19 +16889,19 @@
       <c r="U247" s="13"/>
     </row>
     <row r="248" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="172" t="s">
+      <c r="A248" s="175" t="s">
         <v>467</v>
       </c>
-      <c r="B248" s="172"/>
-      <c r="C248" s="172"/>
-      <c r="D248" s="172"/>
-      <c r="E248" s="172"/>
-      <c r="F248" s="172"/>
-      <c r="G248" s="172"/>
-      <c r="H248" s="172"/>
-      <c r="I248" s="172"/>
-      <c r="J248" s="172"/>
-      <c r="K248" s="172"/>
+      <c r="B248" s="175"/>
+      <c r="C248" s="175"/>
+      <c r="D248" s="175"/>
+      <c r="E248" s="175"/>
+      <c r="F248" s="175"/>
+      <c r="G248" s="175"/>
+      <c r="H248" s="175"/>
+      <c r="I248" s="175"/>
+      <c r="J248" s="175"/>
+      <c r="K248" s="175"/>
       <c r="L248" s="26"/>
     </row>
     <row r="249" spans="1:21" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -17958,19 +17943,19 @@
       <c r="U281" s="35"/>
     </row>
     <row r="282" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="173" t="s">
+      <c r="A282" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="B282" s="173"/>
-      <c r="C282" s="173"/>
-      <c r="D282" s="173"/>
-      <c r="E282" s="173"/>
-      <c r="F282" s="173"/>
-      <c r="G282" s="173"/>
-      <c r="H282" s="173"/>
-      <c r="I282" s="173"/>
-      <c r="J282" s="173"/>
-      <c r="K282" s="173"/>
+      <c r="B282" s="179"/>
+      <c r="C282" s="179"/>
+      <c r="D282" s="179"/>
+      <c r="E282" s="179"/>
+      <c r="F282" s="179"/>
+      <c r="G282" s="179"/>
+      <c r="H282" s="179"/>
+      <c r="I282" s="179"/>
+      <c r="J282" s="179"/>
+      <c r="K282" s="179"/>
       <c r="L282" s="26"/>
     </row>
     <row r="283" spans="1:21" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -18583,19 +18568,19 @@
       <c r="L302" s="26"/>
     </row>
     <row r="303" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="180" t="s">
+      <c r="A303" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="B303" s="180"/>
-      <c r="C303" s="180"/>
-      <c r="D303" s="180"/>
-      <c r="E303" s="180"/>
-      <c r="F303" s="180"/>
-      <c r="G303" s="180"/>
-      <c r="H303" s="180"/>
-      <c r="I303" s="180"/>
-      <c r="J303" s="180"/>
-      <c r="K303" s="180"/>
+      <c r="B303" s="178"/>
+      <c r="C303" s="178"/>
+      <c r="D303" s="178"/>
+      <c r="E303" s="178"/>
+      <c r="F303" s="178"/>
+      <c r="G303" s="178"/>
+      <c r="H303" s="178"/>
+      <c r="I303" s="178"/>
+      <c r="J303" s="178"/>
+      <c r="K303" s="178"/>
       <c r="L303" s="26"/>
     </row>
     <row r="304" spans="1:21" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -18639,19 +18624,19 @@
       <c r="L306" s="26"/>
     </row>
     <row r="307" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A307" s="180" t="s">
+      <c r="A307" s="178" t="s">
         <v>569</v>
       </c>
-      <c r="B307" s="180"/>
-      <c r="C307" s="180"/>
-      <c r="D307" s="180"/>
-      <c r="E307" s="180"/>
-      <c r="F307" s="180"/>
-      <c r="G307" s="180"/>
-      <c r="H307" s="180"/>
-      <c r="I307" s="180"/>
-      <c r="J307" s="180"/>
-      <c r="K307" s="180"/>
+      <c r="B307" s="178"/>
+      <c r="C307" s="178"/>
+      <c r="D307" s="178"/>
+      <c r="E307" s="178"/>
+      <c r="F307" s="178"/>
+      <c r="G307" s="178"/>
+      <c r="H307" s="178"/>
+      <c r="I307" s="178"/>
+      <c r="J307" s="178"/>
+      <c r="K307" s="178"/>
       <c r="L307" s="26"/>
     </row>
     <row r="308" spans="1:21" s="168" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -18937,35 +18922,35 @@
       <c r="U314" s="13"/>
     </row>
     <row r="315" spans="1:21" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A315" s="179" t="s">
+      <c r="A315" s="180" t="s">
         <v>1857</v>
       </c>
-      <c r="B315" s="180"/>
-      <c r="C315" s="180"/>
-      <c r="D315" s="180"/>
-      <c r="E315" s="180"/>
-      <c r="F315" s="180"/>
-      <c r="G315" s="180"/>
-      <c r="H315" s="180"/>
-      <c r="I315" s="180"/>
-      <c r="J315" s="180"/>
-      <c r="K315" s="180"/>
+      <c r="B315" s="178"/>
+      <c r="C315" s="178"/>
+      <c r="D315" s="178"/>
+      <c r="E315" s="178"/>
+      <c r="F315" s="178"/>
+      <c r="G315" s="178"/>
+      <c r="H315" s="178"/>
+      <c r="I315" s="178"/>
+      <c r="J315" s="178"/>
+      <c r="K315" s="178"/>
       <c r="L315" s="26"/>
     </row>
     <row r="316" spans="1:21" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A316" s="179" t="s">
+      <c r="A316" s="180" t="s">
         <v>1858</v>
       </c>
-      <c r="B316" s="180"/>
-      <c r="C316" s="180"/>
-      <c r="D316" s="180"/>
-      <c r="E316" s="180"/>
-      <c r="F316" s="180"/>
-      <c r="G316" s="180"/>
-      <c r="H316" s="180"/>
-      <c r="I316" s="180"/>
-      <c r="J316" s="180"/>
-      <c r="K316" s="180"/>
+      <c r="B316" s="178"/>
+      <c r="C316" s="178"/>
+      <c r="D316" s="178"/>
+      <c r="E316" s="178"/>
+      <c r="F316" s="178"/>
+      <c r="G316" s="178"/>
+      <c r="H316" s="178"/>
+      <c r="I316" s="178"/>
+      <c r="J316" s="178"/>
+      <c r="K316" s="178"/>
       <c r="L316" s="171"/>
     </row>
     <row r="317" spans="1:21" s="168" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -19365,19 +19350,19 @@
       <c r="U326" s="13"/>
     </row>
     <row r="327" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A327" s="180" t="s">
+      <c r="A327" s="178" t="s">
         <v>633</v>
       </c>
-      <c r="B327" s="180"/>
-      <c r="C327" s="180"/>
-      <c r="D327" s="180"/>
-      <c r="E327" s="180"/>
-      <c r="F327" s="180"/>
-      <c r="G327" s="180"/>
-      <c r="H327" s="180"/>
-      <c r="I327" s="180"/>
-      <c r="J327" s="180"/>
-      <c r="K327" s="180"/>
+      <c r="B327" s="178"/>
+      <c r="C327" s="178"/>
+      <c r="D327" s="178"/>
+      <c r="E327" s="178"/>
+      <c r="F327" s="178"/>
+      <c r="G327" s="178"/>
+      <c r="H327" s="178"/>
+      <c r="I327" s="178"/>
+      <c r="J327" s="178"/>
+      <c r="K327" s="178"/>
       <c r="L327" s="26"/>
     </row>
     <row r="328" spans="1:21" s="168" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -19839,19 +19824,19 @@
       <c r="U338" s="13"/>
     </row>
     <row r="339" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A339" s="180" t="s">
+      <c r="A339" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="B339" s="180"/>
-      <c r="C339" s="180"/>
-      <c r="D339" s="180"/>
-      <c r="E339" s="180"/>
-      <c r="F339" s="180"/>
-      <c r="G339" s="180"/>
-      <c r="H339" s="180"/>
-      <c r="I339" s="180"/>
-      <c r="J339" s="180"/>
-      <c r="K339" s="180"/>
+      <c r="B339" s="178"/>
+      <c r="C339" s="178"/>
+      <c r="D339" s="178"/>
+      <c r="E339" s="178"/>
+      <c r="F339" s="178"/>
+      <c r="G339" s="178"/>
+      <c r="H339" s="178"/>
+      <c r="I339" s="178"/>
+      <c r="J339" s="178"/>
+      <c r="K339" s="178"/>
       <c r="L339" s="26"/>
     </row>
     <row r="340" spans="1:21" s="168" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -20357,19 +20342,19 @@
       <c r="U352" s="35"/>
     </row>
     <row r="353" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="177" t="s">
+      <c r="A353" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="B353" s="177"/>
-      <c r="C353" s="177"/>
-      <c r="D353" s="177"/>
-      <c r="E353" s="177"/>
-      <c r="F353" s="177"/>
-      <c r="G353" s="177"/>
-      <c r="H353" s="177"/>
-      <c r="I353" s="177"/>
-      <c r="J353" s="177"/>
-      <c r="K353" s="178"/>
+      <c r="B353" s="173"/>
+      <c r="C353" s="173"/>
+      <c r="D353" s="173"/>
+      <c r="E353" s="173"/>
+      <c r="F353" s="173"/>
+      <c r="G353" s="173"/>
+      <c r="H353" s="173"/>
+      <c r="I353" s="173"/>
+      <c r="J353" s="173"/>
+      <c r="K353" s="174"/>
       <c r="L353" s="26" t="s">
         <v>1046</v>
       </c>
@@ -20541,35 +20526,35 @@
       </c>
     </row>
     <row r="362" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="172" t="s">
+      <c r="A362" s="175" t="s">
         <v>1357</v>
       </c>
-      <c r="B362" s="172"/>
-      <c r="C362" s="172"/>
-      <c r="D362" s="172"/>
-      <c r="E362" s="172"/>
-      <c r="F362" s="172"/>
-      <c r="G362" s="172"/>
-      <c r="H362" s="172"/>
-      <c r="I362" s="172"/>
-      <c r="J362" s="172"/>
-      <c r="K362" s="172"/>
+      <c r="B362" s="175"/>
+      <c r="C362" s="175"/>
+      <c r="D362" s="175"/>
+      <c r="E362" s="175"/>
+      <c r="F362" s="175"/>
+      <c r="G362" s="175"/>
+      <c r="H362" s="175"/>
+      <c r="I362" s="175"/>
+      <c r="J362" s="175"/>
+      <c r="K362" s="175"/>
       <c r="L362" s="26"/>
     </row>
     <row r="363" spans="1:21" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A363" s="172" t="s">
+      <c r="A363" s="175" t="s">
         <v>1358</v>
       </c>
-      <c r="B363" s="172"/>
-      <c r="C363" s="172"/>
-      <c r="D363" s="172"/>
-      <c r="E363" s="172"/>
-      <c r="F363" s="172"/>
-      <c r="G363" s="172"/>
-      <c r="H363" s="172"/>
-      <c r="I363" s="172"/>
-      <c r="J363" s="172"/>
-      <c r="K363" s="172"/>
+      <c r="B363" s="175"/>
+      <c r="C363" s="175"/>
+      <c r="D363" s="175"/>
+      <c r="E363" s="175"/>
+      <c r="F363" s="175"/>
+      <c r="G363" s="175"/>
+      <c r="H363" s="175"/>
+      <c r="I363" s="175"/>
+      <c r="J363" s="175"/>
+      <c r="K363" s="175"/>
       <c r="L363" s="26"/>
     </row>
     <row r="364" spans="1:21" s="13" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -22561,19 +22546,19 @@
       <c r="L445" s="26"/>
     </row>
     <row r="446" spans="1:21" s="13" customFormat="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="172" t="s">
+      <c r="A446" s="175" t="s">
         <v>1367</v>
       </c>
-      <c r="B446" s="172"/>
-      <c r="C446" s="172"/>
-      <c r="D446" s="172"/>
-      <c r="E446" s="172"/>
-      <c r="F446" s="172"/>
-      <c r="G446" s="172"/>
-      <c r="H446" s="172"/>
-      <c r="I446" s="172"/>
-      <c r="J446" s="172"/>
-      <c r="K446" s="172"/>
+      <c r="B446" s="175"/>
+      <c r="C446" s="175"/>
+      <c r="D446" s="175"/>
+      <c r="E446" s="175"/>
+      <c r="F446" s="175"/>
+      <c r="G446" s="175"/>
+      <c r="H446" s="175"/>
+      <c r="I446" s="175"/>
+      <c r="J446" s="175"/>
+      <c r="K446" s="175"/>
       <c r="L446" s="26"/>
       <c r="M446"/>
       <c r="N446"/>
@@ -22838,19 +22823,19 @@
       <c r="U454" s="13"/>
     </row>
     <row r="455" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="172" t="s">
+      <c r="A455" s="175" t="s">
         <v>1369</v>
       </c>
-      <c r="B455" s="172"/>
-      <c r="C455" s="172"/>
-      <c r="D455" s="172"/>
-      <c r="E455" s="172"/>
-      <c r="F455" s="172"/>
-      <c r="G455" s="172"/>
-      <c r="H455" s="172"/>
-      <c r="I455" s="172"/>
-      <c r="J455" s="172"/>
-      <c r="K455" s="172"/>
+      <c r="B455" s="175"/>
+      <c r="C455" s="175"/>
+      <c r="D455" s="175"/>
+      <c r="E455" s="175"/>
+      <c r="F455" s="175"/>
+      <c r="G455" s="175"/>
+      <c r="H455" s="175"/>
+      <c r="I455" s="175"/>
+      <c r="J455" s="175"/>
+      <c r="K455" s="175"/>
       <c r="L455" s="26"/>
     </row>
     <row r="456" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22868,51 +22853,51 @@
       <c r="L456" s="26"/>
     </row>
     <row r="457" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="174" t="s">
+      <c r="A457" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="B457" s="174"/>
-      <c r="C457" s="174"/>
-      <c r="D457" s="174"/>
-      <c r="E457" s="174"/>
-      <c r="F457" s="174"/>
-      <c r="G457" s="174"/>
-      <c r="H457" s="174"/>
-      <c r="I457" s="174"/>
-      <c r="J457" s="174"/>
-      <c r="K457" s="174"/>
+      <c r="B457" s="181"/>
+      <c r="C457" s="181"/>
+      <c r="D457" s="181"/>
+      <c r="E457" s="181"/>
+      <c r="F457" s="181"/>
+      <c r="G457" s="181"/>
+      <c r="H457" s="181"/>
+      <c r="I457" s="181"/>
+      <c r="J457" s="181"/>
+      <c r="K457" s="181"/>
       <c r="L457" s="26"/>
     </row>
     <row r="458" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="173" t="s">
+      <c r="A458" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="B458" s="173"/>
-      <c r="C458" s="173"/>
-      <c r="D458" s="173"/>
-      <c r="E458" s="173"/>
-      <c r="F458" s="173"/>
-      <c r="G458" s="173"/>
-      <c r="H458" s="173"/>
-      <c r="I458" s="173"/>
-      <c r="J458" s="173"/>
-      <c r="K458" s="173"/>
+      <c r="B458" s="179"/>
+      <c r="C458" s="179"/>
+      <c r="D458" s="179"/>
+      <c r="E458" s="179"/>
+      <c r="F458" s="179"/>
+      <c r="G458" s="179"/>
+      <c r="H458" s="179"/>
+      <c r="I458" s="179"/>
+      <c r="J458" s="179"/>
+      <c r="K458" s="179"/>
       <c r="L458" s="26"/>
     </row>
     <row r="459" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="180" t="s">
+      <c r="A459" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="B459" s="180"/>
-      <c r="C459" s="180"/>
-      <c r="D459" s="180"/>
-      <c r="E459" s="180"/>
-      <c r="F459" s="180"/>
-      <c r="G459" s="180"/>
-      <c r="H459" s="180"/>
-      <c r="I459" s="180"/>
-      <c r="J459" s="180"/>
-      <c r="K459" s="180"/>
+      <c r="B459" s="178"/>
+      <c r="C459" s="178"/>
+      <c r="D459" s="178"/>
+      <c r="E459" s="178"/>
+      <c r="F459" s="178"/>
+      <c r="G459" s="178"/>
+      <c r="H459" s="178"/>
+      <c r="I459" s="178"/>
+      <c r="J459" s="178"/>
+      <c r="K459" s="178"/>
       <c r="L459" s="26"/>
     </row>
     <row r="460" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22972,19 +22957,19 @@
       <c r="L466" s="26"/>
     </row>
     <row r="467" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A467" s="180" t="s">
+      <c r="A467" s="178" t="s">
         <v>746</v>
       </c>
-      <c r="B467" s="180"/>
-      <c r="C467" s="180"/>
-      <c r="D467" s="180"/>
-      <c r="E467" s="180"/>
-      <c r="F467" s="180"/>
-      <c r="G467" s="180"/>
-      <c r="H467" s="180"/>
-      <c r="I467" s="180"/>
-      <c r="J467" s="180"/>
-      <c r="K467" s="180"/>
+      <c r="B467" s="178"/>
+      <c r="C467" s="178"/>
+      <c r="D467" s="178"/>
+      <c r="E467" s="178"/>
+      <c r="F467" s="178"/>
+      <c r="G467" s="178"/>
+      <c r="H467" s="178"/>
+      <c r="I467" s="178"/>
+      <c r="J467" s="178"/>
+      <c r="K467" s="178"/>
       <c r="L467" s="26"/>
     </row>
     <row r="468" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -23240,19 +23225,19 @@
       <c r="U473" s="13"/>
     </row>
     <row r="474" spans="1:21" ht="31.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="179" t="s">
+      <c r="A474" s="180" t="s">
         <v>1377</v>
       </c>
-      <c r="B474" s="180"/>
-      <c r="C474" s="180"/>
-      <c r="D474" s="180"/>
-      <c r="E474" s="180"/>
-      <c r="F474" s="180"/>
-      <c r="G474" s="180"/>
-      <c r="H474" s="180"/>
-      <c r="I474" s="180"/>
-      <c r="J474" s="180"/>
-      <c r="K474" s="180"/>
+      <c r="B474" s="178"/>
+      <c r="C474" s="178"/>
+      <c r="D474" s="178"/>
+      <c r="E474" s="178"/>
+      <c r="F474" s="178"/>
+      <c r="G474" s="178"/>
+      <c r="H474" s="178"/>
+      <c r="I474" s="178"/>
+      <c r="J474" s="178"/>
+      <c r="K474" s="178"/>
       <c r="L474" s="26"/>
     </row>
     <row r="475" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -23592,19 +23577,19 @@
       <c r="U482" s="13"/>
     </row>
     <row r="483" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="180" t="s">
+      <c r="A483" s="178" t="s">
         <v>803</v>
       </c>
-      <c r="B483" s="180"/>
-      <c r="C483" s="180"/>
-      <c r="D483" s="180"/>
-      <c r="E483" s="180"/>
-      <c r="F483" s="180"/>
-      <c r="G483" s="180"/>
-      <c r="H483" s="180"/>
-      <c r="I483" s="180"/>
-      <c r="J483" s="180"/>
-      <c r="K483" s="180"/>
+      <c r="B483" s="178"/>
+      <c r="C483" s="178"/>
+      <c r="D483" s="178"/>
+      <c r="E483" s="178"/>
+      <c r="F483" s="178"/>
+      <c r="G483" s="178"/>
+      <c r="H483" s="178"/>
+      <c r="I483" s="178"/>
+      <c r="J483" s="178"/>
+      <c r="K483" s="178"/>
       <c r="L483" s="26"/>
     </row>
     <row r="484" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -24028,19 +24013,19 @@
       <c r="U493" s="13"/>
     </row>
     <row r="494" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="180" t="s">
+      <c r="A494" s="178" t="s">
         <v>844</v>
       </c>
-      <c r="B494" s="180"/>
-      <c r="C494" s="180"/>
-      <c r="D494" s="180"/>
-      <c r="E494" s="180"/>
-      <c r="F494" s="180"/>
-      <c r="G494" s="180"/>
-      <c r="H494" s="180"/>
-      <c r="I494" s="180"/>
-      <c r="J494" s="180"/>
-      <c r="K494" s="180"/>
+      <c r="B494" s="178"/>
+      <c r="C494" s="178"/>
+      <c r="D494" s="178"/>
+      <c r="E494" s="178"/>
+      <c r="F494" s="178"/>
+      <c r="G494" s="178"/>
+      <c r="H494" s="178"/>
+      <c r="I494" s="178"/>
+      <c r="J494" s="178"/>
+      <c r="K494" s="178"/>
       <c r="L494" s="26"/>
     </row>
     <row r="495" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -24508,19 +24493,19 @@
       <c r="U506" s="35"/>
     </row>
     <row r="507" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A507" s="177" t="s">
+      <c r="A507" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="B507" s="177"/>
-      <c r="C507" s="177"/>
-      <c r="D507" s="177"/>
-      <c r="E507" s="177"/>
-      <c r="F507" s="177"/>
-      <c r="G507" s="177"/>
-      <c r="H507" s="177"/>
-      <c r="I507" s="177"/>
-      <c r="J507" s="177"/>
-      <c r="K507" s="178"/>
+      <c r="B507" s="173"/>
+      <c r="C507" s="173"/>
+      <c r="D507" s="173"/>
+      <c r="E507" s="173"/>
+      <c r="F507" s="173"/>
+      <c r="G507" s="173"/>
+      <c r="H507" s="173"/>
+      <c r="I507" s="173"/>
+      <c r="J507" s="173"/>
+      <c r="K507" s="174"/>
       <c r="L507" s="26" t="s">
         <v>1047</v>
       </c>
@@ -24728,19 +24713,19 @@
       </c>
     </row>
     <row r="517" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="172" t="s">
+      <c r="A517" s="175" t="s">
         <v>1016</v>
       </c>
-      <c r="B517" s="172"/>
-      <c r="C517" s="172"/>
-      <c r="D517" s="172"/>
-      <c r="E517" s="172"/>
-      <c r="F517" s="172"/>
-      <c r="G517" s="172"/>
-      <c r="H517" s="172"/>
-      <c r="I517" s="172"/>
-      <c r="J517" s="172"/>
-      <c r="K517" s="172"/>
+      <c r="B517" s="175"/>
+      <c r="C517" s="175"/>
+      <c r="D517" s="175"/>
+      <c r="E517" s="175"/>
+      <c r="F517" s="175"/>
+      <c r="G517" s="175"/>
+      <c r="H517" s="175"/>
+      <c r="I517" s="175"/>
+      <c r="J517" s="175"/>
+      <c r="K517" s="175"/>
       <c r="L517" s="26"/>
     </row>
     <row r="518" spans="1:21" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -25098,51 +25083,51 @@
       <c r="L528" s="26"/>
     </row>
     <row r="529" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="174" t="s">
+      <c r="A529" s="181" t="s">
         <v>1054</v>
       </c>
-      <c r="B529" s="174"/>
-      <c r="C529" s="174"/>
-      <c r="D529" s="174"/>
-      <c r="E529" s="174"/>
-      <c r="F529" s="174"/>
-      <c r="G529" s="174"/>
-      <c r="H529" s="174"/>
-      <c r="I529" s="174"/>
-      <c r="J529" s="174"/>
-      <c r="K529" s="174"/>
+      <c r="B529" s="181"/>
+      <c r="C529" s="181"/>
+      <c r="D529" s="181"/>
+      <c r="E529" s="181"/>
+      <c r="F529" s="181"/>
+      <c r="G529" s="181"/>
+      <c r="H529" s="181"/>
+      <c r="I529" s="181"/>
+      <c r="J529" s="181"/>
+      <c r="K529" s="181"/>
       <c r="L529" s="26"/>
     </row>
     <row r="530" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="173" t="s">
+      <c r="A530" s="179" t="s">
         <v>1055</v>
       </c>
-      <c r="B530" s="173"/>
-      <c r="C530" s="173"/>
-      <c r="D530" s="173"/>
-      <c r="E530" s="173"/>
-      <c r="F530" s="173"/>
-      <c r="G530" s="173"/>
-      <c r="H530" s="173"/>
-      <c r="I530" s="173"/>
-      <c r="J530" s="173"/>
-      <c r="K530" s="173"/>
+      <c r="B530" s="179"/>
+      <c r="C530" s="179"/>
+      <c r="D530" s="179"/>
+      <c r="E530" s="179"/>
+      <c r="F530" s="179"/>
+      <c r="G530" s="179"/>
+      <c r="H530" s="179"/>
+      <c r="I530" s="179"/>
+      <c r="J530" s="179"/>
+      <c r="K530" s="179"/>
       <c r="L530" s="26"/>
     </row>
     <row r="531" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="180" t="s">
+      <c r="A531" s="178" t="s">
         <v>1056</v>
       </c>
-      <c r="B531" s="180"/>
-      <c r="C531" s="180"/>
-      <c r="D531" s="180"/>
-      <c r="E531" s="180"/>
-      <c r="F531" s="180"/>
-      <c r="G531" s="180"/>
-      <c r="H531" s="180"/>
-      <c r="I531" s="180"/>
-      <c r="J531" s="180"/>
-      <c r="K531" s="180"/>
+      <c r="B531" s="178"/>
+      <c r="C531" s="178"/>
+      <c r="D531" s="178"/>
+      <c r="E531" s="178"/>
+      <c r="F531" s="178"/>
+      <c r="G531" s="178"/>
+      <c r="H531" s="178"/>
+      <c r="I531" s="178"/>
+      <c r="J531" s="178"/>
+      <c r="K531" s="178"/>
       <c r="L531" s="26"/>
     </row>
     <row r="532" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -25202,19 +25187,19 @@
       <c r="L538" s="26"/>
     </row>
     <row r="539" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A539" s="180" t="s">
+      <c r="A539" s="178" t="s">
         <v>1057</v>
       </c>
-      <c r="B539" s="180"/>
-      <c r="C539" s="180"/>
-      <c r="D539" s="180"/>
-      <c r="E539" s="180"/>
-      <c r="F539" s="180"/>
-      <c r="G539" s="180"/>
-      <c r="H539" s="180"/>
-      <c r="I539" s="180"/>
-      <c r="J539" s="180"/>
-      <c r="K539" s="180"/>
+      <c r="B539" s="178"/>
+      <c r="C539" s="178"/>
+      <c r="D539" s="178"/>
+      <c r="E539" s="178"/>
+      <c r="F539" s="178"/>
+      <c r="G539" s="178"/>
+      <c r="H539" s="178"/>
+      <c r="I539" s="178"/>
+      <c r="J539" s="178"/>
+      <c r="K539" s="178"/>
       <c r="L539" s="26"/>
     </row>
     <row r="540" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -25470,19 +25455,19 @@
       <c r="U545" s="13"/>
     </row>
     <row r="546" spans="1:21" ht="31.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="179" t="s">
+      <c r="A546" s="180" t="s">
         <v>1356</v>
       </c>
-      <c r="B546" s="180"/>
-      <c r="C546" s="180"/>
-      <c r="D546" s="180"/>
-      <c r="E546" s="180"/>
-      <c r="F546" s="180"/>
-      <c r="G546" s="180"/>
-      <c r="H546" s="180"/>
-      <c r="I546" s="180"/>
-      <c r="J546" s="180"/>
-      <c r="K546" s="180"/>
+      <c r="B546" s="178"/>
+      <c r="C546" s="178"/>
+      <c r="D546" s="178"/>
+      <c r="E546" s="178"/>
+      <c r="F546" s="178"/>
+      <c r="G546" s="178"/>
+      <c r="H546" s="178"/>
+      <c r="I546" s="178"/>
+      <c r="J546" s="178"/>
+      <c r="K546" s="178"/>
       <c r="L546" s="26"/>
     </row>
     <row r="547" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -25822,19 +25807,19 @@
       <c r="U554" s="13"/>
     </row>
     <row r="555" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="180" t="s">
+      <c r="A555" s="178" t="s">
         <v>1114</v>
       </c>
-      <c r="B555" s="180"/>
-      <c r="C555" s="180"/>
-      <c r="D555" s="180"/>
-      <c r="E555" s="180"/>
-      <c r="F555" s="180"/>
-      <c r="G555" s="180"/>
-      <c r="H555" s="180"/>
-      <c r="I555" s="180"/>
-      <c r="J555" s="180"/>
-      <c r="K555" s="180"/>
+      <c r="B555" s="178"/>
+      <c r="C555" s="178"/>
+      <c r="D555" s="178"/>
+      <c r="E555" s="178"/>
+      <c r="F555" s="178"/>
+      <c r="G555" s="178"/>
+      <c r="H555" s="178"/>
+      <c r="I555" s="178"/>
+      <c r="J555" s="178"/>
+      <c r="K555" s="178"/>
       <c r="L555" s="26"/>
     </row>
     <row r="556" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -26258,19 +26243,19 @@
       <c r="U565" s="13"/>
     </row>
     <row r="566" spans="1:21" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="180" t="s">
+      <c r="A566" s="178" t="s">
         <v>1155</v>
       </c>
-      <c r="B566" s="180"/>
-      <c r="C566" s="180"/>
-      <c r="D566" s="180"/>
-      <c r="E566" s="180"/>
-      <c r="F566" s="180"/>
-      <c r="G566" s="180"/>
-      <c r="H566" s="180"/>
-      <c r="I566" s="180"/>
-      <c r="J566" s="180"/>
-      <c r="K566" s="180"/>
+      <c r="B566" s="178"/>
+      <c r="C566" s="178"/>
+      <c r="D566" s="178"/>
+      <c r="E566" s="178"/>
+      <c r="F566" s="178"/>
+      <c r="G566" s="178"/>
+      <c r="H566" s="178"/>
+      <c r="I566" s="178"/>
+      <c r="J566" s="178"/>
+      <c r="K566" s="178"/>
       <c r="L566" s="26"/>
     </row>
     <row r="567" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -26738,19 +26723,19 @@
       <c r="U578" s="35"/>
     </row>
     <row r="579" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A579" s="177" t="s">
+      <c r="A579" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="B579" s="177"/>
-      <c r="C579" s="177"/>
-      <c r="D579" s="177"/>
-      <c r="E579" s="177"/>
-      <c r="F579" s="177"/>
-      <c r="G579" s="177"/>
-      <c r="H579" s="177"/>
-      <c r="I579" s="177"/>
-      <c r="J579" s="177"/>
-      <c r="K579" s="178"/>
+      <c r="B579" s="173"/>
+      <c r="C579" s="173"/>
+      <c r="D579" s="173"/>
+      <c r="E579" s="173"/>
+      <c r="F579" s="173"/>
+      <c r="G579" s="173"/>
+      <c r="H579" s="173"/>
+      <c r="I579" s="173"/>
+      <c r="J579" s="173"/>
+      <c r="K579" s="174"/>
       <c r="L579" s="26" t="s">
         <v>1048</v>
       </c>
@@ -26959,19 +26944,19 @@
       </c>
     </row>
     <row r="589" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="172" t="s">
+      <c r="A589" s="175" t="s">
         <v>1378</v>
       </c>
-      <c r="B589" s="172"/>
-      <c r="C589" s="172"/>
-      <c r="D589" s="172"/>
-      <c r="E589" s="172"/>
-      <c r="F589" s="172"/>
-      <c r="G589" s="172"/>
-      <c r="H589" s="172"/>
-      <c r="I589" s="172"/>
-      <c r="J589" s="172"/>
-      <c r="K589" s="172"/>
+      <c r="B589" s="175"/>
+      <c r="C589" s="175"/>
+      <c r="D589" s="175"/>
+      <c r="E589" s="175"/>
+      <c r="F589" s="175"/>
+      <c r="G589" s="175"/>
+      <c r="H589" s="175"/>
+      <c r="I589" s="175"/>
+      <c r="J589" s="175"/>
+      <c r="K589" s="175"/>
       <c r="L589" s="26"/>
     </row>
     <row r="590" spans="1:21" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -27588,19 +27573,19 @@
       <c r="D614" s="95"/>
     </row>
     <row r="615" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A615" s="177" t="s">
+      <c r="A615" s="173" t="s">
         <v>1050</v>
       </c>
-      <c r="B615" s="177"/>
-      <c r="C615" s="177"/>
-      <c r="D615" s="177"/>
-      <c r="E615" s="177"/>
-      <c r="F615" s="177"/>
-      <c r="G615" s="177"/>
-      <c r="H615" s="177"/>
-      <c r="I615" s="177"/>
-      <c r="J615" s="177"/>
-      <c r="K615" s="178"/>
+      <c r="B615" s="173"/>
+      <c r="C615" s="173"/>
+      <c r="D615" s="173"/>
+      <c r="E615" s="173"/>
+      <c r="F615" s="173"/>
+      <c r="G615" s="173"/>
+      <c r="H615" s="173"/>
+      <c r="I615" s="173"/>
+      <c r="J615" s="173"/>
+      <c r="K615" s="174"/>
       <c r="L615" s="26" t="s">
         <v>10</v>
       </c>
@@ -27720,6 +27705,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A517:K517"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A362:K362"/>
+    <mergeCell ref="A457:K457"/>
+    <mergeCell ref="A458:K458"/>
+    <mergeCell ref="A446:K446"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A353:K353"/>
+    <mergeCell ref="A507:K507"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A315:K315"/>
+    <mergeCell ref="A327:K327"/>
+    <mergeCell ref="A339:K339"/>
+    <mergeCell ref="A363:K363"/>
+    <mergeCell ref="A307:K307"/>
+    <mergeCell ref="A455:K455"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A459:K459"/>
+    <mergeCell ref="A467:K467"/>
+    <mergeCell ref="A474:K474"/>
+    <mergeCell ref="A483:K483"/>
     <mergeCell ref="A615:K615"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A303:K303"/>
@@ -27736,29 +27744,6 @@
     <mergeCell ref="A214:K214"/>
     <mergeCell ref="A579:K579"/>
     <mergeCell ref="A494:K494"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A353:K353"/>
-    <mergeCell ref="A507:K507"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A315:K315"/>
-    <mergeCell ref="A327:K327"/>
-    <mergeCell ref="A339:K339"/>
-    <mergeCell ref="A363:K363"/>
-    <mergeCell ref="A307:K307"/>
-    <mergeCell ref="A455:K455"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A459:K459"/>
-    <mergeCell ref="A467:K467"/>
-    <mergeCell ref="A474:K474"/>
-    <mergeCell ref="A483:K483"/>
-    <mergeCell ref="A517:K517"/>
-    <mergeCell ref="A282:K282"/>
-    <mergeCell ref="A362:K362"/>
-    <mergeCell ref="A457:K457"/>
-    <mergeCell ref="A458:K458"/>
-    <mergeCell ref="A446:K446"/>
-    <mergeCell ref="A316:K316"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27767,10 +27752,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7AEA6B-72EF-4B2B-9348-0FA31EA2F6A9}">
+  <dimension ref="A4:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="175" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B4" s="176"/>
+      <c r="C4" s="175" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D4" s="176"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="175" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B5" s="176"/>
+      <c r="C5" s="175" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D5" s="176"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDBEFBF-0D0C-4A2D-BEAA-5045B280844B}">
   <dimension ref="A1:M519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A267" sqref="A267:K302"/>
     </sheetView>
   </sheetViews>
@@ -27797,37 +27848,37 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>1642</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
       <c r="K2" s="159"/>
       <c r="L2" s="160" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="160" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="173" t="s">
         <v>1643</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
       <c r="L3" s="160" t="s">
         <v>1045</v>
       </c>
@@ -27919,35 +27970,35 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:13" s="158" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="175" t="s">
         <v>1644</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
       <c r="L12" s="160"/>
     </row>
     <row r="13" spans="1:13" s="158" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="175" t="s">
         <v>1648</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
       <c r="L13" s="160"/>
     </row>
     <row r="14" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -31197,19 +31248,19 @@
       <c r="L175" s="160"/>
     </row>
     <row r="176" spans="1:13" s="158" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="172" t="s">
+      <c r="A176" s="175" t="s">
         <v>1674</v>
       </c>
-      <c r="B176" s="172"/>
-      <c r="C176" s="172"/>
-      <c r="D176" s="172"/>
-      <c r="E176" s="172"/>
-      <c r="F176" s="172"/>
-      <c r="G176" s="172"/>
-      <c r="H176" s="172"/>
-      <c r="I176" s="172"/>
-      <c r="J176" s="172"/>
-      <c r="K176" s="172"/>
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
+      <c r="E176" s="175"/>
+      <c r="F176" s="175"/>
+      <c r="G176" s="175"/>
+      <c r="H176" s="175"/>
+      <c r="I176" s="175"/>
+      <c r="J176" s="175"/>
+      <c r="K176" s="175"/>
       <c r="L176" s="160"/>
       <c r="M176"/>
     </row>
@@ -31502,19 +31553,19 @@
       <c r="L187" s="160"/>
     </row>
     <row r="188" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="172" t="s">
+      <c r="A188" s="175" t="s">
         <v>1678</v>
       </c>
-      <c r="B188" s="172"/>
-      <c r="C188" s="172"/>
-      <c r="D188" s="172"/>
-      <c r="E188" s="172"/>
-      <c r="F188" s="172"/>
-      <c r="G188" s="172"/>
-      <c r="H188" s="172"/>
-      <c r="I188" s="172"/>
-      <c r="J188" s="172"/>
-      <c r="K188" s="172"/>
+      <c r="B188" s="175"/>
+      <c r="C188" s="175"/>
+      <c r="D188" s="175"/>
+      <c r="E188" s="175"/>
+      <c r="F188" s="175"/>
+      <c r="G188" s="175"/>
+      <c r="H188" s="175"/>
+      <c r="I188" s="175"/>
+      <c r="J188" s="175"/>
+      <c r="K188" s="175"/>
       <c r="L188" s="160"/>
     </row>
     <row r="189" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -32245,19 +32296,19 @@
       <c r="M217" s="158"/>
     </row>
     <row r="218" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="172" t="s">
+      <c r="A218" s="175" t="s">
         <v>1685</v>
       </c>
-      <c r="B218" s="172"/>
-      <c r="C218" s="172"/>
-      <c r="D218" s="172"/>
-      <c r="E218" s="172"/>
-      <c r="F218" s="172"/>
-      <c r="G218" s="172"/>
-      <c r="H218" s="172"/>
-      <c r="I218" s="172"/>
-      <c r="J218" s="172"/>
-      <c r="K218" s="172"/>
+      <c r="B218" s="175"/>
+      <c r="C218" s="175"/>
+      <c r="D218" s="175"/>
+      <c r="E218" s="175"/>
+      <c r="F218" s="175"/>
+      <c r="G218" s="175"/>
+      <c r="H218" s="175"/>
+      <c r="I218" s="175"/>
+      <c r="J218" s="175"/>
+      <c r="K218" s="175"/>
       <c r="L218" s="160"/>
     </row>
     <row r="219" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -32983,19 +33034,19 @@
       <c r="M247" s="158"/>
     </row>
     <row r="248" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="173" t="s">
+      <c r="A248" s="179" t="s">
         <v>1692</v>
       </c>
-      <c r="B248" s="173"/>
-      <c r="C248" s="173"/>
-      <c r="D248" s="173"/>
-      <c r="E248" s="173"/>
-      <c r="F248" s="173"/>
-      <c r="G248" s="173"/>
-      <c r="H248" s="173"/>
-      <c r="I248" s="173"/>
-      <c r="J248" s="173"/>
-      <c r="K248" s="173"/>
+      <c r="B248" s="179"/>
+      <c r="C248" s="179"/>
+      <c r="D248" s="179"/>
+      <c r="E248" s="179"/>
+      <c r="F248" s="179"/>
+      <c r="G248" s="179"/>
+      <c r="H248" s="179"/>
+      <c r="I248" s="179"/>
+      <c r="J248" s="179"/>
+      <c r="K248" s="179"/>
       <c r="L248" s="160"/>
     </row>
     <row r="249" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -33438,19 +33489,19 @@
       <c r="L266" s="160"/>
     </row>
     <row r="267" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="180" t="s">
+      <c r="A267" s="178" t="s">
         <v>1697</v>
       </c>
-      <c r="B267" s="180"/>
-      <c r="C267" s="180"/>
-      <c r="D267" s="180"/>
-      <c r="E267" s="180"/>
-      <c r="F267" s="180"/>
-      <c r="G267" s="180"/>
-      <c r="H267" s="180"/>
-      <c r="I267" s="180"/>
-      <c r="J267" s="180"/>
-      <c r="K267" s="180"/>
+      <c r="B267" s="178"/>
+      <c r="C267" s="178"/>
+      <c r="D267" s="178"/>
+      <c r="E267" s="178"/>
+      <c r="F267" s="178"/>
+      <c r="G267" s="178"/>
+      <c r="H267" s="178"/>
+      <c r="I267" s="178"/>
+      <c r="J267" s="178"/>
+      <c r="K267" s="178"/>
       <c r="L267" s="160"/>
     </row>
     <row r="268" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -33494,19 +33545,19 @@
       <c r="L270" s="160"/>
     </row>
     <row r="271" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A271" s="180" t="s">
+      <c r="A271" s="178" t="s">
         <v>1698</v>
       </c>
-      <c r="B271" s="180"/>
-      <c r="C271" s="180"/>
-      <c r="D271" s="180"/>
-      <c r="E271" s="180"/>
-      <c r="F271" s="180"/>
-      <c r="G271" s="180"/>
-      <c r="H271" s="180"/>
-      <c r="I271" s="180"/>
-      <c r="J271" s="180"/>
-      <c r="K271" s="180"/>
+      <c r="B271" s="178"/>
+      <c r="C271" s="178"/>
+      <c r="D271" s="178"/>
+      <c r="E271" s="178"/>
+      <c r="F271" s="178"/>
+      <c r="G271" s="178"/>
+      <c r="H271" s="178"/>
+      <c r="I271" s="178"/>
+      <c r="J271" s="178"/>
+      <c r="K271" s="178"/>
       <c r="L271" s="160"/>
     </row>
     <row r="272" spans="1:13" s="160" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -33740,19 +33791,19 @@
       <c r="M278" s="158"/>
     </row>
     <row r="279" spans="1:13" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A279" s="179" t="s">
+      <c r="A279" s="180" t="s">
         <v>1705</v>
       </c>
-      <c r="B279" s="180"/>
-      <c r="C279" s="180"/>
-      <c r="D279" s="180"/>
-      <c r="E279" s="180"/>
-      <c r="F279" s="180"/>
-      <c r="G279" s="180"/>
-      <c r="H279" s="180"/>
-      <c r="I279" s="180"/>
-      <c r="J279" s="180"/>
-      <c r="K279" s="180"/>
+      <c r="B279" s="178"/>
+      <c r="C279" s="178"/>
+      <c r="D279" s="178"/>
+      <c r="E279" s="178"/>
+      <c r="F279" s="178"/>
+      <c r="G279" s="178"/>
+      <c r="H279" s="178"/>
+      <c r="I279" s="178"/>
+      <c r="J279" s="178"/>
+      <c r="K279" s="178"/>
       <c r="L279" s="160"/>
     </row>
     <row r="280" spans="1:13" s="160" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -33986,19 +34037,19 @@
       <c r="M286" s="158"/>
     </row>
     <row r="287" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A287" s="180" t="s">
+      <c r="A287" s="178" t="s">
         <v>1712</v>
       </c>
-      <c r="B287" s="180"/>
-      <c r="C287" s="180"/>
-      <c r="D287" s="180"/>
-      <c r="E287" s="180"/>
-      <c r="F287" s="180"/>
-      <c r="G287" s="180"/>
-      <c r="H287" s="180"/>
-      <c r="I287" s="180"/>
-      <c r="J287" s="180"/>
-      <c r="K287" s="180"/>
+      <c r="B287" s="178"/>
+      <c r="C287" s="178"/>
+      <c r="D287" s="178"/>
+      <c r="E287" s="178"/>
+      <c r="F287" s="178"/>
+      <c r="G287" s="178"/>
+      <c r="H287" s="178"/>
+      <c r="I287" s="178"/>
+      <c r="J287" s="178"/>
+      <c r="K287" s="178"/>
       <c r="L287" s="160"/>
     </row>
     <row r="288" spans="1:13" s="160" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -34232,19 +34283,19 @@
       <c r="M294" s="158"/>
     </row>
     <row r="295" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A295" s="180" t="s">
+      <c r="A295" s="178" t="s">
         <v>1719</v>
       </c>
-      <c r="B295" s="180"/>
-      <c r="C295" s="180"/>
-      <c r="D295" s="180"/>
-      <c r="E295" s="180"/>
-      <c r="F295" s="180"/>
-      <c r="G295" s="180"/>
-      <c r="H295" s="180"/>
-      <c r="I295" s="180"/>
-      <c r="J295" s="180"/>
-      <c r="K295" s="180"/>
+      <c r="B295" s="178"/>
+      <c r="C295" s="178"/>
+      <c r="D295" s="178"/>
+      <c r="E295" s="178"/>
+      <c r="F295" s="178"/>
+      <c r="G295" s="178"/>
+      <c r="H295" s="178"/>
+      <c r="I295" s="178"/>
+      <c r="J295" s="178"/>
+      <c r="K295" s="178"/>
       <c r="L295" s="160"/>
     </row>
     <row r="296" spans="1:13" s="160" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -34506,19 +34557,19 @@
       <c r="M304" s="158"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="177" t="s">
+      <c r="A305" s="173" t="s">
         <v>1720</v>
       </c>
-      <c r="B305" s="177"/>
-      <c r="C305" s="177"/>
-      <c r="D305" s="177"/>
-      <c r="E305" s="177"/>
-      <c r="F305" s="177"/>
-      <c r="G305" s="177"/>
-      <c r="H305" s="177"/>
-      <c r="I305" s="177"/>
-      <c r="J305" s="177"/>
-      <c r="K305" s="178"/>
+      <c r="B305" s="173"/>
+      <c r="C305" s="173"/>
+      <c r="D305" s="173"/>
+      <c r="E305" s="173"/>
+      <c r="F305" s="173"/>
+      <c r="G305" s="173"/>
+      <c r="H305" s="173"/>
+      <c r="I305" s="173"/>
+      <c r="J305" s="173"/>
+      <c r="K305" s="174"/>
       <c r="L305" s="160" t="s">
         <v>1046</v>
       </c>
@@ -34598,35 +34649,35 @@
       <c r="K313" s="7"/>
     </row>
     <row r="314" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="172" t="s">
+      <c r="A314" s="175" t="s">
         <v>1721</v>
       </c>
-      <c r="B314" s="172"/>
-      <c r="C314" s="172"/>
-      <c r="D314" s="172"/>
-      <c r="E314" s="172"/>
-      <c r="F314" s="172"/>
-      <c r="G314" s="172"/>
-      <c r="H314" s="172"/>
-      <c r="I314" s="172"/>
-      <c r="J314" s="172"/>
-      <c r="K314" s="172"/>
+      <c r="B314" s="175"/>
+      <c r="C314" s="175"/>
+      <c r="D314" s="175"/>
+      <c r="E314" s="175"/>
+      <c r="F314" s="175"/>
+      <c r="G314" s="175"/>
+      <c r="H314" s="175"/>
+      <c r="I314" s="175"/>
+      <c r="J314" s="175"/>
+      <c r="K314" s="175"/>
       <c r="L314" s="160"/>
     </row>
     <row r="315" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A315" s="172" t="s">
+      <c r="A315" s="175" t="s">
         <v>1722</v>
       </c>
-      <c r="B315" s="172"/>
-      <c r="C315" s="172"/>
-      <c r="D315" s="172"/>
-      <c r="E315" s="172"/>
-      <c r="F315" s="172"/>
-      <c r="G315" s="172"/>
-      <c r="H315" s="172"/>
-      <c r="I315" s="172"/>
-      <c r="J315" s="172"/>
-      <c r="K315" s="172"/>
+      <c r="B315" s="175"/>
+      <c r="C315" s="175"/>
+      <c r="D315" s="175"/>
+      <c r="E315" s="175"/>
+      <c r="F315" s="175"/>
+      <c r="G315" s="175"/>
+      <c r="H315" s="175"/>
+      <c r="I315" s="175"/>
+      <c r="J315" s="175"/>
+      <c r="K315" s="175"/>
       <c r="L315" s="160"/>
     </row>
     <row r="316" spans="1:13" s="158" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -36117,19 +36168,19 @@
       <c r="L386" s="160"/>
     </row>
     <row r="387" spans="1:13" s="158" customFormat="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="172" t="s">
+      <c r="A387" s="175" t="s">
         <v>1724</v>
       </c>
-      <c r="B387" s="172"/>
-      <c r="C387" s="172"/>
-      <c r="D387" s="172"/>
-      <c r="E387" s="172"/>
-      <c r="F387" s="172"/>
-      <c r="G387" s="172"/>
-      <c r="H387" s="172"/>
-      <c r="I387" s="172"/>
-      <c r="J387" s="172"/>
-      <c r="K387" s="172"/>
+      <c r="B387" s="175"/>
+      <c r="C387" s="175"/>
+      <c r="D387" s="175"/>
+      <c r="E387" s="175"/>
+      <c r="F387" s="175"/>
+      <c r="G387" s="175"/>
+      <c r="H387" s="175"/>
+      <c r="I387" s="175"/>
+      <c r="J387" s="175"/>
+      <c r="K387" s="175"/>
       <c r="L387" s="160"/>
       <c r="M387"/>
     </row>
@@ -36309,19 +36360,19 @@
       <c r="M394" s="158"/>
     </row>
     <row r="395" spans="1:13" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="172" t="s">
+      <c r="A395" s="175" t="s">
         <v>1726</v>
       </c>
-      <c r="B395" s="172"/>
-      <c r="C395" s="172"/>
-      <c r="D395" s="172"/>
-      <c r="E395" s="172"/>
-      <c r="F395" s="172"/>
-      <c r="G395" s="172"/>
-      <c r="H395" s="172"/>
-      <c r="I395" s="172"/>
-      <c r="J395" s="172"/>
-      <c r="K395" s="172"/>
+      <c r="B395" s="175"/>
+      <c r="C395" s="175"/>
+      <c r="D395" s="175"/>
+      <c r="E395" s="175"/>
+      <c r="F395" s="175"/>
+      <c r="G395" s="175"/>
+      <c r="H395" s="175"/>
+      <c r="I395" s="175"/>
+      <c r="J395" s="175"/>
+      <c r="K395" s="175"/>
       <c r="L395" s="160"/>
     </row>
     <row r="396" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -36339,51 +36390,51 @@
       <c r="L396" s="160"/>
     </row>
     <row r="397" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="174" t="s">
+      <c r="A397" s="181" t="s">
         <v>1740</v>
       </c>
-      <c r="B397" s="174"/>
-      <c r="C397" s="174"/>
-      <c r="D397" s="174"/>
-      <c r="E397" s="174"/>
-      <c r="F397" s="174"/>
-      <c r="G397" s="174"/>
-      <c r="H397" s="174"/>
-      <c r="I397" s="174"/>
-      <c r="J397" s="174"/>
-      <c r="K397" s="174"/>
+      <c r="B397" s="181"/>
+      <c r="C397" s="181"/>
+      <c r="D397" s="181"/>
+      <c r="E397" s="181"/>
+      <c r="F397" s="181"/>
+      <c r="G397" s="181"/>
+      <c r="H397" s="181"/>
+      <c r="I397" s="181"/>
+      <c r="J397" s="181"/>
+      <c r="K397" s="181"/>
       <c r="L397" s="160"/>
     </row>
     <row r="398" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="173" t="s">
+      <c r="A398" s="179" t="s">
         <v>1741</v>
       </c>
-      <c r="B398" s="173"/>
-      <c r="C398" s="173"/>
-      <c r="D398" s="173"/>
-      <c r="E398" s="173"/>
-      <c r="F398" s="173"/>
-      <c r="G398" s="173"/>
-      <c r="H398" s="173"/>
-      <c r="I398" s="173"/>
-      <c r="J398" s="173"/>
-      <c r="K398" s="173"/>
+      <c r="B398" s="179"/>
+      <c r="C398" s="179"/>
+      <c r="D398" s="179"/>
+      <c r="E398" s="179"/>
+      <c r="F398" s="179"/>
+      <c r="G398" s="179"/>
+      <c r="H398" s="179"/>
+      <c r="I398" s="179"/>
+      <c r="J398" s="179"/>
+      <c r="K398" s="179"/>
       <c r="L398" s="160"/>
     </row>
     <row r="399" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="180" t="s">
+      <c r="A399" s="178" t="s">
         <v>1742</v>
       </c>
-      <c r="B399" s="180"/>
-      <c r="C399" s="180"/>
-      <c r="D399" s="180"/>
-      <c r="E399" s="180"/>
-      <c r="F399" s="180"/>
-      <c r="G399" s="180"/>
-      <c r="H399" s="180"/>
-      <c r="I399" s="180"/>
-      <c r="J399" s="180"/>
-      <c r="K399" s="180"/>
+      <c r="B399" s="178"/>
+      <c r="C399" s="178"/>
+      <c r="D399" s="178"/>
+      <c r="E399" s="178"/>
+      <c r="F399" s="178"/>
+      <c r="G399" s="178"/>
+      <c r="H399" s="178"/>
+      <c r="I399" s="178"/>
+      <c r="J399" s="178"/>
+      <c r="K399" s="178"/>
       <c r="L399" s="160"/>
     </row>
     <row r="400" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -36443,19 +36494,19 @@
       <c r="L406" s="160"/>
     </row>
     <row r="407" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A407" s="180" t="s">
+      <c r="A407" s="178" t="s">
         <v>1743</v>
       </c>
-      <c r="B407" s="180"/>
-      <c r="C407" s="180"/>
-      <c r="D407" s="180"/>
-      <c r="E407" s="180"/>
-      <c r="F407" s="180"/>
-      <c r="G407" s="180"/>
-      <c r="H407" s="180"/>
-      <c r="I407" s="180"/>
-      <c r="J407" s="180"/>
-      <c r="K407" s="180"/>
+      <c r="B407" s="178"/>
+      <c r="C407" s="178"/>
+      <c r="D407" s="178"/>
+      <c r="E407" s="178"/>
+      <c r="F407" s="178"/>
+      <c r="G407" s="178"/>
+      <c r="H407" s="178"/>
+      <c r="I407" s="178"/>
+      <c r="J407" s="178"/>
+      <c r="K407" s="178"/>
       <c r="L407" s="160"/>
     </row>
     <row r="408" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -36627,19 +36678,19 @@
       <c r="M412" s="158"/>
     </row>
     <row r="413" spans="1:13" ht="20.25" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="179" t="s">
+      <c r="A413" s="180" t="s">
         <v>1745</v>
       </c>
-      <c r="B413" s="180"/>
-      <c r="C413" s="180"/>
-      <c r="D413" s="180"/>
-      <c r="E413" s="180"/>
-      <c r="F413" s="180"/>
-      <c r="G413" s="180"/>
-      <c r="H413" s="180"/>
-      <c r="I413" s="180"/>
-      <c r="J413" s="180"/>
-      <c r="K413" s="180"/>
+      <c r="B413" s="178"/>
+      <c r="C413" s="178"/>
+      <c r="D413" s="178"/>
+      <c r="E413" s="178"/>
+      <c r="F413" s="178"/>
+      <c r="G413" s="178"/>
+      <c r="H413" s="178"/>
+      <c r="I413" s="178"/>
+      <c r="J413" s="178"/>
+      <c r="K413" s="178"/>
       <c r="L413" s="160"/>
     </row>
     <row r="414" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -36811,19 +36862,19 @@
       <c r="M418" s="158"/>
     </row>
     <row r="419" spans="1:13" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="180" t="s">
+      <c r="A419" s="178" t="s">
         <v>1744</v>
       </c>
-      <c r="B419" s="180"/>
-      <c r="C419" s="180"/>
-      <c r="D419" s="180"/>
-      <c r="E419" s="180"/>
-      <c r="F419" s="180"/>
-      <c r="G419" s="180"/>
-      <c r="H419" s="180"/>
-      <c r="I419" s="180"/>
-      <c r="J419" s="180"/>
-      <c r="K419" s="180"/>
+      <c r="B419" s="178"/>
+      <c r="C419" s="178"/>
+      <c r="D419" s="178"/>
+      <c r="E419" s="178"/>
+      <c r="F419" s="178"/>
+      <c r="G419" s="178"/>
+      <c r="H419" s="178"/>
+      <c r="I419" s="178"/>
+      <c r="J419" s="178"/>
+      <c r="K419" s="178"/>
       <c r="L419" s="160"/>
     </row>
     <row r="420" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -36995,19 +37046,19 @@
       <c r="M424" s="158"/>
     </row>
     <row r="425" spans="1:13" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="180" t="s">
+      <c r="A425" s="178" t="s">
         <v>1746</v>
       </c>
-      <c r="B425" s="180"/>
-      <c r="C425" s="180"/>
-      <c r="D425" s="180"/>
-      <c r="E425" s="180"/>
-      <c r="F425" s="180"/>
-      <c r="G425" s="180"/>
-      <c r="H425" s="180"/>
-      <c r="I425" s="180"/>
-      <c r="J425" s="180"/>
-      <c r="K425" s="180"/>
+      <c r="B425" s="178"/>
+      <c r="C425" s="178"/>
+      <c r="D425" s="178"/>
+      <c r="E425" s="178"/>
+      <c r="F425" s="178"/>
+      <c r="G425" s="178"/>
+      <c r="H425" s="178"/>
+      <c r="I425" s="178"/>
+      <c r="J425" s="178"/>
+      <c r="K425" s="178"/>
       <c r="L425" s="160"/>
     </row>
     <row r="426" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -37207,19 +37258,19 @@
       <c r="M432" s="158"/>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" s="177" t="s">
+      <c r="A433" s="173" t="s">
         <v>1768</v>
       </c>
-      <c r="B433" s="177"/>
-      <c r="C433" s="177"/>
-      <c r="D433" s="177"/>
-      <c r="E433" s="177"/>
-      <c r="F433" s="177"/>
-      <c r="G433" s="177"/>
-      <c r="H433" s="177"/>
-      <c r="I433" s="177"/>
-      <c r="J433" s="177"/>
-      <c r="K433" s="178"/>
+      <c r="B433" s="173"/>
+      <c r="C433" s="173"/>
+      <c r="D433" s="173"/>
+      <c r="E433" s="173"/>
+      <c r="F433" s="173"/>
+      <c r="G433" s="173"/>
+      <c r="H433" s="173"/>
+      <c r="I433" s="173"/>
+      <c r="J433" s="173"/>
+      <c r="K433" s="174"/>
       <c r="L433" s="160" t="s">
         <v>1047</v>
       </c>
@@ -37335,35 +37386,35 @@
       <c r="K442" s="7"/>
     </row>
     <row r="443" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="172" t="s">
+      <c r="A443" s="175" t="s">
         <v>1770</v>
       </c>
-      <c r="B443" s="172"/>
-      <c r="C443" s="172"/>
-      <c r="D443" s="172"/>
-      <c r="E443" s="172"/>
-      <c r="F443" s="172"/>
-      <c r="G443" s="172"/>
-      <c r="H443" s="172"/>
-      <c r="I443" s="172"/>
-      <c r="J443" s="172"/>
-      <c r="K443" s="172"/>
+      <c r="B443" s="175"/>
+      <c r="C443" s="175"/>
+      <c r="D443" s="175"/>
+      <c r="E443" s="175"/>
+      <c r="F443" s="175"/>
+      <c r="G443" s="175"/>
+      <c r="H443" s="175"/>
+      <c r="I443" s="175"/>
+      <c r="J443" s="175"/>
+      <c r="K443" s="175"/>
       <c r="L443" s="160"/>
     </row>
     <row r="444" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A444" s="172" t="s">
+      <c r="A444" s="175" t="s">
         <v>1771</v>
       </c>
-      <c r="B444" s="172"/>
-      <c r="C444" s="172"/>
-      <c r="D444" s="172"/>
-      <c r="E444" s="172"/>
-      <c r="F444" s="172"/>
-      <c r="G444" s="172"/>
-      <c r="H444" s="172"/>
-      <c r="I444" s="172"/>
-      <c r="J444" s="172"/>
-      <c r="K444" s="172"/>
+      <c r="B444" s="175"/>
+      <c r="C444" s="175"/>
+      <c r="D444" s="175"/>
+      <c r="E444" s="175"/>
+      <c r="F444" s="175"/>
+      <c r="G444" s="175"/>
+      <c r="H444" s="175"/>
+      <c r="I444" s="175"/>
+      <c r="J444" s="175"/>
+      <c r="K444" s="175"/>
       <c r="L444" s="160"/>
     </row>
     <row r="445" spans="1:13" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -37640,83 +37691,83 @@
       <c r="L454" s="160"/>
     </row>
     <row r="455" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="174" t="s">
+      <c r="A455" s="181" t="s">
         <v>1775</v>
       </c>
-      <c r="B455" s="174"/>
-      <c r="C455" s="174"/>
-      <c r="D455" s="174"/>
-      <c r="E455" s="174"/>
-      <c r="F455" s="174"/>
-      <c r="G455" s="174"/>
-      <c r="H455" s="174"/>
-      <c r="I455" s="174"/>
-      <c r="J455" s="174"/>
-      <c r="K455" s="174"/>
+      <c r="B455" s="181"/>
+      <c r="C455" s="181"/>
+      <c r="D455" s="181"/>
+      <c r="E455" s="181"/>
+      <c r="F455" s="181"/>
+      <c r="G455" s="181"/>
+      <c r="H455" s="181"/>
+      <c r="I455" s="181"/>
+      <c r="J455" s="181"/>
+      <c r="K455" s="181"/>
       <c r="L455" s="160"/>
     </row>
     <row r="456" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="174" t="s">
+      <c r="A456" s="181" t="s">
         <v>1779</v>
       </c>
-      <c r="B456" s="174"/>
-      <c r="C456" s="174"/>
-      <c r="D456" s="174"/>
-      <c r="E456" s="174"/>
-      <c r="F456" s="174"/>
-      <c r="G456" s="174"/>
-      <c r="H456" s="174"/>
-      <c r="I456" s="174"/>
-      <c r="J456" s="174"/>
-      <c r="K456" s="174"/>
+      <c r="B456" s="181"/>
+      <c r="C456" s="181"/>
+      <c r="D456" s="181"/>
+      <c r="E456" s="181"/>
+      <c r="F456" s="181"/>
+      <c r="G456" s="181"/>
+      <c r="H456" s="181"/>
+      <c r="I456" s="181"/>
+      <c r="J456" s="181"/>
+      <c r="K456" s="181"/>
       <c r="L456" s="160"/>
     </row>
     <row r="457" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="174" t="s">
+      <c r="A457" s="181" t="s">
         <v>1778</v>
       </c>
-      <c r="B457" s="174"/>
-      <c r="C457" s="174"/>
-      <c r="D457" s="174"/>
-      <c r="E457" s="174"/>
-      <c r="F457" s="174"/>
-      <c r="G457" s="174"/>
-      <c r="H457" s="174"/>
-      <c r="I457" s="174"/>
-      <c r="J457" s="174"/>
-      <c r="K457" s="174"/>
+      <c r="B457" s="181"/>
+      <c r="C457" s="181"/>
+      <c r="D457" s="181"/>
+      <c r="E457" s="181"/>
+      <c r="F457" s="181"/>
+      <c r="G457" s="181"/>
+      <c r="H457" s="181"/>
+      <c r="I457" s="181"/>
+      <c r="J457" s="181"/>
+      <c r="K457" s="181"/>
       <c r="L457" s="160"/>
     </row>
     <row r="458" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="173" t="s">
+      <c r="A458" s="179" t="s">
         <v>1777</v>
       </c>
-      <c r="B458" s="173"/>
-      <c r="C458" s="173"/>
-      <c r="D458" s="173"/>
-      <c r="E458" s="173"/>
-      <c r="F458" s="173"/>
-      <c r="G458" s="173"/>
-      <c r="H458" s="173"/>
-      <c r="I458" s="173"/>
-      <c r="J458" s="173"/>
-      <c r="K458" s="173"/>
+      <c r="B458" s="179"/>
+      <c r="C458" s="179"/>
+      <c r="D458" s="179"/>
+      <c r="E458" s="179"/>
+      <c r="F458" s="179"/>
+      <c r="G458" s="179"/>
+      <c r="H458" s="179"/>
+      <c r="I458" s="179"/>
+      <c r="J458" s="179"/>
+      <c r="K458" s="179"/>
       <c r="L458" s="160"/>
     </row>
     <row r="459" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="180" t="s">
+      <c r="A459" s="178" t="s">
         <v>1776</v>
       </c>
-      <c r="B459" s="180"/>
-      <c r="C459" s="180"/>
-      <c r="D459" s="180"/>
-      <c r="E459" s="180"/>
-      <c r="F459" s="180"/>
-      <c r="G459" s="180"/>
-      <c r="H459" s="180"/>
-      <c r="I459" s="180"/>
-      <c r="J459" s="180"/>
-      <c r="K459" s="180"/>
+      <c r="B459" s="178"/>
+      <c r="C459" s="178"/>
+      <c r="D459" s="178"/>
+      <c r="E459" s="178"/>
+      <c r="F459" s="178"/>
+      <c r="G459" s="178"/>
+      <c r="H459" s="178"/>
+      <c r="I459" s="178"/>
+      <c r="J459" s="178"/>
+      <c r="K459" s="178"/>
       <c r="L459" s="160"/>
     </row>
     <row r="460" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -37776,19 +37827,19 @@
       <c r="L466" s="160"/>
     </row>
     <row r="467" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A467" s="180" t="s">
+      <c r="A467" s="178" t="s">
         <v>1780</v>
       </c>
-      <c r="B467" s="180"/>
-      <c r="C467" s="180"/>
-      <c r="D467" s="180"/>
-      <c r="E467" s="180"/>
-      <c r="F467" s="180"/>
-      <c r="G467" s="180"/>
-      <c r="H467" s="180"/>
-      <c r="I467" s="180"/>
-      <c r="J467" s="180"/>
-      <c r="K467" s="180"/>
+      <c r="B467" s="178"/>
+      <c r="C467" s="178"/>
+      <c r="D467" s="178"/>
+      <c r="E467" s="178"/>
+      <c r="F467" s="178"/>
+      <c r="G467" s="178"/>
+      <c r="H467" s="178"/>
+      <c r="I467" s="178"/>
+      <c r="J467" s="178"/>
+      <c r="K467" s="178"/>
       <c r="L467" s="160"/>
     </row>
     <row r="468" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -37892,19 +37943,19 @@
       <c r="M470" s="158"/>
     </row>
     <row r="471" spans="1:13" ht="19.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="179" t="s">
+      <c r="A471" s="180" t="s">
         <v>1781</v>
       </c>
-      <c r="B471" s="180"/>
-      <c r="C471" s="180"/>
-      <c r="D471" s="180"/>
-      <c r="E471" s="180"/>
-      <c r="F471" s="180"/>
-      <c r="G471" s="180"/>
-      <c r="H471" s="180"/>
-      <c r="I471" s="180"/>
-      <c r="J471" s="180"/>
-      <c r="K471" s="180"/>
+      <c r="B471" s="178"/>
+      <c r="C471" s="178"/>
+      <c r="D471" s="178"/>
+      <c r="E471" s="178"/>
+      <c r="F471" s="178"/>
+      <c r="G471" s="178"/>
+      <c r="H471" s="178"/>
+      <c r="I471" s="178"/>
+      <c r="J471" s="178"/>
+      <c r="K471" s="178"/>
       <c r="L471" s="160"/>
     </row>
     <row r="472" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -38008,19 +38059,19 @@
       <c r="M474" s="158"/>
     </row>
     <row r="475" spans="1:13" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="180" t="s">
+      <c r="A475" s="178" t="s">
         <v>1782</v>
       </c>
-      <c r="B475" s="180"/>
-      <c r="C475" s="180"/>
-      <c r="D475" s="180"/>
-      <c r="E475" s="180"/>
-      <c r="F475" s="180"/>
-      <c r="G475" s="180"/>
-      <c r="H475" s="180"/>
-      <c r="I475" s="180"/>
-      <c r="J475" s="180"/>
-      <c r="K475" s="180"/>
+      <c r="B475" s="178"/>
+      <c r="C475" s="178"/>
+      <c r="D475" s="178"/>
+      <c r="E475" s="178"/>
+      <c r="F475" s="178"/>
+      <c r="G475" s="178"/>
+      <c r="H475" s="178"/>
+      <c r="I475" s="178"/>
+      <c r="J475" s="178"/>
+      <c r="K475" s="178"/>
       <c r="L475" s="160"/>
     </row>
     <row r="476" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -38124,19 +38175,19 @@
       <c r="M478" s="158"/>
     </row>
     <row r="479" spans="1:13" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="180" t="s">
+      <c r="A479" s="178" t="s">
         <v>1783</v>
       </c>
-      <c r="B479" s="180"/>
-      <c r="C479" s="180"/>
-      <c r="D479" s="180"/>
-      <c r="E479" s="180"/>
-      <c r="F479" s="180"/>
-      <c r="G479" s="180"/>
-      <c r="H479" s="180"/>
-      <c r="I479" s="180"/>
-      <c r="J479" s="180"/>
-      <c r="K479" s="180"/>
+      <c r="B479" s="178"/>
+      <c r="C479" s="178"/>
+      <c r="D479" s="178"/>
+      <c r="E479" s="178"/>
+      <c r="F479" s="178"/>
+      <c r="G479" s="178"/>
+      <c r="H479" s="178"/>
+      <c r="I479" s="178"/>
+      <c r="J479" s="178"/>
+      <c r="K479" s="178"/>
       <c r="L479" s="160"/>
     </row>
     <row r="480" spans="1:13" s="160" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -38268,19 +38319,19 @@
       <c r="M484" s="158"/>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A485" s="177" t="s">
+      <c r="A485" s="173" t="s">
         <v>1769</v>
       </c>
-      <c r="B485" s="177"/>
-      <c r="C485" s="177"/>
-      <c r="D485" s="177"/>
-      <c r="E485" s="177"/>
-      <c r="F485" s="177"/>
-      <c r="G485" s="177"/>
-      <c r="H485" s="177"/>
-      <c r="I485" s="177"/>
-      <c r="J485" s="177"/>
-      <c r="K485" s="178"/>
+      <c r="B485" s="173"/>
+      <c r="C485" s="173"/>
+      <c r="D485" s="173"/>
+      <c r="E485" s="173"/>
+      <c r="F485" s="173"/>
+      <c r="G485" s="173"/>
+      <c r="H485" s="173"/>
+      <c r="I485" s="173"/>
+      <c r="J485" s="173"/>
+      <c r="K485" s="174"/>
       <c r="L485" s="160" t="s">
         <v>1048</v>
       </c>
@@ -38397,19 +38448,19 @@
       <c r="L494" s="160"/>
     </row>
     <row r="495" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="172" t="s">
+      <c r="A495" s="175" t="s">
         <v>1792</v>
       </c>
-      <c r="B495" s="172"/>
-      <c r="C495" s="172"/>
-      <c r="D495" s="172"/>
-      <c r="E495" s="172"/>
-      <c r="F495" s="172"/>
-      <c r="G495" s="172"/>
-      <c r="H495" s="172"/>
-      <c r="I495" s="172"/>
-      <c r="J495" s="172"/>
-      <c r="K495" s="172"/>
+      <c r="B495" s="175"/>
+      <c r="C495" s="175"/>
+      <c r="D495" s="175"/>
+      <c r="E495" s="175"/>
+      <c r="F495" s="175"/>
+      <c r="G495" s="175"/>
+      <c r="H495" s="175"/>
+      <c r="I495" s="175"/>
+      <c r="J495" s="175"/>
+      <c r="K495" s="175"/>
       <c r="L495" s="160"/>
     </row>
     <row r="496" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -38897,17 +38948,17 @@
       <c r="D517" s="95"/>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A518" s="177"/>
-      <c r="B518" s="177"/>
-      <c r="C518" s="177"/>
-      <c r="D518" s="177"/>
-      <c r="E518" s="177"/>
-      <c r="F518" s="177"/>
-      <c r="G518" s="177"/>
-      <c r="H518" s="177"/>
-      <c r="I518" s="177"/>
-      <c r="J518" s="177"/>
-      <c r="K518" s="178"/>
+      <c r="A518" s="173"/>
+      <c r="B518" s="173"/>
+      <c r="C518" s="173"/>
+      <c r="D518" s="173"/>
+      <c r="E518" s="173"/>
+      <c r="F518" s="173"/>
+      <c r="G518" s="173"/>
+      <c r="H518" s="173"/>
+      <c r="I518" s="173"/>
+      <c r="J518" s="173"/>
+      <c r="K518" s="174"/>
       <c r="L518" s="160" t="s">
         <v>10</v>
       </c>
@@ -38918,6 +38969,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A279:K279"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A188:K188"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A271:K271"/>
+    <mergeCell ref="A413:K413"/>
+    <mergeCell ref="A287:K287"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A305:K305"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A315:K315"/>
+    <mergeCell ref="A387:K387"/>
+    <mergeCell ref="A395:K395"/>
+    <mergeCell ref="A397:K397"/>
+    <mergeCell ref="A398:K398"/>
+    <mergeCell ref="A399:K399"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A419:K419"/>
+    <mergeCell ref="A425:K425"/>
+    <mergeCell ref="A433:K433"/>
+    <mergeCell ref="A443:K443"/>
+    <mergeCell ref="A455:K455"/>
     <mergeCell ref="A495:K495"/>
     <mergeCell ref="A518:K518"/>
     <mergeCell ref="A444:K444"/>
@@ -38930,34 +39009,6 @@
     <mergeCell ref="A479:K479"/>
     <mergeCell ref="A485:K485"/>
     <mergeCell ref="A458:K458"/>
-    <mergeCell ref="A419:K419"/>
-    <mergeCell ref="A425:K425"/>
-    <mergeCell ref="A433:K433"/>
-    <mergeCell ref="A443:K443"/>
-    <mergeCell ref="A455:K455"/>
-    <mergeCell ref="A413:K413"/>
-    <mergeCell ref="A287:K287"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A305:K305"/>
-    <mergeCell ref="A314:K314"/>
-    <mergeCell ref="A315:K315"/>
-    <mergeCell ref="A387:K387"/>
-    <mergeCell ref="A395:K395"/>
-    <mergeCell ref="A397:K397"/>
-    <mergeCell ref="A398:K398"/>
-    <mergeCell ref="A399:K399"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A279:K279"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A188:K188"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A271:K271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38965,7 +39016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0499C-ECE6-4332-9D97-B01953C2C420}">
   <dimension ref="A1:U307"/>
   <sheetViews>
@@ -38986,40 +39037,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>1808</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="181" t="s">
+      <c r="L1" s="183" t="s">
         <v>1269</v>
       </c>
-      <c r="M1" s="182"/>
+      <c r="M1" s="184"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
     </row>
     <row r="3" spans="1:21" s="26" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -39226,19 +39277,19 @@
       <c r="U10" s="101"/>
     </row>
     <row r="11" spans="1:21" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="175" t="s">
         <v>1270</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
       <c r="L11" s="26"/>
       <c r="M11"/>
       <c r="N11" s="6"/>
@@ -40388,19 +40439,19 @@
       <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:14" s="101" customFormat="1" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="180" t="s">
+      <c r="A66" s="178" t="s">
         <v>1297</v>
       </c>
-      <c r="B66" s="180"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
+      <c r="B66" s="178"/>
+      <c r="C66" s="178"/>
+      <c r="D66" s="178"/>
+      <c r="E66" s="178"/>
+      <c r="F66" s="178"/>
+      <c r="G66" s="178"/>
+      <c r="H66" s="178"/>
+      <c r="I66" s="178"/>
+      <c r="J66" s="178"/>
+      <c r="K66" s="178"/>
       <c r="L66" s="26"/>
       <c r="M66"/>
       <c r="N66" s="6"/>
@@ -41248,34 +41299,34 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:21" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="183" t="s">
+      <c r="A101" s="182" t="s">
         <v>1494</v>
       </c>
-      <c r="B101" s="183"/>
-      <c r="C101" s="183"/>
-      <c r="D101" s="183"/>
-      <c r="E101" s="183"/>
-      <c r="F101" s="183"/>
-      <c r="G101" s="183"/>
-      <c r="H101" s="183"/>
-      <c r="I101" s="183"/>
-      <c r="J101" s="183"/>
+      <c r="B101" s="182"/>
+      <c r="C101" s="182"/>
+      <c r="D101" s="182"/>
+      <c r="E101" s="182"/>
+      <c r="F101" s="182"/>
+      <c r="G101" s="182"/>
+      <c r="H101" s="182"/>
+      <c r="I101" s="182"/>
+      <c r="J101" s="182"/>
       <c r="K101" s="9"/>
       <c r="L101"/>
     </row>
     <row r="102" spans="1:21" s="168" customFormat="1" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="176" t="s">
+      <c r="A102" s="177" t="s">
         <v>1809</v>
       </c>
-      <c r="B102" s="176"/>
-      <c r="C102" s="176"/>
-      <c r="D102" s="176"/>
-      <c r="E102" s="176"/>
-      <c r="F102" s="176"/>
-      <c r="G102" s="176"/>
-      <c r="H102" s="176"/>
-      <c r="I102" s="176"/>
-      <c r="J102" s="176"/>
+      <c r="B102" s="177"/>
+      <c r="C102" s="177"/>
+      <c r="D102" s="177"/>
+      <c r="E102" s="177"/>
+      <c r="F102" s="177"/>
+      <c r="G102" s="177"/>
+      <c r="H102" s="177"/>
+      <c r="I102" s="177"/>
+      <c r="J102" s="177"/>
       <c r="K102" s="169"/>
       <c r="L102"/>
     </row>
@@ -41484,19 +41535,19 @@
       <c r="U110" s="168"/>
     </row>
     <row r="111" spans="1:21" s="168" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="172" t="s">
+      <c r="A111" s="175" t="s">
         <v>1810</v>
       </c>
-      <c r="B111" s="172"/>
-      <c r="C111" s="172"/>
-      <c r="D111" s="172"/>
-      <c r="E111" s="172"/>
-      <c r="F111" s="172"/>
-      <c r="G111" s="172"/>
-      <c r="H111" s="172"/>
-      <c r="I111" s="172"/>
-      <c r="J111" s="172"/>
-      <c r="K111" s="172"/>
+      <c r="B111" s="175"/>
+      <c r="C111" s="175"/>
+      <c r="D111" s="175"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="175"/>
+      <c r="G111" s="175"/>
+      <c r="H111" s="175"/>
+      <c r="I111" s="175"/>
+      <c r="J111" s="175"/>
+      <c r="K111" s="175"/>
       <c r="L111" s="171"/>
       <c r="M111"/>
       <c r="N111" s="6"/>
@@ -42478,19 +42529,19 @@
       <c r="K153" s="22"/>
     </row>
     <row r="154" spans="1:14" s="168" customFormat="1" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="180" t="s">
+      <c r="A154" s="178" t="s">
         <v>1819</v>
       </c>
-      <c r="B154" s="180"/>
-      <c r="C154" s="180"/>
-      <c r="D154" s="180"/>
-      <c r="E154" s="180"/>
-      <c r="F154" s="180"/>
-      <c r="G154" s="180"/>
-      <c r="H154" s="180"/>
-      <c r="I154" s="180"/>
-      <c r="J154" s="180"/>
-      <c r="K154" s="180"/>
+      <c r="B154" s="178"/>
+      <c r="C154" s="178"/>
+      <c r="D154" s="178"/>
+      <c r="E154" s="178"/>
+      <c r="F154" s="178"/>
+      <c r="G154" s="178"/>
+      <c r="H154" s="178"/>
+      <c r="I154" s="178"/>
+      <c r="J154" s="178"/>
+      <c r="K154" s="178"/>
       <c r="L154" s="171"/>
       <c r="M154"/>
       <c r="N154" s="6"/>
@@ -43425,18 +43476,18 @@
       <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:21" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="176" t="s">
+      <c r="A193" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B193" s="176"/>
-      <c r="C193" s="176"/>
-      <c r="D193" s="176"/>
-      <c r="E193" s="176"/>
-      <c r="F193" s="176"/>
-      <c r="G193" s="176"/>
-      <c r="H193" s="176"/>
-      <c r="I193" s="176"/>
-      <c r="J193" s="176"/>
+      <c r="B193" s="177"/>
+      <c r="C193" s="177"/>
+      <c r="D193" s="177"/>
+      <c r="E193" s="177"/>
+      <c r="F193" s="177"/>
+      <c r="G193" s="177"/>
+      <c r="H193" s="177"/>
+      <c r="I193" s="177"/>
+      <c r="J193" s="177"/>
       <c r="K193" s="10"/>
       <c r="L193"/>
     </row>
@@ -43583,34 +43634,34 @@
       <c r="K199" s="5"/>
     </row>
     <row r="200" spans="1:21" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="183" t="s">
+      <c r="A200" s="182" t="s">
         <v>1495</v>
       </c>
-      <c r="B200" s="183"/>
-      <c r="C200" s="183"/>
-      <c r="D200" s="183"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183"/>
-      <c r="I200" s="183"/>
-      <c r="J200" s="183"/>
+      <c r="B200" s="182"/>
+      <c r="C200" s="182"/>
+      <c r="D200" s="182"/>
+      <c r="E200" s="182"/>
+      <c r="F200" s="182"/>
+      <c r="G200" s="182"/>
+      <c r="H200" s="182"/>
+      <c r="I200" s="182"/>
+      <c r="J200" s="182"/>
       <c r="K200" s="9"/>
       <c r="L200"/>
     </row>
     <row r="201" spans="1:21" s="168" customFormat="1" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="176" t="s">
+      <c r="A201" s="177" t="s">
         <v>1834</v>
       </c>
-      <c r="B201" s="176"/>
-      <c r="C201" s="176"/>
-      <c r="D201" s="176"/>
-      <c r="E201" s="176"/>
-      <c r="F201" s="176"/>
-      <c r="G201" s="176"/>
-      <c r="H201" s="176"/>
-      <c r="I201" s="176"/>
-      <c r="J201" s="176"/>
+      <c r="B201" s="177"/>
+      <c r="C201" s="177"/>
+      <c r="D201" s="177"/>
+      <c r="E201" s="177"/>
+      <c r="F201" s="177"/>
+      <c r="G201" s="177"/>
+      <c r="H201" s="177"/>
+      <c r="I201" s="177"/>
+      <c r="J201" s="177"/>
       <c r="K201" s="169"/>
       <c r="L201"/>
     </row>
@@ -43819,19 +43870,19 @@
       <c r="U209" s="168"/>
     </row>
     <row r="210" spans="1:21" s="168" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A210" s="172" t="s">
+      <c r="A210" s="175" t="s">
         <v>1835</v>
       </c>
-      <c r="B210" s="172"/>
-      <c r="C210" s="172"/>
-      <c r="D210" s="172"/>
-      <c r="E210" s="172"/>
-      <c r="F210" s="172"/>
-      <c r="G210" s="172"/>
-      <c r="H210" s="172"/>
-      <c r="I210" s="172"/>
-      <c r="J210" s="172"/>
-      <c r="K210" s="172"/>
+      <c r="B210" s="175"/>
+      <c r="C210" s="175"/>
+      <c r="D210" s="175"/>
+      <c r="E210" s="175"/>
+      <c r="F210" s="175"/>
+      <c r="G210" s="175"/>
+      <c r="H210" s="175"/>
+      <c r="I210" s="175"/>
+      <c r="J210" s="175"/>
+      <c r="K210" s="175"/>
       <c r="L210" s="171"/>
       <c r="M210"/>
       <c r="N210" s="6"/>
@@ -44813,19 +44864,19 @@
       <c r="K252" s="22"/>
     </row>
     <row r="253" spans="1:14" s="168" customFormat="1" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="180" t="s">
+      <c r="A253" s="178" t="s">
         <v>1836</v>
       </c>
-      <c r="B253" s="180"/>
-      <c r="C253" s="180"/>
-      <c r="D253" s="180"/>
-      <c r="E253" s="180"/>
-      <c r="F253" s="180"/>
-      <c r="G253" s="180"/>
-      <c r="H253" s="180"/>
-      <c r="I253" s="180"/>
-      <c r="J253" s="180"/>
-      <c r="K253" s="180"/>
+      <c r="B253" s="178"/>
+      <c r="C253" s="178"/>
+      <c r="D253" s="178"/>
+      <c r="E253" s="178"/>
+      <c r="F253" s="178"/>
+      <c r="G253" s="178"/>
+      <c r="H253" s="178"/>
+      <c r="I253" s="178"/>
+      <c r="J253" s="178"/>
+      <c r="K253" s="178"/>
       <c r="L253" s="171"/>
       <c r="M253"/>
       <c r="N253" s="6"/>
@@ -45726,18 +45777,18 @@
       <c r="K291" s="5"/>
     </row>
     <row r="292" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="176" t="s">
+      <c r="A292" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="B292" s="176"/>
-      <c r="C292" s="176"/>
-      <c r="D292" s="176"/>
-      <c r="E292" s="176"/>
-      <c r="F292" s="176"/>
-      <c r="G292" s="176"/>
-      <c r="H292" s="176"/>
-      <c r="I292" s="176"/>
-      <c r="J292" s="176"/>
+      <c r="B292" s="177"/>
+      <c r="C292" s="177"/>
+      <c r="D292" s="177"/>
+      <c r="E292" s="177"/>
+      <c r="F292" s="177"/>
+      <c r="G292" s="177"/>
+      <c r="H292" s="177"/>
+      <c r="I292" s="177"/>
+      <c r="J292" s="177"/>
       <c r="K292" s="10"/>
       <c r="L292"/>
     </row>
@@ -45883,35 +45934,35 @@
       <c r="K298" s="5"/>
     </row>
     <row r="299" spans="1:13" s="2" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="183" t="s">
+      <c r="A299" s="182" t="s">
         <v>1801</v>
       </c>
-      <c r="B299" s="183"/>
-      <c r="C299" s="183"/>
-      <c r="D299" s="183"/>
-      <c r="E299" s="183"/>
-      <c r="F299" s="183"/>
-      <c r="G299" s="183"/>
-      <c r="H299" s="183"/>
-      <c r="I299" s="183"/>
-      <c r="J299" s="183"/>
+      <c r="B299" s="182"/>
+      <c r="C299" s="182"/>
+      <c r="D299" s="182"/>
+      <c r="E299" s="182"/>
+      <c r="F299" s="182"/>
+      <c r="G299" s="182"/>
+      <c r="H299" s="182"/>
+      <c r="I299" s="182"/>
+      <c r="J299" s="182"/>
       <c r="K299" s="9"/>
       <c r="L299"/>
       <c r="M299"/>
     </row>
     <row r="300" spans="1:13" s="2" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="176" t="s">
+      <c r="A300" s="177" t="s">
         <v>1800</v>
       </c>
-      <c r="B300" s="176"/>
-      <c r="C300" s="176"/>
-      <c r="D300" s="176"/>
-      <c r="E300" s="176"/>
-      <c r="F300" s="176"/>
-      <c r="G300" s="176"/>
-      <c r="H300" s="176"/>
-      <c r="I300" s="176"/>
-      <c r="J300" s="176"/>
+      <c r="B300" s="177"/>
+      <c r="C300" s="177"/>
+      <c r="D300" s="177"/>
+      <c r="E300" s="177"/>
+      <c r="F300" s="177"/>
+      <c r="G300" s="177"/>
+      <c r="H300" s="177"/>
+      <c r="I300" s="177"/>
+      <c r="J300" s="177"/>
       <c r="K300" s="10"/>
       <c r="L300"/>
       <c r="M300"/>
@@ -45982,35 +46033,35 @@
       </c>
     </row>
     <row r="303" spans="1:13" s="168" customFormat="1" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="183" t="s">
+      <c r="A303" s="182" t="s">
         <v>1802</v>
       </c>
-      <c r="B303" s="183"/>
-      <c r="C303" s="183"/>
-      <c r="D303" s="183"/>
-      <c r="E303" s="183"/>
-      <c r="F303" s="183"/>
-      <c r="G303" s="183"/>
-      <c r="H303" s="183"/>
-      <c r="I303" s="183"/>
-      <c r="J303" s="183"/>
+      <c r="B303" s="182"/>
+      <c r="C303" s="182"/>
+      <c r="D303" s="182"/>
+      <c r="E303" s="182"/>
+      <c r="F303" s="182"/>
+      <c r="G303" s="182"/>
+      <c r="H303" s="182"/>
+      <c r="I303" s="182"/>
+      <c r="J303" s="182"/>
       <c r="K303" s="170"/>
       <c r="L303"/>
       <c r="M303"/>
     </row>
     <row r="304" spans="1:13" s="168" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="176" t="s">
+      <c r="A304" s="177" t="s">
         <v>1800</v>
       </c>
-      <c r="B304" s="176"/>
-      <c r="C304" s="176"/>
-      <c r="D304" s="176"/>
-      <c r="E304" s="176"/>
-      <c r="F304" s="176"/>
-      <c r="G304" s="176"/>
-      <c r="H304" s="176"/>
-      <c r="I304" s="176"/>
-      <c r="J304" s="176"/>
+      <c r="B304" s="177"/>
+      <c r="C304" s="177"/>
+      <c r="D304" s="177"/>
+      <c r="E304" s="177"/>
+      <c r="F304" s="177"/>
+      <c r="G304" s="177"/>
+      <c r="H304" s="177"/>
+      <c r="I304" s="177"/>
+      <c r="J304" s="177"/>
       <c r="K304" s="169"/>
       <c r="L304"/>
       <c r="M304"/>
@@ -46083,12 +46134,6 @@
     <row r="307" spans="1:11" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A304:J304"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A300:J300"/>
-    <mergeCell ref="A299:J299"/>
-    <mergeCell ref="A303:J303"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A200:J200"/>
@@ -46102,31 +46147,37 @@
     <mergeCell ref="A111:K111"/>
     <mergeCell ref="A154:K154"/>
     <mergeCell ref="A201:J201"/>
+    <mergeCell ref="A304:J304"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A300:J300"/>
+    <mergeCell ref="A299:J299"/>
+    <mergeCell ref="A303:J303"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I23:K23">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:K18">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:K123">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:K118">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222:K222">
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
@@ -46139,7 +46190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08D38C9-34BA-4DD4-8FAB-E0125A5CA3E0}">
   <dimension ref="A1:U200"/>
   <sheetViews>
@@ -46183,18 +46234,18 @@
       <c r="M1" s="187"/>
     </row>
     <row r="2" spans="1:21" s="108" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="188" t="s">
         <v>1596</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="109"/>
       <c r="L2" s="187"/>
       <c r="M2" s="187"/>
@@ -46396,19 +46447,19 @@
       <c r="U10" s="108"/>
     </row>
     <row r="11" spans="1:21" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="189" t="s">
         <v>1594</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
       <c r="L11" s="114"/>
       <c r="M11" s="110"/>
       <c r="N11" s="111"/>
@@ -47688,19 +47739,19 @@
       <c r="K79" s="147"/>
     </row>
     <row r="80" spans="1:14" s="108" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="189" t="s">
+      <c r="A80" s="190" t="s">
         <v>1606</v>
       </c>
-      <c r="B80" s="189"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="189"/>
-      <c r="E80" s="189"/>
-      <c r="F80" s="189"/>
-      <c r="G80" s="189"/>
-      <c r="H80" s="189"/>
-      <c r="I80" s="189"/>
-      <c r="J80" s="189"/>
-      <c r="K80" s="189"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+      <c r="K80" s="190"/>
       <c r="L80" s="114"/>
       <c r="M80" s="110"/>
       <c r="N80" s="111"/>
@@ -47953,19 +48004,19 @@
       <c r="K91" s="111"/>
     </row>
     <row r="92" spans="1:14" s="108" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="189" t="s">
+      <c r="A92" s="190" t="s">
         <v>1629</v>
       </c>
-      <c r="B92" s="189"/>
-      <c r="C92" s="189"/>
-      <c r="D92" s="189"/>
-      <c r="E92" s="189"/>
-      <c r="F92" s="189"/>
-      <c r="G92" s="189"/>
-      <c r="H92" s="189"/>
-      <c r="I92" s="189"/>
-      <c r="J92" s="189"/>
-      <c r="K92" s="189"/>
+      <c r="B92" s="190"/>
+      <c r="C92" s="190"/>
+      <c r="D92" s="190"/>
+      <c r="E92" s="190"/>
+      <c r="F92" s="190"/>
+      <c r="G92" s="190"/>
+      <c r="H92" s="190"/>
+      <c r="I92" s="190"/>
+      <c r="J92" s="190"/>
+      <c r="K92" s="190"/>
       <c r="L92" s="156"/>
       <c r="M92" s="110"/>
       <c r="N92" s="111"/>
@@ -48574,18 +48625,18 @@
       <c r="L122" s="110"/>
     </row>
     <row r="123" spans="1:12" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="184" t="s">
+      <c r="A123" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="B123" s="184"/>
-      <c r="C123" s="184"/>
-      <c r="D123" s="184"/>
-      <c r="E123" s="184"/>
-      <c r="F123" s="184"/>
-      <c r="G123" s="184"/>
-      <c r="H123" s="184"/>
-      <c r="I123" s="184"/>
-      <c r="J123" s="184"/>
+      <c r="B123" s="188"/>
+      <c r="C123" s="188"/>
+      <c r="D123" s="188"/>
+      <c r="E123" s="188"/>
+      <c r="F123" s="188"/>
+      <c r="G123" s="188"/>
+      <c r="H123" s="188"/>
+      <c r="I123" s="188"/>
+      <c r="J123" s="188"/>
       <c r="K123" s="109"/>
       <c r="L123" s="110"/>
     </row>
@@ -48752,18 +48803,18 @@
       <c r="L131" s="110"/>
     </row>
     <row r="132" spans="1:13" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="184" t="s">
+      <c r="A132" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="184"/>
-      <c r="C132" s="184"/>
-      <c r="D132" s="184"/>
-      <c r="E132" s="184"/>
-      <c r="F132" s="184"/>
-      <c r="G132" s="184"/>
-      <c r="H132" s="184"/>
-      <c r="I132" s="184"/>
-      <c r="J132" s="184"/>
+      <c r="B132" s="188"/>
+      <c r="C132" s="188"/>
+      <c r="D132" s="188"/>
+      <c r="E132" s="188"/>
+      <c r="F132" s="188"/>
+      <c r="G132" s="188"/>
+      <c r="H132" s="188"/>
+      <c r="I132" s="188"/>
+      <c r="J132" s="188"/>
       <c r="K132" s="109"/>
       <c r="L132" s="110"/>
     </row>
@@ -49199,18 +49250,18 @@
       <c r="M153"/>
     </row>
     <row r="154" spans="1:13" s="153" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="176" t="s">
+      <c r="A154" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="B154" s="176"/>
-      <c r="C154" s="176"/>
-      <c r="D154" s="176"/>
-      <c r="E154" s="176"/>
-      <c r="F154" s="176"/>
-      <c r="G154" s="176"/>
-      <c r="H154" s="176"/>
-      <c r="I154" s="176"/>
-      <c r="J154" s="176"/>
+      <c r="B154" s="177"/>
+      <c r="C154" s="177"/>
+      <c r="D154" s="177"/>
+      <c r="E154" s="177"/>
+      <c r="F154" s="177"/>
+      <c r="G154" s="177"/>
+      <c r="H154" s="177"/>
+      <c r="I154" s="177"/>
+      <c r="J154" s="177"/>
       <c r="K154" s="154"/>
       <c r="L154"/>
       <c r="M154"/>
@@ -49493,18 +49544,18 @@
       <c r="M167" s="110"/>
     </row>
     <row r="168" spans="1:13" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="184" t="s">
+      <c r="A168" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="184"/>
-      <c r="C168" s="184"/>
-      <c r="D168" s="184"/>
-      <c r="E168" s="184"/>
-      <c r="F168" s="184"/>
-      <c r="G168" s="184"/>
-      <c r="H168" s="184"/>
-      <c r="I168" s="184"/>
-      <c r="J168" s="184"/>
+      <c r="B168" s="188"/>
+      <c r="C168" s="188"/>
+      <c r="D168" s="188"/>
+      <c r="E168" s="188"/>
+      <c r="F168" s="188"/>
+      <c r="G168" s="188"/>
+      <c r="H168" s="188"/>
+      <c r="I168" s="188"/>
+      <c r="J168" s="188"/>
       <c r="K168" s="109"/>
       <c r="L168" s="110"/>
       <c r="M168" s="110"/>
@@ -49632,18 +49683,18 @@
       <c r="M173" s="110"/>
     </row>
     <row r="174" spans="1:13" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="184" t="s">
+      <c r="A174" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="184"/>
-      <c r="C174" s="184"/>
-      <c r="D174" s="184"/>
-      <c r="E174" s="184"/>
-      <c r="F174" s="184"/>
-      <c r="G174" s="184"/>
-      <c r="H174" s="184"/>
-      <c r="I174" s="184"/>
-      <c r="J174" s="184"/>
+      <c r="B174" s="188"/>
+      <c r="C174" s="188"/>
+      <c r="D174" s="188"/>
+      <c r="E174" s="188"/>
+      <c r="F174" s="188"/>
+      <c r="G174" s="188"/>
+      <c r="H174" s="188"/>
+      <c r="I174" s="188"/>
+      <c r="J174" s="188"/>
       <c r="K174" s="109"/>
       <c r="L174" s="110"/>
       <c r="M174" s="110"/>
@@ -49866,18 +49917,18 @@
       <c r="M183" s="110"/>
     </row>
     <row r="184" spans="1:13" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="184" t="s">
+      <c r="A184" s="188" t="s">
         <v>1500</v>
       </c>
-      <c r="B184" s="184"/>
-      <c r="C184" s="184"/>
-      <c r="D184" s="184"/>
-      <c r="E184" s="184"/>
-      <c r="F184" s="184"/>
-      <c r="G184" s="184"/>
-      <c r="H184" s="184"/>
-      <c r="I184" s="184"/>
-      <c r="J184" s="184"/>
+      <c r="B184" s="188"/>
+      <c r="C184" s="188"/>
+      <c r="D184" s="188"/>
+      <c r="E184" s="188"/>
+      <c r="F184" s="188"/>
+      <c r="G184" s="188"/>
+      <c r="H184" s="188"/>
+      <c r="I184" s="188"/>
+      <c r="J184" s="188"/>
       <c r="K184" s="109"/>
       <c r="L184" s="110"/>
       <c r="M184" s="110"/>
@@ -50094,18 +50145,18 @@
       <c r="M193" s="110"/>
     </row>
     <row r="194" spans="1:13" s="108" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="184" t="s">
+      <c r="A194" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="B194" s="184"/>
-      <c r="C194" s="184"/>
-      <c r="D194" s="184"/>
-      <c r="E194" s="184"/>
-      <c r="F194" s="184"/>
-      <c r="G194" s="184"/>
-      <c r="H194" s="184"/>
-      <c r="I194" s="184"/>
-      <c r="J194" s="184"/>
+      <c r="B194" s="188"/>
+      <c r="C194" s="188"/>
+      <c r="D194" s="188"/>
+      <c r="E194" s="188"/>
+      <c r="F194" s="188"/>
+      <c r="G194" s="188"/>
+      <c r="H194" s="188"/>
+      <c r="I194" s="188"/>
+      <c r="J194" s="188"/>
       <c r="K194" s="109"/>
       <c r="L194" s="110"/>
       <c r="M194" s="110"/>
@@ -50229,6 +50280,11 @@
     <row r="200" spans="1:13" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A174:J174"/>
+    <mergeCell ref="A183:J183"/>
+    <mergeCell ref="A184:J184"/>
+    <mergeCell ref="A193:J193"/>
+    <mergeCell ref="A194:J194"/>
     <mergeCell ref="A173:J173"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L1:M2"/>
@@ -50245,11 +50301,6 @@
     <mergeCell ref="A140:J140"/>
     <mergeCell ref="A153:J153"/>
     <mergeCell ref="A154:J154"/>
-    <mergeCell ref="A174:J174"/>
-    <mergeCell ref="A183:J183"/>
-    <mergeCell ref="A184:J184"/>
-    <mergeCell ref="A193:J193"/>
-    <mergeCell ref="A194:J194"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I29:K29">
@@ -50278,7 +50329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A668CAC-75EB-42CE-A186-C1836C9CB518}">
   <dimension ref="A1:F74"/>
   <sheetViews>
@@ -50489,10 +50540,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="178"/>
+      <c r="B23" s="174"/>
       <c r="C23" t="s">
         <v>97</v>
       </c>
@@ -50575,7 +50626,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>158</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -50588,8 +50639,8 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="191"/>
-      <c r="B31" s="193" t="s">
+      <c r="A31" s="192"/>
+      <c r="B31" s="194" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -50603,8 +50654,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="191"/>
-      <c r="B32" s="194"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="195"/>
       <c r="C32" s="17" t="s">
         <v>102</v>
       </c>
@@ -50616,8 +50667,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
-      <c r="B33" s="195"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="196"/>
       <c r="C33" s="33" t="s">
         <v>102</v>
       </c>
@@ -50629,7 +50680,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="191"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="19" t="s">
         <v>106</v>
       </c>
@@ -50640,7 +50691,7 @@
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="192"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
       </c>
@@ -50651,7 +50702,7 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="196" t="s">
+      <c r="A36" s="197" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -50666,7 +50717,7 @@
       <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="197"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="28" t="s">
         <v>178</v>
       </c>
@@ -50677,7 +50728,7 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="197"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="28" t="s">
         <v>180</v>
       </c>
@@ -50688,7 +50739,7 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="198"/>
+      <c r="A39" s="199"/>
       <c r="B39" s="29" t="s">
         <v>181</v>
       </c>
@@ -50699,7 +50750,7 @@
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="190" t="s">
+      <c r="A40" s="191" t="s">
         <v>174</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -50712,8 +50763,8 @@
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="191"/>
-      <c r="B41" s="193" t="s">
+      <c r="A41" s="192"/>
+      <c r="B41" s="194" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -50727,8 +50778,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="191"/>
-      <c r="B42" s="194"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="17" t="s">
         <v>170</v>
       </c>
@@ -50740,8 +50791,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="191"/>
-      <c r="B43" s="195"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="196"/>
       <c r="C43" s="33" t="s">
         <v>170</v>
       </c>
@@ -50753,7 +50804,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="191"/>
+      <c r="A44" s="192"/>
       <c r="B44" s="28" t="s">
         <v>159</v>
       </c>
@@ -50764,7 +50815,7 @@
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="191"/>
+      <c r="A45" s="192"/>
       <c r="B45" s="28" t="s">
         <v>18</v>
       </c>
@@ -50777,7 +50828,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="192"/>
+      <c r="A46" s="193"/>
       <c r="B46" s="29" t="s">
         <v>160</v>
       </c>
@@ -50788,7 +50839,7 @@
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="190" t="s">
+      <c r="A47" s="191" t="s">
         <v>175</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -50801,8 +50852,8 @@
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="191"/>
-      <c r="B48" s="193" t="s">
+      <c r="A48" s="192"/>
+      <c r="B48" s="194" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -50816,8 +50867,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="191"/>
-      <c r="B49" s="194"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="18" t="s">
         <v>176</v>
       </c>
@@ -50829,8 +50880,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
-      <c r="B50" s="195"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="20" t="s">
         <v>176</v>
       </c>
@@ -50842,8 +50893,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="191"/>
-      <c r="B51" s="190" t="s">
+      <c r="A51" s="192"/>
+      <c r="B51" s="191" t="s">
         <v>173</v>
       </c>
       <c r="C51" s="15"/>
@@ -50855,8 +50906,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="191"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="192"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
         <v>115</v>
@@ -50866,8 +50917,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="191"/>
-      <c r="B53" s="191"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="192"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
         <v>117</v>
@@ -50877,8 +50928,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="191"/>
-      <c r="B54" s="191"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="192"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
         <v>119</v>
@@ -50888,8 +50939,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="191"/>
-      <c r="B55" s="191"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
         <v>121</v>
@@ -50899,8 +50950,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="191"/>
-      <c r="B56" s="191"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="192"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
         <v>18</v>
@@ -50910,8 +50961,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="191"/>
-      <c r="B57" s="192"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="193"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
         <v>123</v>
@@ -50921,8 +50972,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="191"/>
-      <c r="B58" s="190" t="s">
+      <c r="A58" s="192"/>
+      <c r="B58" s="191" t="s">
         <v>161</v>
       </c>
       <c r="C58" s="15"/>
@@ -50934,8 +50985,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="191"/>
-      <c r="B59" s="191"/>
+      <c r="A59" s="192"/>
+      <c r="B59" s="192"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18" t="s">
         <v>128</v>
@@ -50945,8 +50996,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="191"/>
-      <c r="B60" s="191"/>
+      <c r="A60" s="192"/>
+      <c r="B60" s="192"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
         <v>129</v>
@@ -50956,8 +51007,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="191"/>
-      <c r="B61" s="191"/>
+      <c r="A61" s="192"/>
+      <c r="B61" s="192"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18" t="s">
         <v>130</v>
@@ -50967,8 +51018,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="191"/>
-      <c r="B62" s="191"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="192"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18" t="s">
         <v>131</v>
@@ -50978,8 +51029,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="191"/>
-      <c r="B63" s="191"/>
+      <c r="A63" s="192"/>
+      <c r="B63" s="192"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18" t="s">
         <v>135</v>
@@ -50987,8 +51038,8 @@
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="191"/>
-      <c r="B64" s="192"/>
+      <c r="A64" s="192"/>
+      <c r="B64" s="193"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
         <v>137</v>
@@ -50998,7 +51049,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="191"/>
+      <c r="A65" s="192"/>
       <c r="B65" s="27" t="s">
         <v>138</v>
       </c>
@@ -51009,7 +51060,7 @@
       <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="191"/>
+      <c r="A66" s="192"/>
       <c r="B66" s="28" t="s">
         <v>139</v>
       </c>
@@ -51020,7 +51071,7 @@
       <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="191"/>
+      <c r="A67" s="192"/>
       <c r="B67" s="28" t="s">
         <v>140</v>
       </c>
@@ -51031,7 +51082,7 @@
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="191"/>
+      <c r="A68" s="192"/>
       <c r="B68" s="28" t="s">
         <v>141</v>
       </c>
@@ -51042,7 +51093,7 @@
       <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="191"/>
+      <c r="A69" s="192"/>
       <c r="B69" s="29" t="s">
         <v>142</v>
       </c>
@@ -51053,7 +51104,7 @@
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="191"/>
+      <c r="A70" s="192"/>
       <c r="B70" s="27" t="s">
         <v>143</v>
       </c>
@@ -51064,7 +51115,7 @@
       <c r="E70" s="16"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="191"/>
+      <c r="A71" s="192"/>
       <c r="B71" s="28" t="s">
         <v>154</v>
       </c>
@@ -51075,7 +51126,7 @@
       <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="191"/>
+      <c r="A72" s="192"/>
       <c r="B72" s="28" t="s">
         <v>155</v>
       </c>
@@ -51086,7 +51137,7 @@
       <c r="E72" s="19"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="191"/>
+      <c r="A73" s="192"/>
       <c r="B73" s="28" t="s">
         <v>156</v>
       </c>
@@ -51097,7 +51148,7 @@
       <c r="E73" s="19"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="192"/>
+      <c r="A74" s="193"/>
       <c r="B74" s="29" t="s">
         <v>157</v>
       </c>
